--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\CROM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4246F295-B395-4ADB-99F5-78F1FBAACB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C93D319-D550-4990-866F-AA7C2E659240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -2845,7 +2845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
     </sheetView>
@@ -3703,7 +3703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52033-0BF0-4BCC-B911-A6BC1CA10036}">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C93D319-D550-4990-866F-AA7C2E659240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED821A06-6089-4E29-BF33-28E6730F32AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="158">
   <si>
     <t>Key</t>
   </si>
@@ -1637,39 +1637,6 @@
     <t>Cinza.Escuro</t>
   </si>
   <si>
-    <t>cor</t>
-  </si>
-  <si>
-    <t>"Vermelho"</t>
-  </si>
-  <si>
-    <t>"Verde"</t>
-  </si>
-  <si>
-    <t>"Azul"</t>
-  </si>
-  <si>
-    <t>"Transparente"</t>
-  </si>
-  <si>
-    <t>"Vermelho puro"</t>
-  </si>
-  <si>
-    <t>"Verde puro"</t>
-  </si>
-  <si>
-    <t>"Azul puro"</t>
-  </si>
-  <si>
-    <t>"Cinza claro"</t>
-  </si>
-  <si>
-    <t>"Cinza médio"</t>
-  </si>
-  <si>
-    <t>"Cinza escuro"</t>
-  </si>
-  <si>
     <t>alfa</t>
   </si>
   <si>
@@ -1697,9 +1664,6 @@
     <t>Valor del canal azul</t>
   </si>
   <si>
-    <t>Red and Green and Blue</t>
-  </si>
-  <si>
     <t>Red and Green and Blue and Alfa</t>
   </si>
   <si>
@@ -1721,12 +1685,6 @@
     <t>Paleta</t>
   </si>
   <si>
-    <t>Cinza.Escuro.A</t>
-  </si>
-  <si>
-    <t>"Cinza escuro transparente"</t>
-  </si>
-  <si>
     <t>Cor.RGB</t>
   </si>
   <si>
@@ -1743,6 +1701,42 @@
   </si>
   <si>
     <t>Puro.B</t>
+  </si>
+  <si>
+    <t>Color01</t>
+  </si>
+  <si>
+    <t>Color02</t>
+  </si>
+  <si>
+    <t>Color03</t>
+  </si>
+  <si>
+    <t>Color04</t>
+  </si>
+  <si>
+    <t>Color05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red and Green and Blue </t>
+  </si>
+  <si>
+    <t>mistura</t>
+  </si>
+  <si>
+    <t>tem.mistura some Cor.Digital</t>
+  </si>
+  <si>
+    <t>tem.red min 0  ,  tem.red max 255</t>
+  </si>
+  <si>
+    <t>tem.green min 0  ,  tem.green  max 255</t>
+  </si>
+  <si>
+    <t>tem.blue min 0  ,  tem.blue max 255</t>
+  </si>
+  <si>
+    <t>tem.alfa min 0  ,  tem.alfa  max 255</t>
   </si>
 </sst>
 </file>
@@ -2092,7 +2086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2269,9 +2263,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2845,26 +2836,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="10" width="6.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28515625" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" customWidth="1"/>
     <col min="15" max="15" width="6.42578125" customWidth="1"/>
     <col min="16" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="66" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="65" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
     <col min="20" max="20" width="5.42578125" customWidth="1"/>
     <col min="21" max="21" width="6" customWidth="1"/>
@@ -2924,7 +2919,7 @@
       <c r="Q1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="63" t="s">
         <v>92</v>
       </c>
       <c r="S1" s="26" t="s">
@@ -2951,13 +2946,13 @@
         <v>98</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>99</v>
@@ -2971,11 +2966,11 @@
       <c r="I2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>1</v>
+      <c r="J2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>154</v>
       </c>
       <c r="L2" s="34" t="str">
         <f>_xlfn.CONCAT(C2)</f>
@@ -2994,12 +2989,12 @@
         <v>Red</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="R2" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" s="64" t="s">
         <v>94</v>
       </c>
       <c r="S2" s="37" t="str">
@@ -3030,13 +3025,13 @@
         <v>98</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>100</v>
@@ -3050,11 +3045,11 @@
       <c r="I3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>1</v>
+      <c r="J3" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>155</v>
       </c>
       <c r="L3" s="34" t="str">
         <f>_xlfn.CONCAT(C3)</f>
@@ -3073,12 +3068,12 @@
         <v>Green</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="R3" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" s="64" t="s">
         <v>94</v>
       </c>
       <c r="S3" s="37" t="str">
@@ -3109,13 +3104,13 @@
         <v>98</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>101</v>
@@ -3129,11 +3124,11 @@
       <c r="I4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>1</v>
+      <c r="J4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>156</v>
       </c>
       <c r="L4" s="34" t="str">
         <f>_xlfn.CONCAT(C4)</f>
@@ -3152,12 +3147,12 @@
         <v>Blue</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="R4" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="R4" s="64" t="s">
         <v>94</v>
       </c>
       <c r="S4" s="37" t="str">
@@ -3188,13 +3183,13 @@
         <v>98</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>102</v>
@@ -3208,11 +3203,11 @@
       <c r="I5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>1</v>
+      <c r="J5" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>157</v>
       </c>
       <c r="L5" s="34" t="str">
         <f t="shared" ref="L5:L6" si="9">_xlfn.CONCAT(C5)</f>
@@ -3236,7 +3231,7 @@
       <c r="Q5" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="R5" s="65" t="s">
+      <c r="R5" s="64" t="s">
         <v>94</v>
       </c>
       <c r="S5" s="37" t="str">
@@ -3267,31 +3262,31 @@
         <v>98</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E6" s="56" t="s">
         <v>103</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="58" t="s">
+      <c r="H6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="L6" s="22" t="str">
         <f t="shared" si="9"/>
@@ -3315,7 +3310,7 @@
       <c r="Q6" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="R6" s="65" t="s">
+      <c r="R6" s="64" t="s">
         <v>94</v>
       </c>
       <c r="S6" s="37" t="str">
@@ -3346,16 +3341,16 @@
         <v>98</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E7" s="56" t="s">
         <v>103</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>1</v>
@@ -3370,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="58" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="L7" s="22" t="str">
         <f t="shared" ref="L7" si="11">_xlfn.CONCAT(C7)</f>
@@ -3389,12 +3384,12 @@
         <v>Cor.RGBA</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="R7" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" s="64" t="s">
         <v>94</v>
       </c>
       <c r="S7" s="37" t="str">
@@ -3418,6 +3413,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
     <ignoredError sqref="A1" numberStoredAsText="1"/>
@@ -3701,11 +3697,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52033-0BF0-4BCC-B911-A6BC1CA10036}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3714,16 +3710,16 @@
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="13" width="3.28515625" customWidth="1"/>
-    <col min="14" max="14" width="3" style="61" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.140625" style="54" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.5703125" style="54" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.140625" style="55" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="54" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" style="54" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="55" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" style="55" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3766,10 +3762,10 @@
       <c r="M1" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="42" t="s">
         <v>97</v>
       </c>
       <c r="P1" s="46" t="s">
@@ -3778,10 +3774,10 @@
       <c r="Q1" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="52" t="s">
         <v>97</v>
       </c>
       <c r="T1" s="42" t="s">
@@ -3793,7 +3789,7 @@
       <c r="V1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="52" t="s">
+      <c r="W1" s="46" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3802,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>99</v>
@@ -3837,19 +3833,19 @@
       <c r="M2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="P2" s="62" t="s">
+      <c r="N2" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="Q2" s="53">
+      <c r="O2" s="53">
         <v>255</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="P2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="60" t="s">
         <v>1</v>
       </c>
       <c r="S2" s="53" t="s">
@@ -3864,7 +3860,7 @@
       <c r="V2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="53" t="s">
+      <c r="W2" s="59" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3873,7 +3869,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>100</v>
@@ -3908,19 +3904,19 @@
       <c r="M3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="P3" s="62" t="s">
+      <c r="N3" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="Q3" s="53">
+      <c r="O3" s="53">
         <v>255</v>
       </c>
-      <c r="R3" s="62" t="s">
+      <c r="P3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="60" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="53" t="s">
@@ -3935,7 +3931,7 @@
       <c r="V3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="53" t="s">
+      <c r="W3" s="59" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3944,7 +3940,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>101</v>
@@ -3979,19 +3975,19 @@
       <c r="M4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="P4" s="62" t="s">
+      <c r="N4" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="Q4" s="53">
+      <c r="O4" s="53">
         <v>255</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="P4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="60" t="s">
         <v>1</v>
       </c>
       <c r="S4" s="53" t="s">
@@ -4006,7 +4002,7 @@
       <c r="V4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="W4" s="53" t="s">
+      <c r="W4" s="59" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4015,7 +4011,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>102</v>
@@ -4050,19 +4046,19 @@
       <c r="M5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="N5" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="O5" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="P5" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q5" s="53">
+      <c r="O5" s="53">
         <v>255</v>
       </c>
-      <c r="R5" s="62" t="s">
+      <c r="P5" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="60" t="s">
         <v>1</v>
       </c>
       <c r="S5" s="53" t="s">
@@ -4077,7 +4073,7 @@
       <c r="V5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="53" t="s">
+      <c r="W5" s="59" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4086,10 +4082,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>1</v>
@@ -4121,35 +4117,36 @@
       <c r="M6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="O6" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="P6" s="62" t="s">
+      <c r="N6" s="61" t="s">
         <v>118</v>
       </c>
+      <c r="O6" s="53">
+        <v>255</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>119</v>
+      </c>
       <c r="Q6" s="53">
-        <v>255</v>
-      </c>
-      <c r="R6" s="62" t="s">
-        <v>119</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="60" t="s">
+        <v>120</v>
       </c>
       <c r="S6" s="53">
         <v>0</v>
       </c>
       <c r="T6" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="U6" s="53">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U6" s="53" t="s">
+        <v>1</v>
       </c>
       <c r="V6" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="W6" s="53" t="s">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="W6" s="59" t="str">
+        <f>_xlfn.CONCAT("""",O6,".",Q6,".",S6,"""")</f>
+        <v>"255.0.0"</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4157,10 +4154,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>1</v>
@@ -4192,35 +4189,36 @@
       <c r="M7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="O7" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="P7" s="62" t="s">
+      <c r="N7" s="61" t="s">
         <v>118</v>
       </c>
+      <c r="O7" s="53">
+        <v>0</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>119</v>
+      </c>
       <c r="Q7" s="53">
+        <v>255</v>
+      </c>
+      <c r="R7" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="S7" s="53">
         <v>0</v>
       </c>
-      <c r="R7" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="S7" s="53">
-        <v>255</v>
-      </c>
       <c r="T7" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="U7" s="53">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U7" s="53" t="s">
+        <v>1</v>
       </c>
       <c r="V7" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="W7" s="53" t="s">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="W7" s="59" t="str">
+        <f t="shared" ref="W7:W16" si="0">_xlfn.CONCAT("""",O7,".",Q7,".",S7,"""")</f>
+        <v>"0.255.0"</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4228,10 +4226,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>1</v>
@@ -4263,35 +4261,36 @@
       <c r="M8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="O8" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="P8" s="62" t="s">
+      <c r="N8" s="61" t="s">
         <v>118</v>
+      </c>
+      <c r="O8" s="53">
+        <v>0</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>119</v>
       </c>
       <c r="Q8" s="53">
         <v>0</v>
       </c>
-      <c r="R8" s="62" t="s">
-        <v>119</v>
+      <c r="R8" s="60" t="s">
+        <v>120</v>
       </c>
       <c r="S8" s="53">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="T8" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="U8" s="53">
-        <v>255</v>
+        <v>1</v>
+      </c>
+      <c r="U8" s="53" t="s">
+        <v>1</v>
       </c>
       <c r="V8" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="W8" s="53" t="s">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="W8" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>"0.0.255"</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4302,7 +4301,7 @@
         <v>121</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>1</v>
@@ -4334,35 +4333,36 @@
       <c r="M9" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="O9" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="P9" s="62" t="s">
+      <c r="N9" s="61" t="s">
         <v>118</v>
+      </c>
+      <c r="O9" s="53">
+        <v>200</v>
+      </c>
+      <c r="P9" s="61" t="s">
+        <v>119</v>
       </c>
       <c r="Q9" s="53">
         <v>200</v>
       </c>
-      <c r="R9" s="62" t="s">
-        <v>119</v>
+      <c r="R9" s="60" t="s">
+        <v>120</v>
       </c>
       <c r="S9" s="53">
         <v>200</v>
       </c>
       <c r="T9" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="U9" s="53">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="U9" s="53" t="s">
+        <v>1</v>
       </c>
       <c r="V9" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="W9" s="53" t="s">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="W9" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>"200.200.200"</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4373,7 +4373,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>1</v>
@@ -4405,35 +4405,36 @@
       <c r="M10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="O10" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="P10" s="62" t="s">
+      <c r="N10" s="61" t="s">
         <v>118</v>
+      </c>
+      <c r="O10" s="53">
+        <v>120</v>
+      </c>
+      <c r="P10" s="61" t="s">
+        <v>119</v>
       </c>
       <c r="Q10" s="53">
         <v>120</v>
       </c>
-      <c r="R10" s="62" t="s">
-        <v>119</v>
+      <c r="R10" s="60" t="s">
+        <v>120</v>
       </c>
       <c r="S10" s="53">
         <v>120</v>
       </c>
       <c r="T10" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="U10" s="53">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="U10" s="53" t="s">
+        <v>1</v>
       </c>
       <c r="V10" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="W10" s="53" t="s">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="W10" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>"120.120.120"</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4444,7 +4445,7 @@
         <v>123</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>1</v>
@@ -4476,35 +4477,36 @@
       <c r="M11" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N11" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="O11" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="P11" s="62" t="s">
+      <c r="N11" s="61" t="s">
         <v>118</v>
+      </c>
+      <c r="O11" s="53">
+        <v>20</v>
+      </c>
+      <c r="P11" s="61" t="s">
+        <v>119</v>
       </c>
       <c r="Q11" s="53">
         <v>20</v>
       </c>
-      <c r="R11" s="62" t="s">
-        <v>119</v>
+      <c r="R11" s="60" t="s">
+        <v>120</v>
       </c>
       <c r="S11" s="53">
         <v>20</v>
       </c>
       <c r="T11" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="U11" s="53">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="U11" s="53" t="s">
+        <v>1</v>
       </c>
       <c r="V11" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="W11" s="53" t="s">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="W11" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>"20.20.20"</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4512,78 +4514,367 @@
         <v>12</v>
       </c>
       <c r="B12" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" s="53">
+        <v>150</v>
+      </c>
+      <c r="P12" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" s="53">
+        <v>30</v>
+      </c>
+      <c r="R12" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="S12" s="53">
+        <v>10</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="O12" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="P12" s="62" t="s">
+      <c r="W12" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>"150.30.10"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>13</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="Q12" s="53">
-        <v>20</v>
-      </c>
-      <c r="R12" s="62" t="s">
+      <c r="O13" s="53">
+        <v>150</v>
+      </c>
+      <c r="P13" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="S12" s="53">
-        <v>20</v>
-      </c>
-      <c r="T12" s="60" t="s">
+      <c r="Q13" s="53">
+        <v>40</v>
+      </c>
+      <c r="R13" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="U12" s="53">
-        <v>20</v>
-      </c>
-      <c r="V12" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="W12" s="53">
+      <c r="S13" s="53">
+        <v>10</v>
+      </c>
+      <c r="T13" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="W13" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>"150.40.10"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>14</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" s="53">
         <v>150</v>
       </c>
+      <c r="P14" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="53">
+        <v>50</v>
+      </c>
+      <c r="R14" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="S14" s="53">
+        <v>10</v>
+      </c>
+      <c r="T14" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="W14" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>"150.50.10"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>15</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" s="53">
+        <v>150</v>
+      </c>
+      <c r="P15" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" s="53">
+        <v>60</v>
+      </c>
+      <c r="R15" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="S15" s="53">
+        <v>10</v>
+      </c>
+      <c r="T15" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="W15" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>"150.60.10"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>16</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="53">
+        <v>150</v>
+      </c>
+      <c r="P16" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q16" s="53">
+        <v>70</v>
+      </c>
+      <c r="R16" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="S16" s="53">
+        <v>10</v>
+      </c>
+      <c r="T16" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="W16" s="59" t="str">
+        <f t="shared" si="0"/>
+        <v>"150.70.10"</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U2">
     <sortCondition ref="C1:C2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B12">
+  <conditionalFormatting sqref="B1:B16">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4734,9 +5025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8F746A-E335-4EC6-A94E-B3F99CFA4241}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED821A06-6089-4E29-BF33-28E6730F32AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F740BB-9BB5-4830-BCD1-6547395ADE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -1721,12 +1721,6 @@
     <t xml:space="preserve">Red and Green and Blue </t>
   </si>
   <si>
-    <t>mistura</t>
-  </si>
-  <si>
-    <t>tem.mistura some Cor.Digital</t>
-  </si>
-  <si>
     <t>tem.red min 0  ,  tem.red max 255</t>
   </si>
   <si>
@@ -1737,6 +1731,12 @@
   </si>
   <si>
     <t>tem.alfa min 0  ,  tem.alfa  max 255</t>
+  </si>
+  <si>
+    <t>rgb</t>
+  </si>
+  <si>
+    <t>tem.rgb some Cor.Digital or tem.rgba some Cor.Digital</t>
   </si>
 </sst>
 </file>
@@ -2836,9 +2836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2970,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L2" s="34" t="str">
         <f>_xlfn.CONCAT(C2)</f>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="57" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L3" s="34" t="str">
         <f>_xlfn.CONCAT(C3)</f>
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L4" s="34" t="str">
         <f>_xlfn.CONCAT(C4)</f>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L5" s="34" t="str">
         <f t="shared" ref="L5:L6" si="9">_xlfn.CONCAT(C5)</f>
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K6" s="33" t="s">
         <v>151</v>
@@ -3701,7 +3701,7 @@
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X13" sqref="X13"/>
+      <selection pane="bottomLeft" activeCell="V6" sqref="V6:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="W6" s="59" t="str">
         <f>_xlfn.CONCAT("""",O6,".",Q6,".",S6,"""")</f>
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="W7" s="59" t="str">
         <f t="shared" ref="W7:W16" si="0">_xlfn.CONCAT("""",O7,".",Q7,".",S7,"""")</f>
@@ -4286,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="W8" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="W9" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4430,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="W10" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4502,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="W11" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4574,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="W12" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="W13" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="V14" s="60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="W14" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4790,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="W15" s="59" t="str">
         <f t="shared" si="0"/>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="V16" s="60" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="W16" s="59" t="str">
         <f t="shared" si="0"/>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F740BB-9BB5-4830-BCD1-6547395ADE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BDFD43-3A16-41FD-BC95-0AADC5E90B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="156">
   <si>
     <t>Key</t>
   </si>
@@ -1482,13 +1482,7 @@
     <t>Prédio</t>
   </si>
   <si>
-    <t>P000001</t>
-  </si>
-  <si>
     <t>Cidade</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
   </si>
   <si>
     <t>Explicação</t>
@@ -1691,9 +1685,6 @@
     <t>Cor.RGBA</t>
   </si>
   <si>
-    <t>Canal.Cromo</t>
-  </si>
-  <si>
     <t>Puro.R</t>
   </si>
   <si>
@@ -1703,40 +1694,43 @@
     <t>Puro.B</t>
   </si>
   <si>
-    <t>Color01</t>
-  </si>
-  <si>
-    <t>Color02</t>
-  </si>
-  <si>
-    <t>Color03</t>
-  </si>
-  <si>
-    <t>Color04</t>
-  </si>
-  <si>
-    <t>Color05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Red and Green and Blue </t>
   </si>
   <si>
-    <t>tem.red min 0  ,  tem.red max 255</t>
-  </si>
-  <si>
-    <t>tem.green min 0  ,  tem.green  max 255</t>
-  </si>
-  <si>
-    <t>tem.blue min 0  ,  tem.blue max 255</t>
-  </si>
-  <si>
-    <t>tem.alfa min 0  ,  tem.alfa  max 255</t>
-  </si>
-  <si>
     <t>rgb</t>
   </si>
   <si>
-    <t>tem.rgb some Cor.Digital or tem.rgba some Cor.Digital</t>
+    <t>Cor.01</t>
+  </si>
+  <si>
+    <t>Cor.02</t>
+  </si>
+  <si>
+    <t>Cor.03</t>
+  </si>
+  <si>
+    <t>Cor.04</t>
+  </si>
+  <si>
+    <t>Cor.05</t>
+  </si>
+  <si>
+    <t>Canal</t>
+  </si>
+  <si>
+    <t>é.rgb some Cor.Digital or é.rgba some Cor.Digital</t>
+  </si>
+  <si>
+    <t>é.red min 0  ,  é.red max 255</t>
+  </si>
+  <si>
+    <t>é.green min 0  ,  é.green  max 255</t>
+  </si>
+  <si>
+    <t>é.blue min 0  ,  é.blue max 255</t>
+  </si>
+  <si>
+    <t>é.alfa min 0  ,  é.alfa  max 255</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2258,9 +2252,6 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2278,6 +2269,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2628,10 +2625,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2654,7 +2651,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2662,7 +2659,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2743,8 +2740,8 @@
       <c r="A13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>113</v>
+      <c r="B13" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2776,7 +2773,7 @@
         <v>59</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2784,7 +2781,8 @@
         <v>72</v>
       </c>
       <c r="B18" s="17">
-        <v>45523.511111111111</v>
+        <f ca="1">NOW()</f>
+        <v>45745.621047685185</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2800,31 +2798,31 @@
         <v>74</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2836,9 +2834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2859,7 +2857,7 @@
     <col min="14" max="14" width="6.28515625" customWidth="1"/>
     <col min="15" max="15" width="6.42578125" customWidth="1"/>
     <col min="16" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="65" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="64" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
     <col min="20" max="20" width="5.42578125" customWidth="1"/>
     <col min="21" max="21" width="6" customWidth="1"/>
@@ -2869,22 +2867,22 @@
   <sheetData>
     <row r="1" spans="1:23" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>89</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>39</v>
@@ -2914,25 +2912,25 @@
         <v>44</v>
       </c>
       <c r="P1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="S1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="26" t="s">
+      <c r="U1" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="V1" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="W1" s="27" t="s">
         <v>0</v>
@@ -2943,19 +2941,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>1</v>
@@ -2982,20 +2980,20 @@
       </c>
       <c r="N2" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>Canal.Cromo</v>
+        <v>Canal</v>
       </c>
       <c r="O2" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" s="64" t="s">
-        <v>94</v>
+        <v>128</v>
+      </c>
+      <c r="R2" s="63" t="s">
+        <v>92</v>
       </c>
       <c r="S2" s="37" t="str">
         <f t="shared" ref="S2:U6" si="1">SUBSTITUTE(C2, "_", " ")</f>
@@ -3007,10 +3005,10 @@
       </c>
       <c r="U2" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>Canal.Cromo</v>
+        <v>Canal</v>
       </c>
       <c r="V2" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W2" s="39" t="str">
         <f>CONCATENATE("Key.Croma",".",A2)</f>
@@ -3022,19 +3020,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>100</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>1</v>
@@ -3061,20 +3059,20 @@
       </c>
       <c r="N3" s="34" t="str">
         <f t="shared" ref="N3:N4" si="3">_xlfn.CONCAT("", E3)</f>
-        <v>Canal.Cromo</v>
+        <v>Canal</v>
       </c>
       <c r="O3" s="34" t="str">
         <f t="shared" ref="O3:O4" si="4">_xlfn.CONCAT("", F3)</f>
         <v>Green</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="R3" s="64" t="s">
-        <v>94</v>
+        <v>129</v>
+      </c>
+      <c r="R3" s="63" t="s">
+        <v>92</v>
       </c>
       <c r="S3" s="37" t="str">
         <f t="shared" ref="S3:S4" si="5">SUBSTITUTE(C3, "_", " ")</f>
@@ -3086,10 +3084,10 @@
       </c>
       <c r="U3" s="36" t="str">
         <f t="shared" ref="U3:U4" si="7">SUBSTITUTE(E3, "_", " ")</f>
-        <v>Canal.Cromo</v>
+        <v>Canal</v>
       </c>
       <c r="V3" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W3" s="39" t="str">
         <f t="shared" ref="W3:W6" si="8">CONCATENATE("Key.Croma",".",A3)</f>
@@ -3101,19 +3099,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>1</v>
@@ -3140,20 +3138,20 @@
       </c>
       <c r="N4" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>Canal.Cromo</v>
+        <v>Canal</v>
       </c>
       <c r="O4" s="34" t="str">
         <f t="shared" si="4"/>
         <v>Blue</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="R4" s="64" t="s">
-        <v>94</v>
+        <v>130</v>
+      </c>
+      <c r="R4" s="63" t="s">
+        <v>92</v>
       </c>
       <c r="S4" s="37" t="str">
         <f t="shared" si="5"/>
@@ -3165,10 +3163,10 @@
       </c>
       <c r="U4" s="36" t="str">
         <f t="shared" si="7"/>
-        <v>Canal.Cromo</v>
+        <v>Canal</v>
       </c>
       <c r="V4" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W4" s="39" t="str">
         <f t="shared" si="8"/>
@@ -3180,19 +3178,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>1</v>
@@ -3219,20 +3217,20 @@
       </c>
       <c r="N5" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>Canal.Cromo</v>
+        <v>Canal</v>
       </c>
       <c r="O5" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Alfa</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="R5" s="64" t="s">
-        <v>94</v>
+        <v>110</v>
+      </c>
+      <c r="R5" s="63" t="s">
+        <v>92</v>
       </c>
       <c r="S5" s="37" t="str">
         <f t="shared" si="1"/>
@@ -3244,10 +3242,10 @@
       </c>
       <c r="U5" s="36" t="str">
         <f t="shared" si="1"/>
-        <v>Canal.Cromo</v>
+        <v>Canal</v>
       </c>
       <c r="V5" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W5" s="39" t="str">
         <f t="shared" si="8"/>
@@ -3259,20 +3257,20 @@
         <v>6</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>140</v>
-      </c>
       <c r="G6" s="58" t="s">
         <v>1</v>
       </c>
@@ -3283,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="L6" s="22" t="str">
         <f t="shared" si="9"/>
@@ -3305,13 +3303,13 @@
         <v>Cor.RGB</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="R6" s="64" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>92</v>
       </c>
       <c r="S6" s="37" t="str">
         <f t="shared" si="1"/>
@@ -3326,7 +3324,7 @@
         <v>Cor.Digital</v>
       </c>
       <c r="V6" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W6" s="39" t="str">
         <f t="shared" si="8"/>
@@ -3338,20 +3336,20 @@
         <v>7</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="G7" s="58" t="s">
         <v>1</v>
       </c>
@@ -3365,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L7" s="22" t="str">
         <f t="shared" ref="L7" si="11">_xlfn.CONCAT(C7)</f>
@@ -3384,13 +3382,13 @@
         <v>Cor.RGBA</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="R7" s="64" t="s">
-        <v>94</v>
+        <v>124</v>
+      </c>
+      <c r="R7" s="63" t="s">
+        <v>92</v>
       </c>
       <c r="S7" s="37" t="str">
         <f t="shared" ref="S7" si="15">SUBSTITUTE(C7, "_", " ")</f>
@@ -3405,7 +3403,7 @@
         <v>Cor.Digital</v>
       </c>
       <c r="V7" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W7" s="39" t="str">
         <f t="shared" ref="W7" si="18">CONCATENATE("Key.Croma",".",A7)</f>
@@ -3668,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3701,7 +3699,7 @@
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V6" sqref="V6:V16"/>
+      <selection pane="bottomLeft" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3710,21 +3708,20 @@
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="13" width="3.28515625" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="54" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" style="54" customWidth="1"/>
     <col min="15" max="15" width="3.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5703125" style="54" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" style="54" customWidth="1"/>
     <col min="17" max="17" width="3.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.140625" style="55" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" style="55" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" style="55" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" style="55" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" style="55" customWidth="1"/>
+    <col min="22" max="23" width="3.42578125" style="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>49</v>
@@ -3736,61 +3733,61 @@
         <v>48</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F1" s="42" t="s">
         <v>48</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H1" s="42" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J1" s="42" t="s">
         <v>48</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L1" s="42" t="s">
         <v>48</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N1" s="46" t="s">
         <v>48</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P1" s="46" t="s">
         <v>48</v>
       </c>
       <c r="Q1" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R1" s="42" t="s">
         <v>48</v>
       </c>
       <c r="S1" s="52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="52" t="s">
-        <v>97</v>
+      <c r="U1" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="V1" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="46" t="s">
-        <v>97</v>
+      <c r="W1" s="42" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3798,10 +3795,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>1</v>
@@ -3833,34 +3830,34 @@
       <c r="M2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="61" t="s">
-        <v>118</v>
+      <c r="N2" s="60" t="s">
+        <v>116</v>
       </c>
       <c r="O2" s="53">
         <v>255</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="60" t="s">
         <v>1</v>
       </c>
       <c r="Q2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="60" t="s">
+      <c r="R2" s="59" t="s">
         <v>1</v>
       </c>
       <c r="S2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="59" t="s">
+      <c r="T2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="65" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3869,10 +3866,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>1</v>
@@ -3904,34 +3901,34 @@
       <c r="M3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="61" t="s">
-        <v>119</v>
+      <c r="N3" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="O3" s="53">
         <v>255</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="60" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="R3" s="59" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="59" t="s">
+      <c r="T3" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="65" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3940,10 +3937,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>1</v>
@@ -3975,34 +3972,34 @@
       <c r="M4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="61" t="s">
-        <v>120</v>
+      <c r="N4" s="60" t="s">
+        <v>118</v>
       </c>
       <c r="O4" s="53">
         <v>255</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="60" t="s">
         <v>1</v>
       </c>
       <c r="Q4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="59" t="s">
         <v>1</v>
       </c>
       <c r="S4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="W4" s="59" t="s">
+      <c r="T4" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="65" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4011,10 +4008,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>1</v>
@@ -4046,34 +4043,34 @@
       <c r="M5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="61" t="s">
-        <v>124</v>
+      <c r="N5" s="60" t="s">
+        <v>122</v>
       </c>
       <c r="O5" s="53">
         <v>255</v>
       </c>
-      <c r="P5" s="61" t="s">
+      <c r="P5" s="60" t="s">
         <v>1</v>
       </c>
       <c r="Q5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="60" t="s">
+      <c r="R5" s="59" t="s">
         <v>1</v>
       </c>
       <c r="S5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="59" t="s">
+      <c r="T5" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="65" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4082,10 +4079,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>1</v>
@@ -4117,36 +4114,36 @@
       <c r="M6" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="61" t="s">
-        <v>118</v>
+      <c r="N6" s="60" t="s">
+        <v>116</v>
       </c>
       <c r="O6" s="53">
         <v>255</v>
       </c>
-      <c r="P6" s="61" t="s">
-        <v>119</v>
+      <c r="P6" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="Q6" s="53">
         <v>0</v>
       </c>
-      <c r="R6" s="60" t="s">
-        <v>120</v>
+      <c r="R6" s="59" t="s">
+        <v>118</v>
       </c>
       <c r="S6" s="53">
         <v>0</v>
       </c>
-      <c r="T6" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="W6" s="59" t="str">
+      <c r="T6" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="U6" s="65" t="str">
         <f>_xlfn.CONCAT("""",O6,".",Q6,".",S6,"""")</f>
         <v>"255.0.0"</v>
+      </c>
+      <c r="V6" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="65" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4154,10 +4151,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>1</v>
@@ -4189,36 +4186,36 @@
       <c r="M7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="61" t="s">
-        <v>118</v>
+      <c r="N7" s="60" t="s">
+        <v>116</v>
       </c>
       <c r="O7" s="53">
         <v>0</v>
       </c>
-      <c r="P7" s="61" t="s">
-        <v>119</v>
+      <c r="P7" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="Q7" s="53">
         <v>255</v>
       </c>
-      <c r="R7" s="60" t="s">
-        <v>120</v>
+      <c r="R7" s="59" t="s">
+        <v>118</v>
       </c>
       <c r="S7" s="53">
         <v>0</v>
       </c>
-      <c r="T7" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U7" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="W7" s="59" t="str">
-        <f t="shared" ref="W7:W16" si="0">_xlfn.CONCAT("""",O7,".",Q7,".",S7,"""")</f>
+      <c r="T7" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="U7" s="65" t="str">
+        <f t="shared" ref="U7:U16" si="0">_xlfn.CONCAT("""",O7,".",Q7,".",S7,"""")</f>
         <v>"0.255.0"</v>
+      </c>
+      <c r="V7" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" s="65" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,10 +4223,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>1</v>
@@ -4261,36 +4258,36 @@
       <c r="M8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="61" t="s">
-        <v>118</v>
+      <c r="N8" s="60" t="s">
+        <v>116</v>
       </c>
       <c r="O8" s="53">
         <v>0</v>
       </c>
-      <c r="P8" s="61" t="s">
-        <v>119</v>
+      <c r="P8" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="Q8" s="53">
         <v>0</v>
       </c>
-      <c r="R8" s="60" t="s">
-        <v>120</v>
+      <c r="R8" s="59" t="s">
+        <v>118</v>
       </c>
       <c r="S8" s="53">
         <v>255</v>
       </c>
-      <c r="T8" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V8" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="W8" s="59" t="str">
+      <c r="T8" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="U8" s="65" t="str">
         <f t="shared" si="0"/>
         <v>"0.0.255"</v>
+      </c>
+      <c r="V8" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" s="65" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4298,10 +4295,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>1</v>
@@ -4333,36 +4330,36 @@
       <c r="M9" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="61" t="s">
-        <v>118</v>
+      <c r="N9" s="60" t="s">
+        <v>116</v>
       </c>
       <c r="O9" s="53">
         <v>200</v>
       </c>
-      <c r="P9" s="61" t="s">
-        <v>119</v>
+      <c r="P9" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="Q9" s="53">
         <v>200</v>
       </c>
-      <c r="R9" s="60" t="s">
-        <v>120</v>
+      <c r="R9" s="59" t="s">
+        <v>118</v>
       </c>
       <c r="S9" s="53">
         <v>200</v>
       </c>
-      <c r="T9" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U9" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V9" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="W9" s="59" t="str">
+      <c r="T9" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="U9" s="65" t="str">
         <f t="shared" si="0"/>
         <v>"200.200.200"</v>
+      </c>
+      <c r="V9" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" s="65" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4370,10 +4367,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>1</v>
@@ -4405,36 +4402,36 @@
       <c r="M10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="61" t="s">
-        <v>118</v>
+      <c r="N10" s="60" t="s">
+        <v>116</v>
       </c>
       <c r="O10" s="53">
         <v>120</v>
       </c>
-      <c r="P10" s="61" t="s">
-        <v>119</v>
+      <c r="P10" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="Q10" s="53">
         <v>120</v>
       </c>
-      <c r="R10" s="60" t="s">
-        <v>120</v>
+      <c r="R10" s="59" t="s">
+        <v>118</v>
       </c>
       <c r="S10" s="53">
         <v>120</v>
       </c>
-      <c r="T10" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U10" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V10" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="W10" s="59" t="str">
+      <c r="T10" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="U10" s="65" t="str">
         <f t="shared" si="0"/>
         <v>"120.120.120"</v>
+      </c>
+      <c r="V10" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" s="65" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4442,10 +4439,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>1</v>
@@ -4477,36 +4474,36 @@
       <c r="M11" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N11" s="61" t="s">
-        <v>118</v>
+      <c r="N11" s="60" t="s">
+        <v>116</v>
       </c>
       <c r="O11" s="53">
         <v>20</v>
       </c>
-      <c r="P11" s="61" t="s">
-        <v>119</v>
+      <c r="P11" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="Q11" s="53">
         <v>20</v>
       </c>
-      <c r="R11" s="60" t="s">
-        <v>120</v>
+      <c r="R11" s="59" t="s">
+        <v>118</v>
       </c>
       <c r="S11" s="53">
         <v>20</v>
       </c>
-      <c r="T11" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U11" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V11" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="W11" s="59" t="str">
+      <c r="T11" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="U11" s="65" t="str">
         <f t="shared" si="0"/>
         <v>"20.20.20"</v>
+      </c>
+      <c r="V11" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="65" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4514,10 +4511,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>1</v>
@@ -4549,36 +4546,36 @@
       <c r="M12" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N12" s="61" t="s">
-        <v>118</v>
+      <c r="N12" s="60" t="s">
+        <v>116</v>
       </c>
       <c r="O12" s="53">
         <v>150</v>
       </c>
-      <c r="P12" s="61" t="s">
-        <v>119</v>
+      <c r="P12" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="Q12" s="53">
         <v>30</v>
       </c>
-      <c r="R12" s="60" t="s">
-        <v>120</v>
+      <c r="R12" s="59" t="s">
+        <v>118</v>
       </c>
       <c r="S12" s="53">
         <v>10</v>
       </c>
-      <c r="T12" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U12" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V12" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="W12" s="59" t="str">
+      <c r="T12" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="U12" s="65" t="str">
         <f t="shared" si="0"/>
         <v>"150.30.10"</v>
+      </c>
+      <c r="V12" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" s="65" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4586,10 +4583,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="40" t="s">
         <v>1</v>
@@ -4621,36 +4618,36 @@
       <c r="M13" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="61" t="s">
-        <v>118</v>
+      <c r="N13" s="60" t="s">
+        <v>116</v>
       </c>
       <c r="O13" s="53">
         <v>150</v>
       </c>
-      <c r="P13" s="61" t="s">
-        <v>119</v>
+      <c r="P13" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="Q13" s="53">
         <v>40</v>
       </c>
-      <c r="R13" s="60" t="s">
-        <v>120</v>
+      <c r="R13" s="59" t="s">
+        <v>118</v>
       </c>
       <c r="S13" s="53">
         <v>10</v>
       </c>
-      <c r="T13" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U13" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V13" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="W13" s="59" t="str">
+      <c r="T13" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="U13" s="65" t="str">
         <f t="shared" si="0"/>
         <v>"150.40.10"</v>
+      </c>
+      <c r="V13" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" s="65" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4658,10 +4655,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>1</v>
@@ -4693,36 +4690,36 @@
       <c r="M14" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="61" t="s">
-        <v>118</v>
+      <c r="N14" s="60" t="s">
+        <v>116</v>
       </c>
       <c r="O14" s="53">
         <v>150</v>
       </c>
-      <c r="P14" s="61" t="s">
-        <v>119</v>
+      <c r="P14" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="Q14" s="53">
         <v>50</v>
       </c>
-      <c r="R14" s="60" t="s">
-        <v>120</v>
+      <c r="R14" s="59" t="s">
+        <v>118</v>
       </c>
       <c r="S14" s="53">
         <v>10</v>
       </c>
-      <c r="T14" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U14" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V14" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="W14" s="59" t="str">
+      <c r="T14" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="U14" s="65" t="str">
         <f t="shared" si="0"/>
         <v>"150.50.10"</v>
+      </c>
+      <c r="V14" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="65" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4730,10 +4727,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D15" s="40" t="s">
         <v>1</v>
@@ -4765,36 +4762,36 @@
       <c r="M15" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="61" t="s">
-        <v>118</v>
+      <c r="N15" s="60" t="s">
+        <v>116</v>
       </c>
       <c r="O15" s="53">
         <v>150</v>
       </c>
-      <c r="P15" s="61" t="s">
-        <v>119</v>
+      <c r="P15" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="Q15" s="53">
         <v>60</v>
       </c>
-      <c r="R15" s="60" t="s">
-        <v>120</v>
+      <c r="R15" s="59" t="s">
+        <v>118</v>
       </c>
       <c r="S15" s="53">
         <v>10</v>
       </c>
-      <c r="T15" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="W15" s="59" t="str">
+      <c r="T15" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="U15" s="65" t="str">
         <f t="shared" si="0"/>
         <v>"150.60.10"</v>
+      </c>
+      <c r="V15" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" s="65" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4802,10 +4799,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>1</v>
@@ -4837,36 +4834,36 @@
       <c r="M16" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="61" t="s">
-        <v>118</v>
+      <c r="N16" s="60" t="s">
+        <v>116</v>
       </c>
       <c r="O16" s="53">
         <v>150</v>
       </c>
-      <c r="P16" s="61" t="s">
-        <v>119</v>
+      <c r="P16" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="Q16" s="53">
         <v>70</v>
       </c>
-      <c r="R16" s="60" t="s">
-        <v>120</v>
+      <c r="R16" s="59" t="s">
+        <v>118</v>
       </c>
       <c r="S16" s="53">
         <v>10</v>
       </c>
-      <c r="T16" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="U16" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="V16" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="W16" s="59" t="str">
+      <c r="T16" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="U16" s="65" t="str">
         <f t="shared" si="0"/>
         <v>"150.70.10"</v>
+      </c>
+      <c r="V16" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="65" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5034,22 +5031,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BDFD43-3A16-41FD-BC95-0AADC5E90B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EFBB0F-DE09-43DE-9BB8-0A1F681581AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -2625,7 +2625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45745.621047685185</v>
+        <v>45749.326881944442</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3697,7 +3697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52033-0BF0-4BCC-B911-A6BC1CA10036}">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U6" sqref="U6"/>
     </sheetView>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EFBB0F-DE09-43DE-9BB8-0A1F681581AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1612EC-F7C4-4508-B8FA-A4DD88C0D921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Interop" sheetId="27" r:id="rId4"/>
     <sheet name="FatosIn" sheetId="30" r:id="rId5"/>
     <sheet name="ExemplosDL" sheetId="24" r:id="rId6"/>
-    <sheet name="Planilha1" sheetId="31" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="226">
   <si>
     <t>Key</t>
   </si>
@@ -1571,33 +1570,9 @@
     <t>Cor.Digital</t>
   </si>
   <si>
-    <t>Cor definida</t>
-  </si>
-  <si>
-    <t>Color definido</t>
-  </si>
-  <si>
     <t>Cromática</t>
   </si>
   <si>
-    <t>tem_red some xsd:integer[&gt;= 0 , &lt;= 255]</t>
-  </si>
-  <si>
-    <t>tem_green some xsd:integer[&gt;= 0 , &lt;= 255]</t>
-  </si>
-  <si>
-    <t>tem_blue some xsd:integer[&gt;= 0 , &lt;= 255]</t>
-  </si>
-  <si>
-    <t>tem_alfa some xsd:integer[&gt;= 0 , &lt;= 255]</t>
-  </si>
-  <si>
-    <t>Valor de transparência</t>
-  </si>
-  <si>
-    <t>Valor de transparencia</t>
-  </si>
-  <si>
     <t>Conceitos de elementos cromáticos</t>
   </si>
   <si>
@@ -1634,30 +1609,6 @@
     <t>alfa</t>
   </si>
   <si>
-    <t>Cor com transparência</t>
-  </si>
-  <si>
-    <t>Color con transparencia</t>
-  </si>
-  <si>
-    <t>Valor do canal vermelho</t>
-  </si>
-  <si>
-    <t>Valor do canal verde</t>
-  </si>
-  <si>
-    <t>Valor do canal azul</t>
-  </si>
-  <si>
-    <t>Valor del canal rojo</t>
-  </si>
-  <si>
-    <t>Valor del canal verde</t>
-  </si>
-  <si>
-    <t>Valor del canal azul</t>
-  </si>
-  <si>
     <t>Red and Green and Blue and Alfa</t>
   </si>
   <si>
@@ -1679,12 +1630,6 @@
     <t>Paleta</t>
   </si>
   <si>
-    <t>Cor.RGB</t>
-  </si>
-  <si>
-    <t>Cor.RGBA</t>
-  </si>
-  <si>
     <t>Puro.R</t>
   </si>
   <si>
@@ -1712,9 +1657,6 @@
     <t>Cor.04</t>
   </si>
   <si>
-    <t>Cor.05</t>
-  </si>
-  <si>
     <t>Canal</t>
   </si>
   <si>
@@ -1731,6 +1673,273 @@
   </si>
   <si>
     <t>é.alfa min 0  ,  é.alfa  max 255</t>
+  </si>
+  <si>
+    <t>Pantone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cor.Pantone </t>
+  </si>
+  <si>
+    <t>DNIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cor.Dnit </t>
+  </si>
+  <si>
+    <t>Pantone.116.C</t>
+  </si>
+  <si>
+    <t>Catálogo</t>
+  </si>
+  <si>
+    <t>Cores do catálogo Pantone</t>
+  </si>
+  <si>
+    <t>Cores do catálogo Direção Nacional de Tránsito do Brasil</t>
+  </si>
+  <si>
+    <t>Colores del catálogo Pantone</t>
+  </si>
+  <si>
+    <t>Pantone.370.C</t>
+  </si>
+  <si>
+    <t>Pantone.3425.C</t>
+  </si>
+  <si>
+    <t>é.usado.por</t>
+  </si>
+  <si>
+    <t>Magenta</t>
+  </si>
+  <si>
+    <t>Cyan</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>CMY</t>
+  </si>
+  <si>
+    <t>CMYB</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>RGBA</t>
+  </si>
+  <si>
+    <t>é.cyan min 0  ,  é.cyan max 255</t>
+  </si>
+  <si>
+    <t>é.magenta min 0  ,  é.magenta  max 255</t>
+  </si>
+  <si>
+    <t>é.yellow min 0  ,  é.yellow max 255</t>
+  </si>
+  <si>
+    <t>é.black min 0  ,  é.black  max 255</t>
+  </si>
+  <si>
+    <t>é.cmy some Cor.Digital or é.cmyb some Cor.Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyan and Magenta and Yellow </t>
+  </si>
+  <si>
+    <t>Cyan and Magenta and Yellow  and Black</t>
+  </si>
+  <si>
+    <t>Quantidade de ciano entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de magenta entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de amarelo entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de preto entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de vermelho entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de verde entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de azul entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de transparência entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Cor CMY digital definida</t>
+  </si>
+  <si>
+    <t>Cor CMYB digital com transparência</t>
+  </si>
+  <si>
+    <t>Cor RGB digital definida</t>
+  </si>
+  <si>
+    <t>Cor RBFA digital com transparência</t>
+  </si>
+  <si>
+    <t>Cantidad de cian entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de magenta entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de amarillo entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de negro entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de rojo entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de verde entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de azul entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de transparencia entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Conjunto de colores CMY digital</t>
+  </si>
+  <si>
+    <t>Color digital CMYB con transparencia</t>
+  </si>
+  <si>
+    <t>Conjunto de colores RGB digitales</t>
+  </si>
+  <si>
+    <t>Color RBFA digital con transparencia</t>
+  </si>
+  <si>
+    <t>Catálogo de colores de la Dirección Nacional de Tráfico de Brasil</t>
+  </si>
+  <si>
+    <t>Paleta.DNIT</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>cmyb</t>
+  </si>
+  <si>
+    <t>255.</t>
+  </si>
+  <si>
+    <t>0.</t>
+  </si>
+  <si>
+    <t>200.</t>
+  </si>
+  <si>
+    <t>120.</t>
+  </si>
+  <si>
+    <t>20.</t>
+  </si>
+  <si>
+    <t>150.</t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
+  <si>
+    <t>40.</t>
+  </si>
+  <si>
+    <t>50.</t>
+  </si>
+  <si>
+    <t>60.</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>100.</t>
+  </si>
+  <si>
+    <t>63.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>Paleta.Pantone</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>"Paleta Cromática DNIT"</t>
+  </si>
+  <si>
+    <t>"Federal"</t>
+  </si>
+  <si>
+    <t>esfera</t>
+  </si>
+  <si>
+    <t>"Paleta Cromática Pantone"</t>
+  </si>
+  <si>
+    <t>"https://pantonecolors.net"</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>descrição</t>
+  </si>
+  <si>
+    <t>"Cores utilizadas pelo DNIT para as placas da rede viária"</t>
+  </si>
+  <si>
+    <t>"Cores padronizadas no sistema Pantone"</t>
+  </si>
+  <si>
+    <t>"Azul aditivo puro"</t>
+  </si>
+  <si>
+    <t>"Verde aditivo puro"</t>
+  </si>
+  <si>
+    <t>"Vermelho aditivo puro"</t>
+  </si>
+  <si>
+    <t>"Cinza aditivo claro"</t>
+  </si>
+  <si>
+    <t>"Cinza aditivo escuro"</t>
+  </si>
+  <si>
+    <t>"Cinza aditivo médio"</t>
+  </si>
+  <si>
+    <t>é.pertencente.a</t>
   </si>
 </sst>
 </file>
@@ -2080,7 +2289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2180,9 +2389,6 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2231,12 +2437,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2258,9 +2458,6 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2273,14 +2470,14 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="18" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2307,12 +2504,22 @@
         <color theme="0"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2625,7 +2832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
@@ -2659,7 +2866,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2773,7 +2980,7 @@
         <v>59</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2782,7 +2989,7 @@
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45749.326881944442</v>
+        <v>45749.684640856482</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2814,7 +3021,7 @@
         <v>76</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2822,7 +3029,7 @@
         <v>77</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2832,11 +3039,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2847,17 +3054,17 @@
     <col min="4" max="4" width="5.28515625" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
     <col min="12" max="12" width="5.28515625" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" customWidth="1"/>
     <col min="15" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="64" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="60" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
     <col min="20" max="20" width="5.42578125" customWidth="1"/>
     <col min="21" max="21" width="6" customWidth="1"/>
@@ -2917,7 +3124,7 @@
       <c r="Q1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="62" t="s">
+      <c r="R1" s="58" t="s">
         <v>90</v>
       </c>
       <c r="S1" s="26" t="s">
@@ -2944,17 +3151,17 @@
         <v>96</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E2" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="G2" s="33" t="s">
         <v>1</v>
       </c>
@@ -2964,18 +3171,18 @@
       <c r="I2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="57" t="s">
-        <v>152</v>
+      <c r="J2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>157</v>
       </c>
       <c r="L2" s="34" t="str">
         <f>_xlfn.CONCAT(C2)</f>
         <v>Cromático</v>
       </c>
       <c r="M2" s="34" t="str">
-        <f t="shared" ref="M2:O6" si="0">_xlfn.CONCAT("", D2)</f>
+        <f t="shared" ref="M2:O12" si="0">_xlfn.CONCAT("", D2)</f>
         <v>Paleta</v>
       </c>
       <c r="N2" s="34" t="str">
@@ -2984,33 +3191,33 @@
       </c>
       <c r="O2" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>Red</v>
+        <v>Cyan</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="R2" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="R2" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="S2" s="37" t="str">
-        <f t="shared" ref="S2:U6" si="1">SUBSTITUTE(C2, "_", " ")</f>
+      <c r="S2" s="36" t="str">
+        <f t="shared" ref="S2:U12" si="1">SUBSTITUTE(C2, "_", " ")</f>
         <v>Cromático</v>
       </c>
-      <c r="T2" s="37" t="str">
+      <c r="T2" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
-      <c r="U2" s="36" t="str">
+      <c r="U2" s="35" t="str">
         <f t="shared" si="1"/>
         <v>Canal</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="W2" s="39" t="str">
+      <c r="W2" s="38" t="str">
         <f>CONCATENATE("Key.Croma",".",A2)</f>
         <v>Key.Croma.2</v>
       </c>
@@ -3023,16 +3230,16 @@
         <v>96</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>1</v>
@@ -3043,11 +3250,11 @@
       <c r="I3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>153</v>
+      <c r="J3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>158</v>
       </c>
       <c r="L3" s="34" t="str">
         <f>_xlfn.CONCAT(C3)</f>
@@ -3063,34 +3270,34 @@
       </c>
       <c r="O3" s="34" t="str">
         <f t="shared" ref="O3:O4" si="4">_xlfn.CONCAT("", F3)</f>
-        <v>Green</v>
+        <v>Magenta</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="R3" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="R3" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="37" t="str">
+      <c r="S3" s="36" t="str">
         <f t="shared" ref="S3:S4" si="5">SUBSTITUTE(C3, "_", " ")</f>
         <v>Cromático</v>
       </c>
-      <c r="T3" s="37" t="str">
+      <c r="T3" s="36" t="str">
         <f t="shared" ref="T3:T4" si="6">SUBSTITUTE(D3, "_", " ")</f>
         <v>Paleta</v>
       </c>
-      <c r="U3" s="36" t="str">
+      <c r="U3" s="35" t="str">
         <f t="shared" ref="U3:U4" si="7">SUBSTITUTE(E3, "_", " ")</f>
         <v>Canal</v>
       </c>
-      <c r="V3" s="38" t="s">
+      <c r="V3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="W3" s="39" t="str">
-        <f t="shared" ref="W3:W6" si="8">CONCATENATE("Key.Croma",".",A3)</f>
+      <c r="W3" s="38" t="str">
+        <f t="shared" ref="W3:W12" si="8">CONCATENATE("Key.Croma",".",A3)</f>
         <v>Key.Croma.3</v>
       </c>
     </row>
@@ -3102,16 +3309,16 @@
         <v>96</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>1</v>
@@ -3122,11 +3329,11 @@
       <c r="I4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>154</v>
+      <c r="J4" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>159</v>
       </c>
       <c r="L4" s="34" t="str">
         <f>_xlfn.CONCAT(C4)</f>
@@ -3142,33 +3349,33 @@
       </c>
       <c r="O4" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>Blue</v>
+        <v>Yellow</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="R4" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="R4" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="S4" s="37" t="str">
+      <c r="S4" s="36" t="str">
         <f t="shared" si="5"/>
         <v>Cromático</v>
       </c>
-      <c r="T4" s="37" t="str">
+      <c r="T4" s="36" t="str">
         <f t="shared" si="6"/>
         <v>Paleta</v>
       </c>
-      <c r="U4" s="36" t="str">
+      <c r="U4" s="35" t="str">
         <f t="shared" si="7"/>
         <v>Canal</v>
       </c>
-      <c r="V4" s="38" t="s">
+      <c r="V4" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="W4" s="39" t="str">
+      <c r="W4" s="38" t="str">
         <f t="shared" si="8"/>
         <v>Key.Croma.4</v>
       </c>
@@ -3181,16 +3388,16 @@
         <v>96</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>1</v>
@@ -3201,18 +3408,18 @@
       <c r="I5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="57" t="s">
-        <v>155</v>
+      <c r="J5" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>160</v>
       </c>
       <c r="L5" s="34" t="str">
-        <f t="shared" ref="L5:L6" si="9">_xlfn.CONCAT(C5)</f>
+        <f t="shared" ref="L5:L12" si="9">_xlfn.CONCAT(C5)</f>
         <v>Cromático</v>
       </c>
       <c r="M5" s="34" t="str">
-        <f t="shared" ref="M5:M6" si="10">_xlfn.CONCAT("", D5)</f>
+        <f t="shared" ref="M5:M12" si="10">_xlfn.CONCAT("", D5)</f>
         <v>Paleta</v>
       </c>
       <c r="N5" s="34" t="str">
@@ -3221,33 +3428,33 @@
       </c>
       <c r="O5" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>Alfa</v>
+        <v>Black</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="R5" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="R5" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="S5" s="37" t="str">
+      <c r="S5" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
-      <c r="T5" s="37" t="str">
+      <c r="T5" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
-      <c r="U5" s="36" t="str">
+      <c r="U5" s="35" t="str">
         <f t="shared" si="1"/>
         <v>Canal</v>
       </c>
-      <c r="V5" s="38" t="s">
+      <c r="V5" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="W5" s="39" t="str">
+      <c r="W5" s="38" t="str">
         <f t="shared" si="8"/>
         <v>Key.Croma.5</v>
       </c>
@@ -3256,162 +3463,797 @@
       <c r="A6" s="29">
         <v>6</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" s="34" t="str">
+        <f>_xlfn.CONCAT(C6)</f>
+        <v>Cromático</v>
+      </c>
+      <c r="M6" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Paleta</v>
+      </c>
+      <c r="N6" s="34" t="str">
+        <f t="shared" ref="N6:N11" si="11">_xlfn.CONCAT("", E6)</f>
+        <v>Canal</v>
+      </c>
+      <c r="O6" s="34" t="str">
+        <f t="shared" ref="O6:O11" si="12">_xlfn.CONCAT("", F6)</f>
+        <v>Red</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" s="36" t="str">
+        <f t="shared" ref="S6:S11" si="13">SUBSTITUTE(C6, "_", " ")</f>
+        <v>Cromático</v>
+      </c>
+      <c r="T6" s="36" t="str">
+        <f t="shared" ref="T6:T11" si="14">SUBSTITUTE(D6, "_", " ")</f>
+        <v>Paleta</v>
+      </c>
+      <c r="U6" s="35" t="str">
+        <f t="shared" ref="U6:U11" si="15">SUBSTITUTE(E6, "_", " ")</f>
+        <v>Canal</v>
+      </c>
+      <c r="V6" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="W6" s="38" t="str">
+        <f>CONCATENATE("Key.Croma",".",A6)</f>
+        <v>Key.Croma.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>7</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="34" t="str">
+        <f>_xlfn.CONCAT(C7)</f>
+        <v>Cromático</v>
+      </c>
+      <c r="M7" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Paleta</v>
+      </c>
+      <c r="N7" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v>Canal</v>
+      </c>
+      <c r="O7" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>Green</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="R7" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="36" t="str">
+        <f t="shared" si="13"/>
+        <v>Cromático</v>
+      </c>
+      <c r="T7" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v>Paleta</v>
+      </c>
+      <c r="U7" s="35" t="str">
+        <f t="shared" si="15"/>
+        <v>Canal</v>
+      </c>
+      <c r="V7" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="W7" s="38" t="str">
+        <f t="shared" ref="W7:W11" si="16">CONCATENATE("Key.Croma",".",A7)</f>
+        <v>Key.Croma.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>8</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="34" t="str">
+        <f>_xlfn.CONCAT(C8)</f>
+        <v>Cromático</v>
+      </c>
+      <c r="M8" s="34" t="str">
+        <f t="shared" si="10"/>
+        <v>Paleta</v>
+      </c>
+      <c r="N8" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v>Canal</v>
+      </c>
+      <c r="O8" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>Blue</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="R8" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" s="36" t="str">
+        <f t="shared" si="13"/>
+        <v>Cromático</v>
+      </c>
+      <c r="T8" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v>Paleta</v>
+      </c>
+      <c r="U8" s="35" t="str">
+        <f t="shared" si="15"/>
+        <v>Canal</v>
+      </c>
+      <c r="V8" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="W8" s="38" t="str">
+        <f t="shared" si="16"/>
+        <v>Key.Croma.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>9</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="56" t="s">
+      <c r="L9" s="34" t="str">
+        <f t="shared" ref="L9:L11" si="17">_xlfn.CONCAT(C9)</f>
+        <v>Cromático</v>
+      </c>
+      <c r="M9" s="34" t="str">
+        <f t="shared" ref="M9:M11" si="18">_xlfn.CONCAT("", D9)</f>
+        <v>Paleta</v>
+      </c>
+      <c r="N9" s="34" t="str">
+        <f t="shared" si="11"/>
+        <v>Canal</v>
+      </c>
+      <c r="O9" s="34" t="str">
+        <f t="shared" si="12"/>
+        <v>Alfa</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="R9" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="36" t="str">
+        <f t="shared" si="13"/>
+        <v>Cromático</v>
+      </c>
+      <c r="T9" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v>Paleta</v>
+      </c>
+      <c r="U9" s="35" t="str">
+        <f t="shared" si="15"/>
+        <v>Canal</v>
+      </c>
+      <c r="V9" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="W9" s="38" t="str">
+        <f t="shared" si="16"/>
+        <v>Key.Croma.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>10</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="L6" s="22" t="str">
+      <c r="F10" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="L10" s="22" t="str">
+        <f t="shared" si="17"/>
+        <v>Cromático</v>
+      </c>
+      <c r="M10" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v>Paleta</v>
+      </c>
+      <c r="N10" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>Cor.Digital</v>
+      </c>
+      <c r="O10" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>CMY</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="R10" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="S10" s="36" t="str">
+        <f t="shared" si="13"/>
+        <v>Cromático</v>
+      </c>
+      <c r="T10" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v>Paleta</v>
+      </c>
+      <c r="U10" s="35" t="str">
+        <f t="shared" si="15"/>
+        <v>Cor.Digital</v>
+      </c>
+      <c r="V10" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="W10" s="38" t="str">
+        <f t="shared" si="16"/>
+        <v>Key.Croma.10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>11</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="L11" s="22" t="str">
+        <f t="shared" si="17"/>
+        <v>Cromático</v>
+      </c>
+      <c r="M11" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v>Paleta</v>
+      </c>
+      <c r="N11" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>Cor.Digital</v>
+      </c>
+      <c r="O11" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v>CMYB</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="R11" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="S11" s="36" t="str">
+        <f t="shared" si="13"/>
+        <v>Cromático</v>
+      </c>
+      <c r="T11" s="36" t="str">
+        <f t="shared" si="14"/>
+        <v>Paleta</v>
+      </c>
+      <c r="U11" s="35" t="str">
+        <f t="shared" si="15"/>
+        <v>Cor.Digital</v>
+      </c>
+      <c r="V11" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="W11" s="38" t="str">
+        <f t="shared" si="16"/>
+        <v>Key.Croma.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>12</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="22" t="str">
         <f t="shared" si="9"/>
         <v>Cromático</v>
       </c>
-      <c r="M6" s="22" t="str">
+      <c r="M12" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Paleta</v>
       </c>
-      <c r="N6" s="22" t="str">
+      <c r="N12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Cor.Digital</v>
       </c>
-      <c r="O6" s="22" t="str">
+      <c r="O12" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>Cor.RGB</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R6" s="63" t="s">
+        <v>RGB</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="R12" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="S6" s="37" t="str">
+      <c r="S12" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
-      <c r="T6" s="37" t="str">
+      <c r="T12" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
-      <c r="U6" s="36" t="str">
+      <c r="U12" s="35" t="str">
         <f t="shared" si="1"/>
         <v>Cor.Digital</v>
       </c>
-      <c r="V6" s="38" t="s">
+      <c r="V12" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="W6" s="39" t="str">
+      <c r="W12" s="38" t="str">
         <f t="shared" si="8"/>
-        <v>Key.Croma.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
-        <v>7</v>
-      </c>
-      <c r="B7" s="20" t="s">
+        <v>Key.Croma.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>13</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="56" t="s">
+      <c r="C13" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="22" t="str">
+        <f t="shared" ref="L13" si="19">_xlfn.CONCAT(C13)</f>
+        <v>Cromático</v>
+      </c>
+      <c r="M13" s="22" t="str">
+        <f t="shared" ref="M13" si="20">_xlfn.CONCAT("", D13)</f>
+        <v>Paleta</v>
+      </c>
+      <c r="N13" s="22" t="str">
+        <f t="shared" ref="N13" si="21">_xlfn.CONCAT("", E13)</f>
+        <v>Cor.Digital</v>
+      </c>
+      <c r="O13" s="22" t="str">
+        <f t="shared" ref="O13" si="22">_xlfn.CONCAT("", F13)</f>
+        <v>RGBA</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="R13" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="S13" s="36" t="str">
+        <f t="shared" ref="S13" si="23">SUBSTITUTE(C13, "_", " ")</f>
+        <v>Cromático</v>
+      </c>
+      <c r="T13" s="36" t="str">
+        <f t="shared" ref="T13" si="24">SUBSTITUTE(D13, "_", " ")</f>
+        <v>Paleta</v>
+      </c>
+      <c r="U13" s="35" t="str">
+        <f t="shared" ref="U13" si="25">SUBSTITUTE(E13, "_", " ")</f>
+        <v>Cor.Digital</v>
+      </c>
+      <c r="V13" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="W13" s="38" t="str">
+        <f t="shared" ref="W13" si="26">CONCATENATE("Key.Croma",".",A13)</f>
+        <v>Key.Croma.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>14</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="F14" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="22" t="str">
+        <f t="shared" ref="L14" si="27">_xlfn.CONCAT(C14)</f>
+        <v>Cromático</v>
+      </c>
+      <c r="M14" s="22" t="str">
+        <f t="shared" ref="M14" si="28">_xlfn.CONCAT("", D14)</f>
+        <v>Catálogo</v>
+      </c>
+      <c r="N14" s="22" t="str">
+        <f t="shared" ref="N14" si="29">_xlfn.CONCAT("", E14)</f>
+        <v>Pantone</v>
+      </c>
+      <c r="O14" s="22" t="str">
+        <f t="shared" ref="O14" si="30">_xlfn.CONCAT("", F14)</f>
+        <v xml:space="preserve">Cor.Pantone </v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="R14" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" s="36" t="str">
+        <f t="shared" ref="S14" si="31">SUBSTITUTE(C14, "_", " ")</f>
+        <v>Cromático</v>
+      </c>
+      <c r="T14" s="36" t="str">
+        <f t="shared" ref="T14" si="32">SUBSTITUTE(D14, "_", " ")</f>
+        <v>Catálogo</v>
+      </c>
+      <c r="U14" s="35" t="str">
+        <f t="shared" ref="U14" si="33">SUBSTITUTE(E14, "_", " ")</f>
+        <v>Pantone</v>
+      </c>
+      <c r="V14" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="W14" s="38" t="str">
+        <f t="shared" ref="W14" si="34">CONCATENATE("Key.Croma",".",A14)</f>
+        <v>Key.Croma.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>15</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7" s="22" t="str">
-        <f t="shared" ref="L7" si="11">_xlfn.CONCAT(C7)</f>
+      <c r="F15" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="22" t="str">
+        <f t="shared" ref="L15" si="35">_xlfn.CONCAT(C15)</f>
         <v>Cromático</v>
       </c>
-      <c r="M7" s="22" t="str">
-        <f t="shared" ref="M7" si="12">_xlfn.CONCAT("", D7)</f>
-        <v>Paleta</v>
-      </c>
-      <c r="N7" s="22" t="str">
-        <f t="shared" ref="N7" si="13">_xlfn.CONCAT("", E7)</f>
-        <v>Cor.Digital</v>
-      </c>
-      <c r="O7" s="22" t="str">
-        <f t="shared" ref="O7" si="14">_xlfn.CONCAT("", F7)</f>
-        <v>Cor.RGBA</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="R7" s="63" t="s">
+      <c r="M15" s="22" t="str">
+        <f t="shared" ref="M15" si="36">_xlfn.CONCAT("", D15)</f>
+        <v>Catálogo</v>
+      </c>
+      <c r="N15" s="22" t="str">
+        <f t="shared" ref="N15" si="37">_xlfn.CONCAT("", E15)</f>
+        <v>DNIT</v>
+      </c>
+      <c r="O15" s="22" t="str">
+        <f t="shared" ref="O15" si="38">_xlfn.CONCAT("", F15)</f>
+        <v xml:space="preserve">Cor.Dnit </v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="R15" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="S7" s="37" t="str">
-        <f t="shared" ref="S7" si="15">SUBSTITUTE(C7, "_", " ")</f>
+      <c r="S15" s="36" t="str">
+        <f t="shared" ref="S15" si="39">SUBSTITUTE(C15, "_", " ")</f>
         <v>Cromático</v>
       </c>
-      <c r="T7" s="37" t="str">
-        <f t="shared" ref="T7" si="16">SUBSTITUTE(D7, "_", " ")</f>
-        <v>Paleta</v>
-      </c>
-      <c r="U7" s="36" t="str">
-        <f t="shared" ref="U7" si="17">SUBSTITUTE(E7, "_", " ")</f>
-        <v>Cor.Digital</v>
-      </c>
-      <c r="V7" s="38" t="s">
+      <c r="T15" s="36" t="str">
+        <f t="shared" ref="T15" si="40">SUBSTITUTE(D15, "_", " ")</f>
+        <v>Catálogo</v>
+      </c>
+      <c r="U15" s="35" t="str">
+        <f t="shared" ref="U15" si="41">SUBSTITUTE(E15, "_", " ")</f>
+        <v>DNIT</v>
+      </c>
+      <c r="V15" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="W7" s="39" t="str">
-        <f t="shared" ref="W7" si="18">CONCATENATE("Key.Croma",".",A7)</f>
-        <v>Key.Croma.7</v>
+      <c r="W15" s="38" t="str">
+        <f t="shared" ref="W15" si="42">CONCATENATE("Key.Croma",".",A15)</f>
+        <v>Key.Croma.15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
     <ignoredError sqref="A1" numberStoredAsText="1"/>
@@ -3438,72 +4280,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="S1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="U1" s="50" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="50">
+      <c r="A2" s="49">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3568,7 +4410,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50">
+      <c r="A3" s="49">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3662,24 +4504,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47">
-        <v>1</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>115</v>
+      <c r="A1" s="46">
+        <v>1</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>2</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3695,11 +4537,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52033-0BF0-4BCC-B911-A6BC1CA10036}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U6" sqref="U6"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3707,1163 +4549,1460 @@
     <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="13" width="3.28515625" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" style="54" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" style="54" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.42578125" style="55" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" style="55" customWidth="1"/>
-    <col min="21" max="21" width="6.5703125" style="55" customWidth="1"/>
-    <col min="22" max="23" width="3.42578125" style="66" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="11" width="3.28515625" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" style="51" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="52" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="52" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="52" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" style="52" customWidth="1"/>
+    <col min="20" max="20" width="5" style="52" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" style="52" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+    <row r="2" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>132</v>
+      <c r="B2" s="43" t="s">
+        <v>116</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="O2" s="53">
+      <c r="D2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="61">
         <v>255</v>
       </c>
-      <c r="P2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="P2" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="61" t="str">
+        <f t="shared" ref="W2:W20" si="0">_xlfn.CONCAT("""",IF(O2&lt;&gt;"null",O2,""),,IF(Q2&lt;&gt;"null",Q2,""),IF(S2&lt;&gt;"null",S2,""),IF(U2&lt;&gt;"null",U2,""),"""")</f>
+        <v>"255"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>133</v>
+      <c r="B3" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="O3" s="53">
+      <c r="D3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="61">
         <v>255</v>
       </c>
-      <c r="P3" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="P3" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>"255"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
         <v>4</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>134</v>
+      <c r="B4" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="O4" s="53">
+      <c r="D4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" s="61">
         <v>255</v>
       </c>
-      <c r="P4" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W4" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="P4" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>"255"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
         <v>5</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>135</v>
+      <c r="B5" s="43" t="s">
+        <v>119</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="60" t="s">
+      <c r="D5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="61">
+        <v>255</v>
+      </c>
+      <c r="P5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>"255"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>6</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="O5" s="53">
+      <c r="C6" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="M6" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="N6" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="P6" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="S6" s="61">
+        <v>0</v>
+      </c>
+      <c r="T6" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="W6" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>"255.0.0"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>7</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="N7" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="S7" s="61">
+        <v>0</v>
+      </c>
+      <c r="T7" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="W7" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>"0.255.0"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>8</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="61">
         <v>255</v>
       </c>
-      <c r="P5" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
-        <v>6</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="O6" s="53">
-        <v>255</v>
-      </c>
-      <c r="P6" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q6" s="53">
-        <v>0</v>
-      </c>
-      <c r="R6" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="S6" s="53">
-        <v>0</v>
-      </c>
-      <c r="T6" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="U6" s="65" t="str">
-        <f>_xlfn.CONCAT("""",O6,".",Q6,".",S6,"""")</f>
-        <v>"255.0.0"</v>
-      </c>
-      <c r="V6" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W6" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
-        <v>7</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="O7" s="53">
-        <v>0</v>
-      </c>
-      <c r="P7" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q7" s="53">
-        <v>255</v>
-      </c>
-      <c r="R7" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="S7" s="53">
-        <v>0</v>
-      </c>
-      <c r="T7" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="U7" s="65" t="str">
-        <f t="shared" ref="U7:U16" si="0">_xlfn.CONCAT("""",O7,".",Q7,".",S7,"""")</f>
-        <v>"0.255.0"</v>
-      </c>
-      <c r="V7" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W7" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
-        <v>8</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="O8" s="53">
-        <v>0</v>
-      </c>
-      <c r="P8" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q8" s="53">
-        <v>0</v>
-      </c>
-      <c r="R8" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="S8" s="53">
-        <v>255</v>
-      </c>
-      <c r="T8" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="U8" s="65" t="str">
+      <c r="T8" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="W8" s="61" t="str">
         <f t="shared" si="0"/>
         <v>"0.0.255"</v>
       </c>
-      <c r="V8" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W8" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+    </row>
+    <row r="9" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
         <v>9</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>119</v>
+      <c r="B9" s="43" t="s">
+        <v>111</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N9" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="O9" s="53">
+        <v>155</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="N9" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="R9" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" s="61">
         <v>200</v>
       </c>
-      <c r="P9" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q9" s="53">
-        <v>200</v>
-      </c>
-      <c r="R9" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="S9" s="53">
-        <v>200</v>
-      </c>
-      <c r="T9" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="U9" s="65" t="str">
+      <c r="T9" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="W9" s="61" t="str">
         <f t="shared" si="0"/>
         <v>"200.200.200"</v>
       </c>
-      <c r="V9" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W9" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+    </row>
+    <row r="10" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
         <v>10</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="M10" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="P10" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="S10" s="61">
         <v>120</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="O10" s="53">
-        <v>120</v>
-      </c>
-      <c r="P10" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q10" s="53">
-        <v>120</v>
-      </c>
-      <c r="R10" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="S10" s="53">
-        <v>120</v>
-      </c>
-      <c r="T10" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="U10" s="65" t="str">
+      <c r="T10" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="W10" s="61" t="str">
         <f t="shared" si="0"/>
         <v>"120.120.120"</v>
       </c>
-      <c r="V10" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W10" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
+    </row>
+    <row r="11" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
         <v>11</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>121</v>
+      <c r="B11" s="43" t="s">
+        <v>113</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="O11" s="53">
+        <v>155</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="M11" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="N11" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="P11" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q11" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="R11" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="S11" s="61">
         <v>20</v>
       </c>
-      <c r="P11" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q11" s="53">
-        <v>20</v>
-      </c>
-      <c r="R11" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="S11" s="53">
-        <v>20</v>
-      </c>
-      <c r="T11" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="U11" s="65" t="str">
+      <c r="T11" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="W11" s="61" t="str">
         <f t="shared" si="0"/>
         <v>"20.20.20"</v>
       </c>
-      <c r="V11" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W11" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+    </row>
+    <row r="12" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
         <v>12</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>145</v>
+      <c r="B12" s="43" t="s">
+        <v>127</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="O12" s="53">
-        <v>150</v>
-      </c>
-      <c r="P12" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q12" s="53">
-        <v>30</v>
-      </c>
-      <c r="R12" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="S12" s="53">
+        <v>155</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="P12" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="R12" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="S12" s="61">
         <v>10</v>
       </c>
-      <c r="T12" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="U12" s="65" t="str">
+      <c r="T12" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="W12" s="61" t="str">
         <f t="shared" si="0"/>
         <v>"150.30.10"</v>
       </c>
-      <c r="V12" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W12" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
+    </row>
+    <row r="13" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
         <v>13</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>146</v>
+      <c r="B13" s="43" t="s">
+        <v>128</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N13" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="O13" s="53">
-        <v>150</v>
-      </c>
-      <c r="P13" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q13" s="53">
-        <v>40</v>
-      </c>
-      <c r="R13" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="S13" s="53">
+        <v>155</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="P13" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="R13" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" s="61">
         <v>10</v>
       </c>
-      <c r="T13" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="U13" s="65" t="str">
+      <c r="T13" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="W13" s="61" t="str">
         <f t="shared" si="0"/>
         <v>"150.40.10"</v>
       </c>
-      <c r="V13" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W13" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+    </row>
+    <row r="14" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
         <v>14</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>147</v>
+      <c r="B14" s="43" t="s">
+        <v>129</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="O14" s="53">
-        <v>150</v>
-      </c>
-      <c r="P14" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q14" s="53">
-        <v>50</v>
-      </c>
-      <c r="R14" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="S14" s="53">
+        <v>155</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="P14" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="R14" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" s="61">
         <v>10</v>
       </c>
-      <c r="T14" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="U14" s="65" t="str">
+      <c r="T14" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="W14" s="61" t="str">
         <f t="shared" si="0"/>
         <v>"150.50.10"</v>
       </c>
-      <c r="V14" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W14" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+    </row>
+    <row r="15" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
         <v>15</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>148</v>
+      <c r="B15" s="43" t="s">
+        <v>130</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N15" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="O15" s="53">
-        <v>150</v>
-      </c>
-      <c r="P15" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q15" s="53">
-        <v>60</v>
-      </c>
-      <c r="R15" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="S15" s="53">
+        <v>155</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="P15" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="R15" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" s="61">
         <v>10</v>
       </c>
-      <c r="T15" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="U15" s="65" t="str">
+      <c r="T15" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="W15" s="61" t="str">
         <f t="shared" si="0"/>
         <v>"150.60.10"</v>
       </c>
-      <c r="V15" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W15" s="65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="54" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+    </row>
+    <row r="16" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
         <v>16</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>149</v>
+      <c r="B16" s="43" t="s">
+        <v>189</v>
       </c>
       <c r="C16" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="O16" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="P16" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q16" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="R16" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="S16" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="T16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>17</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="O17" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="P17" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q17" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="R17" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="S17" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="T17" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" s="61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>18</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N16" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="O16" s="53">
-        <v>150</v>
-      </c>
-      <c r="P16" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q16" s="53">
-        <v>70</v>
-      </c>
-      <c r="R16" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="S16" s="53">
-        <v>10</v>
-      </c>
-      <c r="T16" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="U16" s="65" t="str">
+      <c r="D18" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="O18" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="P18" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q18" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="R18" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="S18" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="T18" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="V18" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="W18" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>"150.70.10"</v>
-      </c>
-      <c r="V16" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="W16" s="65" t="s">
-        <v>1</v>
+        <v>"0.0.100.O"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>19</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="O19" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="P19" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q19" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="R19" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="S19" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="T19" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" s="61">
+        <v>11</v>
+      </c>
+      <c r="V19" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="W19" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>"63.23.100.11"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>20</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="O20" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="P20" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="R20" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="S20" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="T20" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" s="61">
+        <v>60</v>
+      </c>
+      <c r="V20" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="W20" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>"100.0.100.60"</v>
       </c>
     </row>
   </sheetData>
@@ -4871,8 +6010,8 @@
     <sortCondition ref="C1:C2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B16">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="B1:B20">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4883,7 +6022,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -5015,42 +6154,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8F746A-E335-4EC6-A94E-B3F99CFA4241}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1612EC-F7C4-4508-B8FA-A4DD88C0D921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9598AFAF-223E-4C9A-8050-9A3F490D5846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="228">
   <si>
     <t>Key</t>
   </si>
@@ -1645,18 +1645,6 @@
     <t>rgb</t>
   </si>
   <si>
-    <t>Cor.01</t>
-  </si>
-  <si>
-    <t>Cor.02</t>
-  </si>
-  <si>
-    <t>Cor.03</t>
-  </si>
-  <si>
-    <t>Cor.04</t>
-  </si>
-  <si>
     <t>Canal</t>
   </si>
   <si>
@@ -1918,9 +1906,6 @@
     <t>"Cores utilizadas pelo DNIT para as placas da rede viária"</t>
   </si>
   <si>
-    <t>"Cores padronizadas no sistema Pantone"</t>
-  </si>
-  <si>
     <t>"Azul aditivo puro"</t>
   </si>
   <si>
@@ -1940,6 +1925,27 @@
   </si>
   <si>
     <t>é.pertencente.a</t>
+  </si>
+  <si>
+    <t>"Cores padronizadas no sistema Pantone Matching System"</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>"Pantone"</t>
+  </si>
+  <si>
+    <t>Cor.Sub.01</t>
+  </si>
+  <si>
+    <t>Cor.Sub.02</t>
+  </si>
+  <si>
+    <t>Cor.Adi.01</t>
+  </si>
+  <si>
+    <t>Cor.Adi.02</t>
   </si>
 </sst>
 </file>
@@ -2416,9 +2422,6 @@
     <xf numFmtId="164" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2472,6 +2475,9 @@
     </xf>
     <xf numFmtId="164" fontId="18" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2833,19 +2839,19 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.28515625" style="12"/>
+    <col min="1" max="1" width="9.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="3.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
@@ -2869,7 +2875,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
@@ -2877,7 +2883,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>67</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>57</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>58</v>
       </c>
@@ -2943,7 +2949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>68</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>69</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>70</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>71</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>59</v>
       </c>
@@ -2983,16 +2989,16 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45749.684640856482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45750.278942824072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>73</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>74</v>
       </c>
@@ -3008,7 +3014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>75</v>
       </c>
@@ -3016,7 +3022,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>76</v>
       </c>
@@ -3024,7 +3030,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>77</v>
       </c>
@@ -3046,33 +3052,33 @@
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="60" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" customWidth="1"/>
+    <col min="16" max="16" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" style="59" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" customWidth="1"/>
+    <col min="20" max="20" width="5.44140625" customWidth="1"/>
     <col min="21" max="21" width="6" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.6640625" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>79</v>
       </c>
@@ -3124,7 +3130,7 @@
       <c r="Q1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="57" t="s">
         <v>90</v>
       </c>
       <c r="S1" s="26" t="s">
@@ -3143,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29">
         <v>2</v>
       </c>
@@ -3157,10 +3163,10 @@
         <v>121</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>1</v>
@@ -3171,11 +3177,11 @@
       <c r="I2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="54" t="s">
-        <v>157</v>
+      <c r="J2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>153</v>
       </c>
       <c r="L2" s="34" t="str">
         <f>_xlfn.CONCAT(C2)</f>
@@ -3194,12 +3200,12 @@
         <v>Cyan</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="R2" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S2" s="36" t="str">
@@ -3222,7 +3228,7 @@
         <v>Key.Croma.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29">
         <v>3</v>
       </c>
@@ -3236,10 +3242,10 @@
         <v>121</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>1</v>
@@ -3250,11 +3256,11 @@
       <c r="I3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="54" t="s">
-        <v>158</v>
+      <c r="J3" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>154</v>
       </c>
       <c r="L3" s="34" t="str">
         <f>_xlfn.CONCAT(C3)</f>
@@ -3273,12 +3279,12 @@
         <v>Magenta</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="R3" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="R3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S3" s="36" t="str">
@@ -3301,7 +3307,7 @@
         <v>Key.Croma.3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <v>4</v>
       </c>
@@ -3315,10 +3321,10 @@
         <v>121</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>1</v>
@@ -3329,11 +3335,11 @@
       <c r="I4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="54" t="s">
-        <v>159</v>
+      <c r="J4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>155</v>
       </c>
       <c r="L4" s="34" t="str">
         <f>_xlfn.CONCAT(C4)</f>
@@ -3352,12 +3358,12 @@
         <v>Yellow</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="R4" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="R4" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S4" s="36" t="str">
@@ -3380,7 +3386,7 @@
         <v>Key.Croma.4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>5</v>
       </c>
@@ -3394,10 +3400,10 @@
         <v>121</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>1</v>
@@ -3408,11 +3414,11 @@
       <c r="I5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="54" t="s">
-        <v>160</v>
+      <c r="J5" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>156</v>
       </c>
       <c r="L5" s="34" t="str">
         <f t="shared" ref="L5:L12" si="9">_xlfn.CONCAT(C5)</f>
@@ -3431,12 +3437,12 @@
         <v>Black</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="R5" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="R5" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S5" s="36" t="str">
@@ -3459,7 +3465,7 @@
         <v>Key.Croma.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <v>6</v>
       </c>
@@ -3473,7 +3479,7 @@
         <v>121</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>97</v>
@@ -3487,11 +3493,11 @@
       <c r="I6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="54" t="s">
-        <v>133</v>
+      <c r="J6" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>129</v>
       </c>
       <c r="L6" s="34" t="str">
         <f>_xlfn.CONCAT(C6)</f>
@@ -3510,12 +3516,12 @@
         <v>Red</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="R6" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="R6" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S6" s="36" t="str">
@@ -3538,7 +3544,7 @@
         <v>Key.Croma.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <v>7</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>121</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>98</v>
@@ -3566,11 +3572,11 @@
       <c r="I7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="54" t="s">
-        <v>134</v>
+      <c r="J7" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>130</v>
       </c>
       <c r="L7" s="34" t="str">
         <f>_xlfn.CONCAT(C7)</f>
@@ -3589,12 +3595,12 @@
         <v>Green</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="R7" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="R7" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S7" s="36" t="str">
@@ -3617,7 +3623,7 @@
         <v>Key.Croma.7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>8</v>
       </c>
@@ -3631,7 +3637,7 @@
         <v>121</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>99</v>
@@ -3645,11 +3651,11 @@
       <c r="I8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="54" t="s">
-        <v>135</v>
+      <c r="J8" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>131</v>
       </c>
       <c r="L8" s="34" t="str">
         <f>_xlfn.CONCAT(C8)</f>
@@ -3668,12 +3674,12 @@
         <v>Blue</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="R8" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="R8" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S8" s="36" t="str">
@@ -3696,7 +3702,7 @@
         <v>Key.Croma.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>9</v>
       </c>
@@ -3710,7 +3716,7 @@
         <v>121</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>100</v>
@@ -3724,11 +3730,11 @@
       <c r="I9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="54" t="s">
-        <v>136</v>
+      <c r="J9" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>132</v>
       </c>
       <c r="L9" s="34" t="str">
         <f t="shared" ref="L9:L11" si="17">_xlfn.CONCAT(C9)</f>
@@ -3747,12 +3753,12 @@
         <v>Alfa</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="R9" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S9" s="36" t="str">
@@ -3775,7 +3781,7 @@
         <v>Key.Croma.9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>10</v>
       </c>
@@ -3788,13 +3794,13 @@
       <c r="D10" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="33" t="s">
@@ -3803,11 +3809,11 @@
       <c r="I10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="55" t="s">
-        <v>161</v>
+      <c r="J10" s="54" t="s">
+        <v>157</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L10" s="22" t="str">
         <f t="shared" si="17"/>
@@ -3826,12 +3832,12 @@
         <v>CMY</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="R10" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="R10" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S10" s="36" t="str">
@@ -3854,7 +3860,7 @@
         <v>Key.Croma.10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>11</v>
       </c>
@@ -3864,29 +3870,29 @@
       <c r="C11" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>163</v>
+        <v>150</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>159</v>
       </c>
       <c r="L11" s="22" t="str">
         <f t="shared" si="17"/>
@@ -3905,12 +3911,12 @@
         <v>CMYB</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="R11" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="R11" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S11" s="36" t="str">
@@ -3933,7 +3939,7 @@
         <v>Key.Croma.11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>12</v>
       </c>
@@ -3946,13 +3952,13 @@
       <c r="D12" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="54" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="33" t="s">
@@ -3961,8 +3967,8 @@
       <c r="I12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="55" t="s">
-        <v>132</v>
+      <c r="J12" s="54" t="s">
+        <v>128</v>
       </c>
       <c r="K12" s="33" t="s">
         <v>125</v>
@@ -3984,12 +3990,12 @@
         <v>RGB</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="R12" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="R12" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S12" s="36" t="str">
@@ -4012,7 +4018,7 @@
         <v>Key.Croma.12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>13</v>
       </c>
@@ -4022,28 +4028,28 @@
       <c r="C13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="54" t="s">
         <v>115</v>
       </c>
       <c r="L13" s="22" t="str">
@@ -4063,12 +4069,12 @@
         <v>RGBA</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="R13" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="R13" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S13" s="36" t="str">
@@ -4091,7 +4097,7 @@
         <v>Key.Croma.13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>14</v>
       </c>
@@ -4101,28 +4107,28 @@
       <c r="C14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>137</v>
+      <c r="D14" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>133</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="54" t="s">
         <v>1</v>
       </c>
       <c r="L14" s="22" t="str">
@@ -4142,12 +4148,12 @@
         <v xml:space="preserve">Cor.Pantone </v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="R14" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="R14" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S14" s="36" t="str">
@@ -4170,7 +4176,7 @@
         <v>Key.Croma.14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <v>15</v>
       </c>
@@ -4180,28 +4186,28 @@
       <c r="C15" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>139</v>
+      <c r="D15" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>135</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="54" t="s">
         <v>1</v>
       </c>
       <c r="L15" s="22" t="str">
@@ -4221,12 +4227,12 @@
         <v xml:space="preserve">Cor.Dnit </v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="R15" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="R15" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S15" s="36" t="str">
@@ -4271,81 +4277,81 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.88671875" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.88671875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="50" t="s">
+      <c r="U1" s="49" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="49">
+      <c r="A2" s="48">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4410,7 +4416,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="49">
+      <c r="A3" s="48">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4493,35 +4499,35 @@
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46">
-        <v>1</v>
-      </c>
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45">
+        <v>1</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4541,41 +4547,41 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="11" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" customWidth="1"/>
+    <col min="8" max="11" width="3.33203125" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" style="51" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="52" customWidth="1"/>
-    <col min="16" max="16" width="5.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="52" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="52" customWidth="1"/>
-    <col min="19" max="19" width="24.85546875" style="52" customWidth="1"/>
-    <col min="20" max="20" width="5" style="52" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.85546875" style="52" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="3.44140625" style="50" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="51" customWidth="1"/>
+    <col min="16" max="16" width="5.33203125" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" style="51" customWidth="1"/>
+    <col min="18" max="18" width="4.44140625" style="51" customWidth="1"/>
+    <col min="19" max="19" width="25.44140625" style="51" customWidth="1"/>
+    <col min="20" max="20" width="5" style="51" customWidth="1"/>
+    <col min="21" max="21" width="5.5546875" style="51" customWidth="1"/>
+    <col min="22" max="22" width="3.88671875" style="51" customWidth="1"/>
+    <col min="23" max="23" width="7.5546875" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="41" t="s">
@@ -4608,13 +4614,13 @@
       <c r="M1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="44" t="s">
         <v>48</v>
       </c>
       <c r="O1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="44" t="s">
         <v>48</v>
       </c>
       <c r="Q1" s="41" t="s">
@@ -4639,7 +4645,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40">
         <v>2</v>
       </c>
@@ -4673,45 +4679,45 @@
       <c r="K2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="57" t="s">
+      <c r="L2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="61">
+      <c r="O2" s="60">
         <v>255</v>
       </c>
-      <c r="P2" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="61" t="str">
+      <c r="P2" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="60" t="str">
         <f t="shared" ref="W2:W20" si="0">_xlfn.CONCAT("""",IF(O2&lt;&gt;"null",O2,""),,IF(Q2&lt;&gt;"null",Q2,""),IF(S2&lt;&gt;"null",S2,""),IF(U2&lt;&gt;"null",U2,""),"""")</f>
         <v>"255"</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40">
         <v>3</v>
       </c>
@@ -4745,45 +4751,45 @@
       <c r="K3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="57" t="s">
+      <c r="L3" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="O3" s="61">
+      <c r="O3" s="60">
         <v>255</v>
       </c>
-      <c r="P3" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="61" t="str">
+      <c r="P3" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"255"</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40">
         <v>4</v>
       </c>
@@ -4817,45 +4823,45 @@
       <c r="K4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="57" t="s">
+      <c r="L4" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="60">
         <v>255</v>
       </c>
-      <c r="P4" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="W4" s="61" t="str">
+      <c r="P4" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"255"</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="40">
         <v>5</v>
       </c>
@@ -4889,45 +4895,45 @@
       <c r="K5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="57" t="s">
+      <c r="L5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="60">
         <v>255</v>
       </c>
-      <c r="P5" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="61" t="str">
+      <c r="P5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"255"</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="40">
         <v>6</v>
       </c>
@@ -4935,7 +4941,7 @@
         <v>122</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>1</v>
@@ -4961,45 +4967,45 @@
       <c r="K6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="M6" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="M6" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="P6" s="57" t="s">
+      <c r="O6" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="P6" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q6" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="R6" s="56" t="s">
+      <c r="Q6" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="R6" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="S6" s="61">
+      <c r="S6" s="60">
         <v>0</v>
       </c>
-      <c r="T6" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" s="56" t="s">
+      <c r="T6" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="W6" s="61" t="str">
+      <c r="W6" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"255.0.0"</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40">
         <v>7</v>
       </c>
@@ -5007,7 +5013,7 @@
         <v>123</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>1</v>
@@ -5033,45 +5039,45 @@
       <c r="K7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="M7" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="N7" s="57" t="s">
+      <c r="L7" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="M7" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="N7" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O7" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="P7" s="57" t="s">
+      <c r="O7" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="P7" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q7" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="R7" s="56" t="s">
+      <c r="Q7" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="R7" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="S7" s="61">
+      <c r="S7" s="60">
         <v>0</v>
       </c>
-      <c r="T7" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U7" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="56" t="s">
+      <c r="T7" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="W7" s="61" t="str">
+      <c r="W7" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"0.255.0"</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40">
         <v>8</v>
       </c>
@@ -5079,7 +5085,7 @@
         <v>124</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>1</v>
@@ -5105,45 +5111,45 @@
       <c r="K8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="M8" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="N8" s="57" t="s">
+      <c r="L8" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="N8" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="P8" s="57" t="s">
+      <c r="O8" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="P8" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q8" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="R8" s="56" t="s">
+      <c r="Q8" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="R8" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="S8" s="61">
+      <c r="S8" s="60">
         <v>255</v>
       </c>
-      <c r="T8" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V8" s="56" t="s">
+      <c r="T8" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="W8" s="61" t="str">
+      <c r="W8" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"0.0.255"</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40">
         <v>9</v>
       </c>
@@ -5151,7 +5157,7 @@
         <v>111</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>1</v>
@@ -5177,45 +5183,45 @@
       <c r="K9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="M9" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="N9" s="57" t="s">
+      <c r="L9" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="M9" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="N9" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="P9" s="57" t="s">
+      <c r="O9" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="P9" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q9" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="R9" s="56" t="s">
+      <c r="Q9" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="R9" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="S9" s="61">
+      <c r="S9" s="60">
         <v>200</v>
       </c>
-      <c r="T9" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U9" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V9" s="56" t="s">
+      <c r="T9" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="W9" s="61" t="str">
+      <c r="W9" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"200.200.200"</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40">
         <v>10</v>
       </c>
@@ -5223,7 +5229,7 @@
         <v>112</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>1</v>
@@ -5249,45 +5255,45 @@
       <c r="K10" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="M10" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="N10" s="57" t="s">
+      <c r="L10" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="M10" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="N10" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O10" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="P10" s="57" t="s">
+      <c r="O10" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q10" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="R10" s="56" t="s">
+      <c r="Q10" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="R10" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="S10" s="61">
+      <c r="S10" s="60">
         <v>120</v>
       </c>
-      <c r="T10" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U10" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V10" s="56" t="s">
+      <c r="T10" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="W10" s="61" t="str">
+      <c r="W10" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"120.120.120"</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>11</v>
       </c>
@@ -5295,7 +5301,7 @@
         <v>113</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>1</v>
@@ -5321,53 +5327,53 @@
       <c r="K11" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="M11" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="N11" s="57" t="s">
+      <c r="L11" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="M11" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="N11" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O11" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="P11" s="57" t="s">
+      <c r="O11" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q11" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="R11" s="56" t="s">
+      <c r="Q11" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="R11" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="S11" s="61">
+      <c r="S11" s="60">
         <v>20</v>
       </c>
-      <c r="T11" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U11" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V11" s="56" t="s">
+      <c r="T11" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U11" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="W11" s="61" t="str">
+      <c r="W11" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"20.20.20"</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>12</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>1</v>
@@ -5399,47 +5405,47 @@
       <c r="M12" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N12" s="57" t="s">
+      <c r="N12" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="P12" s="57" t="s">
+      <c r="O12" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="P12" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q12" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="R12" s="56" t="s">
+      <c r="Q12" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="R12" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="61">
+      <c r="S12" s="60">
         <v>10</v>
       </c>
-      <c r="T12" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U12" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V12" s="56" t="s">
+      <c r="T12" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="W12" s="61" t="str">
+      <c r="W12" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"150.30.10"</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>13</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>1</v>
@@ -5471,47 +5477,47 @@
       <c r="M13" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="57" t="s">
+      <c r="N13" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O13" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="P13" s="57" t="s">
+      <c r="O13" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="P13" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q13" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="R13" s="56" t="s">
+      <c r="Q13" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="R13" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="S13" s="61">
+      <c r="S13" s="60">
         <v>10</v>
       </c>
-      <c r="T13" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U13" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V13" s="56" t="s">
+      <c r="T13" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="W13" s="61" t="str">
+      <c r="W13" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"150.40.10"</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>14</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>1</v>
@@ -5543,47 +5549,47 @@
       <c r="M14" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="57" t="s">
+      <c r="N14" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O14" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="P14" s="57" t="s">
+      <c r="O14" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q14" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="R14" s="56" t="s">
+      <c r="Q14" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="R14" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="S14" s="61">
+      <c r="S14" s="60">
         <v>10</v>
       </c>
-      <c r="T14" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U14" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V14" s="56" t="s">
+      <c r="T14" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="W14" s="61" t="str">
+      <c r="W14" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"150.50.10"</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>15</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>1</v>
@@ -5615,47 +5621,47 @@
       <c r="M15" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="57" t="s">
+      <c r="N15" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="61" t="s">
+      <c r="O15" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="P15" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="P15" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q15" s="61" t="s">
-        <v>202</v>
-      </c>
-      <c r="R15" s="56" t="s">
+      <c r="R15" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="S15" s="61">
+      <c r="S15" s="60">
         <v>10</v>
       </c>
-      <c r="T15" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U15" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" s="56" t="s">
+      <c r="T15" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U15" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="W15" s="61" t="str">
+      <c r="W15" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"150.60.10"</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>16</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>1</v>
@@ -5687,46 +5693,46 @@
       <c r="M16" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="O16" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="P16" s="56" t="s">
+      <c r="N16" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="O16" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="R16" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="Q16" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="R16" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="S16" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="T16" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U16" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V16" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="W16" s="61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="T16" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V16" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>17</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>1</v>
@@ -5758,58 +5764,58 @@
       <c r="M17" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N17" s="56" t="s">
+      <c r="N17" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="O17" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="O17" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="P17" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q17" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="R17" s="56" t="s">
-        <v>216</v>
-      </c>
-      <c r="S17" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="T17" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U17" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="V17" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="W17" s="61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" s="51" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="R17" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="S17" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="T17" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="U17" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="V17" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>18</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>207</v>
+        <v>220</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>203</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="62" t="s">
-        <v>189</v>
+        <v>144</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>185</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>1</v>
@@ -5829,59 +5835,59 @@
       <c r="M18" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N18" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="O18" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="P18" s="57" t="s">
+      <c r="N18" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="O18" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="Q18" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="R18" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="S18" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="T18" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U18" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="V18" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="W18" s="61" t="str">
+      <c r="P18" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="R18" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="S18" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="T18" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="V18" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="W18" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"0.0.100.O"</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>19</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>207</v>
+        <v>220</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>203</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>189</v>
+        <v>144</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>185</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>1</v>
@@ -5901,59 +5907,59 @@
       <c r="M19" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="O19" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="P19" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q19" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="R19" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="S19" s="61" t="s">
+      <c r="N19" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="T19" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U19" s="61">
+      <c r="O19" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="P19" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q19" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="R19" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="S19" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="T19" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" s="60">
         <v>11</v>
       </c>
-      <c r="V19" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="W19" s="61" t="str">
+      <c r="V19" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="W19" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"63.23.100.11"</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>20</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>207</v>
+        <v>220</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>203</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>189</v>
+        <v>144</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>185</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>1</v>
@@ -5973,34 +5979,34 @@
       <c r="M20" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N20" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="O20" s="61" t="s">
+      <c r="N20" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="P20" s="57" t="s">
+      <c r="O20" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="P20" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q20" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="Q20" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="R20" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="S20" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="T20" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U20" s="61">
+      <c r="R20" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="S20" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="T20" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" s="60">
         <v>60</v>
       </c>
-      <c r="V20" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="W20" s="61" t="str">
+      <c r="V20" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="W20" s="60" t="str">
         <f t="shared" si="0"/>
         <v>"100.0.100.60"</v>
       </c>
@@ -6011,7 +6017,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B20">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6025,11 +6031,11 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="7.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="2.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5546875" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6040,7 +6046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -6048,7 +6054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -6056,7 +6062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -6064,7 +6070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="86.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>5</v>
       </c>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9598AFAF-223E-4C9A-8050-9A3F490D5846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B139C56-CB36-43D7-9C24-3E1B6BEF3298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -1777,9 +1777,6 @@
     <t>Cor RGB digital definida</t>
   </si>
   <si>
-    <t>Cor RBFA digital com transparência</t>
-  </si>
-  <si>
     <t>Cantidad de cian entre 0 y 255</t>
   </si>
   <si>
@@ -1813,9 +1810,6 @@
     <t>Conjunto de colores RGB digitales</t>
   </si>
   <si>
-    <t>Color RBFA digital con transparencia</t>
-  </si>
-  <si>
     <t>Catálogo de colores de la Dirección Nacional de Tráfico de Brasil</t>
   </si>
   <si>
@@ -1946,6 +1940,12 @@
   </si>
   <si>
     <t>Cor.Adi.02</t>
+  </si>
+  <si>
+    <t>Cor RGBA digital com transparência</t>
+  </si>
+  <si>
+    <t>Color RGBA digital con transparencia</t>
   </si>
 </sst>
 </file>
@@ -2838,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45750.278942824072</v>
+        <v>45751.621516550927</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3047,9 +3047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3069,8 +3069,8 @@
     <col min="14" max="14" width="6.33203125" customWidth="1"/>
     <col min="15" max="15" width="6.44140625" customWidth="1"/>
     <col min="16" max="16" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" style="59" customWidth="1"/>
+    <col min="17" max="17" width="28.6640625" customWidth="1"/>
+    <col min="18" max="18" width="3.77734375" style="59" customWidth="1"/>
     <col min="19" max="19" width="5.109375" customWidth="1"/>
     <col min="20" max="20" width="5.44140625" customWidth="1"/>
     <col min="21" max="21" width="6" customWidth="1"/>
@@ -3203,7 +3203,7 @@
         <v>160</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R2" s="58" t="s">
         <v>92</v>
@@ -3282,7 +3282,7 @@
         <v>161</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R3" s="58" t="s">
         <v>92</v>
@@ -3361,7 +3361,7 @@
         <v>162</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R4" s="58" t="s">
         <v>92</v>
@@ -3440,7 +3440,7 @@
         <v>163</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R5" s="58" t="s">
         <v>92</v>
@@ -3519,7 +3519,7 @@
         <v>164</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R6" s="58" t="s">
         <v>92</v>
@@ -3598,7 +3598,7 @@
         <v>165</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R7" s="58" t="s">
         <v>92</v>
@@ -3677,7 +3677,7 @@
         <v>166</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R8" s="58" t="s">
         <v>92</v>
@@ -3756,7 +3756,7 @@
         <v>167</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R9" s="58" t="s">
         <v>92</v>
@@ -3835,7 +3835,7 @@
         <v>168</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R10" s="58" t="s">
         <v>92</v>
@@ -3914,7 +3914,7 @@
         <v>169</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R11" s="58" t="s">
         <v>92</v>
@@ -3993,7 +3993,7 @@
         <v>170</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R12" s="58" t="s">
         <v>92</v>
@@ -4069,10 +4069,10 @@
         <v>RGBA</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="R13" s="58" t="s">
         <v>92</v>
@@ -4230,7 +4230,7 @@
         <v>140</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R15" s="58" t="s">
         <v>92</v>
@@ -4968,22 +4968,22 @@
         <v>1</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M6" s="60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N6" s="56" t="s">
         <v>108</v>
       </c>
       <c r="O6" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P6" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q6" s="60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R6" s="55" t="s">
         <v>110</v>
@@ -5040,22 +5040,22 @@
         <v>1</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M7" s="60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N7" s="56" t="s">
         <v>108</v>
       </c>
       <c r="O7" s="60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P7" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q7" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R7" s="55" t="s">
         <v>110</v>
@@ -5112,22 +5112,22 @@
         <v>1</v>
       </c>
       <c r="L8" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="M8" s="60" t="s">
         <v>212</v>
-      </c>
-      <c r="M8" s="60" t="s">
-        <v>214</v>
       </c>
       <c r="N8" s="56" t="s">
         <v>108</v>
       </c>
       <c r="O8" s="60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P8" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q8" s="60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R8" s="55" t="s">
         <v>110</v>
@@ -5184,22 +5184,22 @@
         <v>1</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M9" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N9" s="56" t="s">
         <v>108</v>
       </c>
       <c r="O9" s="60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P9" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q9" s="60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R9" s="55" t="s">
         <v>110</v>
@@ -5256,22 +5256,22 @@
         <v>1</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M10" s="60" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N10" s="56" t="s">
         <v>108</v>
       </c>
       <c r="O10" s="60" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P10" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q10" s="60" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R10" s="55" t="s">
         <v>110</v>
@@ -5328,22 +5328,22 @@
         <v>1</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M11" s="60" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N11" s="56" t="s">
         <v>108</v>
       </c>
       <c r="O11" s="60" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P11" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q11" s="60" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R11" s="55" t="s">
         <v>110</v>
@@ -5370,7 +5370,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>151</v>
@@ -5409,13 +5409,13 @@
         <v>108</v>
       </c>
       <c r="O12" s="60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P12" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q12" s="60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R12" s="55" t="s">
         <v>110</v>
@@ -5442,7 +5442,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>151</v>
@@ -5481,13 +5481,13 @@
         <v>108</v>
       </c>
       <c r="O13" s="60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P13" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q13" s="60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R13" s="55" t="s">
         <v>110</v>
@@ -5514,7 +5514,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>149</v>
@@ -5553,13 +5553,13 @@
         <v>108</v>
       </c>
       <c r="O14" s="60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P14" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q14" s="60" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R14" s="55" t="s">
         <v>110</v>
@@ -5586,7 +5586,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>149</v>
@@ -5625,13 +5625,13 @@
         <v>108</v>
       </c>
       <c r="O15" s="60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P15" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q15" s="60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R15" s="55" t="s">
         <v>110</v>
@@ -5658,7 +5658,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>138</v>
@@ -5694,22 +5694,22 @@
         <v>1</v>
       </c>
       <c r="N16" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="O16" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q16" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="O16" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="P16" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q16" s="60" t="s">
-        <v>207</v>
-      </c>
       <c r="R16" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="T16" s="55" t="s">
         <v>1</v>
@@ -5729,7 +5729,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>138</v>
@@ -5765,28 +5765,28 @@
         <v>1</v>
       </c>
       <c r="N17" s="55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O17" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="P17" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="P17" s="55" t="s">
-        <v>211</v>
-      </c>
       <c r="Q17" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="R17" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="R17" s="55" t="s">
-        <v>212</v>
-      </c>
       <c r="S17" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="T17" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="U17" s="60" t="s">
         <v>221</v>
-      </c>
-      <c r="T17" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="U17" s="60" t="s">
-        <v>223</v>
       </c>
       <c r="V17" s="55" t="s">
         <v>1</v>
@@ -5806,61 +5806,61 @@
         <v>134</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>144</v>
       </c>
       <c r="G18" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="O18" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="P18" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="R18" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="H18" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="O18" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="P18" s="56" t="s">
+      <c r="S18" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="T18" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="V18" s="55" t="s">
         <v>186</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="R18" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="S18" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="T18" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="U18" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="V18" s="55" t="s">
-        <v>188</v>
       </c>
       <c r="W18" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5878,52 +5878,52 @@
         <v>134</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F19" s="39" t="s">
         <v>144</v>
       </c>
       <c r="G19" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="O19" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="P19" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="R19" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="H19" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="O19" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="P19" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q19" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="R19" s="55" t="s">
-        <v>187</v>
-      </c>
       <c r="S19" s="60" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T19" s="55" t="s">
         <v>1</v>
@@ -5932,7 +5932,7 @@
         <v>11</v>
       </c>
       <c r="V19" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="W19" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5950,52 +5950,52 @@
         <v>134</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F20" s="39" t="s">
         <v>144</v>
       </c>
       <c r="G20" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="O20" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="R20" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="H20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="O20" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="P20" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q20" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="R20" s="55" t="s">
-        <v>187</v>
-      </c>
       <c r="S20" s="60" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T20" s="55" t="s">
         <v>1</v>
@@ -6004,7 +6004,7 @@
         <v>60</v>
       </c>
       <c r="V20" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="W20" s="60" t="str">
         <f t="shared" si="0"/>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B139C56-CB36-43D7-9C24-3E1B6BEF3298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA25B9-6AEC-4914-B82D-C12E86C496F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -1684,9 +1684,6 @@
     <t>Cores do catálogo Pantone</t>
   </si>
   <si>
-    <t>Cores do catálogo Direção Nacional de Tránsito do Brasil</t>
-  </si>
-  <si>
     <t>Colores del catálogo Pantone</t>
   </si>
   <si>
@@ -1810,9 +1807,6 @@
     <t>Conjunto de colores RGB digitales</t>
   </si>
   <si>
-    <t>Catálogo de colores de la Dirección Nacional de Tráfico de Brasil</t>
-  </si>
-  <si>
     <t>Paleta.DNIT</t>
   </si>
   <si>
@@ -1946,6 +1940,12 @@
   </si>
   <si>
     <t>Color RGBA digital con transparencia</t>
+  </si>
+  <si>
+    <t>Cores do catálogo Departamento Nacional de Infraestrutura de Transportes do Brasil</t>
+  </si>
+  <si>
+    <t>Catálogo de colores del Departamento Nacional de Infraestructura de Transportes de Brasil</t>
   </si>
 </sst>
 </file>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45751.621516550927</v>
+        <v>45754.409410069442</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3047,9 +3047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3068,7 +3068,7 @@
     <col min="13" max="13" width="5.6640625" customWidth="1"/>
     <col min="14" max="14" width="6.33203125" customWidth="1"/>
     <col min="15" max="15" width="6.44140625" customWidth="1"/>
-    <col min="16" max="16" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.6640625" customWidth="1"/>
     <col min="17" max="17" width="28.6640625" customWidth="1"/>
     <col min="18" max="18" width="3.77734375" style="59" customWidth="1"/>
     <col min="19" max="19" width="5.109375" customWidth="1"/>
@@ -3166,7 +3166,7 @@
         <v>127</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>1</v>
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L2" s="34" t="str">
         <f>_xlfn.CONCAT(C2)</f>
@@ -3200,10 +3200,10 @@
         <v>Cyan</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R2" s="58" t="s">
         <v>92</v>
@@ -3245,7 +3245,7 @@
         <v>127</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>1</v>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L3" s="34" t="str">
         <f>_xlfn.CONCAT(C3)</f>
@@ -3279,10 +3279,10 @@
         <v>Magenta</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R3" s="58" t="s">
         <v>92</v>
@@ -3324,7 +3324,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L4" s="34" t="str">
         <f>_xlfn.CONCAT(C4)</f>
@@ -3358,10 +3358,10 @@
         <v>Yellow</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R4" s="58" t="s">
         <v>92</v>
@@ -3403,7 +3403,7 @@
         <v>127</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>1</v>
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L5" s="34" t="str">
         <f t="shared" ref="L5:L12" si="9">_xlfn.CONCAT(C5)</f>
@@ -3437,10 +3437,10 @@
         <v>Black</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R5" s="58" t="s">
         <v>92</v>
@@ -3516,10 +3516,10 @@
         <v>Red</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R6" s="58" t="s">
         <v>92</v>
@@ -3595,10 +3595,10 @@
         <v>Green</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R7" s="58" t="s">
         <v>92</v>
@@ -3674,10 +3674,10 @@
         <v>Blue</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R8" s="58" t="s">
         <v>92</v>
@@ -3753,10 +3753,10 @@
         <v>Alfa</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R9" s="58" t="s">
         <v>92</v>
@@ -3798,7 +3798,7 @@
         <v>101</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>1</v>
@@ -3810,10 +3810,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="33" t="s">
         <v>157</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>158</v>
       </c>
       <c r="L10" s="22" t="str">
         <f t="shared" si="17"/>
@@ -3832,10 +3832,10 @@
         <v>CMY</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R10" s="58" t="s">
         <v>92</v>
@@ -3877,7 +3877,7 @@
         <v>101</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L11" s="22" t="str">
         <f t="shared" si="17"/>
@@ -3911,10 +3911,10 @@
         <v>CMYB</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R11" s="58" t="s">
         <v>92</v>
@@ -3956,7 +3956,7 @@
         <v>101</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>1</v>
@@ -3990,10 +3990,10 @@
         <v>RGB</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R12" s="58" t="s">
         <v>92</v>
@@ -4035,7 +4035,7 @@
         <v>101</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>1</v>
@@ -4069,10 +4069,10 @@
         <v>RGBA</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R13" s="58" t="s">
         <v>92</v>
@@ -4151,7 +4151,7 @@
         <v>139</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R14" s="58" t="s">
         <v>92</v>
@@ -4227,10 +4227,10 @@
         <v xml:space="preserve">Cor.Dnit </v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="R15" s="58" t="s">
         <v>92</v>
@@ -4941,7 +4941,7 @@
         <v>122</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>1</v>
@@ -4968,22 +4968,22 @@
         <v>1</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M6" s="60" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N6" s="56" t="s">
         <v>108</v>
       </c>
       <c r="O6" s="60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P6" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q6" s="60" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R6" s="55" t="s">
         <v>110</v>
@@ -5013,7 +5013,7 @@
         <v>123</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>1</v>
@@ -5040,22 +5040,22 @@
         <v>1</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M7" s="60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N7" s="56" t="s">
         <v>108</v>
       </c>
       <c r="O7" s="60" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P7" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q7" s="60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R7" s="55" t="s">
         <v>110</v>
@@ -5085,7 +5085,7 @@
         <v>124</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>1</v>
@@ -5112,22 +5112,22 @@
         <v>1</v>
       </c>
       <c r="L8" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="M8" s="60" t="s">
         <v>210</v>
-      </c>
-      <c r="M8" s="60" t="s">
-        <v>212</v>
       </c>
       <c r="N8" s="56" t="s">
         <v>108</v>
       </c>
       <c r="O8" s="60" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P8" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q8" s="60" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R8" s="55" t="s">
         <v>110</v>
@@ -5157,7 +5157,7 @@
         <v>111</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>1</v>
@@ -5184,22 +5184,22 @@
         <v>1</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M9" s="60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N9" s="56" t="s">
         <v>108</v>
       </c>
       <c r="O9" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P9" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q9" s="60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R9" s="55" t="s">
         <v>110</v>
@@ -5229,7 +5229,7 @@
         <v>112</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>1</v>
@@ -5256,22 +5256,22 @@
         <v>1</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M10" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N10" s="56" t="s">
         <v>108</v>
       </c>
       <c r="O10" s="60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P10" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q10" s="60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R10" s="55" t="s">
         <v>110</v>
@@ -5301,7 +5301,7 @@
         <v>113</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>1</v>
@@ -5328,22 +5328,22 @@
         <v>1</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M11" s="60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N11" s="56" t="s">
         <v>108</v>
       </c>
       <c r="O11" s="60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P11" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q11" s="60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R11" s="55" t="s">
         <v>110</v>
@@ -5370,10 +5370,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>1</v>
@@ -5409,13 +5409,13 @@
         <v>108</v>
       </c>
       <c r="O12" s="60" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P12" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q12" s="60" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R12" s="55" t="s">
         <v>110</v>
@@ -5442,10 +5442,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>1</v>
@@ -5481,13 +5481,13 @@
         <v>108</v>
       </c>
       <c r="O13" s="60" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P13" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q13" s="60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R13" s="55" t="s">
         <v>110</v>
@@ -5514,10 +5514,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>1</v>
@@ -5553,13 +5553,13 @@
         <v>108</v>
       </c>
       <c r="O14" s="60" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P14" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q14" s="60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R14" s="55" t="s">
         <v>110</v>
@@ -5586,10 +5586,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>1</v>
@@ -5625,13 +5625,13 @@
         <v>108</v>
       </c>
       <c r="O15" s="60" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P15" s="56" t="s">
         <v>109</v>
       </c>
       <c r="Q15" s="60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R15" s="55" t="s">
         <v>110</v>
@@ -5658,7 +5658,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>138</v>
@@ -5694,22 +5694,22 @@
         <v>1</v>
       </c>
       <c r="N16" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="O16" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="O16" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="P16" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="60" t="s">
-        <v>205</v>
-      </c>
       <c r="R16" s="55" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="T16" s="55" t="s">
         <v>1</v>
@@ -5729,7 +5729,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>138</v>
@@ -5765,28 +5765,28 @@
         <v>1</v>
       </c>
       <c r="N17" s="55" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O17" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="P17" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="P17" s="55" t="s">
-        <v>209</v>
-      </c>
       <c r="Q17" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="R17" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="R17" s="55" t="s">
-        <v>210</v>
-      </c>
       <c r="S17" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="T17" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="U17" s="60" t="s">
         <v>219</v>
-      </c>
-      <c r="T17" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="U17" s="60" t="s">
-        <v>221</v>
       </c>
       <c r="V17" s="55" t="s">
         <v>1</v>
@@ -5806,61 +5806,61 @@
         <v>134</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G18" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="O18" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="P18" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="R18" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="O18" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="P18" s="56" t="s">
+      <c r="S18" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="T18" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="V18" s="55" t="s">
         <v>184</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="R18" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="S18" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="T18" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="U18" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="V18" s="55" t="s">
-        <v>186</v>
       </c>
       <c r="W18" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5872,58 +5872,58 @@
         <v>19</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G19" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="P19" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q19" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="R19" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H19" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="O19" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="P19" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q19" s="60" t="s">
-        <v>200</v>
-      </c>
-      <c r="R19" s="55" t="s">
-        <v>185</v>
-      </c>
       <c r="S19" s="60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T19" s="55" t="s">
         <v>1</v>
@@ -5932,7 +5932,7 @@
         <v>11</v>
       </c>
       <c r="V19" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="W19" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5944,58 +5944,58 @@
         <v>20</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>134</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G20" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="P20" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q20" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="R20" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="O20" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="P20" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q20" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="R20" s="55" t="s">
-        <v>185</v>
-      </c>
       <c r="S20" s="60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T20" s="55" t="s">
         <v>1</v>
@@ -6004,7 +6004,7 @@
         <v>60</v>
       </c>
       <c r="V20" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="W20" s="60" t="str">
         <f t="shared" si="0"/>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CA25B9-6AEC-4914-B82D-C12E86C496F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E94E6C4-125A-4410-BACE-9A723EADB755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="214">
   <si>
     <t>Key</t>
   </si>
@@ -1816,51 +1816,6 @@
     <t>yellow</t>
   </si>
   <si>
-    <t>cmyb</t>
-  </si>
-  <si>
-    <t>255.</t>
-  </si>
-  <si>
-    <t>0.</t>
-  </si>
-  <si>
-    <t>200.</t>
-  </si>
-  <si>
-    <t>120.</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>150.</t>
-  </si>
-  <si>
-    <t>30.</t>
-  </si>
-  <si>
-    <t>40.</t>
-  </si>
-  <si>
-    <t>50.</t>
-  </si>
-  <si>
-    <t>60.</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>100.</t>
-  </si>
-  <si>
-    <t>63.</t>
-  </si>
-  <si>
-    <t>23.</t>
-  </si>
-  <si>
     <t>Paleta.Pantone</t>
   </si>
   <si>
@@ -1946,6 +1901,9 @@
   </si>
   <si>
     <t>Catálogo de colores del Departamento Nacional de Infraestructura de Transportes de Brasil</t>
+  </si>
+  <si>
+    <t>cmy</t>
   </si>
 </sst>
 </file>
@@ -2844,14 +2802,14 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.33203125" style="12"/>
+    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="3.28515625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
@@ -2859,7 +2817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
@@ -2867,7 +2825,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
@@ -2875,7 +2833,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
@@ -2883,7 +2841,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
@@ -2892,7 +2850,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -2901,7 +2859,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -2909,7 +2867,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -2917,7 +2875,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -2925,7 +2883,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>67</v>
       </c>
@@ -2933,7 +2891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>57</v>
       </c>
@@ -2941,7 +2899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>58</v>
       </c>
@@ -2949,7 +2907,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>68</v>
       </c>
@@ -2957,7 +2915,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>69</v>
       </c>
@@ -2965,7 +2923,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>70</v>
       </c>
@@ -2973,7 +2931,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>71</v>
       </c>
@@ -2981,7 +2939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>59</v>
       </c>
@@ -2989,16 +2947,16 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45754.409410069442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45756.618513310183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>73</v>
       </c>
@@ -3006,7 +2964,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>74</v>
       </c>
@@ -3014,7 +2972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>75</v>
       </c>
@@ -3022,7 +2980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>76</v>
       </c>
@@ -3030,7 +2988,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>77</v>
       </c>
@@ -3047,38 +3005,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" customWidth="1"/>
-    <col min="15" max="15" width="6.44140625" customWidth="1"/>
-    <col min="16" max="16" width="29.6640625" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" customWidth="1"/>
-    <col min="18" max="18" width="3.77734375" style="59" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" customWidth="1"/>
-    <col min="20" max="20" width="5.44140625" customWidth="1"/>
+    <col min="8" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16" width="35.7109375" customWidth="1"/>
+    <col min="17" max="17" width="37.42578125" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" style="59" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" customWidth="1"/>
+    <col min="20" max="20" width="5.42578125" customWidth="1"/>
     <col min="21" max="21" width="6" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>79</v>
       </c>
@@ -3149,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>2</v>
       </c>
@@ -3228,7 +3186,7 @@
         <v>Key.Croma.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>3</v>
       </c>
@@ -3307,7 +3265,7 @@
         <v>Key.Croma.3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>4</v>
       </c>
@@ -3386,7 +3344,7 @@
         <v>Key.Croma.4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>5</v>
       </c>
@@ -3465,7 +3423,7 @@
         <v>Key.Croma.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>6</v>
       </c>
@@ -3544,7 +3502,7 @@
         <v>Key.Croma.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>7</v>
       </c>
@@ -3623,7 +3581,7 @@
         <v>Key.Croma.7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>8</v>
       </c>
@@ -3702,7 +3660,7 @@
         <v>Key.Croma.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>9</v>
       </c>
@@ -3781,7 +3739,7 @@
         <v>Key.Croma.9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>10</v>
       </c>
@@ -3860,7 +3818,7 @@
         <v>Key.Croma.10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>11</v>
       </c>
@@ -3939,7 +3897,7 @@
         <v>Key.Croma.11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>12</v>
       </c>
@@ -4018,7 +3976,7 @@
         <v>Key.Croma.12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>13</v>
       </c>
@@ -4069,10 +4027,10 @@
         <v>RGBA</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="R13" s="58" t="s">
         <v>92</v>
@@ -4097,7 +4055,7 @@
         <v>Key.Croma.13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>14</v>
       </c>
@@ -4176,7 +4134,7 @@
         <v>Key.Croma.14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>15</v>
       </c>
@@ -4227,10 +4185,10 @@
         <v xml:space="preserve">Cor.Dnit </v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="R15" s="58" t="s">
         <v>92</v>
@@ -4277,12 +4235,12 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.88671875" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.88671875" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.109375" style="5"/>
+    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4502,14 +4460,14 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45">
         <v>1</v>
       </c>
@@ -4520,7 +4478,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -4545,36 +4503,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52033-0BF0-4BCC-B911-A6BC1CA10036}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12:B15"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="11" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="11" width="3.28515625" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="14" max="14" width="3.44140625" style="50" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="51" customWidth="1"/>
-    <col min="16" max="16" width="5.33203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" style="51" customWidth="1"/>
-    <col min="18" max="18" width="4.44140625" style="51" customWidth="1"/>
-    <col min="19" max="19" width="25.44140625" style="51" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" style="50" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="51" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="51" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="51" customWidth="1"/>
+    <col min="19" max="19" width="25.42578125" style="51" customWidth="1"/>
     <col min="20" max="20" width="5" style="51" customWidth="1"/>
-    <col min="21" max="21" width="5.5546875" style="51" customWidth="1"/>
-    <col min="22" max="22" width="3.88671875" style="51" customWidth="1"/>
-    <col min="23" max="23" width="7.5546875" style="51" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" style="51" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" style="51" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>94</v>
       </c>
@@ -4645,7 +4603,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40">
         <v>2</v>
       </c>
@@ -4713,11 +4671,11 @@
         <v>1</v>
       </c>
       <c r="W2" s="60" t="str">
-        <f t="shared" ref="W2:W20" si="0">_xlfn.CONCAT("""",IF(O2&lt;&gt;"null",O2,""),,IF(Q2&lt;&gt;"null",Q2,""),IF(S2&lt;&gt;"null",S2,""),IF(U2&lt;&gt;"null",U2,""),"""")</f>
-        <v>"255"</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>IF(OR(V2="rgb",V2="cmy",V2="rgba",V2="cmyb"),  SUBSTITUTE(_xlfn.CONCAT(O2,".",Q2,".",S2,".",U2), ".null",""), V2)</f>
+        <v>null</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40">
         <v>3</v>
       </c>
@@ -4785,11 +4743,11 @@
         <v>1</v>
       </c>
       <c r="W3" s="60" t="str">
-        <f t="shared" si="0"/>
-        <v>"255"</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="W3:W20" si="0">IF(OR(V3="rgb",V3="cmy",V3="rgba",V3="cmyb"),  SUBSTITUTE(_xlfn.CONCAT(O3,".",Q3,".",S3,".",U3), ".null",""), V3)</f>
+        <v>null</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40">
         <v>4</v>
       </c>
@@ -4858,10 +4816,10 @@
       </c>
       <c r="W4" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"255"</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
         <v>5</v>
       </c>
@@ -4930,10 +4888,10 @@
       </c>
       <c r="W5" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"255"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>null</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>6</v>
       </c>
@@ -4968,22 +4926,22 @@
         <v>1</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="M6" s="60" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="N6" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="60" t="s">
-        <v>185</v>
+      <c r="O6" s="60">
+        <v>255</v>
       </c>
       <c r="P6" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q6" s="60" t="s">
-        <v>186</v>
+      <c r="Q6" s="60">
+        <v>0</v>
       </c>
       <c r="R6" s="55" t="s">
         <v>110</v>
@@ -5002,10 +4960,10 @@
       </c>
       <c r="W6" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"255.0.0"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>255.0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>7</v>
       </c>
@@ -5040,22 +4998,22 @@
         <v>1</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="M7" s="60" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="N7" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O7" s="60" t="s">
-        <v>186</v>
+      <c r="O7" s="60">
+        <v>0</v>
       </c>
       <c r="P7" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q7" s="60" t="s">
-        <v>185</v>
+      <c r="Q7" s="60">
+        <v>255</v>
       </c>
       <c r="R7" s="55" t="s">
         <v>110</v>
@@ -5074,10 +5032,10 @@
       </c>
       <c r="W7" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"0.255.0"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.255.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
         <v>8</v>
       </c>
@@ -5112,22 +5070,22 @@
         <v>1</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="M8" s="60" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="N8" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="60" t="s">
-        <v>186</v>
+      <c r="O8" s="60">
+        <v>0</v>
       </c>
       <c r="P8" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q8" s="60" t="s">
-        <v>186</v>
+      <c r="Q8" s="60">
+        <v>0</v>
       </c>
       <c r="R8" s="55" t="s">
         <v>110</v>
@@ -5146,10 +5104,10 @@
       </c>
       <c r="W8" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"0.0.255"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.0.255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>9</v>
       </c>
@@ -5184,22 +5142,22 @@
         <v>1</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="M9" s="60" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="N9" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="60" t="s">
-        <v>187</v>
+      <c r="O9" s="60">
+        <v>200</v>
       </c>
       <c r="P9" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q9" s="60" t="s">
-        <v>187</v>
+      <c r="Q9" s="60">
+        <v>200</v>
       </c>
       <c r="R9" s="55" t="s">
         <v>110</v>
@@ -5218,10 +5176,10 @@
       </c>
       <c r="W9" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"200.200.200"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200.200.200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>10</v>
       </c>
@@ -5256,22 +5214,22 @@
         <v>1</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="M10" s="60" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="N10" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O10" s="60" t="s">
-        <v>188</v>
+      <c r="O10" s="60">
+        <v>120</v>
       </c>
       <c r="P10" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q10" s="60" t="s">
-        <v>188</v>
+      <c r="Q10" s="60">
+        <v>120</v>
       </c>
       <c r="R10" s="55" t="s">
         <v>110</v>
@@ -5290,10 +5248,10 @@
       </c>
       <c r="W10" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"120.120.120"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120.120.120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>11</v>
       </c>
@@ -5328,22 +5286,22 @@
         <v>1</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="M11" s="60" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="N11" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O11" s="60" t="s">
-        <v>189</v>
+      <c r="O11" s="60">
+        <v>20</v>
       </c>
       <c r="P11" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q11" s="60" t="s">
-        <v>189</v>
+      <c r="Q11" s="60">
+        <v>20</v>
       </c>
       <c r="R11" s="55" t="s">
         <v>110</v>
@@ -5362,15 +5320,15 @@
       </c>
       <c r="W11" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"20.20.20"</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20.20.20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>12</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>150</v>
@@ -5408,14 +5366,14 @@
       <c r="N12" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="60" t="s">
-        <v>190</v>
+      <c r="O12" s="60">
+        <v>150</v>
       </c>
       <c r="P12" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q12" s="60" t="s">
-        <v>191</v>
+      <c r="Q12" s="60">
+        <v>30</v>
       </c>
       <c r="R12" s="55" t="s">
         <v>110</v>
@@ -5434,15 +5392,15 @@
       </c>
       <c r="W12" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"150.30.10"</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150.30.10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>13</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>150</v>
@@ -5480,14 +5438,14 @@
       <c r="N13" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O13" s="60" t="s">
-        <v>190</v>
+      <c r="O13" s="60">
+        <v>150</v>
       </c>
       <c r="P13" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q13" s="60" t="s">
-        <v>192</v>
+      <c r="Q13" s="60">
+        <v>40</v>
       </c>
       <c r="R13" s="55" t="s">
         <v>110</v>
@@ -5506,15 +5464,15 @@
       </c>
       <c r="W13" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"150.40.10"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150.40.10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>14</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>148</v>
@@ -5552,14 +5510,14 @@
       <c r="N14" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O14" s="60" t="s">
-        <v>190</v>
+      <c r="O14" s="60">
+        <v>150</v>
       </c>
       <c r="P14" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q14" s="60" t="s">
-        <v>193</v>
+      <c r="Q14" s="60">
+        <v>50</v>
       </c>
       <c r="R14" s="55" t="s">
         <v>110</v>
@@ -5578,15 +5536,15 @@
       </c>
       <c r="W14" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"150.50.10"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150.50.10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>15</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>148</v>
@@ -5624,14 +5582,14 @@
       <c r="N15" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="60" t="s">
-        <v>190</v>
+      <c r="O15" s="60">
+        <v>150</v>
       </c>
       <c r="P15" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="Q15" s="60" t="s">
-        <v>194</v>
+      <c r="Q15" s="60">
+        <v>60</v>
       </c>
       <c r="R15" s="55" t="s">
         <v>110</v>
@@ -5650,10 +5608,10 @@
       </c>
       <c r="W15" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"150.60.10"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150.60.10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>16</v>
       </c>
@@ -5694,22 +5652,22 @@
         <v>1</v>
       </c>
       <c r="N16" s="55" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="O16" s="60" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="P16" s="55" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="60" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="R16" s="55" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="T16" s="55" t="s">
         <v>1</v>
@@ -5720,16 +5678,17 @@
       <c r="V16" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="W16" s="60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W16" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>17</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>138</v>
@@ -5765,37 +5724,38 @@
         <v>1</v>
       </c>
       <c r="N17" s="55" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="O17" s="60" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="P17" s="55" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="60" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="R17" s="55" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="S17" s="60" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="T17" s="55" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="U17" s="60" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="V17" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="W17" s="60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W17" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>18</v>
       </c>
@@ -5806,10 +5766,10 @@
         <v>134</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>143</v>
@@ -5836,38 +5796,38 @@
         <v>1</v>
       </c>
       <c r="N18" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="O18" s="60" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="O18" s="60">
+        <v>0</v>
       </c>
       <c r="P18" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="Q18" s="60" t="s">
-        <v>186</v>
+      <c r="Q18" s="60">
+        <v>0</v>
       </c>
       <c r="R18" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="S18" s="60" t="s">
-        <v>196</v>
+      <c r="S18" s="60">
+        <v>100</v>
       </c>
       <c r="T18" s="55" t="s">
         <v>1</v>
       </c>
       <c r="U18" s="60" t="s">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="V18" s="55" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="W18" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"0.0.100.O"</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.0.100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>19</v>
       </c>
@@ -5878,10 +5838,10 @@
         <v>134</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F19" s="39" t="s">
         <v>143</v>
@@ -5908,38 +5868,38 @@
         <v>1</v>
       </c>
       <c r="N19" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="O19" s="60" t="s">
-        <v>197</v>
+        <v>185</v>
+      </c>
+      <c r="O19" s="60">
+        <v>63</v>
       </c>
       <c r="P19" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="Q19" s="60" t="s">
-        <v>198</v>
+      <c r="Q19" s="60">
+        <v>23</v>
       </c>
       <c r="R19" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="S19" s="60" t="s">
-        <v>196</v>
+      <c r="S19" s="60">
+        <v>100</v>
       </c>
       <c r="T19" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="U19" s="60">
-        <v>11</v>
+      <c r="U19" s="60" t="s">
+        <v>1</v>
       </c>
       <c r="V19" s="55" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="W19" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"63.23.100.11"</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63.23.100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>20</v>
       </c>
@@ -5950,10 +5910,10 @@
         <v>134</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F20" s="39" t="s">
         <v>143</v>
@@ -5980,35 +5940,35 @@
         <v>1</v>
       </c>
       <c r="N20" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="O20" s="60" t="s">
-        <v>196</v>
+        <v>185</v>
+      </c>
+      <c r="O20" s="60">
+        <v>100</v>
       </c>
       <c r="P20" s="56" t="s">
         <v>182</v>
       </c>
-      <c r="Q20" s="60" t="s">
-        <v>186</v>
+      <c r="Q20" s="60">
+        <v>0</v>
       </c>
       <c r="R20" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="S20" s="60" t="s">
-        <v>196</v>
+      <c r="S20" s="60">
+        <v>100</v>
       </c>
       <c r="T20" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="U20" s="60">
-        <v>60</v>
+      <c r="U20" s="60" t="s">
+        <v>1</v>
       </c>
       <c r="V20" s="55" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="W20" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>"100.0.100.60"</v>
+        <v>100.0.100</v>
       </c>
     </row>
   </sheetData>
@@ -6031,11 +5991,11 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="7.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5546875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -6046,7 +6006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -6054,7 +6014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -6062,7 +6022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -6070,7 +6030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.4" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>5</v>
       </c>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E94E6C4-125A-4410-BACE-9A723EADB755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC104376-4F9D-403B-A943-489012F8E2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="281">
   <si>
     <t>Key</t>
   </si>
@@ -1904,6 +1904,207 @@
   </si>
   <si>
     <t>cmy</t>
+  </si>
+  <si>
+    <t>Munsell</t>
+  </si>
+  <si>
+    <t>"Cor Pantone"</t>
+  </si>
+  <si>
+    <t>"Cor CMY"</t>
+  </si>
+  <si>
+    <t>"Cor RGB"</t>
+  </si>
+  <si>
+    <t>Matiz.RP</t>
+  </si>
+  <si>
+    <t>Matiz.P</t>
+  </si>
+  <si>
+    <t>Matiz.PB</t>
+  </si>
+  <si>
+    <t>Matiz.B</t>
+  </si>
+  <si>
+    <t>Matiz.BG</t>
+  </si>
+  <si>
+    <t>Matiz.G</t>
+  </si>
+  <si>
+    <t>Matiz.GY</t>
+  </si>
+  <si>
+    <t>Matiz.Y</t>
+  </si>
+  <si>
+    <t>Matiz.YR</t>
+  </si>
+  <si>
+    <t>Matiz.R</t>
+  </si>
+  <si>
+    <t>Sistema.Munsell</t>
+  </si>
+  <si>
+    <t>"Sistema de cores Munsell"</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N00</t>
+  </si>
+  <si>
+    <t>N01</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>N05</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>N07</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
+    <t>N09</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) red-purple"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) purple"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) purple-blue"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) blue"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) blue-green"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) green"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) green-yellow"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) yellow"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) yellow-red"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) red"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade 10 superior de valor branco"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  8 intermédio superior claros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  7 intermédio superior claros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  9 intermédio superior claros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  6 intermédio superior claros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  5 intermédio central"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  4 intermédio inferior escuros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  3 intermédio inferior escuros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  2 intermédio inferior escuros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  1 intermédio inferior escuros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  0 inferior de valor negro"</t>
+  </si>
+  <si>
+    <t>Hue</t>
+  </si>
+  <si>
+    <t>Luminosidade</t>
+  </si>
+  <si>
+    <t>Croma</t>
+  </si>
+  <si>
+    <t>Matiz do sistema de cor Munsell</t>
+  </si>
+  <si>
+    <t>Luminosidade do sistema de cor Munsell</t>
+  </si>
+  <si>
+    <t>Matiz del sistema de color Munsell</t>
+  </si>
+  <si>
+    <t>Luminosidad del sistema de color Munsell</t>
+  </si>
+  <si>
+    <t>C00</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>"Nível de cromaticidade  0 é o cinza neutro"</t>
+  </si>
+  <si>
+    <t>"Nível de cromaticidade  20 é uma cor altamente saturada"</t>
+  </si>
+  <si>
+    <t>"Nível de cromaticidade  10 é uma cor forte saturada"</t>
+  </si>
+  <si>
+    <t>"Nível de cromaticidade  1 é uma cor fraca"</t>
+  </si>
+  <si>
+    <t>"Nível de cromaticidade  5 é uma cor fraca"</t>
+  </si>
+  <si>
+    <t>Croma do sistema de cor Munsell. É o grau de afastamento de uma cor em relação à cor neutra de mesmo valor. Um baixo croma enfraquece a cor. Um croma alto para cor saturada, forte ou vívida.</t>
+  </si>
+  <si>
+    <t>Chroma del sistema de color Munsell. Es el grado de distancia de un color al color neutro del mismo valor. Un croma bajo debilita el color. Un croma alto para colores saturados, fuertes o vivos.</t>
   </si>
 </sst>
 </file>
@@ -2202,7 +2403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2249,11 +2450,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2436,6 +2650,15 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2953,7 +3176,7 @@
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45756.618513310183</v>
+        <v>45777.720170601853</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3003,11 +3226,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3146,7 +3369,7 @@
         <v>Cromático</v>
       </c>
       <c r="M2" s="34" t="str">
-        <f t="shared" ref="M2:O12" si="0">_xlfn.CONCAT("", D2)</f>
+        <f t="shared" ref="M2:O15" si="0">_xlfn.CONCAT("", D2)</f>
         <v>Paleta</v>
       </c>
       <c r="N2" s="34" t="str">
@@ -3167,7 +3390,7 @@
         <v>92</v>
       </c>
       <c r="S2" s="36" t="str">
-        <f t="shared" ref="S2:U12" si="1">SUBSTITUTE(C2, "_", " ")</f>
+        <f t="shared" ref="S2:U15" si="1">SUBSTITUTE(C2, "_", " ")</f>
         <v>Cromático</v>
       </c>
       <c r="T2" s="36" t="str">
@@ -3261,7 +3484,7 @@
         <v>93</v>
       </c>
       <c r="W3" s="38" t="str">
-        <f t="shared" ref="W3:W12" si="8">CONCATENATE("Key.Croma",".",A3)</f>
+        <f t="shared" ref="W3:W15" si="8">CONCATENATE("Key.Croma",".",A3)</f>
         <v>Key.Croma.3</v>
       </c>
     </row>
@@ -3379,11 +3602,11 @@
         <v>155</v>
       </c>
       <c r="L5" s="34" t="str">
-        <f t="shared" ref="L5:L12" si="9">_xlfn.CONCAT(C5)</f>
+        <f t="shared" ref="L5:L15" si="9">_xlfn.CONCAT(C5)</f>
         <v>Cromático</v>
       </c>
       <c r="M5" s="34" t="str">
-        <f t="shared" ref="M5:M12" si="10">_xlfn.CONCAT("", D5)</f>
+        <f t="shared" ref="M5:M15" si="10">_xlfn.CONCAT("", D5)</f>
         <v>Paleta</v>
       </c>
       <c r="N5" s="34" t="str">
@@ -4011,19 +4234,19 @@
         <v>115</v>
       </c>
       <c r="L13" s="22" t="str">
-        <f t="shared" ref="L13" si="19">_xlfn.CONCAT(C13)</f>
+        <f t="shared" si="9"/>
         <v>Cromático</v>
       </c>
       <c r="M13" s="22" t="str">
-        <f t="shared" ref="M13" si="20">_xlfn.CONCAT("", D13)</f>
+        <f t="shared" si="10"/>
         <v>Paleta</v>
       </c>
       <c r="N13" s="22" t="str">
-        <f t="shared" ref="N13" si="21">_xlfn.CONCAT("", E13)</f>
+        <f t="shared" si="0"/>
         <v>Cor.Digital</v>
       </c>
       <c r="O13" s="22" t="str">
-        <f t="shared" ref="O13" si="22">_xlfn.CONCAT("", F13)</f>
+        <f t="shared" si="0"/>
         <v>RGBA</v>
       </c>
       <c r="P13" s="22" t="s">
@@ -4036,22 +4259,22 @@
         <v>92</v>
       </c>
       <c r="S13" s="36" t="str">
-        <f t="shared" ref="S13" si="23">SUBSTITUTE(C13, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
       <c r="T13" s="36" t="str">
-        <f t="shared" ref="T13" si="24">SUBSTITUTE(D13, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
       <c r="U13" s="35" t="str">
-        <f t="shared" ref="U13" si="25">SUBSTITUTE(E13, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Cor.Digital</v>
       </c>
       <c r="V13" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W13" s="38" t="str">
-        <f t="shared" ref="W13" si="26">CONCATENATE("Key.Croma",".",A13)</f>
+        <f t="shared" si="8"/>
         <v>Key.Croma.13</v>
       </c>
     </row>
@@ -4066,13 +4289,13 @@
         <v>120</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
@@ -4090,47 +4313,47 @@
         <v>1</v>
       </c>
       <c r="L14" s="22" t="str">
-        <f t="shared" ref="L14" si="27">_xlfn.CONCAT(C14)</f>
+        <f t="shared" si="9"/>
         <v>Cromático</v>
       </c>
       <c r="M14" s="22" t="str">
-        <f t="shared" ref="M14" si="28">_xlfn.CONCAT("", D14)</f>
-        <v>Catálogo</v>
+        <f t="shared" si="10"/>
+        <v>Paleta</v>
       </c>
       <c r="N14" s="22" t="str">
-        <f t="shared" ref="N14" si="29">_xlfn.CONCAT("", E14)</f>
-        <v>Pantone</v>
+        <f t="shared" si="0"/>
+        <v>Munsell</v>
       </c>
       <c r="O14" s="22" t="str">
-        <f t="shared" ref="O14" si="30">_xlfn.CONCAT("", F14)</f>
-        <v xml:space="preserve">Cor.Pantone </v>
+        <f t="shared" si="0"/>
+        <v>Hue</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q14" s="34" t="s">
-        <v>140</v>
+        <v>265</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>267</v>
       </c>
       <c r="R14" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S14" s="36" t="str">
-        <f t="shared" ref="S14" si="31">SUBSTITUTE(C14, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
       <c r="T14" s="36" t="str">
-        <f t="shared" ref="T14" si="32">SUBSTITUTE(D14, "_", " ")</f>
-        <v>Catálogo</v>
+        <f t="shared" si="1"/>
+        <v>Paleta</v>
       </c>
       <c r="U14" s="35" t="str">
-        <f t="shared" ref="U14" si="33">SUBSTITUTE(E14, "_", " ")</f>
-        <v>Pantone</v>
+        <f t="shared" si="1"/>
+        <v>Munsell</v>
       </c>
       <c r="V14" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W14" s="38" t="str">
-        <f t="shared" ref="W14" si="34">CONCATENATE("Key.Croma",".",A14)</f>
+        <f t="shared" si="8"/>
         <v>Key.Croma.14</v>
       </c>
     </row>
@@ -4145,13 +4368,13 @@
         <v>120</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>1</v>
@@ -4169,48 +4392,285 @@
         <v>1</v>
       </c>
       <c r="L15" s="22" t="str">
-        <f t="shared" ref="L15" si="35">_xlfn.CONCAT(C15)</f>
+        <f t="shared" si="9"/>
         <v>Cromático</v>
       </c>
       <c r="M15" s="22" t="str">
-        <f t="shared" ref="M15" si="36">_xlfn.CONCAT("", D15)</f>
-        <v>Catálogo</v>
+        <f t="shared" si="10"/>
+        <v>Paleta</v>
       </c>
       <c r="N15" s="22" t="str">
-        <f t="shared" ref="N15" si="37">_xlfn.CONCAT("", E15)</f>
-        <v>DNIT</v>
+        <f t="shared" si="0"/>
+        <v>Munsell</v>
       </c>
       <c r="O15" s="22" t="str">
-        <f t="shared" ref="O15" si="38">_xlfn.CONCAT("", F15)</f>
-        <v xml:space="preserve">Cor.Dnit </v>
+        <f t="shared" si="0"/>
+        <v>Luminosidade</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q15" s="34" t="s">
-        <v>212</v>
+        <v>266</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>268</v>
       </c>
       <c r="R15" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S15" s="36" t="str">
-        <f t="shared" ref="S15" si="39">SUBSTITUTE(C15, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
       <c r="T15" s="36" t="str">
-        <f t="shared" ref="T15" si="40">SUBSTITUTE(D15, "_", " ")</f>
-        <v>Catálogo</v>
+        <f t="shared" si="1"/>
+        <v>Paleta</v>
       </c>
       <c r="U15" s="35" t="str">
-        <f t="shared" ref="U15" si="41">SUBSTITUTE(E15, "_", " ")</f>
-        <v>DNIT</v>
+        <f t="shared" si="1"/>
+        <v>Munsell</v>
       </c>
       <c r="V15" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W15" s="38" t="str">
-        <f t="shared" ref="W15" si="42">CONCATENATE("Key.Croma",".",A15)</f>
+        <f t="shared" si="8"/>
         <v>Key.Croma.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>16</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="22" t="str">
+        <f t="shared" ref="L16" si="19">_xlfn.CONCAT(C16)</f>
+        <v>Cromático</v>
+      </c>
+      <c r="M16" s="22" t="str">
+        <f t="shared" ref="M16" si="20">_xlfn.CONCAT("", D16)</f>
+        <v>Paleta</v>
+      </c>
+      <c r="N16" s="22" t="str">
+        <f t="shared" ref="N16" si="21">_xlfn.CONCAT("", E16)</f>
+        <v>Munsell</v>
+      </c>
+      <c r="O16" s="22" t="str">
+        <f t="shared" ref="O16" si="22">_xlfn.CONCAT("", F16)</f>
+        <v>Croma</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="R16" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="S16" s="36" t="str">
+        <f t="shared" ref="S16" si="23">SUBSTITUTE(C16, "_", " ")</f>
+        <v>Cromático</v>
+      </c>
+      <c r="T16" s="36" t="str">
+        <f t="shared" ref="T16" si="24">SUBSTITUTE(D16, "_", " ")</f>
+        <v>Paleta</v>
+      </c>
+      <c r="U16" s="35" t="str">
+        <f t="shared" ref="U16" si="25">SUBSTITUTE(E16, "_", " ")</f>
+        <v>Munsell</v>
+      </c>
+      <c r="V16" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="W16" s="38" t="str">
+        <f t="shared" ref="W16" si="26">CONCATENATE("Key.Croma",".",A16)</f>
+        <v>Key.Croma.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>17</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="22" t="str">
+        <f t="shared" ref="L17" si="27">_xlfn.CONCAT(C17)</f>
+        <v>Cromático</v>
+      </c>
+      <c r="M17" s="22" t="str">
+        <f t="shared" ref="M17" si="28">_xlfn.CONCAT("", D17)</f>
+        <v>Catálogo</v>
+      </c>
+      <c r="N17" s="22" t="str">
+        <f t="shared" ref="N17" si="29">_xlfn.CONCAT("", E17)</f>
+        <v>Pantone</v>
+      </c>
+      <c r="O17" s="22" t="str">
+        <f t="shared" ref="O17" si="30">_xlfn.CONCAT("", F17)</f>
+        <v xml:space="preserve">Cor.Pantone </v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="R17" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="S17" s="36" t="str">
+        <f t="shared" ref="S17" si="31">SUBSTITUTE(C17, "_", " ")</f>
+        <v>Cromático</v>
+      </c>
+      <c r="T17" s="36" t="str">
+        <f t="shared" ref="T17" si="32">SUBSTITUTE(D17, "_", " ")</f>
+        <v>Catálogo</v>
+      </c>
+      <c r="U17" s="35" t="str">
+        <f t="shared" ref="U17" si="33">SUBSTITUTE(E17, "_", " ")</f>
+        <v>Pantone</v>
+      </c>
+      <c r="V17" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="W17" s="38" t="str">
+        <f t="shared" ref="W17" si="34">CONCATENATE("Key.Croma",".",A17)</f>
+        <v>Key.Croma.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>18</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="22" t="str">
+        <f t="shared" ref="L18" si="35">_xlfn.CONCAT(C18)</f>
+        <v>Cromático</v>
+      </c>
+      <c r="M18" s="22" t="str">
+        <f t="shared" ref="M18" si="36">_xlfn.CONCAT("", D18)</f>
+        <v>Catálogo</v>
+      </c>
+      <c r="N18" s="22" t="str">
+        <f t="shared" ref="N18" si="37">_xlfn.CONCAT("", E18)</f>
+        <v>DNIT</v>
+      </c>
+      <c r="O18" s="22" t="str">
+        <f t="shared" ref="O18" si="38">_xlfn.CONCAT("", F18)</f>
+        <v xml:space="preserve">Cor.Dnit </v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="R18" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="S18" s="36" t="str">
+        <f t="shared" ref="S18" si="39">SUBSTITUTE(C18, "_", " ")</f>
+        <v>Cromático</v>
+      </c>
+      <c r="T18" s="36" t="str">
+        <f t="shared" ref="T18" si="40">SUBSTITUTE(D18, "_", " ")</f>
+        <v>Catálogo</v>
+      </c>
+      <c r="U18" s="35" t="str">
+        <f t="shared" ref="U18" si="41">SUBSTITUTE(E18, "_", " ")</f>
+        <v>DNIT</v>
+      </c>
+      <c r="V18" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="W18" s="38" t="str">
+        <f t="shared" ref="W18" si="42">CONCATENATE("Key.Croma",".",A18)</f>
+        <v>Key.Croma.18</v>
       </c>
     </row>
   </sheetData>
@@ -4501,25 +4961,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52033-0BF0-4BCC-B911-A6BC1CA10036}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
     <col min="6" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" customWidth="1"/>
     <col min="8" max="11" width="3.28515625" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" customWidth="1"/>
     <col min="14" max="14" width="3.42578125" style="50" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" style="51" customWidth="1"/>
     <col min="16" max="16" width="5.28515625" style="50" bestFit="1" customWidth="1"/>
@@ -4671,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="W2" s="60" t="str">
-        <f>IF(OR(V2="rgb",V2="cmy",V2="rgba",V2="cmyb"),  SUBSTITUTE(_xlfn.CONCAT(O2,".",Q2,".",S2,".",U2), ".null",""), V2)</f>
+        <f>IF(OR(V2="rgb",V2="cmy",V2="rgba",V2="cmyb"),  SUBSTITUTE(_xlfn.CONCAT("""",O2,".",Q2,".",S2,".",U2,""""), ".null",""), V2)</f>
         <v>null</v>
       </c>
     </row>
@@ -4743,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="W3" s="60" t="str">
-        <f t="shared" ref="W3:W20" si="0">IF(OR(V3="rgb",V3="cmy",V3="rgba",V3="cmyb"),  SUBSTITUTE(_xlfn.CONCAT(O3,".",Q3,".",S3,".",U3), ".null",""), V3)</f>
+        <f t="shared" ref="W3:W20" si="0">IF(OR(V3="rgb",V3="cmy",V3="rgba",V3="cmyb"),  SUBSTITUTE(_xlfn.CONCAT("""",O3,".",Q3,".",S3,".",U3,""""), ".null",""), V3)</f>
         <v>null</v>
       </c>
     </row>
@@ -4960,7 +5420,7 @@
       </c>
       <c r="W6" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>255.0.0</v>
+        <v>"255.0.0"</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5032,7 +5492,7 @@
       </c>
       <c r="W7" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>0.255.0</v>
+        <v>"0.255.0"</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5104,7 +5564,7 @@
       </c>
       <c r="W8" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>0.0.255</v>
+        <v>"0.0.255"</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5176,7 +5636,7 @@
       </c>
       <c r="W9" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>200.200.200</v>
+        <v>"200.200.200"</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5248,7 +5708,7 @@
       </c>
       <c r="W10" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>120.120.120</v>
+        <v>"120.120.120"</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5320,7 +5780,7 @@
       </c>
       <c r="W11" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>20.20.20</v>
+        <v>"20.20.20"</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5357,11 +5817,11 @@
       <c r="K12" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>1</v>
+      <c r="L12" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>217</v>
       </c>
       <c r="N12" s="56" t="s">
         <v>108</v>
@@ -5392,7 +5852,7 @@
       </c>
       <c r="W12" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>150.30.10</v>
+        <v>"150.30.10"</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5429,11 +5889,11 @@
       <c r="K13" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="42" t="s">
-        <v>1</v>
+      <c r="L13" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M13" s="60" t="s">
+        <v>217</v>
       </c>
       <c r="N13" s="56" t="s">
         <v>108</v>
@@ -5464,7 +5924,7 @@
       </c>
       <c r="W13" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>150.40.10</v>
+        <v>"150.40.10"</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5501,11 +5961,11 @@
       <c r="K14" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="42" t="s">
-        <v>1</v>
+      <c r="L14" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M14" s="60" t="s">
+        <v>217</v>
       </c>
       <c r="N14" s="56" t="s">
         <v>108</v>
@@ -5536,7 +5996,7 @@
       </c>
       <c r="W14" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>150.50.10</v>
+        <v>"150.50.10"</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5573,11 +6033,11 @@
       <c r="K15" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>1</v>
+      <c r="L15" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15" s="60" t="s">
+        <v>217</v>
       </c>
       <c r="N15" s="56" t="s">
         <v>108</v>
@@ -5608,7 +6068,7 @@
       </c>
       <c r="W15" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>150.60.10</v>
+        <v>"150.60.10"</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5645,11 +6105,11 @@
       <c r="K16" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="42" t="s">
-        <v>1</v>
+      <c r="L16" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" s="60" t="s">
+        <v>215</v>
       </c>
       <c r="N16" s="55" t="s">
         <v>186</v>
@@ -5717,11 +6177,11 @@
       <c r="K17" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="42" t="s">
-        <v>1</v>
+      <c r="L17" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M17" s="60" t="s">
+        <v>215</v>
       </c>
       <c r="N17" s="55" t="s">
         <v>186</v>
@@ -5789,11 +6249,11 @@
       <c r="K18" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>1</v>
+      <c r="L18" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>216</v>
       </c>
       <c r="N18" s="56" t="s">
         <v>185</v>
@@ -5824,7 +6284,7 @@
       </c>
       <c r="W18" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>0.0.100</v>
+        <v>"0.0.100"</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5861,11 +6321,11 @@
       <c r="K19" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="42" t="s">
-        <v>1</v>
+      <c r="L19" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" s="60" t="s">
+        <v>216</v>
       </c>
       <c r="N19" s="56" t="s">
         <v>185</v>
@@ -5896,7 +6356,7 @@
       </c>
       <c r="W19" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>63.23.100</v>
+        <v>"63.23.100"</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5933,11 +6393,11 @@
       <c r="K20" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>1</v>
+      <c r="L20" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" s="60" t="s">
+        <v>216</v>
       </c>
       <c r="N20" s="56" t="s">
         <v>185</v>
@@ -5968,7 +6428,1924 @@
       </c>
       <c r="W20" s="60" t="str">
         <f t="shared" si="0"/>
-        <v>100.0.100</v>
+        <v>"100.0.100"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>21</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="N21" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W21" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>22</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="N22" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V22" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>23</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="N23" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>24</v>
+      </c>
+      <c r="B24" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="N24" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V24" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W24" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>25</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="N25" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V25" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>26</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="N26" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P26" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U26" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V26" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W26" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>27</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M27" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="N27" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V27" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W27" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
+        <v>28</v>
+      </c>
+      <c r="B28" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="N28" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T28" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V28" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>29</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="N29" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T29" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W29" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>30</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M30" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="N30" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V30" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W30" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>31</v>
+      </c>
+      <c r="B31" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M31" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="N31" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O31" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T31" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>32</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M32" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="N32" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P32" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T32" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W32" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
+        <v>33</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M33" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="N33" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T33" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V33" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W33" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>34</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M34" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="N34" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T34" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V34" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W34" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
+        <v>35</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L35" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M35" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="N35" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R35" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S35" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T35" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W35" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>36</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L36" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M36" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="N36" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P36" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V36" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W36" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
+        <v>37</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M37" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="N37" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P37" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R37" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S37" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T37" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V37" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W37" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40">
+        <v>38</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M38" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="N38" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U38" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W38" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40">
+        <v>39</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M39" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="N39" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U39" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W39" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M40" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="N40" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O40" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P40" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T40" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V40" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W40" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40">
+        <v>41</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L41" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M41" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="N41" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P41" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R41" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S41" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U41" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W41" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
+        <v>42</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M42" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="N42" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O42" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P42" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R42" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S42" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T42" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U42" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V42" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W42" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
+        <v>43</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M43" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="N43" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O43" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P43" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R43" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S43" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T43" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U43" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V43" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W43" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
+        <v>44</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M44" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="N44" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O44" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P44" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R44" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S44" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T44" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U44" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V44" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W44" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="40">
+        <v>45</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M45" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="N45" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O45" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P45" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R45" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S45" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T45" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U45" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V45" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W45" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="40">
+        <v>46</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L46" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M46" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="N46" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O46" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P46" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R46" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S46" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T46" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U46" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V46" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W46" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="40">
+        <v>47</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="M47" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="N47" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="O47" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R47" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S47" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T47" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U47" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V47" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W47" s="60" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC104376-4F9D-403B-A943-489012F8E2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0E5854-24D7-44B9-A7F6-9B974D640609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="332">
   <si>
     <t>Key</t>
   </si>
@@ -1681,12 +1681,6 @@
     <t>Catálogo</t>
   </si>
   <si>
-    <t>Cores do catálogo Pantone</t>
-  </si>
-  <si>
-    <t>Colores del catálogo Pantone</t>
-  </si>
-  <si>
     <t>Pantone.370.C</t>
   </si>
   <si>
@@ -2105,6 +2099,165 @@
   </si>
   <si>
     <t>Chroma del sistema de color Munsell. Es el grado de distancia de un color al color neutro del mismo valor. Un croma bajo debilita el color. Un croma alto para colores saturados, fuertes o vivos.</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>"2.5YR6/14"</t>
+  </si>
+  <si>
+    <t>"2.5YR2/4"</t>
+  </si>
+  <si>
+    <t>"N3.5"</t>
+  </si>
+  <si>
+    <t>"N9.5"</t>
+  </si>
+  <si>
+    <t>"5Y8/12"</t>
+  </si>
+  <si>
+    <t>"N6.5"</t>
+  </si>
+  <si>
+    <t>"2.5PB4/10"</t>
+  </si>
+  <si>
+    <t>"Neutra"</t>
+  </si>
+  <si>
+    <t>"2.5G3/4"</t>
+  </si>
+  <si>
+    <t>"5R4/14"</t>
+  </si>
+  <si>
+    <t>"N1"</t>
+  </si>
+  <si>
+    <t>YR.segurança</t>
+  </si>
+  <si>
+    <t>Y.segurança</t>
+  </si>
+  <si>
+    <t>B.segurança</t>
+  </si>
+  <si>
+    <t>Branco</t>
+  </si>
+  <si>
+    <t>Preto</t>
+  </si>
+  <si>
+    <t>G.emblema</t>
+  </si>
+  <si>
+    <t>R.segurança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.canalização </t>
+  </si>
+  <si>
+    <t>C.claro</t>
+  </si>
+  <si>
+    <t>C.escuro</t>
+  </si>
+  <si>
+    <t>C.alumínio</t>
+  </si>
+  <si>
+    <t>"Laranja ou Red Yellow de segurança"</t>
+  </si>
+  <si>
+    <t>"Amarelo ou Yellow de segurança"</t>
+  </si>
+  <si>
+    <t>"Azul ou Blue de segurança"</t>
+  </si>
+  <si>
+    <t>"Cor Branca"</t>
+  </si>
+  <si>
+    <t>"Cor Cinza clara"</t>
+  </si>
+  <si>
+    <t>"Cor Cinza escuro"</t>
+  </si>
+  <si>
+    <t>"Cor Cinza alumínio"</t>
+  </si>
+  <si>
+    <t>"Cor Marrom de canalização"</t>
+  </si>
+  <si>
+    <t>"Cor Preta"</t>
+  </si>
+  <si>
+    <t>"Cor Verde Emblema"</t>
+  </si>
+  <si>
+    <t>"Cor Vermelho ou Red de segurança"</t>
+  </si>
+  <si>
+    <t>usado.por</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Usado em tubulações industrias de produtos químicos não gasosos"  </t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de gases não liquefeitos"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Usado em tubulações industrias de ar comprimido" </t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de vapor"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de vácuo"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de eletroduto"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de gases liquefeitos, inflamáveis e combustíveis de baixa viscosidade como óleo diesel, gasolina, querosene, óleo lubrificante e solventes"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de materiais fragmentados como minérios, petróleo bruto"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de inflamáveis e combustíveis de alta viscosidade como óleo combustível, asfalto, alcatrão ou piche"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de água, exceto a destinada a combater incêndio"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de água e outras substâncias destinadas a combater incêndio"</t>
+  </si>
+  <si>
+    <t>"NBR 6493"</t>
+  </si>
+  <si>
+    <t>norma</t>
+  </si>
+  <si>
+    <t>Cor.Munsell</t>
+  </si>
+  <si>
+    <t>Color específico del sistema  Munsell.</t>
+  </si>
+  <si>
+    <t>Color específico del catálogo Pantone.</t>
+  </si>
+  <si>
+    <t>Cor específica do sistema Munsell.</t>
+  </si>
+  <si>
+    <t>Cor específica do catálogo Pantone.</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2660,6 +2813,18 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2705,8 +2870,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3176,7 +3341,7 @@
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45777.720170601853</v>
+        <v>45778.500557291663</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3226,11 +3391,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U22" sqref="U22"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3251,7 +3416,7 @@
     <col min="15" max="15" width="6.42578125" customWidth="1"/>
     <col min="16" max="16" width="35.7109375" customWidth="1"/>
     <col min="17" max="17" width="37.42578125" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" style="59" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="59" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
     <col min="20" max="20" width="5.42578125" customWidth="1"/>
     <col min="21" max="21" width="6" customWidth="1"/>
@@ -3347,7 +3512,7 @@
         <v>127</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>1</v>
@@ -3362,14 +3527,14 @@
         <v>1</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L2" s="34" t="str">
         <f>_xlfn.CONCAT(C2)</f>
         <v>Cromático</v>
       </c>
       <c r="M2" s="34" t="str">
-        <f t="shared" ref="M2:O15" si="0">_xlfn.CONCAT("", D2)</f>
+        <f t="shared" ref="M2:O16" si="0">_xlfn.CONCAT("", D2)</f>
         <v>Paleta</v>
       </c>
       <c r="N2" s="34" t="str">
@@ -3381,16 +3546,16 @@
         <v>Cyan</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R2" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S2" s="36" t="str">
-        <f t="shared" ref="S2:U15" si="1">SUBSTITUTE(C2, "_", " ")</f>
+        <f t="shared" ref="S2:U16" si="1">SUBSTITUTE(C2, "_", " ")</f>
         <v>Cromático</v>
       </c>
       <c r="T2" s="36" t="str">
@@ -3426,7 +3591,7 @@
         <v>127</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>1</v>
@@ -3441,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L3" s="34" t="str">
         <f>_xlfn.CONCAT(C3)</f>
@@ -3460,10 +3625,10 @@
         <v>Magenta</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R3" s="58" t="s">
         <v>92</v>
@@ -3484,7 +3649,7 @@
         <v>93</v>
       </c>
       <c r="W3" s="38" t="str">
-        <f t="shared" ref="W3:W15" si="8">CONCATENATE("Key.Croma",".",A3)</f>
+        <f t="shared" ref="W3:W16" si="8">CONCATENATE("Key.Croma",".",A3)</f>
         <v>Key.Croma.3</v>
       </c>
     </row>
@@ -3505,7 +3670,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>1</v>
@@ -3520,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L4" s="34" t="str">
         <f>_xlfn.CONCAT(C4)</f>
@@ -3539,10 +3704,10 @@
         <v>Yellow</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R4" s="58" t="s">
         <v>92</v>
@@ -3584,7 +3749,7 @@
         <v>127</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>1</v>
@@ -3599,14 +3764,14 @@
         <v>1</v>
       </c>
       <c r="K5" s="53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L5" s="34" t="str">
-        <f t="shared" ref="L5:L15" si="9">_xlfn.CONCAT(C5)</f>
+        <f t="shared" ref="L5:L16" si="9">_xlfn.CONCAT(C5)</f>
         <v>Cromático</v>
       </c>
       <c r="M5" s="34" t="str">
-        <f t="shared" ref="M5:M15" si="10">_xlfn.CONCAT("", D5)</f>
+        <f t="shared" ref="M5:M16" si="10">_xlfn.CONCAT("", D5)</f>
         <v>Paleta</v>
       </c>
       <c r="N5" s="34" t="str">
@@ -3618,10 +3783,10 @@
         <v>Black</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R5" s="58" t="s">
         <v>92</v>
@@ -3697,10 +3862,10 @@
         <v>Red</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R6" s="58" t="s">
         <v>92</v>
@@ -3776,10 +3941,10 @@
         <v>Green</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R7" s="58" t="s">
         <v>92</v>
@@ -3855,10 +4020,10 @@
         <v>Blue</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="R8" s="58" t="s">
         <v>92</v>
@@ -3934,10 +4099,10 @@
         <v>Alfa</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="R9" s="58" t="s">
         <v>92</v>
@@ -3979,7 +4144,7 @@
         <v>101</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>1</v>
@@ -3991,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L10" s="22" t="str">
         <f t="shared" si="17"/>
@@ -4013,10 +4178,10 @@
         <v>CMY</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="R10" s="58" t="s">
         <v>92</v>
@@ -4058,7 +4223,7 @@
         <v>101</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>1</v>
@@ -4073,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L11" s="22" t="str">
         <f t="shared" si="17"/>
@@ -4092,10 +4257,10 @@
         <v>CMYB</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R11" s="58" t="s">
         <v>92</v>
@@ -4137,7 +4302,7 @@
         <v>101</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>1</v>
@@ -4171,10 +4336,10 @@
         <v>RGB</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="R12" s="58" t="s">
         <v>92</v>
@@ -4216,7 +4381,7 @@
         <v>101</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>1</v>
@@ -4250,10 +4415,10 @@
         <v>RGBA</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="R13" s="58" t="s">
         <v>92</v>
@@ -4292,10 +4457,10 @@
         <v>121</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
@@ -4329,10 +4494,10 @@
         <v>Hue</v>
       </c>
       <c r="P14" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q14" s="22" t="s">
         <v>265</v>
-      </c>
-      <c r="Q14" s="22" t="s">
-        <v>267</v>
       </c>
       <c r="R14" s="58" t="s">
         <v>92</v>
@@ -4371,10 +4536,10 @@
         <v>121</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>1</v>
@@ -4408,10 +4573,10 @@
         <v>Luminosidade</v>
       </c>
       <c r="P15" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q15" s="22" t="s">
         <v>266</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>268</v>
       </c>
       <c r="R15" s="58" t="s">
         <v>92</v>
@@ -4450,10 +4615,10 @@
         <v>121</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G16" s="54" t="s">
         <v>1</v>
@@ -4471,47 +4636,47 @@
         <v>1</v>
       </c>
       <c r="L16" s="22" t="str">
-        <f t="shared" ref="L16" si="19">_xlfn.CONCAT(C16)</f>
+        <f t="shared" si="9"/>
         <v>Cromático</v>
       </c>
       <c r="M16" s="22" t="str">
-        <f t="shared" ref="M16" si="20">_xlfn.CONCAT("", D16)</f>
+        <f t="shared" si="10"/>
         <v>Paleta</v>
       </c>
       <c r="N16" s="22" t="str">
-        <f t="shared" ref="N16" si="21">_xlfn.CONCAT("", E16)</f>
+        <f t="shared" si="0"/>
         <v>Munsell</v>
       </c>
       <c r="O16" s="22" t="str">
-        <f t="shared" ref="O16" si="22">_xlfn.CONCAT("", F16)</f>
+        <f t="shared" si="0"/>
         <v>Croma</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="R16" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S16" s="36" t="str">
-        <f t="shared" ref="S16" si="23">SUBSTITUTE(C16, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
       <c r="T16" s="36" t="str">
-        <f t="shared" ref="T16" si="24">SUBSTITUTE(D16, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
       <c r="U16" s="35" t="str">
-        <f t="shared" ref="U16" si="25">SUBSTITUTE(E16, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Munsell</v>
       </c>
       <c r="V16" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W16" s="38" t="str">
-        <f t="shared" ref="W16" si="26">CONCATENATE("Key.Croma",".",A16)</f>
+        <f t="shared" si="8"/>
         <v>Key.Croma.16</v>
       </c>
     </row>
@@ -4526,13 +4691,13 @@
         <v>120</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>134</v>
+        <v>327</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>1</v>
@@ -4550,47 +4715,47 @@
         <v>1</v>
       </c>
       <c r="L17" s="22" t="str">
-        <f t="shared" ref="L17" si="27">_xlfn.CONCAT(C17)</f>
+        <f t="shared" ref="L17" si="19">_xlfn.CONCAT(C17)</f>
         <v>Cromático</v>
       </c>
       <c r="M17" s="22" t="str">
-        <f t="shared" ref="M17" si="28">_xlfn.CONCAT("", D17)</f>
-        <v>Catálogo</v>
+        <f t="shared" ref="M17" si="20">_xlfn.CONCAT("", D17)</f>
+        <v>Paleta</v>
       </c>
       <c r="N17" s="22" t="str">
-        <f t="shared" ref="N17" si="29">_xlfn.CONCAT("", E17)</f>
-        <v>Pantone</v>
+        <f t="shared" ref="N17" si="21">_xlfn.CONCAT("", E17)</f>
+        <v>Munsell</v>
       </c>
       <c r="O17" s="22" t="str">
-        <f t="shared" ref="O17" si="30">_xlfn.CONCAT("", F17)</f>
-        <v xml:space="preserve">Cor.Pantone </v>
+        <f t="shared" ref="O17" si="22">_xlfn.CONCAT("", F17)</f>
+        <v>Cor.Munsell</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>140</v>
+        <v>330</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>328</v>
       </c>
       <c r="R17" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S17" s="36" t="str">
-        <f t="shared" ref="S17" si="31">SUBSTITUTE(C17, "_", " ")</f>
+        <f t="shared" ref="S17" si="23">SUBSTITUTE(C17, "_", " ")</f>
         <v>Cromático</v>
       </c>
       <c r="T17" s="36" t="str">
-        <f t="shared" ref="T17" si="32">SUBSTITUTE(D17, "_", " ")</f>
-        <v>Catálogo</v>
+        <f t="shared" ref="T17" si="24">SUBSTITUTE(D17, "_", " ")</f>
+        <v>Paleta</v>
       </c>
       <c r="U17" s="35" t="str">
-        <f t="shared" ref="U17" si="33">SUBSTITUTE(E17, "_", " ")</f>
-        <v>Pantone</v>
+        <f t="shared" ref="U17" si="25">SUBSTITUTE(E17, "_", " ")</f>
+        <v>Munsell</v>
       </c>
       <c r="V17" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W17" s="38" t="str">
-        <f t="shared" ref="W17" si="34">CONCATENATE("Key.Croma",".",A17)</f>
+        <f t="shared" ref="W17" si="26">CONCATENATE("Key.Croma",".",A17)</f>
         <v>Key.Croma.17</v>
       </c>
     </row>
@@ -4608,10 +4773,10 @@
         <v>138</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G18" s="54" t="s">
         <v>1</v>
@@ -4629,48 +4794,127 @@
         <v>1</v>
       </c>
       <c r="L18" s="22" t="str">
-        <f t="shared" ref="L18" si="35">_xlfn.CONCAT(C18)</f>
+        <f t="shared" ref="L18" si="27">_xlfn.CONCAT(C18)</f>
         <v>Cromático</v>
       </c>
       <c r="M18" s="22" t="str">
-        <f t="shared" ref="M18" si="36">_xlfn.CONCAT("", D18)</f>
+        <f t="shared" ref="M18" si="28">_xlfn.CONCAT("", D18)</f>
         <v>Catálogo</v>
       </c>
       <c r="N18" s="22" t="str">
-        <f t="shared" ref="N18" si="37">_xlfn.CONCAT("", E18)</f>
-        <v>DNIT</v>
+        <f t="shared" ref="N18" si="29">_xlfn.CONCAT("", E18)</f>
+        <v>Pantone</v>
       </c>
       <c r="O18" s="22" t="str">
-        <f t="shared" ref="O18" si="38">_xlfn.CONCAT("", F18)</f>
-        <v xml:space="preserve">Cor.Dnit </v>
+        <f t="shared" ref="O18" si="30">_xlfn.CONCAT("", F18)</f>
+        <v xml:space="preserve">Cor.Pantone </v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>211</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>212</v>
+        <v>329</v>
       </c>
       <c r="R18" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S18" s="36" t="str">
-        <f t="shared" ref="S18" si="39">SUBSTITUTE(C18, "_", " ")</f>
+        <f t="shared" ref="S18" si="31">SUBSTITUTE(C18, "_", " ")</f>
         <v>Cromático</v>
       </c>
       <c r="T18" s="36" t="str">
-        <f t="shared" ref="T18" si="40">SUBSTITUTE(D18, "_", " ")</f>
+        <f t="shared" ref="T18" si="32">SUBSTITUTE(D18, "_", " ")</f>
         <v>Catálogo</v>
       </c>
       <c r="U18" s="35" t="str">
-        <f t="shared" ref="U18" si="41">SUBSTITUTE(E18, "_", " ")</f>
-        <v>DNIT</v>
+        <f t="shared" ref="U18" si="33">SUBSTITUTE(E18, "_", " ")</f>
+        <v>Pantone</v>
       </c>
       <c r="V18" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W18" s="38" t="str">
-        <f t="shared" ref="W18" si="42">CONCATENATE("Key.Croma",".",A18)</f>
+        <f t="shared" ref="W18" si="34">CONCATENATE("Key.Croma",".",A18)</f>
         <v>Key.Croma.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69">
+        <v>19</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="22" t="str">
+        <f t="shared" ref="L19" si="35">_xlfn.CONCAT(C19)</f>
+        <v>Cromático</v>
+      </c>
+      <c r="M19" s="22" t="str">
+        <f t="shared" ref="M19" si="36">_xlfn.CONCAT("", D19)</f>
+        <v>Catálogo</v>
+      </c>
+      <c r="N19" s="22" t="str">
+        <f t="shared" ref="N19" si="37">_xlfn.CONCAT("", E19)</f>
+        <v>DNIT</v>
+      </c>
+      <c r="O19" s="22" t="str">
+        <f t="shared" ref="O19" si="38">_xlfn.CONCAT("", F19)</f>
+        <v xml:space="preserve">Cor.Dnit </v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="R19" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="S19" s="36" t="str">
+        <f t="shared" ref="S19" si="39">SUBSTITUTE(C19, "_", " ")</f>
+        <v>Cromático</v>
+      </c>
+      <c r="T19" s="36" t="str">
+        <f t="shared" ref="T19" si="40">SUBSTITUTE(D19, "_", " ")</f>
+        <v>Catálogo</v>
+      </c>
+      <c r="U19" s="35" t="str">
+        <f t="shared" ref="U19" si="41">SUBSTITUTE(E19, "_", " ")</f>
+        <v>DNIT</v>
+      </c>
+      <c r="V19" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="W19" s="38" t="str">
+        <f t="shared" ref="W19" si="42">CONCATENATE("Key.Croma",".",A19)</f>
+        <v>Key.Croma.19</v>
       </c>
     </row>
   </sheetData>
@@ -4917,7 +5161,7 @@
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4961,11 +5205,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52033-0BF0-4BCC-B911-A6BC1CA10036}">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A47"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4973,19 +5217,21 @@
     <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="11" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" style="50" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="51" customWidth="1"/>
+    <col min="13" max="13" width="85.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="51" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="51" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="51" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4.42578125" style="51" customWidth="1"/>
-    <col min="19" max="19" width="25.42578125" style="51" customWidth="1"/>
+    <col min="19" max="19" width="32.5703125" style="51" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" style="51" customWidth="1"/>
     <col min="21" max="21" width="5.5703125" style="51" customWidth="1"/>
     <col min="22" max="22" width="3.85546875" style="51" customWidth="1"/>
@@ -5359,7 +5605,7 @@
         <v>122</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>1</v>
@@ -5386,10 +5632,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M6" s="60" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N6" s="56" t="s">
         <v>108</v>
@@ -5431,7 +5677,7 @@
         <v>123</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>1</v>
@@ -5458,10 +5704,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M7" s="60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N7" s="56" t="s">
         <v>108</v>
@@ -5503,7 +5749,7 @@
         <v>124</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>1</v>
@@ -5530,10 +5776,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="60" t="s">
         <v>193</v>
-      </c>
-      <c r="M8" s="60" t="s">
-        <v>195</v>
       </c>
       <c r="N8" s="56" t="s">
         <v>108</v>
@@ -5575,7 +5821,7 @@
         <v>111</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>1</v>
@@ -5602,10 +5848,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M9" s="60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N9" s="56" t="s">
         <v>108</v>
@@ -5647,7 +5893,7 @@
         <v>112</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>1</v>
@@ -5674,10 +5920,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M10" s="60" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N10" s="56" t="s">
         <v>108</v>
@@ -5719,7 +5965,7 @@
         <v>113</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>1</v>
@@ -5746,10 +5992,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M11" s="60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N11" s="56" t="s">
         <v>108</v>
@@ -5788,10 +6034,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>1</v>
@@ -5818,10 +6064,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M12" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N12" s="56" t="s">
         <v>108</v>
@@ -5860,10 +6106,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>1</v>
@@ -5890,10 +6136,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M13" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N13" s="56" t="s">
         <v>108</v>
@@ -5932,10 +6178,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>1</v>
@@ -5962,10 +6208,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M14" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N14" s="56" t="s">
         <v>108</v>
@@ -6004,10 +6250,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>1</v>
@@ -6034,10 +6280,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M15" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N15" s="56" t="s">
         <v>108</v>
@@ -6076,7 +6322,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>138</v>
@@ -6106,28 +6352,28 @@
         <v>1</v>
       </c>
       <c r="L16" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M16" s="60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N16" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q16" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="O16" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="P16" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q16" s="60" t="s">
-        <v>188</v>
-      </c>
       <c r="R16" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="T16" s="55" t="s">
         <v>1</v>
@@ -6148,7 +6394,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>138</v>
@@ -6178,34 +6424,34 @@
         <v>1</v>
       </c>
       <c r="L17" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M17" s="60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N17" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O17" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="P17" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="P17" s="55" t="s">
-        <v>192</v>
-      </c>
       <c r="Q17" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="R17" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="R17" s="55" t="s">
-        <v>193</v>
-      </c>
       <c r="S17" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="T17" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="U17" s="60" t="s">
         <v>202</v>
-      </c>
-      <c r="T17" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="U17" s="60" t="s">
-        <v>204</v>
       </c>
       <c r="V17" s="55" t="s">
         <v>1</v>
@@ -6226,16 +6472,16 @@
         <v>134</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>1</v>
@@ -6250,25 +6496,25 @@
         <v>1</v>
       </c>
       <c r="L18" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M18" s="60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N18" s="56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O18" s="60">
         <v>0</v>
       </c>
       <c r="P18" s="56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q18" s="60">
         <v>0</v>
       </c>
       <c r="R18" s="55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S18" s="60">
         <v>100</v>
@@ -6280,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="W18" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6292,22 +6538,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>1</v>
@@ -6322,25 +6568,25 @@
         <v>1</v>
       </c>
       <c r="L19" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M19" s="60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N19" s="56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O19" s="60">
         <v>63</v>
       </c>
       <c r="P19" s="56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="60">
         <v>23</v>
       </c>
       <c r="R19" s="55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S19" s="60">
         <v>100</v>
@@ -6352,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="W19" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6364,22 +6610,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>134</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>1</v>
@@ -6394,25 +6640,25 @@
         <v>1</v>
       </c>
       <c r="L20" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M20" s="60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N20" s="56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O20" s="60">
         <v>100</v>
       </c>
       <c r="P20" s="56" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="60">
         <v>0</v>
       </c>
       <c r="R20" s="55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="S20" s="60">
         <v>100</v>
@@ -6424,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="V20" s="55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="W20" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6436,10 +6682,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>1</v>
@@ -6466,10 +6712,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M21" s="60" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N21" s="65" t="s">
         <v>1</v>
@@ -6507,16 +6753,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F22" s="39" t="s">
         <v>1</v>
@@ -6537,10 +6783,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M22" s="60" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N22" s="65" t="s">
         <v>1</v>
@@ -6578,16 +6824,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>1</v>
@@ -6608,10 +6854,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M23" s="60" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N23" s="65" t="s">
         <v>1</v>
@@ -6649,16 +6895,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F24" s="39" t="s">
         <v>1</v>
@@ -6679,10 +6925,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M24" s="60" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N24" s="65" t="s">
         <v>1</v>
@@ -6720,16 +6966,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F25" s="39" t="s">
         <v>1</v>
@@ -6750,10 +6996,10 @@
         <v>1</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M25" s="60" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N25" s="65" t="s">
         <v>1</v>
@@ -6791,16 +7037,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F26" s="39" t="s">
         <v>1</v>
@@ -6821,10 +7067,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M26" s="60" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N26" s="65" t="s">
         <v>1</v>
@@ -6862,16 +7108,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F27" s="39" t="s">
         <v>1</v>
@@ -6892,10 +7138,10 @@
         <v>1</v>
       </c>
       <c r="L27" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M27" s="60" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N27" s="65" t="s">
         <v>1</v>
@@ -6933,16 +7179,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F28" s="39" t="s">
         <v>1</v>
@@ -6963,10 +7209,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M28" s="60" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N28" s="65" t="s">
         <v>1</v>
@@ -7004,16 +7250,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>1</v>
@@ -7034,10 +7280,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M29" s="60" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N29" s="65" t="s">
         <v>1</v>
@@ -7075,17 +7321,17 @@
         <v>30</v>
       </c>
       <c r="B30" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>228</v>
-      </c>
       <c r="F30" s="39" t="s">
         <v>1</v>
       </c>
@@ -7105,10 +7351,10 @@
         <v>1</v>
       </c>
       <c r="L30" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M30" s="60" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N30" s="65" t="s">
         <v>1</v>
@@ -7146,16 +7392,16 @@
         <v>31</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F31" s="39" t="s">
         <v>1</v>
@@ -7176,10 +7422,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M31" s="60" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N31" s="65" t="s">
         <v>1</v>
@@ -7217,16 +7463,16 @@
         <v>32</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F32" s="39" t="s">
         <v>1</v>
@@ -7247,10 +7493,10 @@
         <v>1</v>
       </c>
       <c r="L32" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M32" s="60" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N32" s="65" t="s">
         <v>1</v>
@@ -7288,16 +7534,16 @@
         <v>33</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F33" s="39" t="s">
         <v>1</v>
@@ -7318,10 +7564,10 @@
         <v>1</v>
       </c>
       <c r="L33" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M33" s="60" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N33" s="65" t="s">
         <v>1</v>
@@ -7359,16 +7605,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F34" s="39" t="s">
         <v>1</v>
@@ -7389,10 +7635,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M34" s="60" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N34" s="65" t="s">
         <v>1</v>
@@ -7430,16 +7676,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E35" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F35" s="39" t="s">
         <v>1</v>
@@ -7460,10 +7706,10 @@
         <v>1</v>
       </c>
       <c r="L35" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M35" s="60" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N35" s="65" t="s">
         <v>1</v>
@@ -7501,16 +7747,16 @@
         <v>36</v>
       </c>
       <c r="B36" s="63" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F36" s="39" t="s">
         <v>1</v>
@@ -7531,10 +7777,10 @@
         <v>1</v>
       </c>
       <c r="L36" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M36" s="60" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N36" s="65" t="s">
         <v>1</v>
@@ -7572,16 +7818,16 @@
         <v>37</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>1</v>
@@ -7602,10 +7848,10 @@
         <v>1</v>
       </c>
       <c r="L37" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M37" s="60" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N37" s="65" t="s">
         <v>1</v>
@@ -7643,16 +7889,16 @@
         <v>38</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E38" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F38" s="39" t="s">
         <v>1</v>
@@ -7673,10 +7919,10 @@
         <v>1</v>
       </c>
       <c r="L38" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M38" s="60" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N38" s="65" t="s">
         <v>1</v>
@@ -7714,16 +7960,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>1</v>
@@ -7744,10 +7990,10 @@
         <v>1</v>
       </c>
       <c r="L39" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M39" s="60" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N39" s="65" t="s">
         <v>1</v>
@@ -7785,16 +8031,16 @@
         <v>40</v>
       </c>
       <c r="B40" s="63" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F40" s="39" t="s">
         <v>1</v>
@@ -7815,10 +8061,10 @@
         <v>1</v>
       </c>
       <c r="L40" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M40" s="60" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N40" s="65" t="s">
         <v>1</v>
@@ -7856,16 +8102,16 @@
         <v>41</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>1</v>
@@ -7886,10 +8132,10 @@
         <v>1</v>
       </c>
       <c r="L41" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M41" s="60" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N41" s="65" t="s">
         <v>1</v>
@@ -7927,16 +8173,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>1</v>
@@ -7957,10 +8203,10 @@
         <v>1</v>
       </c>
       <c r="L42" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M42" s="60" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N42" s="65" t="s">
         <v>1</v>
@@ -7998,16 +8244,16 @@
         <v>43</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F43" s="39" t="s">
         <v>1</v>
@@ -8028,10 +8274,10 @@
         <v>1</v>
       </c>
       <c r="L43" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M43" s="60" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N43" s="65" t="s">
         <v>1</v>
@@ -8069,16 +8315,16 @@
         <v>44</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F44" s="39" t="s">
         <v>1</v>
@@ -8099,10 +8345,10 @@
         <v>1</v>
       </c>
       <c r="L44" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M44" s="60" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N44" s="65" t="s">
         <v>1</v>
@@ -8140,16 +8386,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E45" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F45" s="39" t="s">
         <v>1</v>
@@ -8170,10 +8416,10 @@
         <v>1</v>
       </c>
       <c r="L45" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M45" s="60" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N45" s="65" t="s">
         <v>1</v>
@@ -8211,16 +8457,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E46" s="64" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F46" s="39" t="s">
         <v>1</v>
@@ -8241,10 +8487,10 @@
         <v>1</v>
       </c>
       <c r="L46" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M46" s="60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N46" s="65" t="s">
         <v>1</v>
@@ -8282,41 +8528,41 @@
         <v>47</v>
       </c>
       <c r="B47" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="M47" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="E47" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G47" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I47" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J47" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K47" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="M47" s="60" t="s">
-        <v>275</v>
-      </c>
       <c r="N47" s="65" t="s">
         <v>1</v>
       </c>
@@ -8345,6 +8591,787 @@
         <v>1</v>
       </c>
       <c r="W47" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40">
+        <v>48</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="M48" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="N48" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="O48" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="P48" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q48" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="R48" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="S48" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="T48" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U48" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V48" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W48" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="40">
+        <v>49</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="M49" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="N49" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="O49" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="P49" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q49" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="R49" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="S49" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="T49" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U49" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V49" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W49" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="40">
+        <v>50</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="M50" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="N50" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="O50" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="P50" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q50" s="66" t="s">
+        <v>286</v>
+      </c>
+      <c r="R50" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="S50" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="T50" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U50" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V50" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W50" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="40">
+        <v>51</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="M51" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="N51" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="O51" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="P51" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q51" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="R51" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="S51" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="T51" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U51" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V51" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W51" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="40">
+        <v>52</v>
+      </c>
+      <c r="B52" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="M52" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="N52" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="O52" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="P52" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q52" s="66" t="s">
+        <v>285</v>
+      </c>
+      <c r="R52" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="S52" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="T52" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U52" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V52" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W52" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="40">
+        <v>53</v>
+      </c>
+      <c r="B53" s="63" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L53" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="M53" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="N53" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="O53" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="P53" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q53" s="66" t="s">
+        <v>282</v>
+      </c>
+      <c r="R53" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="S53" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="T53" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U53" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V53" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W53" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="40">
+        <v>54</v>
+      </c>
+      <c r="B54" s="63" t="s">
+        <v>301</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="M54" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="N54" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="O54" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="P54" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q54" s="66" t="s">
+        <v>287</v>
+      </c>
+      <c r="R54" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="S54" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="T54" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U54" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V54" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W54" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="40">
+        <v>55</v>
+      </c>
+      <c r="B55" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="M55" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="N55" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="O55" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="P55" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q55" s="66" t="s">
+        <v>281</v>
+      </c>
+      <c r="R55" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="S55" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="T55" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U55" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V55" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W55" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="40">
+        <v>56</v>
+      </c>
+      <c r="B56" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="M56" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="N56" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="O56" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="P56" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q56" s="66" t="s">
+        <v>290</v>
+      </c>
+      <c r="R56" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="S56" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="T56" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U56" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V56" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W56" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="40">
+        <v>57</v>
+      </c>
+      <c r="B57" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L57" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="M57" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="N57" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="O57" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="P57" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q57" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="R57" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="S57" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="T57" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U57" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V57" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W57" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="40">
+        <v>58</v>
+      </c>
+      <c r="B58" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="M58" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="N58" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="O58" s="68" t="s">
+        <v>312</v>
+      </c>
+      <c r="P58" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q58" s="66" t="s">
+        <v>289</v>
+      </c>
+      <c r="R58" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="S58" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="T58" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="U58" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="V58" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="W58" s="60" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0E5854-24D7-44B9-A7F6-9B974D640609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8E5B3D-FC42-455E-9A39-4E43F7CF5FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45778.500557291663</v>
+        <v>45779.540511226849</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5207,8 +5207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52033-0BF0-4BCC-B911-A6BC1CA10036}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D48" sqref="D48:D58"/>
     </sheetView>
   </sheetViews>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8E5B3D-FC42-455E-9A39-4E43F7CF5FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6A79C2-324B-44A3-A38A-211BD63A8C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
-    <sheet name="Classes" sheetId="29" r:id="rId2"/>
+    <sheet name="Classes" sheetId="31" r:id="rId2"/>
     <sheet name="Disjunt" sheetId="3" r:id="rId3"/>
     <sheet name="Interop" sheetId="27" r:id="rId4"/>
     <sheet name="FatosIn" sheetId="30" r:id="rId5"/>
@@ -1639,30 +1639,18 @@
     <t>Puro.B</t>
   </si>
   <si>
-    <t xml:space="preserve">Red and Green and Blue </t>
-  </si>
-  <si>
     <t>rgb</t>
   </si>
   <si>
     <t>Canal</t>
   </si>
   <si>
-    <t>é.rgb some Cor.Digital or é.rgba some Cor.Digital</t>
-  </si>
-  <si>
     <t>é.red min 0  ,  é.red max 255</t>
   </si>
   <si>
-    <t>é.green min 0  ,  é.green  max 255</t>
-  </si>
-  <si>
     <t>é.blue min 0  ,  é.blue max 255</t>
   </si>
   <si>
-    <t>é.alfa min 0  ,  é.alfa  max 255</t>
-  </si>
-  <si>
     <t>Pantone</t>
   </si>
   <si>
@@ -1714,24 +1702,9 @@
     <t>RGBA</t>
   </si>
   <si>
-    <t>é.cyan min 0  ,  é.cyan max 255</t>
-  </si>
-  <si>
     <t>é.magenta min 0  ,  é.magenta  max 255</t>
   </si>
   <si>
-    <t>é.yellow min 0  ,  é.yellow max 255</t>
-  </si>
-  <si>
-    <t>é.black min 0  ,  é.black  max 255</t>
-  </si>
-  <si>
-    <t>é.cmy some Cor.Digital or é.cmyb some Cor.Digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyan and Magenta and Yellow </t>
-  </si>
-  <si>
     <t>Cyan and Magenta and Yellow  and Black</t>
   </si>
   <si>
@@ -2258,6 +2231,33 @@
   </si>
   <si>
     <t>Cor específica do catálogo Pantone.</t>
+  </si>
+  <si>
+    <t>Red and Green and Blue</t>
+  </si>
+  <si>
+    <t>é.cyan min 0 , é.cyan max 255</t>
+  </si>
+  <si>
+    <t>é.yellow min 0 , é.yellow max 255</t>
+  </si>
+  <si>
+    <t>é.black min 0 , é.black  max 255</t>
+  </si>
+  <si>
+    <t>é.green min 0 , é.green  max 255</t>
+  </si>
+  <si>
+    <t>é.alfa min 0 , é.alfa  max 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyan   and  Magenta  and   Yellow  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">é.cmy    some Cor.Digital or é.cmyb some Cor.Digital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">é.rgb some Cor.Digital or é.rgba some Cor.Digital </t>
   </si>
 </sst>
 </file>
@@ -2620,7 +2620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2824,6 +2824,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3185,7 +3194,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
@@ -3341,7 +3350,7 @@
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45779.540511226849</v>
+        <v>45798.37527546296</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3390,38 +3399,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B770001-58CE-4E71-B2CC-A6FBE18AE4D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" customWidth="1"/>
-    <col min="16" max="16" width="35.7109375" customWidth="1"/>
-    <col min="17" max="17" width="37.42578125" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="59" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" customWidth="1"/>
-    <col min="21" max="21" width="6" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="101.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="98.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3495,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>2</v>
       </c>
@@ -3509,10 +3512,10 @@
         <v>121</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>1</v>
@@ -3527,14 +3530,14 @@
         <v>1</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="L2" s="34" t="str">
         <f>_xlfn.CONCAT(C2)</f>
         <v>Cromático</v>
       </c>
       <c r="M2" s="34" t="str">
-        <f t="shared" ref="M2:O16" si="0">_xlfn.CONCAT("", D2)</f>
+        <f t="shared" ref="M2:O17" si="0">_xlfn.CONCAT("", D2)</f>
         <v>Paleta</v>
       </c>
       <c r="N2" s="34" t="str">
@@ -3546,16 +3549,16 @@
         <v>Cyan</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="R2" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S2" s="36" t="str">
-        <f t="shared" ref="S2:U16" si="1">SUBSTITUTE(C2, "_", " ")</f>
+        <f t="shared" ref="S2:U17" si="1">SUBSTITUTE(C2, "_", " ")</f>
         <v>Cromático</v>
       </c>
       <c r="T2" s="36" t="str">
@@ -3574,7 +3577,7 @@
         <v>Key.Croma.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>3</v>
       </c>
@@ -3588,10 +3591,10 @@
         <v>121</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>1</v>
@@ -3606,54 +3609,54 @@
         <v>1</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L3" s="34" t="str">
         <f>_xlfn.CONCAT(C3)</f>
         <v>Cromático</v>
       </c>
       <c r="M3" s="34" t="str">
-        <f t="shared" ref="M3:M4" si="2">_xlfn.CONCAT("", D3)</f>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N3" s="34" t="str">
-        <f t="shared" ref="N3:N4" si="3">_xlfn.CONCAT("", E3)</f>
+        <f t="shared" si="0"/>
         <v>Canal</v>
       </c>
       <c r="O3" s="34" t="str">
-        <f t="shared" ref="O3:O4" si="4">_xlfn.CONCAT("", F3)</f>
+        <f t="shared" si="0"/>
         <v>Magenta</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="R3" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S3" s="36" t="str">
-        <f t="shared" ref="S3:S4" si="5">SUBSTITUTE(C3, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
       <c r="T3" s="36" t="str">
-        <f t="shared" ref="T3:T4" si="6">SUBSTITUTE(D3, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
       <c r="U3" s="35" t="str">
-        <f t="shared" ref="U3:U4" si="7">SUBSTITUTE(E3, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Canal</v>
       </c>
       <c r="V3" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W3" s="38" t="str">
-        <f t="shared" ref="W3:W16" si="8">CONCATENATE("Key.Croma",".",A3)</f>
+        <f t="shared" ref="W3:W19" si="2">CONCATENATE("Key.Croma",".",A3)</f>
         <v>Key.Croma.3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>4</v>
       </c>
@@ -3667,10 +3670,10 @@
         <v>121</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>1</v>
@@ -3685,54 +3688,54 @@
         <v>1</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>152</v>
+        <v>325</v>
       </c>
       <c r="L4" s="34" t="str">
         <f>_xlfn.CONCAT(C4)</f>
         <v>Cromático</v>
       </c>
       <c r="M4" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N4" s="34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>Canal</v>
       </c>
       <c r="O4" s="34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Yellow</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="R4" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S4" s="36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
       <c r="T4" s="36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
       <c r="U4" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>Canal</v>
       </c>
       <c r="V4" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W4" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Key.Croma.4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>5</v>
       </c>
@@ -3746,10 +3749,10 @@
         <v>121</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>1</v>
@@ -3764,14 +3767,14 @@
         <v>1</v>
       </c>
       <c r="K5" s="53" t="s">
-        <v>153</v>
+        <v>326</v>
       </c>
       <c r="L5" s="34" t="str">
-        <f t="shared" ref="L5:L16" si="9">_xlfn.CONCAT(C5)</f>
+        <f t="shared" ref="L5:L19" si="3">_xlfn.CONCAT(C5)</f>
         <v>Cromático</v>
       </c>
       <c r="M5" s="34" t="str">
-        <f t="shared" ref="M5:M16" si="10">_xlfn.CONCAT("", D5)</f>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N5" s="34" t="str">
@@ -3783,10 +3786,10 @@
         <v>Black</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="R5" s="58" t="s">
         <v>92</v>
@@ -3807,11 +3810,11 @@
         <v>93</v>
       </c>
       <c r="W5" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Key.Croma.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>6</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>121</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>97</v>
@@ -3843,43 +3846,43 @@
         <v>1</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L6" s="34" t="str">
         <f>_xlfn.CONCAT(C6)</f>
         <v>Cromático</v>
       </c>
       <c r="M6" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N6" s="34" t="str">
-        <f t="shared" ref="N6:N11" si="11">_xlfn.CONCAT("", E6)</f>
+        <f t="shared" si="0"/>
         <v>Canal</v>
       </c>
       <c r="O6" s="34" t="str">
-        <f t="shared" ref="O6:O11" si="12">_xlfn.CONCAT("", F6)</f>
+        <f t="shared" si="0"/>
         <v>Red</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="R6" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S6" s="36" t="str">
-        <f t="shared" ref="S6:S11" si="13">SUBSTITUTE(C6, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
       <c r="T6" s="36" t="str">
-        <f t="shared" ref="T6:T11" si="14">SUBSTITUTE(D6, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
       <c r="U6" s="35" t="str">
-        <f t="shared" ref="U6:U11" si="15">SUBSTITUTE(E6, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Canal</v>
       </c>
       <c r="V6" s="37" t="s">
@@ -3890,7 +3893,7 @@
         <v>Key.Croma.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>7</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>121</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>98</v>
@@ -3922,54 +3925,54 @@
         <v>1</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c r="L7" s="34" t="str">
         <f>_xlfn.CONCAT(C7)</f>
         <v>Cromático</v>
       </c>
       <c r="M7" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N7" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>Canal</v>
       </c>
       <c r="O7" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>Green</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="R7" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S7" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
       <c r="T7" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
       <c r="U7" s="35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="1"/>
         <v>Canal</v>
       </c>
       <c r="V7" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W7" s="38" t="str">
-        <f t="shared" ref="W7:W11" si="16">CONCATENATE("Key.Croma",".",A7)</f>
+        <f t="shared" ref="W7:W11" si="4">CONCATENATE("Key.Croma",".",A7)</f>
         <v>Key.Croma.7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>8</v>
       </c>
@@ -3983,7 +3986,7 @@
         <v>121</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>99</v>
@@ -4001,54 +4004,54 @@
         <v>1</v>
       </c>
       <c r="K8" s="53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L8" s="34" t="str">
         <f>_xlfn.CONCAT(C8)</f>
         <v>Cromático</v>
       </c>
       <c r="M8" s="34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N8" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>Canal</v>
       </c>
       <c r="O8" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>Blue</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="R8" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S8" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
       <c r="T8" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
       <c r="U8" s="35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="1"/>
         <v>Canal</v>
       </c>
       <c r="V8" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W8" s="38" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>Key.Croma.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>9</v>
       </c>
@@ -4062,7 +4065,7 @@
         <v>121</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>100</v>
@@ -4080,54 +4083,54 @@
         <v>1</v>
       </c>
       <c r="K9" s="53" t="s">
-        <v>132</v>
+        <v>328</v>
       </c>
       <c r="L9" s="34" t="str">
-        <f t="shared" ref="L9:L11" si="17">_xlfn.CONCAT(C9)</f>
+        <f t="shared" ref="L9:L11" si="5">_xlfn.CONCAT(C9)</f>
         <v>Cromático</v>
       </c>
       <c r="M9" s="34" t="str">
-        <f t="shared" ref="M9:M11" si="18">_xlfn.CONCAT("", D9)</f>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N9" s="34" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>Canal</v>
       </c>
       <c r="O9" s="34" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>Alfa</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="R9" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S9" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
       <c r="T9" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
       <c r="U9" s="35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="1"/>
         <v>Canal</v>
       </c>
       <c r="V9" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W9" s="38" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>Key.Croma.9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>10</v>
       </c>
@@ -4144,7 +4147,7 @@
         <v>101</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>1</v>
@@ -4156,57 +4159,57 @@
         <v>1</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>154</v>
+        <v>330</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>155</v>
+        <v>329</v>
       </c>
       <c r="L10" s="22" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>Cromático</v>
       </c>
       <c r="M10" s="22" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N10" s="22" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>Cor.Digital</v>
       </c>
       <c r="O10" s="22" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>CMY</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="R10" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S10" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
       <c r="T10" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
       <c r="U10" s="35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="1"/>
         <v>Cor.Digital</v>
       </c>
       <c r="V10" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W10" s="38" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>Key.Croma.10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>11</v>
       </c>
@@ -4223,69 +4226,69 @@
         <v>101</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="54" t="s">
-        <v>156</v>
-      </c>
       <c r="L11" s="22" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>Cromático</v>
       </c>
       <c r="M11" s="22" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N11" s="22" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="0"/>
         <v>Cor.Digital</v>
       </c>
       <c r="O11" s="22" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="0"/>
         <v>CMYB</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="R11" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S11" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
       <c r="T11" s="36" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
       <c r="U11" s="35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="1"/>
         <v>Cor.Digital</v>
       </c>
       <c r="V11" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W11" s="38" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>Key.Croma.11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>12</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>101</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>1</v>
@@ -4314,17 +4317,17 @@
         <v>1</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>128</v>
+        <v>331</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>125</v>
+        <v>323</v>
       </c>
       <c r="L12" s="22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Cromático</v>
       </c>
       <c r="M12" s="22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N12" s="22" t="str">
@@ -4336,10 +4339,10 @@
         <v>RGB</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="R12" s="58" t="s">
         <v>92</v>
@@ -4360,11 +4363,11 @@
         <v>93</v>
       </c>
       <c r="W12" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Key.Croma.12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>13</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>101</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>1</v>
@@ -4399,11 +4402,11 @@
         <v>115</v>
       </c>
       <c r="L13" s="22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Cromático</v>
       </c>
       <c r="M13" s="22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N13" s="22" t="str">
@@ -4415,10 +4418,10 @@
         <v>RGBA</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="R13" s="58" t="s">
         <v>92</v>
@@ -4439,11 +4442,11 @@
         <v>93</v>
       </c>
       <c r="W13" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Key.Croma.13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>14</v>
       </c>
@@ -4457,10 +4460,10 @@
         <v>121</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
@@ -4478,11 +4481,11 @@
         <v>1</v>
       </c>
       <c r="L14" s="22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Cromático</v>
       </c>
       <c r="M14" s="22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N14" s="22" t="str">
@@ -4494,10 +4497,10 @@
         <v>Hue</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="R14" s="58" t="s">
         <v>92</v>
@@ -4518,11 +4521,11 @@
         <v>93</v>
       </c>
       <c r="W14" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Key.Croma.14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>15</v>
       </c>
@@ -4536,10 +4539,10 @@
         <v>121</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>1</v>
@@ -4557,11 +4560,11 @@
         <v>1</v>
       </c>
       <c r="L15" s="22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Cromático</v>
       </c>
       <c r="M15" s="22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N15" s="22" t="str">
@@ -4573,10 +4576,10 @@
         <v>Luminosidade</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="R15" s="58" t="s">
         <v>92</v>
@@ -4597,11 +4600,11 @@
         <v>93</v>
       </c>
       <c r="W15" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Key.Croma.15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>16</v>
       </c>
@@ -4615,10 +4618,10 @@
         <v>121</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G16" s="54" t="s">
         <v>1</v>
@@ -4636,11 +4639,11 @@
         <v>1</v>
       </c>
       <c r="L16" s="22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>Cromático</v>
       </c>
       <c r="M16" s="22" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N16" s="22" t="str">
@@ -4652,10 +4655,10 @@
         <v>Croma</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="R16" s="58" t="s">
         <v>92</v>
@@ -4676,11 +4679,11 @@
         <v>93</v>
       </c>
       <c r="W16" s="38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>Key.Croma.16</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>17</v>
       </c>
@@ -4694,10 +4697,10 @@
         <v>121</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>1</v>
@@ -4715,51 +4718,51 @@
         <v>1</v>
       </c>
       <c r="L17" s="22" t="str">
-        <f t="shared" ref="L17" si="19">_xlfn.CONCAT(C17)</f>
+        <f t="shared" si="3"/>
         <v>Cromático</v>
       </c>
       <c r="M17" s="22" t="str">
-        <f t="shared" ref="M17" si="20">_xlfn.CONCAT("", D17)</f>
+        <f t="shared" si="0"/>
         <v>Paleta</v>
       </c>
       <c r="N17" s="22" t="str">
-        <f t="shared" ref="N17" si="21">_xlfn.CONCAT("", E17)</f>
+        <f t="shared" si="0"/>
         <v>Munsell</v>
       </c>
       <c r="O17" s="22" t="str">
-        <f t="shared" ref="O17" si="22">_xlfn.CONCAT("", F17)</f>
+        <f t="shared" si="0"/>
         <v>Cor.Munsell</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="R17" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S17" s="36" t="str">
-        <f t="shared" ref="S17" si="23">SUBSTITUTE(C17, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Cromático</v>
       </c>
       <c r="T17" s="36" t="str">
-        <f t="shared" ref="T17" si="24">SUBSTITUTE(D17, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Paleta</v>
       </c>
       <c r="U17" s="35" t="str">
-        <f t="shared" ref="U17" si="25">SUBSTITUTE(E17, "_", " ")</f>
+        <f t="shared" si="1"/>
         <v>Munsell</v>
       </c>
       <c r="V17" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W17" s="38" t="str">
-        <f t="shared" ref="W17" si="26">CONCATENATE("Key.Croma",".",A17)</f>
+        <f t="shared" si="2"/>
         <v>Key.Croma.17</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>18</v>
       </c>
@@ -4770,13 +4773,13 @@
         <v>120</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G18" s="54" t="s">
         <v>1</v>
@@ -4794,51 +4797,51 @@
         <v>1</v>
       </c>
       <c r="L18" s="22" t="str">
-        <f t="shared" ref="L18" si="27">_xlfn.CONCAT(C18)</f>
+        <f t="shared" si="3"/>
         <v>Cromático</v>
       </c>
       <c r="M18" s="22" t="str">
-        <f t="shared" ref="M18" si="28">_xlfn.CONCAT("", D18)</f>
+        <f t="shared" ref="M18:O19" si="6">_xlfn.CONCAT("", D18)</f>
         <v>Catálogo</v>
       </c>
       <c r="N18" s="22" t="str">
-        <f t="shared" ref="N18" si="29">_xlfn.CONCAT("", E18)</f>
+        <f t="shared" si="6"/>
         <v>Pantone</v>
       </c>
       <c r="O18" s="22" t="str">
-        <f t="shared" ref="O18" si="30">_xlfn.CONCAT("", F18)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Cor.Pantone </v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="R18" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S18" s="36" t="str">
-        <f t="shared" ref="S18" si="31">SUBSTITUTE(C18, "_", " ")</f>
+        <f t="shared" ref="S18:U19" si="7">SUBSTITUTE(C18, "_", " ")</f>
         <v>Cromático</v>
       </c>
       <c r="T18" s="36" t="str">
-        <f t="shared" ref="T18" si="32">SUBSTITUTE(D18, "_", " ")</f>
+        <f t="shared" si="7"/>
         <v>Catálogo</v>
       </c>
       <c r="U18" s="35" t="str">
-        <f t="shared" ref="U18" si="33">SUBSTITUTE(E18, "_", " ")</f>
+        <f t="shared" si="7"/>
         <v>Pantone</v>
       </c>
       <c r="V18" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W18" s="38" t="str">
-        <f t="shared" ref="W18" si="34">CONCATENATE("Key.Croma",".",A18)</f>
+        <f t="shared" si="2"/>
         <v>Key.Croma.18</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="69">
         <v>19</v>
       </c>
@@ -4849,13 +4852,13 @@
         <v>120</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>1</v>
@@ -4873,59 +4876,55 @@
         <v>1</v>
       </c>
       <c r="L19" s="22" t="str">
-        <f t="shared" ref="L19" si="35">_xlfn.CONCAT(C19)</f>
+        <f t="shared" si="3"/>
         <v>Cromático</v>
       </c>
       <c r="M19" s="22" t="str">
-        <f t="shared" ref="M19" si="36">_xlfn.CONCAT("", D19)</f>
+        <f t="shared" si="6"/>
         <v>Catálogo</v>
       </c>
       <c r="N19" s="22" t="str">
-        <f t="shared" ref="N19" si="37">_xlfn.CONCAT("", E19)</f>
+        <f t="shared" si="6"/>
         <v>DNIT</v>
       </c>
       <c r="O19" s="22" t="str">
-        <f t="shared" ref="O19" si="38">_xlfn.CONCAT("", F19)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Cor.Dnit </v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="R19" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S19" s="36" t="str">
-        <f t="shared" ref="S19" si="39">SUBSTITUTE(C19, "_", " ")</f>
+        <f t="shared" si="7"/>
         <v>Cromático</v>
       </c>
       <c r="T19" s="36" t="str">
-        <f t="shared" ref="T19" si="40">SUBSTITUTE(D19, "_", " ")</f>
+        <f t="shared" si="7"/>
         <v>Catálogo</v>
       </c>
       <c r="U19" s="35" t="str">
-        <f t="shared" ref="U19" si="41">SUBSTITUTE(E19, "_", " ")</f>
+        <f t="shared" si="7"/>
         <v>DNIT</v>
       </c>
       <c r="V19" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W19" s="38" t="str">
-        <f t="shared" ref="W19" si="42">CONCATENATE("Key.Croma",".",A19)</f>
+        <f t="shared" si="2"/>
         <v>Key.Croma.19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F1:F19">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5207,9 +5206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52033-0BF0-4BCC-B911-A6BC1CA10036}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48:D58"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5219,11 +5218,12 @@
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="85.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="50" bestFit="1" customWidth="1"/>
@@ -5260,16 +5260,16 @@
       <c r="G1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="70" t="s">
         <v>95</v>
       </c>
       <c r="L1" s="41" t="s">
@@ -5331,16 +5331,16 @@
       <c r="G2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="42" t="s">
+      <c r="H2" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="56" t="s">
@@ -5403,16 +5403,16 @@
       <c r="G3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="42" t="s">
+      <c r="H3" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="56" t="s">
@@ -5475,16 +5475,16 @@
       <c r="G4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="42" t="s">
+      <c r="H4" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L4" s="56" t="s">
@@ -5547,16 +5547,16 @@
       <c r="G5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="42" t="s">
+      <c r="H5" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L5" s="56" t="s">
@@ -5605,7 +5605,7 @@
         <v>122</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>1</v>
@@ -5619,23 +5619,23 @@
       <c r="G6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="42" t="s">
+      <c r="H6" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M6" s="60" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="N6" s="56" t="s">
         <v>108</v>
@@ -5662,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W6" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5677,7 +5677,7 @@
         <v>123</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>1</v>
@@ -5691,23 +5691,23 @@
       <c r="G7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="42" t="s">
+      <c r="H7" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M7" s="60" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="N7" s="56" t="s">
         <v>108</v>
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W7" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5749,7 +5749,7 @@
         <v>124</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>1</v>
@@ -5763,23 +5763,23 @@
       <c r="G8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="42" t="s">
+      <c r="H8" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M8" s="60" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="N8" s="56" t="s">
         <v>108</v>
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W8" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5821,7 +5821,7 @@
         <v>111</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>1</v>
@@ -5835,23 +5835,23 @@
       <c r="G9" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="42" t="s">
+      <c r="H9" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M9" s="60" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="N9" s="56" t="s">
         <v>108</v>
@@ -5878,7 +5878,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W9" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5893,7 +5893,7 @@
         <v>112</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>1</v>
@@ -5907,23 +5907,23 @@
       <c r="G10" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="42" t="s">
+      <c r="H10" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M10" s="60" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="N10" s="56" t="s">
         <v>108</v>
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W10" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5965,7 +5965,7 @@
         <v>113</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>1</v>
@@ -5979,23 +5979,23 @@
       <c r="G11" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="42" t="s">
+      <c r="H11" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M11" s="60" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="N11" s="56" t="s">
         <v>108</v>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W11" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6034,10 +6034,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>1</v>
@@ -6051,23 +6051,23 @@
       <c r="G12" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="42" t="s">
+      <c r="H12" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M12" s="60" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="N12" s="56" t="s">
         <v>108</v>
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W12" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6106,40 +6106,40 @@
         <v>13</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="M13" s="60" t="s">
         <v>206</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="M13" s="60" t="s">
-        <v>215</v>
       </c>
       <c r="N13" s="56" t="s">
         <v>108</v>
@@ -6166,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W13" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6178,10 +6178,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>1</v>
@@ -6195,23 +6195,23 @@
       <c r="G14" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="42" t="s">
+      <c r="H14" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L14" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M14" s="60" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="N14" s="56" t="s">
         <v>108</v>
@@ -6238,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="V14" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W14" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6250,10 +6250,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>1</v>
@@ -6267,23 +6267,23 @@
       <c r="G15" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="42" t="s">
+      <c r="H15" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M15" s="60" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="N15" s="56" t="s">
         <v>108</v>
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W15" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6322,10 +6322,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>1</v>
@@ -6339,41 +6339,41 @@
       <c r="G16" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="42" t="s">
+      <c r="H16" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L16" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M16" s="60" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="N16" s="55" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="O16" s="60" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="P16" s="55" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="60" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="R16" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="T16" s="55" t="s">
         <v>1</v>
@@ -6394,64 +6394,64 @@
         <v>17</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="55" t="s">
+      <c r="M17" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="N17" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="P17" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="R17" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="S17" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="M17" s="60" t="s">
-        <v>213</v>
-      </c>
-      <c r="N17" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="O17" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="P17" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q17" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="R17" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="S17" s="60" t="s">
-        <v>200</v>
-      </c>
       <c r="T17" s="55" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="U17" s="60" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="V17" s="55" t="s">
         <v>1</v>
@@ -6466,55 +6466,55 @@
         <v>18</v>
       </c>
       <c r="B18" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="61" t="s">
+      <c r="G18" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="55" t="s">
-        <v>191</v>
-      </c>
       <c r="M18" s="60" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="N18" s="56" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="O18" s="60">
         <v>0</v>
       </c>
       <c r="P18" s="56" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="60">
         <v>0</v>
       </c>
       <c r="R18" s="55" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="S18" s="60">
         <v>100</v>
@@ -6526,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="55" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="W18" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6538,55 +6538,55 @@
         <v>19</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E19" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="F19" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="55" t="s">
-        <v>191</v>
-      </c>
       <c r="M19" s="60" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="N19" s="56" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="O19" s="60">
         <v>63</v>
       </c>
       <c r="P19" s="56" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="60">
         <v>23</v>
       </c>
       <c r="R19" s="55" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="S19" s="60">
         <v>100</v>
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="55" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="W19" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6610,55 +6610,55 @@
         <v>20</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E20" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="F20" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="55" t="s">
-        <v>191</v>
-      </c>
       <c r="M20" s="60" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="N20" s="56" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="O20" s="60">
         <v>100</v>
       </c>
       <c r="P20" s="56" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="Q20" s="60">
         <v>0</v>
       </c>
       <c r="R20" s="55" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="S20" s="60">
         <v>100</v>
@@ -6670,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="V20" s="55" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="W20" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6682,10 +6682,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>1</v>
@@ -6699,23 +6699,23 @@
       <c r="G21" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="42" t="s">
+      <c r="H21" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L21" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M21" s="60" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="N21" s="65" t="s">
         <v>1</v>
@@ -6753,16 +6753,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F22" s="39" t="s">
         <v>1</v>
@@ -6770,23 +6770,23 @@
       <c r="G22" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="42" t="s">
+      <c r="H22" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L22" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M22" s="60" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="N22" s="65" t="s">
         <v>1</v>
@@ -6824,40 +6824,40 @@
         <v>23</v>
       </c>
       <c r="B23" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" s="64" t="s">
-        <v>226</v>
-      </c>
       <c r="F23" s="39" t="s">
         <v>1</v>
       </c>
       <c r="G23" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="42" t="s">
+      <c r="H23" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L23" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M23" s="60" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N23" s="65" t="s">
         <v>1</v>
@@ -6895,16 +6895,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F24" s="39" t="s">
         <v>1</v>
@@ -6912,23 +6912,23 @@
       <c r="G24" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="42" t="s">
+      <c r="H24" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L24" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M24" s="60" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="N24" s="65" t="s">
         <v>1</v>
@@ -6966,16 +6966,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F25" s="39" t="s">
         <v>1</v>
@@ -6983,23 +6983,23 @@
       <c r="G25" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="42" t="s">
+      <c r="H25" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M25" s="60" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="N25" s="65" t="s">
         <v>1</v>
@@ -7037,16 +7037,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F26" s="39" t="s">
         <v>1</v>
@@ -7054,23 +7054,23 @@
       <c r="G26" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J26" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="42" t="s">
+      <c r="H26" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L26" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M26" s="60" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="N26" s="65" t="s">
         <v>1</v>
@@ -7108,16 +7108,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F27" s="39" t="s">
         <v>1</v>
@@ -7125,23 +7125,23 @@
       <c r="G27" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="42" t="s">
+      <c r="H27" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L27" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M27" s="60" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="N27" s="65" t="s">
         <v>1</v>
@@ -7179,16 +7179,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F28" s="39" t="s">
         <v>1</v>
@@ -7196,23 +7196,23 @@
       <c r="G28" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="42" t="s">
+      <c r="H28" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L28" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M28" s="60" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="N28" s="65" t="s">
         <v>1</v>
@@ -7250,16 +7250,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>1</v>
@@ -7267,23 +7267,23 @@
       <c r="G29" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H29" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="42" t="s">
+      <c r="H29" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L29" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M29" s="60" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="N29" s="65" t="s">
         <v>1</v>
@@ -7321,16 +7321,16 @@
         <v>30</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F30" s="39" t="s">
         <v>1</v>
@@ -7338,23 +7338,23 @@
       <c r="G30" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="42" t="s">
+      <c r="H30" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L30" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M30" s="60" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="N30" s="65" t="s">
         <v>1</v>
@@ -7392,16 +7392,16 @@
         <v>31</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F31" s="39" t="s">
         <v>1</v>
@@ -7409,23 +7409,23 @@
       <c r="G31" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="42" t="s">
+      <c r="H31" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L31" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M31" s="60" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="N31" s="65" t="s">
         <v>1</v>
@@ -7463,16 +7463,16 @@
         <v>32</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F32" s="39" t="s">
         <v>1</v>
@@ -7480,23 +7480,23 @@
       <c r="G32" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H32" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="42" t="s">
+      <c r="H32" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L32" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M32" s="60" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="N32" s="65" t="s">
         <v>1</v>
@@ -7534,16 +7534,16 @@
         <v>33</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F33" s="39" t="s">
         <v>1</v>
@@ -7551,23 +7551,23 @@
       <c r="G33" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H33" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K33" s="42" t="s">
+      <c r="H33" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L33" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M33" s="60" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N33" s="65" t="s">
         <v>1</v>
@@ -7605,16 +7605,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F34" s="39" t="s">
         <v>1</v>
@@ -7622,23 +7622,23 @@
       <c r="G34" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" s="42" t="s">
+      <c r="H34" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L34" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M34" s="60" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="N34" s="65" t="s">
         <v>1</v>
@@ -7676,16 +7676,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E35" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F35" s="39" t="s">
         <v>1</v>
@@ -7693,23 +7693,23 @@
       <c r="G35" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J35" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K35" s="42" t="s">
+      <c r="H35" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L35" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M35" s="60" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="N35" s="65" t="s">
         <v>1</v>
@@ -7747,16 +7747,16 @@
         <v>36</v>
       </c>
       <c r="B36" s="63" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F36" s="39" t="s">
         <v>1</v>
@@ -7764,23 +7764,23 @@
       <c r="G36" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J36" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K36" s="42" t="s">
+      <c r="H36" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L36" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M36" s="60" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="N36" s="65" t="s">
         <v>1</v>
@@ -7818,16 +7818,16 @@
         <v>37</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>1</v>
@@ -7835,23 +7835,23 @@
       <c r="G37" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H37" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I37" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="42" t="s">
+      <c r="H37" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L37" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M37" s="60" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="N37" s="65" t="s">
         <v>1</v>
@@ -7889,16 +7889,16 @@
         <v>38</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E38" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F38" s="39" t="s">
         <v>1</v>
@@ -7906,23 +7906,23 @@
       <c r="G38" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H38" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J38" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K38" s="42" t="s">
+      <c r="H38" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L38" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M38" s="60" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="N38" s="65" t="s">
         <v>1</v>
@@ -7960,16 +7960,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>1</v>
@@ -7977,23 +7977,23 @@
       <c r="G39" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H39" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J39" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K39" s="42" t="s">
+      <c r="H39" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L39" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M39" s="60" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="N39" s="65" t="s">
         <v>1</v>
@@ -8031,16 +8031,16 @@
         <v>40</v>
       </c>
       <c r="B40" s="63" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F40" s="39" t="s">
         <v>1</v>
@@ -8048,23 +8048,23 @@
       <c r="G40" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H40" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I40" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K40" s="42" t="s">
+      <c r="H40" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L40" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M40" s="60" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="N40" s="65" t="s">
         <v>1</v>
@@ -8102,16 +8102,16 @@
         <v>41</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>1</v>
@@ -8119,23 +8119,23 @@
       <c r="G41" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J41" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K41" s="42" t="s">
+      <c r="H41" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L41" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M41" s="60" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="N41" s="65" t="s">
         <v>1</v>
@@ -8173,16 +8173,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>1</v>
@@ -8190,23 +8190,23 @@
       <c r="G42" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H42" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J42" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K42" s="42" t="s">
+      <c r="H42" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L42" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M42" s="60" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="N42" s="65" t="s">
         <v>1</v>
@@ -8244,16 +8244,16 @@
         <v>43</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F43" s="39" t="s">
         <v>1</v>
@@ -8261,23 +8261,23 @@
       <c r="G43" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I43" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J43" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K43" s="42" t="s">
+      <c r="H43" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L43" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M43" s="60" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="N43" s="65" t="s">
         <v>1</v>
@@ -8315,16 +8315,16 @@
         <v>44</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F44" s="39" t="s">
         <v>1</v>
@@ -8332,23 +8332,23 @@
       <c r="G44" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I44" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J44" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K44" s="42" t="s">
+      <c r="H44" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I44" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L44" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M44" s="60" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="N44" s="65" t="s">
         <v>1</v>
@@ -8386,16 +8386,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E45" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F45" s="39" t="s">
         <v>1</v>
@@ -8403,23 +8403,23 @@
       <c r="G45" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H45" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J45" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K45" s="42" t="s">
+      <c r="H45" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L45" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M45" s="60" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="N45" s="65" t="s">
         <v>1</v>
@@ -8457,16 +8457,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E46" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F46" s="39" t="s">
         <v>1</v>
@@ -8474,23 +8474,23 @@
       <c r="G46" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H46" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I46" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J46" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K46" s="42" t="s">
+      <c r="H46" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L46" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M46" s="60" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="N46" s="65" t="s">
         <v>1</v>
@@ -8528,16 +8528,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E47" s="64" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F47" s="39" t="s">
         <v>1</v>
@@ -8545,23 +8545,23 @@
       <c r="G47" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H47" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I47" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J47" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K47" s="42" t="s">
+      <c r="H47" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L47" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M47" s="60" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="N47" s="65" t="s">
         <v>1</v>
@@ -8599,10 +8599,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>1</v>
@@ -8616,41 +8616,41 @@
       <c r="G48" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H48" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="42" t="s">
+      <c r="H48" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L48" s="55" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M48" s="66" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="N48" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O48" s="68" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P48" s="67" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q48" s="66" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="R48" s="56" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="S48" s="60" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="T48" s="56" t="s">
         <v>1</v>
@@ -8670,10 +8670,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>1</v>
@@ -8687,41 +8687,41 @@
       <c r="G49" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H49" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I49" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J49" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K49" s="42" t="s">
+      <c r="H49" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L49" s="55" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M49" s="66" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="N49" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O49" s="68" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="P49" s="67" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q49" s="60" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="R49" s="56" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="S49" s="60" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="T49" s="56" t="s">
         <v>1</v>
@@ -8741,10 +8741,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>1</v>
@@ -8758,41 +8758,41 @@
       <c r="G50" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H50" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I50" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K50" s="42" t="s">
+      <c r="H50" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L50" s="55" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M50" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="N50" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="O50" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="P50" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q50" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="R50" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="S50" s="60" t="s">
         <v>316</v>
-      </c>
-      <c r="N50" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="O50" s="68" t="s">
-        <v>304</v>
-      </c>
-      <c r="P50" s="67" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q50" s="66" t="s">
-        <v>286</v>
-      </c>
-      <c r="R50" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="S50" s="60" t="s">
-        <v>325</v>
       </c>
       <c r="T50" s="56" t="s">
         <v>1</v>
@@ -8812,10 +8812,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>1</v>
@@ -8829,41 +8829,41 @@
       <c r="G51" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H51" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I51" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J51" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K51" s="42" t="s">
+      <c r="H51" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L51" s="55" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M51" s="66" t="s">
+        <v>308</v>
+      </c>
+      <c r="N51" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="O51" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="P51" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q51" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="R51" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="N51" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="O51" s="68" t="s">
-        <v>305</v>
-      </c>
-      <c r="P51" s="67" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q51" s="66" t="s">
-        <v>283</v>
-      </c>
-      <c r="R51" s="56" t="s">
-        <v>326</v>
-      </c>
       <c r="S51" s="60" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="T51" s="56" t="s">
         <v>1</v>
@@ -8883,10 +8883,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>1</v>
@@ -8900,41 +8900,41 @@
       <c r="G52" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H52" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I52" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J52" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K52" s="42" t="s">
+      <c r="H52" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L52" s="55" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M52" s="66" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="N52" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O52" s="68" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="P52" s="67" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q52" s="66" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="R52" s="56" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="S52" s="60" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="T52" s="56" t="s">
         <v>1</v>
@@ -8954,10 +8954,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="63" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>1</v>
@@ -8971,41 +8971,41 @@
       <c r="G53" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H53" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I53" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J53" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K53" s="42" t="s">
+      <c r="H53" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L53" s="55" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M53" s="66" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="N53" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O53" s="68" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="P53" s="67" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q53" s="66" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="R53" s="56" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="S53" s="60" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="T53" s="56" t="s">
         <v>1</v>
@@ -9025,10 +9025,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>1</v>
@@ -9042,41 +9042,41 @@
       <c r="G54" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H54" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I54" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J54" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K54" s="42" t="s">
+      <c r="H54" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L54" s="55" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M54" s="66" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="N54" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O54" s="68" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P54" s="67" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q54" s="66" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="R54" s="56" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="S54" s="60" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="T54" s="56" t="s">
         <v>1</v>
@@ -9096,10 +9096,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="63" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>1</v>
@@ -9113,41 +9113,41 @@
       <c r="G55" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H55" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I55" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J55" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K55" s="42" t="s">
+      <c r="H55" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L55" s="55" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M55" s="66" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="N55" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O55" s="68" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="P55" s="67" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q55" s="66" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="R55" s="56" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="S55" s="60" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="T55" s="56" t="s">
         <v>1</v>
@@ -9167,10 +9167,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="63" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>1</v>
@@ -9184,41 +9184,41 @@
       <c r="G56" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H56" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I56" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J56" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K56" s="42" t="s">
+      <c r="H56" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L56" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="M56" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="M56" s="66" t="s">
-        <v>322</v>
-      </c>
       <c r="N56" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O56" s="68" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="P56" s="67" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q56" s="66" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="R56" s="56" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="S56" s="60" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="T56" s="56" t="s">
         <v>1</v>
@@ -9238,10 +9238,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>1</v>
@@ -9255,41 +9255,41 @@
       <c r="G57" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H57" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I57" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J57" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K57" s="42" t="s">
+      <c r="H57" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L57" s="55" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M57" s="66" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="N57" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O57" s="68" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="P57" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q57" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="Q57" s="66" t="s">
-        <v>288</v>
-      </c>
       <c r="R57" s="56" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="S57" s="60" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="T57" s="56" t="s">
         <v>1</v>
@@ -9309,10 +9309,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>1</v>
@@ -9326,41 +9326,41 @@
       <c r="G58" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H58" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="I58" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J58" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="K58" s="42" t="s">
+      <c r="H58" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" s="72" t="s">
         <v>1</v>
       </c>
       <c r="L58" s="55" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M58" s="66" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="N58" s="55" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O58" s="68" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="P58" s="67" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q58" s="66" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="R58" s="56" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="S58" s="60" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="T58" s="56" t="s">
         <v>1</v>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6A79C2-324B-44A3-A38A-211BD63A8C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66DC0A2-B93E-4ECC-82FD-2475351AE87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="335">
   <si>
     <t>Key</t>
   </si>
@@ -1609,655 +1609,664 @@
     <t>alfa</t>
   </si>
   <si>
+    <t>Canal.R</t>
+  </si>
+  <si>
+    <t>Canal.G</t>
+  </si>
+  <si>
+    <t>Canal.B</t>
+  </si>
+  <si>
+    <t>Canal.A</t>
+  </si>
+  <si>
+    <t>Cromático</t>
+  </si>
+  <si>
+    <t>Paleta</t>
+  </si>
+  <si>
+    <t>Puro.R</t>
+  </si>
+  <si>
+    <t>Puro.G</t>
+  </si>
+  <si>
+    <t>Puro.B</t>
+  </si>
+  <si>
+    <t>rgb</t>
+  </si>
+  <si>
+    <t>Canal</t>
+  </si>
+  <si>
+    <t>Pantone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cor.Pantone </t>
+  </si>
+  <si>
+    <t>DNIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cor.Dnit </t>
+  </si>
+  <si>
+    <t>Pantone.116.C</t>
+  </si>
+  <si>
+    <t>Catálogo</t>
+  </si>
+  <si>
+    <t>Pantone.370.C</t>
+  </si>
+  <si>
+    <t>Pantone.3425.C</t>
+  </si>
+  <si>
+    <t>é.usado.por</t>
+  </si>
+  <si>
+    <t>Magenta</t>
+  </si>
+  <si>
+    <t>Cyan</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>CMY</t>
+  </si>
+  <si>
+    <t>CMYB</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>RGBA</t>
+  </si>
+  <si>
+    <t>Quantidade de ciano entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de magenta entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de amarelo entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de preto entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de vermelho entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de verde entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de azul entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Quantidade de transparência entre 0 e 255</t>
+  </si>
+  <si>
+    <t>Cor CMY digital definida</t>
+  </si>
+  <si>
+    <t>Cor CMYB digital com transparência</t>
+  </si>
+  <si>
+    <t>Cor RGB digital definida</t>
+  </si>
+  <si>
+    <t>Cantidad de cian entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de magenta entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de amarillo entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de negro entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de rojo entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de verde entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de azul entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Cantidad de transparencia entre 0 y 255</t>
+  </si>
+  <si>
+    <t>Conjunto de colores CMY digital</t>
+  </si>
+  <si>
+    <t>Color digital CMYB con transparencia</t>
+  </si>
+  <si>
+    <t>Conjunto de colores RGB digitales</t>
+  </si>
+  <si>
+    <t>Paleta.DNIT</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>Paleta.Pantone</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>"Paleta Cromática DNIT"</t>
+  </si>
+  <si>
+    <t>"Federal"</t>
+  </si>
+  <si>
+    <t>esfera</t>
+  </si>
+  <si>
+    <t>"Paleta Cromática Pantone"</t>
+  </si>
+  <si>
+    <t>"https://pantonecolors.net"</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>descrição</t>
+  </si>
+  <si>
+    <t>"Cores utilizadas pelo DNIT para as placas da rede viária"</t>
+  </si>
+  <si>
+    <t>"Azul aditivo puro"</t>
+  </si>
+  <si>
+    <t>"Verde aditivo puro"</t>
+  </si>
+  <si>
+    <t>"Vermelho aditivo puro"</t>
+  </si>
+  <si>
+    <t>"Cinza aditivo claro"</t>
+  </si>
+  <si>
+    <t>"Cinza aditivo escuro"</t>
+  </si>
+  <si>
+    <t>"Cinza aditivo médio"</t>
+  </si>
+  <si>
+    <t>é.pertencente.a</t>
+  </si>
+  <si>
+    <t>"Cores padronizadas no sistema Pantone Matching System"</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>"Pantone"</t>
+  </si>
+  <si>
+    <t>Cor.Sub.01</t>
+  </si>
+  <si>
+    <t>Cor.Sub.02</t>
+  </si>
+  <si>
+    <t>Cor.Adi.01</t>
+  </si>
+  <si>
+    <t>Cor.Adi.02</t>
+  </si>
+  <si>
+    <t>Cor RGBA digital com transparência</t>
+  </si>
+  <si>
+    <t>Color RGBA digital con transparencia</t>
+  </si>
+  <si>
+    <t>Cores do catálogo Departamento Nacional de Infraestrutura de Transportes do Brasil</t>
+  </si>
+  <si>
+    <t>Catálogo de colores del Departamento Nacional de Infraestructura de Transportes de Brasil</t>
+  </si>
+  <si>
+    <t>cmy</t>
+  </si>
+  <si>
+    <t>Munsell</t>
+  </si>
+  <si>
+    <t>"Cor Pantone"</t>
+  </si>
+  <si>
+    <t>"Cor CMY"</t>
+  </si>
+  <si>
+    <t>"Cor RGB"</t>
+  </si>
+  <si>
+    <t>Matiz.RP</t>
+  </si>
+  <si>
+    <t>Matiz.P</t>
+  </si>
+  <si>
+    <t>Matiz.PB</t>
+  </si>
+  <si>
+    <t>Matiz.B</t>
+  </si>
+  <si>
+    <t>Matiz.BG</t>
+  </si>
+  <si>
+    <t>Matiz.G</t>
+  </si>
+  <si>
+    <t>Matiz.GY</t>
+  </si>
+  <si>
+    <t>Matiz.Y</t>
+  </si>
+  <si>
+    <t>Matiz.YR</t>
+  </si>
+  <si>
+    <t>Matiz.R</t>
+  </si>
+  <si>
+    <t>Sistema.Munsell</t>
+  </si>
+  <si>
+    <t>"Sistema de cores Munsell"</t>
+  </si>
+  <si>
+    <t>N10</t>
+  </si>
+  <si>
+    <t>N00</t>
+  </si>
+  <si>
+    <t>N01</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>N05</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>N07</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
+    <t>N09</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) red-purple"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) purple"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) purple-blue"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) blue"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) blue-green"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) green"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) green-yellow"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) yellow"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) yellow-red"</t>
+  </si>
+  <si>
+    <t>"Matiz (HUE) red"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade 10 superior de valor branco"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  8 intermédio superior claros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  7 intermédio superior claros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  9 intermédio superior claros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  6 intermédio superior claros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  5 intermédio central"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  4 intermédio inferior escuros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  3 intermédio inferior escuros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  2 intermédio inferior escuros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  1 intermédio inferior escuros"</t>
+  </si>
+  <si>
+    <t>"Nível de luminosidade  0 inferior de valor negro"</t>
+  </si>
+  <si>
+    <t>Hue</t>
+  </si>
+  <si>
+    <t>Luminosidade</t>
+  </si>
+  <si>
+    <t>Croma</t>
+  </si>
+  <si>
+    <t>Matiz do sistema de cor Munsell</t>
+  </si>
+  <si>
+    <t>Luminosidade do sistema de cor Munsell</t>
+  </si>
+  <si>
+    <t>Matiz del sistema de color Munsell</t>
+  </si>
+  <si>
+    <t>Luminosidad del sistema de color Munsell</t>
+  </si>
+  <si>
+    <t>C00</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>"Nível de cromaticidade  0 é o cinza neutro"</t>
+  </si>
+  <si>
+    <t>"Nível de cromaticidade  20 é uma cor altamente saturada"</t>
+  </si>
+  <si>
+    <t>"Nível de cromaticidade  10 é uma cor forte saturada"</t>
+  </si>
+  <si>
+    <t>"Nível de cromaticidade  1 é uma cor fraca"</t>
+  </si>
+  <si>
+    <t>"Nível de cromaticidade  5 é uma cor fraca"</t>
+  </si>
+  <si>
+    <t>Croma do sistema de cor Munsell. É o grau de afastamento de uma cor em relação à cor neutra de mesmo valor. Um baixo croma enfraquece a cor. Um croma alto para cor saturada, forte ou vívida.</t>
+  </si>
+  <si>
+    <t>Chroma del sistema de color Munsell. Es el grado de distancia de un color al color neutro del mismo valor. Un croma bajo debilita el color. Un croma alto para colores saturados, fuertes o vivos.</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>"2.5YR6/14"</t>
+  </si>
+  <si>
+    <t>"2.5YR2/4"</t>
+  </si>
+  <si>
+    <t>"N3.5"</t>
+  </si>
+  <si>
+    <t>"N9.5"</t>
+  </si>
+  <si>
+    <t>"5Y8/12"</t>
+  </si>
+  <si>
+    <t>"N6.5"</t>
+  </si>
+  <si>
+    <t>"2.5PB4/10"</t>
+  </si>
+  <si>
+    <t>"Neutra"</t>
+  </si>
+  <si>
+    <t>"2.5G3/4"</t>
+  </si>
+  <si>
+    <t>"5R4/14"</t>
+  </si>
+  <si>
+    <t>"N1"</t>
+  </si>
+  <si>
+    <t>YR.segurança</t>
+  </si>
+  <si>
+    <t>Y.segurança</t>
+  </si>
+  <si>
+    <t>B.segurança</t>
+  </si>
+  <si>
+    <t>Branco</t>
+  </si>
+  <si>
+    <t>Preto</t>
+  </si>
+  <si>
+    <t>G.emblema</t>
+  </si>
+  <si>
+    <t>R.segurança</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.canalização </t>
+  </si>
+  <si>
+    <t>C.claro</t>
+  </si>
+  <si>
+    <t>C.escuro</t>
+  </si>
+  <si>
+    <t>C.alumínio</t>
+  </si>
+  <si>
+    <t>"Laranja ou Red Yellow de segurança"</t>
+  </si>
+  <si>
+    <t>"Amarelo ou Yellow de segurança"</t>
+  </si>
+  <si>
+    <t>"Azul ou Blue de segurança"</t>
+  </si>
+  <si>
+    <t>"Cor Branca"</t>
+  </si>
+  <si>
+    <t>"Cor Cinza clara"</t>
+  </si>
+  <si>
+    <t>"Cor Cinza escuro"</t>
+  </si>
+  <si>
+    <t>"Cor Cinza alumínio"</t>
+  </si>
+  <si>
+    <t>"Cor Marrom de canalização"</t>
+  </si>
+  <si>
+    <t>"Cor Preta"</t>
+  </si>
+  <si>
+    <t>"Cor Verde Emblema"</t>
+  </si>
+  <si>
+    <t>"Cor Vermelho ou Red de segurança"</t>
+  </si>
+  <si>
+    <t>usado.por</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Usado em tubulações industrias de produtos químicos não gasosos"  </t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de gases não liquefeitos"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Usado em tubulações industrias de ar comprimido" </t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de vapor"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de vácuo"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de eletroduto"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de gases liquefeitos, inflamáveis e combustíveis de baixa viscosidade como óleo diesel, gasolina, querosene, óleo lubrificante e solventes"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de materiais fragmentados como minérios, petróleo bruto"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de inflamáveis e combustíveis de alta viscosidade como óleo combustível, asfalto, alcatrão ou piche"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de água, exceto a destinada a combater incêndio"</t>
+  </si>
+  <si>
+    <t>"Usado em tubulações industrias de água e outras substâncias destinadas a combater incêndio"</t>
+  </si>
+  <si>
+    <t>"NBR 6493"</t>
+  </si>
+  <si>
+    <t>norma</t>
+  </si>
+  <si>
+    <t>Cor.Munsell</t>
+  </si>
+  <si>
+    <t>Color específico del sistema  Munsell.</t>
+  </si>
+  <si>
+    <t>Color específico del catálogo Pantone.</t>
+  </si>
+  <si>
+    <t>Cor específica do sistema Munsell.</t>
+  </si>
+  <si>
+    <t>Cor específica do catálogo Pantone.</t>
+  </si>
+  <si>
+    <t>"O DNIT utiliza as cores de um catálogo Pantone"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">é.cmyb some Cor.Digital </t>
+  </si>
+  <si>
+    <t>é.cmy   some Cor.Digital</t>
+  </si>
+  <si>
+    <t>é.rgb    some Cor.Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">é.rgba   some Cor.Digital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyan and Magenta and Yellow  </t>
+  </si>
+  <si>
+    <t>Cyan and Magenta and Yellow and Black</t>
+  </si>
+  <si>
+    <t>Red and Green and Blue</t>
+  </si>
+  <si>
     <t>Red and Green and Blue and Alfa</t>
   </si>
   <si>
-    <t>Canal.R</t>
-  </si>
-  <si>
-    <t>Canal.G</t>
-  </si>
-  <si>
-    <t>Canal.B</t>
-  </si>
-  <si>
-    <t>Canal.A</t>
-  </si>
-  <si>
-    <t>Cromático</t>
-  </si>
-  <si>
-    <t>Paleta</t>
-  </si>
-  <si>
-    <t>Puro.R</t>
-  </si>
-  <si>
-    <t>Puro.G</t>
-  </si>
-  <si>
-    <t>Puro.B</t>
-  </si>
-  <si>
-    <t>rgb</t>
-  </si>
-  <si>
-    <t>Canal</t>
-  </si>
-  <si>
-    <t>é.red min 0  ,  é.red max 255</t>
-  </si>
-  <si>
-    <t>é.blue min 0  ,  é.blue max 255</t>
-  </si>
-  <si>
-    <t>Pantone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cor.Pantone </t>
-  </si>
-  <si>
-    <t>DNIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cor.Dnit </t>
-  </si>
-  <si>
-    <t>Pantone.116.C</t>
-  </si>
-  <si>
-    <t>Catálogo</t>
-  </si>
-  <si>
-    <t>Pantone.370.C</t>
-  </si>
-  <si>
-    <t>Pantone.3425.C</t>
-  </si>
-  <si>
-    <t>é.usado.por</t>
-  </si>
-  <si>
-    <t>Magenta</t>
-  </si>
-  <si>
-    <t>Cyan</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>CMY</t>
-  </si>
-  <si>
-    <t>CMYB</t>
-  </si>
-  <si>
-    <t>RGB</t>
-  </si>
-  <si>
-    <t>RGBA</t>
-  </si>
-  <si>
-    <t>é.magenta min 0  ,  é.magenta  max 255</t>
-  </si>
-  <si>
-    <t>Cyan and Magenta and Yellow  and Black</t>
-  </si>
-  <si>
-    <t>Quantidade de ciano entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de magenta entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de amarelo entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de preto entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de vermelho entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de verde entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de azul entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de transparência entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Cor CMY digital definida</t>
-  </si>
-  <si>
-    <t>Cor CMYB digital com transparência</t>
-  </si>
-  <si>
-    <t>Cor RGB digital definida</t>
-  </si>
-  <si>
-    <t>Cantidad de cian entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de magenta entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de amarillo entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de negro entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de rojo entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de verde entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de azul entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de transparencia entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Conjunto de colores CMY digital</t>
-  </si>
-  <si>
-    <t>Color digital CMYB con transparencia</t>
-  </si>
-  <si>
-    <t>Conjunto de colores RGB digitales</t>
-  </si>
-  <si>
-    <t>Paleta.DNIT</t>
-  </si>
-  <si>
-    <t>magenta</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>Paleta.Pantone</t>
-  </si>
-  <si>
-    <t>cyan</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>"Paleta Cromática DNIT"</t>
-  </si>
-  <si>
-    <t>"Federal"</t>
-  </si>
-  <si>
-    <t>esfera</t>
-  </si>
-  <si>
-    <t>"Paleta Cromática Pantone"</t>
-  </si>
-  <si>
-    <t>"https://pantonecolors.net"</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>descrição</t>
-  </si>
-  <si>
-    <t>"Cores utilizadas pelo DNIT para as placas da rede viária"</t>
-  </si>
-  <si>
-    <t>"Azul aditivo puro"</t>
-  </si>
-  <si>
-    <t>"Verde aditivo puro"</t>
-  </si>
-  <si>
-    <t>"Vermelho aditivo puro"</t>
-  </si>
-  <si>
-    <t>"Cinza aditivo claro"</t>
-  </si>
-  <si>
-    <t>"Cinza aditivo escuro"</t>
-  </si>
-  <si>
-    <t>"Cinza aditivo médio"</t>
-  </si>
-  <si>
-    <t>é.pertencente.a</t>
-  </si>
-  <si>
-    <t>"Cores padronizadas no sistema Pantone Matching System"</t>
-  </si>
-  <si>
-    <t>marca</t>
-  </si>
-  <si>
-    <t>"Pantone"</t>
-  </si>
-  <si>
-    <t>Cor.Sub.01</t>
-  </si>
-  <si>
-    <t>Cor.Sub.02</t>
-  </si>
-  <si>
-    <t>Cor.Adi.01</t>
-  </si>
-  <si>
-    <t>Cor.Adi.02</t>
-  </si>
-  <si>
-    <t>Cor RGBA digital com transparência</t>
-  </si>
-  <si>
-    <t>Color RGBA digital con transparencia</t>
-  </si>
-  <si>
-    <t>Cores do catálogo Departamento Nacional de Infraestrutura de Transportes do Brasil</t>
-  </si>
-  <si>
-    <t>Catálogo de colores del Departamento Nacional de Infraestructura de Transportes de Brasil</t>
-  </si>
-  <si>
-    <t>cmy</t>
-  </si>
-  <si>
-    <t>Munsell</t>
-  </si>
-  <si>
-    <t>"Cor Pantone"</t>
-  </si>
-  <si>
-    <t>"Cor CMY"</t>
-  </si>
-  <si>
-    <t>"Cor RGB"</t>
-  </si>
-  <si>
-    <t>Matiz.RP</t>
-  </si>
-  <si>
-    <t>Matiz.P</t>
-  </si>
-  <si>
-    <t>Matiz.PB</t>
-  </si>
-  <si>
-    <t>Matiz.B</t>
-  </si>
-  <si>
-    <t>Matiz.BG</t>
-  </si>
-  <si>
-    <t>Matiz.G</t>
-  </si>
-  <si>
-    <t>Matiz.GY</t>
-  </si>
-  <si>
-    <t>Matiz.Y</t>
-  </si>
-  <si>
-    <t>Matiz.YR</t>
-  </si>
-  <si>
-    <t>Matiz.R</t>
-  </si>
-  <si>
-    <t>Sistema.Munsell</t>
-  </si>
-  <si>
-    <t>"Sistema de cores Munsell"</t>
-  </si>
-  <si>
-    <t>N10</t>
-  </si>
-  <si>
-    <t>N00</t>
-  </si>
-  <si>
-    <t>N01</t>
-  </si>
-  <si>
-    <t>N02</t>
-  </si>
-  <si>
-    <t>N03</t>
-  </si>
-  <si>
-    <t>N04</t>
-  </si>
-  <si>
-    <t>N05</t>
-  </si>
-  <si>
-    <t>N06</t>
-  </si>
-  <si>
-    <t>N07</t>
-  </si>
-  <si>
-    <t>N08</t>
-  </si>
-  <si>
-    <t>N09</t>
-  </si>
-  <si>
-    <t>"Matiz (HUE) red-purple"</t>
-  </si>
-  <si>
-    <t>"Matiz (HUE) purple"</t>
-  </si>
-  <si>
-    <t>"Matiz (HUE) purple-blue"</t>
-  </si>
-  <si>
-    <t>"Matiz (HUE) blue"</t>
-  </si>
-  <si>
-    <t>"Matiz (HUE) blue-green"</t>
-  </si>
-  <si>
-    <t>"Matiz (HUE) green"</t>
-  </si>
-  <si>
-    <t>"Matiz (HUE) green-yellow"</t>
-  </si>
-  <si>
-    <t>"Matiz (HUE) yellow"</t>
-  </si>
-  <si>
-    <t>"Matiz (HUE) yellow-red"</t>
-  </si>
-  <si>
-    <t>"Matiz (HUE) red"</t>
-  </si>
-  <si>
-    <t>"Nível de luminosidade 10 superior de valor branco"</t>
-  </si>
-  <si>
-    <t>"Nível de luminosidade  8 intermédio superior claros"</t>
-  </si>
-  <si>
-    <t>"Nível de luminosidade  7 intermédio superior claros"</t>
-  </si>
-  <si>
-    <t>"Nível de luminosidade  9 intermédio superior claros"</t>
-  </si>
-  <si>
-    <t>"Nível de luminosidade  6 intermédio superior claros"</t>
-  </si>
-  <si>
-    <t>"Nível de luminosidade  5 intermédio central"</t>
-  </si>
-  <si>
-    <t>"Nível de luminosidade  4 intermédio inferior escuros"</t>
-  </si>
-  <si>
-    <t>"Nível de luminosidade  3 intermédio inferior escuros"</t>
-  </si>
-  <si>
-    <t>"Nível de luminosidade  2 intermédio inferior escuros"</t>
-  </si>
-  <si>
-    <t>"Nível de luminosidade  1 intermédio inferior escuros"</t>
-  </si>
-  <si>
-    <t>"Nível de luminosidade  0 inferior de valor negro"</t>
-  </si>
-  <si>
-    <t>Hue</t>
-  </si>
-  <si>
-    <t>Luminosidade</t>
-  </si>
-  <si>
-    <t>Croma</t>
-  </si>
-  <si>
-    <t>Matiz do sistema de cor Munsell</t>
-  </si>
-  <si>
-    <t>Luminosidade do sistema de cor Munsell</t>
-  </si>
-  <si>
-    <t>Matiz del sistema de color Munsell</t>
-  </si>
-  <si>
-    <t>Luminosidad del sistema de color Munsell</t>
-  </si>
-  <si>
-    <t>C00</t>
-  </si>
-  <si>
-    <t>C01</t>
-  </si>
-  <si>
-    <t>C05</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>"Nível de cromaticidade  0 é o cinza neutro"</t>
-  </si>
-  <si>
-    <t>"Nível de cromaticidade  20 é uma cor altamente saturada"</t>
-  </si>
-  <si>
-    <t>"Nível de cromaticidade  10 é uma cor forte saturada"</t>
-  </si>
-  <si>
-    <t>"Nível de cromaticidade  1 é uma cor fraca"</t>
-  </si>
-  <si>
-    <t>"Nível de cromaticidade  5 é uma cor fraca"</t>
-  </si>
-  <si>
-    <t>Croma do sistema de cor Munsell. É o grau de afastamento de uma cor em relação à cor neutra de mesmo valor. Um baixo croma enfraquece a cor. Um croma alto para cor saturada, forte ou vívida.</t>
-  </si>
-  <si>
-    <t>Chroma del sistema de color Munsell. Es el grado de distancia de un color al color neutro del mismo valor. Un croma bajo debilita el color. Un croma alto para colores saturados, fuertes o vivos.</t>
-  </si>
-  <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>"2.5YR6/14"</t>
-  </si>
-  <si>
-    <t>"2.5YR2/4"</t>
-  </si>
-  <si>
-    <t>"N3.5"</t>
-  </si>
-  <si>
-    <t>"N9.5"</t>
-  </si>
-  <si>
-    <t>"5Y8/12"</t>
-  </si>
-  <si>
-    <t>"N6.5"</t>
-  </si>
-  <si>
-    <t>"2.5PB4/10"</t>
-  </si>
-  <si>
-    <t>"Neutra"</t>
-  </si>
-  <si>
-    <t>"2.5G3/4"</t>
-  </si>
-  <si>
-    <t>"5R4/14"</t>
-  </si>
-  <si>
-    <t>"N1"</t>
-  </si>
-  <si>
-    <t>YR.segurança</t>
-  </si>
-  <si>
-    <t>Y.segurança</t>
-  </si>
-  <si>
-    <t>B.segurança</t>
-  </si>
-  <si>
-    <t>Branco</t>
-  </si>
-  <si>
-    <t>Preto</t>
-  </si>
-  <si>
-    <t>G.emblema</t>
-  </si>
-  <si>
-    <t>R.segurança</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M.canalização </t>
-  </si>
-  <si>
-    <t>C.claro</t>
-  </si>
-  <si>
-    <t>C.escuro</t>
-  </si>
-  <si>
-    <t>C.alumínio</t>
-  </si>
-  <si>
-    <t>"Laranja ou Red Yellow de segurança"</t>
-  </si>
-  <si>
-    <t>"Amarelo ou Yellow de segurança"</t>
-  </si>
-  <si>
-    <t>"Azul ou Blue de segurança"</t>
-  </si>
-  <si>
-    <t>"Cor Branca"</t>
-  </si>
-  <si>
-    <t>"Cor Cinza clara"</t>
-  </si>
-  <si>
-    <t>"Cor Cinza escuro"</t>
-  </si>
-  <si>
-    <t>"Cor Cinza alumínio"</t>
-  </si>
-  <si>
-    <t>"Cor Marrom de canalização"</t>
-  </si>
-  <si>
-    <t>"Cor Preta"</t>
-  </si>
-  <si>
-    <t>"Cor Verde Emblema"</t>
-  </si>
-  <si>
-    <t>"Cor Vermelho ou Red de segurança"</t>
-  </si>
-  <si>
-    <t>usado.por</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Usado em tubulações industrias de produtos químicos não gasosos"  </t>
-  </si>
-  <si>
-    <t>"Usado em tubulações industrias de gases não liquefeitos"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Usado em tubulações industrias de ar comprimido" </t>
-  </si>
-  <si>
-    <t>"Usado em tubulações industrias de vapor"</t>
-  </si>
-  <si>
-    <t>"Usado em tubulações industrias de vácuo"</t>
-  </si>
-  <si>
-    <t>"Usado em tubulações industrias de eletroduto"</t>
-  </si>
-  <si>
-    <t>"Usado em tubulações industrias de gases liquefeitos, inflamáveis e combustíveis de baixa viscosidade como óleo diesel, gasolina, querosene, óleo lubrificante e solventes"</t>
-  </si>
-  <si>
-    <t>"Usado em tubulações industrias de materiais fragmentados como minérios, petróleo bruto"</t>
-  </si>
-  <si>
-    <t>"Usado em tubulações industrias de inflamáveis e combustíveis de alta viscosidade como óleo combustível, asfalto, alcatrão ou piche"</t>
-  </si>
-  <si>
-    <t>"Usado em tubulações industrias de água, exceto a destinada a combater incêndio"</t>
-  </si>
-  <si>
-    <t>"Usado em tubulações industrias de água e outras substâncias destinadas a combater incêndio"</t>
-  </si>
-  <si>
-    <t>"NBR 6493"</t>
-  </si>
-  <si>
-    <t>norma</t>
-  </si>
-  <si>
-    <t>Cor.Munsell</t>
-  </si>
-  <si>
-    <t>Color específico del sistema  Munsell.</t>
-  </si>
-  <si>
-    <t>Color específico del catálogo Pantone.</t>
-  </si>
-  <si>
-    <t>Cor específica do sistema Munsell.</t>
-  </si>
-  <si>
-    <t>Cor específica do catálogo Pantone.</t>
-  </si>
-  <si>
-    <t>Red and Green and Blue</t>
-  </si>
-  <si>
     <t>é.cyan min 0 , é.cyan max 255</t>
   </si>
   <si>
-    <t>é.yellow min 0 , é.yellow max 255</t>
-  </si>
-  <si>
-    <t>é.black min 0 , é.black  max 255</t>
-  </si>
-  <si>
-    <t>é.green min 0 , é.green  max 255</t>
-  </si>
-  <si>
-    <t>é.alfa min 0 , é.alfa  max 255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyan   and  Magenta  and   Yellow  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">é.cmy    some Cor.Digital or é.cmyb some Cor.Digital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">é.rgb some Cor.Digital or é.rgba some Cor.Digital </t>
+    <t>é.magenta min 0 , é.magenta  max 255</t>
+  </si>
+  <si>
+    <t>é.yellow min 0 , é.yellow  max 255</t>
+  </si>
+  <si>
+    <t>é.black min 0 , é.black max 255</t>
+  </si>
+  <si>
+    <t>é.red min 0  , é.red max 255</t>
+  </si>
+  <si>
+    <t>é.green min 0 , é.green max 255</t>
+  </si>
+  <si>
+    <t>é.blue min 0 , é.blue max 255</t>
+  </si>
+  <si>
+    <t>é.alfa  min 0 , é.alfa  max 255</t>
   </si>
 </sst>
 </file>
@@ -2895,7 +2904,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -3199,7 +3208,7 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
@@ -3350,7 +3359,7 @@
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45798.37527546296</v>
+        <v>45810.634883333332</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3402,11 +3411,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -3506,16 +3515,16 @@
         <v>96</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>121</v>
-      </c>
       <c r="E2" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>1</v>
@@ -3530,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L2" s="34" t="str">
         <f>_xlfn.CONCAT(C2)</f>
@@ -3549,10 +3558,10 @@
         <v>Cyan</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="R2" s="58" t="s">
         <v>92</v>
@@ -3585,16 +3594,16 @@
         <v>96</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>121</v>
-      </c>
       <c r="E3" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>1</v>
@@ -3609,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>146</v>
+        <v>328</v>
       </c>
       <c r="L3" s="34" t="str">
         <f>_xlfn.CONCAT(C3)</f>
@@ -3628,10 +3637,10 @@
         <v>Magenta</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="R3" s="58" t="s">
         <v>92</v>
@@ -3664,16 +3673,16 @@
         <v>96</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>121</v>
-      </c>
       <c r="E4" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>1</v>
@@ -3688,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L4" s="34" t="str">
         <f>_xlfn.CONCAT(C4)</f>
@@ -3707,10 +3716,10 @@
         <v>Yellow</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="R4" s="58" t="s">
         <v>92</v>
@@ -3743,16 +3752,16 @@
         <v>96</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>121</v>
-      </c>
       <c r="E5" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>1</v>
@@ -3767,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="53" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L5" s="34" t="str">
         <f t="shared" ref="L5:L19" si="3">_xlfn.CONCAT(C5)</f>
@@ -3786,10 +3795,10 @@
         <v>Black</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="R5" s="58" t="s">
         <v>92</v>
@@ -3822,13 +3831,13 @@
         <v>96</v>
       </c>
       <c r="C6" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>121</v>
-      </c>
       <c r="E6" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>97</v>
@@ -3846,7 +3855,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>127</v>
+        <v>331</v>
       </c>
       <c r="L6" s="34" t="str">
         <f>_xlfn.CONCAT(C6)</f>
@@ -3865,10 +3874,10 @@
         <v>Red</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="R6" s="58" t="s">
         <v>92</v>
@@ -3901,13 +3910,13 @@
         <v>96</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>121</v>
-      </c>
       <c r="E7" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>98</v>
@@ -3925,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L7" s="34" t="str">
         <f>_xlfn.CONCAT(C7)</f>
@@ -3944,10 +3953,10 @@
         <v>Green</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="R7" s="58" t="s">
         <v>92</v>
@@ -3980,13 +3989,13 @@
         <v>96</v>
       </c>
       <c r="C8" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>121</v>
-      </c>
       <c r="E8" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>99</v>
@@ -4004,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="53" t="s">
-        <v>128</v>
+        <v>333</v>
       </c>
       <c r="L8" s="34" t="str">
         <f>_xlfn.CONCAT(C8)</f>
@@ -4023,10 +4032,10 @@
         <v>Blue</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="R8" s="58" t="s">
         <v>92</v>
@@ -4059,13 +4068,13 @@
         <v>96</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>121</v>
-      </c>
       <c r="E9" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>100</v>
@@ -4083,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="53" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="L9" s="34" t="str">
         <f t="shared" ref="L9:L11" si="5">_xlfn.CONCAT(C9)</f>
@@ -4102,10 +4111,10 @@
         <v>Alfa</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="R9" s="58" t="s">
         <v>92</v>
@@ -4138,16 +4147,16 @@
         <v>96</v>
       </c>
       <c r="C10" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>120</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>121</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>1</v>
@@ -4159,10 +4168,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L10" s="22" t="str">
         <f t="shared" si="5"/>
@@ -4181,10 +4190,10 @@
         <v>CMY</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="R10" s="58" t="s">
         <v>92</v>
@@ -4217,16 +4226,16 @@
         <v>96</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="52" t="s">
         <v>120</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>121</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>1</v>
@@ -4238,10 +4247,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="54" t="s">
-        <v>1</v>
+        <v>319</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>147</v>
+        <v>324</v>
       </c>
       <c r="L11" s="22" t="str">
         <f t="shared" si="5"/>
@@ -4260,10 +4269,10 @@
         <v>CMYB</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R11" s="58" t="s">
         <v>92</v>
@@ -4296,16 +4305,16 @@
         <v>96</v>
       </c>
       <c r="C12" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>120</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>121</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>1</v>
@@ -4317,10 +4326,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L12" s="22" t="str">
         <f t="shared" si="3"/>
@@ -4339,10 +4348,10 @@
         <v>RGB</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="R12" s="58" t="s">
         <v>92</v>
@@ -4375,16 +4384,16 @@
         <v>96</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="52" t="s">
         <v>120</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>121</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>101</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>1</v>
@@ -4396,10 +4405,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="54" t="s">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>115</v>
+        <v>326</v>
       </c>
       <c r="L13" s="22" t="str">
         <f t="shared" si="3"/>
@@ -4418,10 +4427,10 @@
         <v>RGBA</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="R13" s="58" t="s">
         <v>92</v>
@@ -4454,16 +4463,16 @@
         <v>96</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="52" t="s">
-        <v>121</v>
-      </c>
       <c r="E14" s="52" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
@@ -4497,10 +4506,10 @@
         <v>Hue</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="R14" s="58" t="s">
         <v>92</v>
@@ -4533,16 +4542,16 @@
         <v>96</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>121</v>
-      </c>
       <c r="E15" s="52" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>1</v>
@@ -4576,10 +4585,10 @@
         <v>Luminosidade</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="R15" s="58" t="s">
         <v>92</v>
@@ -4612,16 +4621,16 @@
         <v>96</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="52" t="s">
-        <v>121</v>
-      </c>
       <c r="E16" s="52" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G16" s="54" t="s">
         <v>1</v>
@@ -4655,10 +4664,10 @@
         <v>Croma</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="R16" s="58" t="s">
         <v>92</v>
@@ -4691,16 +4700,16 @@
         <v>96</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="52" t="s">
-        <v>121</v>
-      </c>
       <c r="E17" s="52" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>1</v>
@@ -4734,10 +4743,10 @@
         <v>Cor.Munsell</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="R17" s="58" t="s">
         <v>92</v>
@@ -4770,16 +4779,16 @@
         <v>96</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G18" s="54" t="s">
         <v>1</v>
@@ -4813,10 +4822,10 @@
         <v xml:space="preserve">Cor.Pantone </v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="R18" s="58" t="s">
         <v>92</v>
@@ -4849,16 +4858,16 @@
         <v>96</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>1</v>
@@ -4892,10 +4901,10 @@
         <v xml:space="preserve">Cor.Dnit </v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R19" s="58" t="s">
         <v>92</v>
@@ -4938,7 +4947,7 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
@@ -5163,7 +5172,7 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -5206,17 +5215,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52033-0BF0-4BCC-B911-A6BC1CA10036}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
@@ -5233,7 +5242,7 @@
     <col min="18" max="18" width="4.42578125" style="51" customWidth="1"/>
     <col min="19" max="19" width="32.5703125" style="51" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" style="51" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" style="51" customWidth="1"/>
+    <col min="21" max="21" width="30" style="51" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.85546875" style="51" customWidth="1"/>
     <col min="23" max="23" width="7.5703125" style="51" customWidth="1"/>
   </cols>
@@ -5314,7 +5323,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>97</v>
@@ -5386,7 +5395,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>98</v>
@@ -5458,7 +5467,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>99</v>
@@ -5530,7 +5539,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>100</v>
@@ -5602,10 +5611,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>1</v>
@@ -5632,10 +5641,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M6" s="60" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N6" s="56" t="s">
         <v>108</v>
@@ -5662,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W6" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5674,10 +5683,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>1</v>
@@ -5704,10 +5713,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M7" s="60" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N7" s="56" t="s">
         <v>108</v>
@@ -5734,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W7" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5746,10 +5755,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>1</v>
@@ -5776,10 +5785,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M8" s="60" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N8" s="56" t="s">
         <v>108</v>
@@ -5806,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W8" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5821,7 +5830,7 @@
         <v>111</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>1</v>
@@ -5848,10 +5857,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="M9" s="60" t="s">
         <v>182</v>
-      </c>
-      <c r="M9" s="60" t="s">
-        <v>187</v>
       </c>
       <c r="N9" s="56" t="s">
         <v>108</v>
@@ -5878,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W9" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5893,7 +5902,7 @@
         <v>112</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>1</v>
@@ -5920,10 +5929,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M10" s="60" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N10" s="56" t="s">
         <v>108</v>
@@ -5950,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W10" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5965,7 +5974,7 @@
         <v>113</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>1</v>
@@ -5992,10 +6001,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M11" s="60" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="N11" s="56" t="s">
         <v>108</v>
@@ -6022,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W11" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6034,10 +6043,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>1</v>
@@ -6064,10 +6073,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M12" s="60" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N12" s="56" t="s">
         <v>108</v>
@@ -6094,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W12" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6106,10 +6115,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>1</v>
@@ -6136,10 +6145,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M13" s="60" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N13" s="56" t="s">
         <v>108</v>
@@ -6166,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W13" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6178,10 +6187,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>1</v>
@@ -6208,10 +6217,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M14" s="60" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N14" s="56" t="s">
         <v>108</v>
@@ -6238,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="V14" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W14" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6250,10 +6259,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>1</v>
@@ -6280,10 +6289,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M15" s="60" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N15" s="56" t="s">
         <v>108</v>
@@ -6310,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W15" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6322,64 +6331,64 @@
         <v>16</v>
       </c>
       <c r="B16" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="N16" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="M16" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="N16" s="55" t="s">
-        <v>175</v>
-      </c>
       <c r="O16" s="60" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P16" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="R16" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="S16" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="Q16" s="60" t="s">
+      <c r="T16" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="R16" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="S16" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="T16" s="55" t="s">
-        <v>1</v>
-      </c>
       <c r="U16" s="60" t="s">
-        <v>1</v>
+        <v>318</v>
       </c>
       <c r="V16" s="55" t="s">
         <v>1</v>
@@ -6394,10 +6403,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>1</v>
@@ -6424,34 +6433,34 @@
         <v>1</v>
       </c>
       <c r="L17" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M17" s="60" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N17" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q17" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="O17" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="P17" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q17" s="60" t="s">
-        <v>180</v>
-      </c>
       <c r="R17" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="S17" s="60" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="T17" s="55" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="U17" s="60" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="V17" s="55" t="s">
         <v>1</v>
@@ -6466,22 +6475,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H18" s="71" t="s">
         <v>1</v>
@@ -6496,25 +6505,25 @@
         <v>1</v>
       </c>
       <c r="L18" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M18" s="60" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N18" s="56" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O18" s="60">
         <v>0</v>
       </c>
       <c r="P18" s="56" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="60">
         <v>0</v>
       </c>
       <c r="R18" s="55" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S18" s="60">
         <v>100</v>
@@ -6526,7 +6535,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="55" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="W18" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6538,22 +6547,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H19" s="71" t="s">
         <v>1</v>
@@ -6568,25 +6577,25 @@
         <v>1</v>
       </c>
       <c r="L19" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M19" s="60" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N19" s="56" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O19" s="60">
         <v>63</v>
       </c>
       <c r="P19" s="56" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="60">
         <v>23</v>
       </c>
       <c r="R19" s="55" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S19" s="60">
         <v>100</v>
@@ -6598,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="55" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="W19" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6610,22 +6619,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H20" s="71" t="s">
         <v>1</v>
@@ -6640,25 +6649,25 @@
         <v>1</v>
       </c>
       <c r="L20" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M20" s="60" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N20" s="56" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O20" s="60">
         <v>100</v>
       </c>
       <c r="P20" s="56" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q20" s="60">
         <v>0</v>
       </c>
       <c r="R20" s="55" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S20" s="60">
         <v>100</v>
@@ -6670,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="V20" s="55" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="W20" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6682,10 +6691,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>1</v>
@@ -6712,10 +6721,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M21" s="60" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="N21" s="65" t="s">
         <v>1</v>
@@ -6753,16 +6762,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F22" s="39" t="s">
         <v>1</v>
@@ -6783,10 +6792,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M22" s="60" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N22" s="65" t="s">
         <v>1</v>
@@ -6824,16 +6833,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>1</v>
@@ -6854,10 +6863,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M23" s="60" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N23" s="65" t="s">
         <v>1</v>
@@ -6895,16 +6904,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F24" s="39" t="s">
         <v>1</v>
@@ -6925,10 +6934,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M24" s="60" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N24" s="65" t="s">
         <v>1</v>
@@ -6966,16 +6975,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F25" s="39" t="s">
         <v>1</v>
@@ -6996,10 +7005,10 @@
         <v>1</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M25" s="60" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N25" s="65" t="s">
         <v>1</v>
@@ -7037,16 +7046,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F26" s="39" t="s">
         <v>1</v>
@@ -7067,10 +7076,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M26" s="60" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N26" s="65" t="s">
         <v>1</v>
@@ -7108,17 +7117,17 @@
         <v>27</v>
       </c>
       <c r="B27" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" s="64" t="s">
-        <v>217</v>
-      </c>
       <c r="F27" s="39" t="s">
         <v>1</v>
       </c>
@@ -7138,10 +7147,10 @@
         <v>1</v>
       </c>
       <c r="L27" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M27" s="60" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="N27" s="65" t="s">
         <v>1</v>
@@ -7179,16 +7188,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F28" s="39" t="s">
         <v>1</v>
@@ -7209,10 +7218,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M28" s="60" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="N28" s="65" t="s">
         <v>1</v>
@@ -7250,16 +7259,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>1</v>
@@ -7280,10 +7289,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M29" s="60" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N29" s="65" t="s">
         <v>1</v>
@@ -7321,16 +7330,16 @@
         <v>30</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F30" s="39" t="s">
         <v>1</v>
@@ -7351,10 +7360,10 @@
         <v>1</v>
       </c>
       <c r="L30" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M30" s="60" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N30" s="65" t="s">
         <v>1</v>
@@ -7392,16 +7401,16 @@
         <v>31</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F31" s="39" t="s">
         <v>1</v>
@@ -7422,10 +7431,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M31" s="60" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N31" s="65" t="s">
         <v>1</v>
@@ -7463,16 +7472,16 @@
         <v>32</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F32" s="39" t="s">
         <v>1</v>
@@ -7493,10 +7502,10 @@
         <v>1</v>
       </c>
       <c r="L32" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M32" s="60" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N32" s="65" t="s">
         <v>1</v>
@@ -7534,16 +7543,16 @@
         <v>33</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F33" s="39" t="s">
         <v>1</v>
@@ -7564,10 +7573,10 @@
         <v>1</v>
       </c>
       <c r="L33" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M33" s="60" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N33" s="65" t="s">
         <v>1</v>
@@ -7605,16 +7614,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F34" s="39" t="s">
         <v>1</v>
@@ -7635,10 +7644,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M34" s="60" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N34" s="65" t="s">
         <v>1</v>
@@ -7676,16 +7685,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E35" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F35" s="39" t="s">
         <v>1</v>
@@ -7706,10 +7715,10 @@
         <v>1</v>
       </c>
       <c r="L35" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M35" s="60" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N35" s="65" t="s">
         <v>1</v>
@@ -7747,16 +7756,16 @@
         <v>36</v>
       </c>
       <c r="B36" s="63" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F36" s="39" t="s">
         <v>1</v>
@@ -7777,10 +7786,10 @@
         <v>1</v>
       </c>
       <c r="L36" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M36" s="60" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="N36" s="65" t="s">
         <v>1</v>
@@ -7818,16 +7827,16 @@
         <v>37</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>1</v>
@@ -7848,10 +7857,10 @@
         <v>1</v>
       </c>
       <c r="L37" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M37" s="60" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N37" s="65" t="s">
         <v>1</v>
@@ -7889,16 +7898,16 @@
         <v>38</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E38" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F38" s="39" t="s">
         <v>1</v>
@@ -7919,10 +7928,10 @@
         <v>1</v>
       </c>
       <c r="L38" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M38" s="60" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N38" s="65" t="s">
         <v>1</v>
@@ -7960,16 +7969,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>1</v>
@@ -7990,10 +7999,10 @@
         <v>1</v>
       </c>
       <c r="L39" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M39" s="60" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N39" s="65" t="s">
         <v>1</v>
@@ -8031,16 +8040,16 @@
         <v>40</v>
       </c>
       <c r="B40" s="63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F40" s="39" t="s">
         <v>1</v>
@@ -8061,10 +8070,10 @@
         <v>1</v>
       </c>
       <c r="L40" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M40" s="60" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="N40" s="65" t="s">
         <v>1</v>
@@ -8102,16 +8111,16 @@
         <v>41</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>1</v>
@@ -8132,10 +8141,10 @@
         <v>1</v>
       </c>
       <c r="L41" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M41" s="60" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="N41" s="65" t="s">
         <v>1</v>
@@ -8173,16 +8182,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>1</v>
@@ -8203,10 +8212,10 @@
         <v>1</v>
       </c>
       <c r="L42" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M42" s="60" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="N42" s="65" t="s">
         <v>1</v>
@@ -8244,40 +8253,40 @@
         <v>43</v>
       </c>
       <c r="B43" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="M43" s="60" t="s">
         <v>258</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="E43" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I43" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J43" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K43" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="L43" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="M43" s="60" t="s">
-        <v>263</v>
       </c>
       <c r="N43" s="65" t="s">
         <v>1</v>
@@ -8315,16 +8324,16 @@
         <v>44</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F44" s="39" t="s">
         <v>1</v>
@@ -8345,10 +8354,10 @@
         <v>1</v>
       </c>
       <c r="L44" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M44" s="60" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N44" s="65" t="s">
         <v>1</v>
@@ -8386,16 +8395,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E45" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F45" s="39" t="s">
         <v>1</v>
@@ -8416,10 +8425,10 @@
         <v>1</v>
       </c>
       <c r="L45" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M45" s="60" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N45" s="65" t="s">
         <v>1</v>
@@ -8457,16 +8466,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E46" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F46" s="39" t="s">
         <v>1</v>
@@ -8487,10 +8496,10 @@
         <v>1</v>
       </c>
       <c r="L46" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M46" s="60" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="N46" s="65" t="s">
         <v>1</v>
@@ -8528,16 +8537,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E47" s="64" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F47" s="39" t="s">
         <v>1</v>
@@ -8558,10 +8567,10 @@
         <v>1</v>
       </c>
       <c r="L47" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M47" s="60" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="N47" s="65" t="s">
         <v>1</v>
@@ -8599,10 +8608,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>1</v>
@@ -8629,28 +8638,28 @@
         <v>1</v>
       </c>
       <c r="L48" s="55" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M48" s="66" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="N48" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O48" s="68" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P48" s="67" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q48" s="66" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="R48" s="56" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="S48" s="60" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T48" s="56" t="s">
         <v>1</v>
@@ -8670,10 +8679,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>1</v>
@@ -8700,28 +8709,28 @@
         <v>1</v>
       </c>
       <c r="L49" s="55" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M49" s="66" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="N49" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O49" s="68" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P49" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q49" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="Q49" s="60" t="s">
-        <v>275</v>
-      </c>
       <c r="R49" s="56" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="S49" s="60" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T49" s="56" t="s">
         <v>1</v>
@@ -8741,10 +8750,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>1</v>
@@ -8771,28 +8780,28 @@
         <v>1</v>
       </c>
       <c r="L50" s="55" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M50" s="66" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="N50" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O50" s="68" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P50" s="67" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q50" s="66" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="R50" s="56" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="S50" s="60" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T50" s="56" t="s">
         <v>1</v>
@@ -8812,10 +8821,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>1</v>
@@ -8842,28 +8851,28 @@
         <v>1</v>
       </c>
       <c r="L51" s="55" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M51" s="66" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="N51" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O51" s="68" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P51" s="67" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q51" s="66" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="R51" s="56" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="S51" s="60" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T51" s="56" t="s">
         <v>1</v>
@@ -8883,10 +8892,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>1</v>
@@ -8913,28 +8922,28 @@
         <v>1</v>
       </c>
       <c r="L52" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="M52" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="M52" s="66" t="s">
-        <v>309</v>
-      </c>
       <c r="N52" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O52" s="68" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P52" s="67" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q52" s="66" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="R52" s="56" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="S52" s="60" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T52" s="56" t="s">
         <v>1</v>
@@ -8954,10 +8963,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="63" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>1</v>
@@ -8984,28 +8993,28 @@
         <v>1</v>
       </c>
       <c r="L53" s="55" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M53" s="66" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="N53" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O53" s="68" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P53" s="67" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q53" s="66" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="R53" s="56" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="S53" s="60" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T53" s="56" t="s">
         <v>1</v>
@@ -9025,10 +9034,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>1</v>
@@ -9055,28 +9064,28 @@
         <v>1</v>
       </c>
       <c r="L54" s="55" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M54" s="66" t="s">
+        <v>306</v>
+      </c>
+      <c r="N54" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="O54" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="P54" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q54" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="R54" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="S54" s="60" t="s">
         <v>311</v>
-      </c>
-      <c r="N54" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="O54" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="P54" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q54" s="66" t="s">
-        <v>278</v>
-      </c>
-      <c r="R54" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="S54" s="60" t="s">
-        <v>316</v>
       </c>
       <c r="T54" s="56" t="s">
         <v>1</v>
@@ -9096,10 +9105,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="63" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>1</v>
@@ -9126,28 +9135,28 @@
         <v>1</v>
       </c>
       <c r="L55" s="55" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M55" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="N55" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="O55" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="P55" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q55" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="R55" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="N55" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="O55" s="68" t="s">
-        <v>300</v>
-      </c>
-      <c r="P55" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q55" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="R55" s="56" t="s">
-        <v>317</v>
-      </c>
       <c r="S55" s="60" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T55" s="56" t="s">
         <v>1</v>
@@ -9167,10 +9176,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="63" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>1</v>
@@ -9197,28 +9206,28 @@
         <v>1</v>
       </c>
       <c r="L56" s="55" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M56" s="66" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="N56" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O56" s="68" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P56" s="67" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q56" s="66" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="R56" s="56" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="S56" s="60" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T56" s="56" t="s">
         <v>1</v>
@@ -9238,10 +9247,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>1</v>
@@ -9268,28 +9277,28 @@
         <v>1</v>
       </c>
       <c r="L57" s="55" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M57" s="66" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N57" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O57" s="68" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P57" s="67" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q57" s="66" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="R57" s="56" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="S57" s="60" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T57" s="56" t="s">
         <v>1</v>
@@ -9309,10 +9318,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>1</v>
@@ -9339,28 +9348,28 @@
         <v>1</v>
       </c>
       <c r="L58" s="55" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M58" s="66" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="N58" s="55" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O58" s="68" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P58" s="67" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q58" s="66" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="R58" s="56" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="S58" s="60" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="T58" s="56" t="s">
         <v>1</v>
@@ -9395,7 +9404,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66DC0A2-B93E-4ECC-82FD-2475351AE87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF3B2C2-A84A-4856-8E4B-B1344EB6455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="317">
   <si>
     <t>Key</t>
   </si>
@@ -1693,72 +1693,6 @@
     <t>RGBA</t>
   </si>
   <si>
-    <t>Quantidade de ciano entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de magenta entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de amarelo entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de preto entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de vermelho entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de verde entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de azul entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Quantidade de transparência entre 0 e 255</t>
-  </si>
-  <si>
-    <t>Cor CMY digital definida</t>
-  </si>
-  <si>
-    <t>Cor CMYB digital com transparência</t>
-  </si>
-  <si>
-    <t>Cor RGB digital definida</t>
-  </si>
-  <si>
-    <t>Cantidad de cian entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de magenta entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de amarillo entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de negro entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de rojo entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de verde entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de azul entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Cantidad de transparencia entre 0 y 255</t>
-  </si>
-  <si>
-    <t>Conjunto de colores CMY digital</t>
-  </si>
-  <si>
-    <t>Color digital CMYB con transparencia</t>
-  </si>
-  <si>
-    <t>Conjunto de colores RGB digitales</t>
-  </si>
-  <si>
     <t>Paleta.DNIT</t>
   </si>
   <si>
@@ -1843,18 +1777,6 @@
     <t>Cor.Adi.02</t>
   </si>
   <si>
-    <t>Cor RGBA digital com transparência</t>
-  </si>
-  <si>
-    <t>Color RGBA digital con transparencia</t>
-  </si>
-  <si>
-    <t>Cores do catálogo Departamento Nacional de Infraestrutura de Transportes do Brasil</t>
-  </si>
-  <si>
-    <t>Catálogo de colores del Departamento Nacional de Infraestructura de Transportes de Brasil</t>
-  </si>
-  <si>
     <t>cmy</t>
   </si>
   <si>
@@ -2011,18 +1933,6 @@
     <t>Croma</t>
   </si>
   <si>
-    <t>Matiz do sistema de cor Munsell</t>
-  </si>
-  <si>
-    <t>Luminosidade do sistema de cor Munsell</t>
-  </si>
-  <si>
-    <t>Matiz del sistema de color Munsell</t>
-  </si>
-  <si>
-    <t>Luminosidad del sistema de color Munsell</t>
-  </si>
-  <si>
     <t>C00</t>
   </si>
   <si>
@@ -2053,12 +1963,6 @@
     <t>"Nível de cromaticidade  5 é uma cor fraca"</t>
   </si>
   <si>
-    <t>Croma do sistema de cor Munsell. É o grau de afastamento de uma cor em relação à cor neutra de mesmo valor. Um baixo croma enfraquece a cor. Um croma alto para cor saturada, forte ou vívida.</t>
-  </si>
-  <si>
-    <t>Chroma del sistema de color Munsell. Es el grado de distancia de un color al color neutro del mismo valor. Un croma bajo debilita el color. Un croma alto para colores saturados, fuertes o vivos.</t>
-  </si>
-  <si>
     <t>valor</t>
   </si>
   <si>
@@ -2206,12 +2110,6 @@
     <t>Cor.Munsell</t>
   </si>
   <si>
-    <t>Color específico del sistema  Munsell.</t>
-  </si>
-  <si>
-    <t>Color específico del catálogo Pantone.</t>
-  </si>
-  <si>
     <t>Cor específica do sistema Munsell.</t>
   </si>
   <si>
@@ -2267,6 +2165,54 @@
   </si>
   <si>
     <t>é.alfa  min 0 , é.alfa  max 255</t>
+  </si>
+  <si>
+    <t>Cor digital composta pelos canais RGBA. O canal A define transparência.</t>
+  </si>
+  <si>
+    <t>Sistema de cor Munsell: Parâmetro Croma. É o grau de afastamento de uma cor em relação à cor neutra de mesmo valor. Um baixo croma enfraquece a cor. Um croma alto para cor saturada, forte ou vívida.</t>
+  </si>
+  <si>
+    <t>Sistema de cor Munsell: Parâmetro Luminosidade.</t>
+  </si>
+  <si>
+    <t>Sistema de cor Munsell: Parâmetro Matiz.</t>
+  </si>
+  <si>
+    <t>Cor digital composta pelos canais RGB.</t>
+  </si>
+  <si>
+    <t>Cor digital composta pelos canais CMYB.</t>
+  </si>
+  <si>
+    <t>Cor digital composta pelos canais CMY.</t>
+  </si>
+  <si>
+    <t>Quantidade de cor azul entre que pode variar 0 e 255.</t>
+  </si>
+  <si>
+    <t>Quantidade de cor vermelho que pode variar entre 0 e 255.</t>
+  </si>
+  <si>
+    <t>Quantidade de cor amarelo entre que pode variar 0 e 255.</t>
+  </si>
+  <si>
+    <t>Quantidade de cor magenta que pode variar entre 0 e 255.</t>
+  </si>
+  <si>
+    <t>Quantidade de cor ciano que pode variar entre 0 e 255.</t>
+  </si>
+  <si>
+    <t>Quantidade de cor preto entre que pode variar 0 e 255.</t>
+  </si>
+  <si>
+    <t>Quantidade de cor verde entre que pode variar 0 e 255.</t>
+  </si>
+  <si>
+    <t>Quantidade de transparência que pode variar entre 0 e 255.</t>
+  </si>
+  <si>
+    <t>Cores do catálogo Departamento Nacional de Infraestrutura de Transportes do Brasil.</t>
   </si>
 </sst>
 </file>
@@ -3359,7 +3305,7 @@
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45810.634883333332</v>
+        <v>45816.541020486111</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3412,18 +3358,20 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
     <col min="12" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="101.5703125" bestFit="1" customWidth="1"/>
@@ -3539,7 +3487,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="L2" s="34" t="str">
         <f>_xlfn.CONCAT(C2)</f>
@@ -3558,10 +3506,11 @@
         <v>Cyan</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q2" s="34" t="s">
-        <v>154</v>
+        <v>312</v>
+      </c>
+      <c r="Q2" s="34" t="str">
+        <f>_xlfn.TRANSLATE(P2,"pt","es")</f>
+        <v>Cantidad de color cian que puede variar entre 0 y 255.</v>
       </c>
       <c r="R2" s="58" t="s">
         <v>92</v>
@@ -3618,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="L3" s="34" t="str">
         <f>_xlfn.CONCAT(C3)</f>
@@ -3637,10 +3586,11 @@
         <v>Magenta</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>155</v>
+        <v>311</v>
+      </c>
+      <c r="Q3" s="34" t="str">
+        <f t="shared" ref="Q3:Q19" si="2">_xlfn.TRANSLATE(P3,"pt","es")</f>
+        <v>Cantidad de color magenta que puede variar entre 0 y 255.</v>
       </c>
       <c r="R3" s="58" t="s">
         <v>92</v>
@@ -3661,7 +3611,7 @@
         <v>93</v>
       </c>
       <c r="W3" s="38" t="str">
-        <f t="shared" ref="W3:W19" si="2">CONCATENATE("Key.Croma",".",A3)</f>
+        <f t="shared" ref="W3:W19" si="3">CONCATENATE("Key.Croma",".",A3)</f>
         <v>Key.Croma.3</v>
       </c>
     </row>
@@ -3697,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="L4" s="34" t="str">
         <f>_xlfn.CONCAT(C4)</f>
@@ -3716,10 +3666,11 @@
         <v>Yellow</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>156</v>
+        <v>310</v>
+      </c>
+      <c r="Q4" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>La cantidad de color amarillo entre los cuales puede variar de 0 a 255.</v>
       </c>
       <c r="R4" s="58" t="s">
         <v>92</v>
@@ -3740,7 +3691,7 @@
         <v>93</v>
       </c>
       <c r="W4" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Croma.4</v>
       </c>
     </row>
@@ -3776,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="53" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="L5" s="34" t="str">
-        <f t="shared" ref="L5:L19" si="3">_xlfn.CONCAT(C5)</f>
+        <f t="shared" ref="L5:L19" si="4">_xlfn.CONCAT(C5)</f>
         <v>Cromático</v>
       </c>
       <c r="M5" s="34" t="str">
@@ -3795,10 +3746,11 @@
         <v>Black</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q5" s="34" t="s">
-        <v>157</v>
+        <v>313</v>
+      </c>
+      <c r="Q5" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>La cantidad de color negro entre los cuales puede variar de 0 a 255.</v>
       </c>
       <c r="R5" s="58" t="s">
         <v>92</v>
@@ -3819,7 +3771,7 @@
         <v>93</v>
       </c>
       <c r="W5" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Croma.5</v>
       </c>
     </row>
@@ -3855,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="L6" s="34" t="str">
         <f>_xlfn.CONCAT(C6)</f>
@@ -3874,10 +3826,11 @@
         <v>Red</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q6" s="34" t="s">
-        <v>158</v>
+        <v>309</v>
+      </c>
+      <c r="Q6" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Cantidad de color rojo que puede variar entre 0 y 255.</v>
       </c>
       <c r="R6" s="58" t="s">
         <v>92</v>
@@ -3934,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="L7" s="34" t="str">
         <f>_xlfn.CONCAT(C7)</f>
@@ -3953,10 +3906,11 @@
         <v>Green</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q7" s="34" t="s">
-        <v>159</v>
+        <v>314</v>
+      </c>
+      <c r="Q7" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>La cantidad de color verde entre eso puede variar de 0 a 255.</v>
       </c>
       <c r="R7" s="58" t="s">
         <v>92</v>
@@ -3977,7 +3931,7 @@
         <v>93</v>
       </c>
       <c r="W7" s="38" t="str">
-        <f t="shared" ref="W7:W11" si="4">CONCATENATE("Key.Croma",".",A7)</f>
+        <f t="shared" ref="W7:W11" si="5">CONCATENATE("Key.Croma",".",A7)</f>
         <v>Key.Croma.7</v>
       </c>
     </row>
@@ -4013,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="53" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="L8" s="34" t="str">
         <f>_xlfn.CONCAT(C8)</f>
@@ -4032,10 +3986,11 @@
         <v>Blue</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q8" s="34" t="s">
-        <v>160</v>
+        <v>308</v>
+      </c>
+      <c r="Q8" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>La cantidad de color azul entre eso puede variar de 0 a 255.</v>
       </c>
       <c r="R8" s="58" t="s">
         <v>92</v>
@@ -4056,7 +4011,7 @@
         <v>93</v>
       </c>
       <c r="W8" s="38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Croma.8</v>
       </c>
     </row>
@@ -4092,10 +4047,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="53" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="L9" s="34" t="str">
-        <f t="shared" ref="L9:L11" si="5">_xlfn.CONCAT(C9)</f>
+        <f t="shared" ref="L9:L11" si="6">_xlfn.CONCAT(C9)</f>
         <v>Cromático</v>
       </c>
       <c r="M9" s="34" t="str">
@@ -4111,10 +4066,11 @@
         <v>Alfa</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>161</v>
+        <v>315</v>
+      </c>
+      <c r="Q9" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Cantidad de transparencia que puede variar entre 0 y 255.</v>
       </c>
       <c r="R9" s="58" t="s">
         <v>92</v>
@@ -4135,7 +4091,7 @@
         <v>93</v>
       </c>
       <c r="W9" s="38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Croma.9</v>
       </c>
     </row>
@@ -4168,13 +4124,13 @@
         <v>1</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="L10" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Cromático</v>
       </c>
       <c r="M10" s="22" t="str">
@@ -4190,10 +4146,11 @@
         <v>CMY</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>162</v>
+        <v>307</v>
+      </c>
+      <c r="Q10" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Color digital compuesto por canales CMY.</v>
       </c>
       <c r="R10" s="58" t="s">
         <v>92</v>
@@ -4214,7 +4171,7 @@
         <v>93</v>
       </c>
       <c r="W10" s="38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Croma.10</v>
       </c>
     </row>
@@ -4247,13 +4204,13 @@
         <v>1</v>
       </c>
       <c r="J11" s="54" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="L11" s="22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Cromático</v>
       </c>
       <c r="M11" s="22" t="str">
@@ -4269,10 +4226,11 @@
         <v>CMYB</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>163</v>
+        <v>306</v>
+      </c>
+      <c r="Q11" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Color digital compuesto por canales CMYB.</v>
       </c>
       <c r="R11" s="58" t="s">
         <v>92</v>
@@ -4293,7 +4251,7 @@
         <v>93</v>
       </c>
       <c r="W11" s="38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Croma.11</v>
       </c>
     </row>
@@ -4326,13 +4284,13 @@
         <v>1</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="L12" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Cromático</v>
       </c>
       <c r="M12" s="22" t="str">
@@ -4348,10 +4306,11 @@
         <v>RGB</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q12" s="34" t="s">
-        <v>164</v>
+        <v>305</v>
+      </c>
+      <c r="Q12" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Color digital compuesto por canales RGB.</v>
       </c>
       <c r="R12" s="58" t="s">
         <v>92</v>
@@ -4372,7 +4331,7 @@
         <v>93</v>
       </c>
       <c r="W12" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Croma.12</v>
       </c>
     </row>
@@ -4405,13 +4364,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="54" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="L13" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Cromático</v>
       </c>
       <c r="M13" s="22" t="str">
@@ -4427,10 +4386,11 @@
         <v>RGBA</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q13" s="34" t="s">
-        <v>194</v>
+        <v>301</v>
+      </c>
+      <c r="Q13" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Color digital compuesto por canales RGBA. El canal A define la transparencia.</v>
       </c>
       <c r="R13" s="58" t="s">
         <v>92</v>
@@ -4451,7 +4411,7 @@
         <v>93</v>
       </c>
       <c r="W13" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Croma.13</v>
       </c>
     </row>
@@ -4469,10 +4429,10 @@
         <v>120</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
@@ -4490,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Cromático</v>
       </c>
       <c r="M14" s="22" t="str">
@@ -4506,10 +4466,11 @@
         <v>Hue</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q14" s="22" t="s">
-        <v>251</v>
+        <v>304</v>
+      </c>
+      <c r="Q14" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Sistema de color Munsell: Parámetro de tono.</v>
       </c>
       <c r="R14" s="58" t="s">
         <v>92</v>
@@ -4530,7 +4491,7 @@
         <v>93</v>
       </c>
       <c r="W14" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Croma.14</v>
       </c>
     </row>
@@ -4548,10 +4509,10 @@
         <v>120</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>1</v>
@@ -4569,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Cromático</v>
       </c>
       <c r="M15" s="22" t="str">
@@ -4585,10 +4546,11 @@
         <v>Luminosidade</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>252</v>
+        <v>303</v>
+      </c>
+      <c r="Q15" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Sistema de color Munsell: Parámetro de luminosidad.</v>
       </c>
       <c r="R15" s="58" t="s">
         <v>92</v>
@@ -4609,7 +4571,7 @@
         <v>93</v>
       </c>
       <c r="W15" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Croma.15</v>
       </c>
     </row>
@@ -4627,10 +4589,10 @@
         <v>120</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="G16" s="54" t="s">
         <v>1</v>
@@ -4648,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Cromático</v>
       </c>
       <c r="M16" s="22" t="str">
@@ -4664,10 +4626,11 @@
         <v>Croma</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>264</v>
+        <v>302</v>
+      </c>
+      <c r="Q16" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Sistema de color Munsell: Parámetro croma. Es el grado de distancia de un color al color neutro del mismo valor. Un croma bajo debilita el color. Un croma alto para colores saturados, fuertes o vivos.</v>
       </c>
       <c r="R16" s="58" t="s">
         <v>92</v>
@@ -4688,7 +4651,7 @@
         <v>93</v>
       </c>
       <c r="W16" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Croma.16</v>
       </c>
     </row>
@@ -4706,10 +4669,10 @@
         <v>120</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>1</v>
@@ -4727,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Cromático</v>
       </c>
       <c r="M17" s="22" t="str">
@@ -4743,10 +4706,11 @@
         <v>Cor.Munsell</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>314</v>
+        <v>282</v>
+      </c>
+      <c r="Q17" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Color específico del sistema Munsell.</v>
       </c>
       <c r="R17" s="58" t="s">
         <v>92</v>
@@ -4767,7 +4731,7 @@
         <v>93</v>
       </c>
       <c r="W17" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Croma.17</v>
       </c>
     </row>
@@ -4806,47 +4770,48 @@
         <v>1</v>
       </c>
       <c r="L18" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Cromático</v>
       </c>
       <c r="M18" s="22" t="str">
-        <f t="shared" ref="M18:O19" si="6">_xlfn.CONCAT("", D18)</f>
+        <f t="shared" ref="M18:O19" si="7">_xlfn.CONCAT("", D18)</f>
         <v>Catálogo</v>
       </c>
       <c r="N18" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Pantone</v>
       </c>
       <c r="O18" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Cor.Pantone </v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q18" s="34" t="s">
-        <v>315</v>
+        <v>283</v>
+      </c>
+      <c r="Q18" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Color específico del catálogo Pantone.</v>
       </c>
       <c r="R18" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S18" s="36" t="str">
-        <f t="shared" ref="S18:U19" si="7">SUBSTITUTE(C18, "_", " ")</f>
+        <f t="shared" ref="S18:U19" si="8">SUBSTITUTE(C18, "_", " ")</f>
         <v>Cromático</v>
       </c>
       <c r="T18" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Catálogo</v>
       </c>
       <c r="U18" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Pantone</v>
       </c>
       <c r="V18" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W18" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Croma.18</v>
       </c>
     </row>
@@ -4885,47 +4850,48 @@
         <v>1</v>
       </c>
       <c r="L19" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Cromático</v>
       </c>
       <c r="M19" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Catálogo</v>
       </c>
       <c r="N19" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>DNIT</v>
       </c>
       <c r="O19" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Cor.Dnit </v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q19" s="34" t="s">
-        <v>196</v>
+        <v>316</v>
+      </c>
+      <c r="Q19" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>Colores del catálogo del Departamento Nacional de Infraestructura de Transporte de Brasil.</v>
       </c>
       <c r="R19" s="58" t="s">
         <v>92</v>
       </c>
       <c r="S19" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Cromático</v>
       </c>
       <c r="T19" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Catálogo</v>
       </c>
       <c r="U19" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>DNIT</v>
       </c>
       <c r="V19" s="37" t="s">
         <v>93</v>
       </c>
       <c r="W19" s="38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Key.Croma.19</v>
       </c>
     </row>
@@ -5216,8 +5182,8 @@
   <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X15" sqref="X15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5641,10 +5607,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M6" s="60" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="N6" s="56" t="s">
         <v>108</v>
@@ -5713,10 +5679,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M7" s="60" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="N7" s="56" t="s">
         <v>108</v>
@@ -5785,10 +5751,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M8" s="60" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="N8" s="56" t="s">
         <v>108</v>
@@ -5857,10 +5823,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M9" s="60" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="N9" s="56" t="s">
         <v>108</v>
@@ -5929,10 +5895,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M10" s="60" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="N10" s="56" t="s">
         <v>108</v>
@@ -6001,10 +5967,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M11" s="60" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="N11" s="56" t="s">
         <v>108</v>
@@ -6043,7 +6009,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>141</v>
@@ -6073,10 +6039,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M12" s="60" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="N12" s="56" t="s">
         <v>108</v>
@@ -6115,7 +6081,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>141</v>
@@ -6145,10 +6111,10 @@
         <v>1</v>
       </c>
       <c r="L13" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M13" s="60" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="N13" s="56" t="s">
         <v>108</v>
@@ -6187,7 +6153,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>139</v>
@@ -6217,10 +6183,10 @@
         <v>1</v>
       </c>
       <c r="L14" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M14" s="60" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="N14" s="56" t="s">
         <v>108</v>
@@ -6259,7 +6225,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>139</v>
@@ -6289,10 +6255,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M15" s="60" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="N15" s="56" t="s">
         <v>108</v>
@@ -6331,7 +6297,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>131</v>
@@ -6361,34 +6327,34 @@
         <v>1</v>
       </c>
       <c r="L16" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M16" s="60" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="N16" s="55" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="O16" s="60" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="P16" s="55" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="60" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="R16" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="T16" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="U16" s="60" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="V16" s="55" t="s">
         <v>1</v>
@@ -6403,7 +6369,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>131</v>
@@ -6433,34 +6399,34 @@
         <v>1</v>
       </c>
       <c r="L17" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M17" s="60" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="N17" s="55" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="O17" s="60" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="P17" s="55" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="60" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="R17" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="S17" s="60" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="T17" s="55" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="U17" s="60" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="V17" s="55" t="s">
         <v>1</v>
@@ -6481,16 +6447,16 @@
         <v>127</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>134</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="H18" s="71" t="s">
         <v>1</v>
@@ -6505,25 +6471,25 @@
         <v>1</v>
       </c>
       <c r="L18" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M18" s="60" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="N18" s="56" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="O18" s="60">
         <v>0</v>
       </c>
       <c r="P18" s="56" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="Q18" s="60">
         <v>0</v>
       </c>
       <c r="R18" s="55" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="S18" s="60">
         <v>100</v>
@@ -6535,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="55" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="W18" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6553,16 +6519,16 @@
         <v>127</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="F19" s="39" t="s">
         <v>134</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="H19" s="71" t="s">
         <v>1</v>
@@ -6577,25 +6543,25 @@
         <v>1</v>
       </c>
       <c r="L19" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M19" s="60" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="N19" s="56" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="O19" s="60">
         <v>63</v>
       </c>
       <c r="P19" s="56" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="Q19" s="60">
         <v>23</v>
       </c>
       <c r="R19" s="55" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="S19" s="60">
         <v>100</v>
@@ -6607,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="55" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="W19" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6625,16 +6591,16 @@
         <v>127</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="F20" s="39" t="s">
         <v>134</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="H20" s="71" t="s">
         <v>1</v>
@@ -6649,25 +6615,25 @@
         <v>1</v>
       </c>
       <c r="L20" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M20" s="60" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="N20" s="56" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="O20" s="60">
         <v>100</v>
       </c>
       <c r="P20" s="56" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="60">
         <v>0</v>
       </c>
       <c r="R20" s="55" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="S20" s="60">
         <v>100</v>
@@ -6679,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="V20" s="55" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="W20" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6691,10 +6657,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>1</v>
@@ -6721,10 +6687,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M21" s="60" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="N21" s="65" t="s">
         <v>1</v>
@@ -6762,16 +6728,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F22" s="39" t="s">
         <v>1</v>
@@ -6792,10 +6758,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M22" s="60" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="N22" s="65" t="s">
         <v>1</v>
@@ -6833,16 +6799,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>1</v>
@@ -6863,10 +6829,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M23" s="60" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="N23" s="65" t="s">
         <v>1</v>
@@ -6904,16 +6870,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F24" s="39" t="s">
         <v>1</v>
@@ -6934,10 +6900,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M24" s="60" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="N24" s="65" t="s">
         <v>1</v>
@@ -6975,16 +6941,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F25" s="39" t="s">
         <v>1</v>
@@ -7005,10 +6971,10 @@
         <v>1</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M25" s="60" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="N25" s="65" t="s">
         <v>1</v>
@@ -7046,16 +7012,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F26" s="39" t="s">
         <v>1</v>
@@ -7076,10 +7042,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M26" s="60" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="N26" s="65" t="s">
         <v>1</v>
@@ -7117,16 +7083,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F27" s="39" t="s">
         <v>1</v>
@@ -7147,10 +7113,10 @@
         <v>1</v>
       </c>
       <c r="L27" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M27" s="60" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="N27" s="65" t="s">
         <v>1</v>
@@ -7188,16 +7154,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F28" s="39" t="s">
         <v>1</v>
@@ -7218,10 +7184,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M28" s="60" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="N28" s="65" t="s">
         <v>1</v>
@@ -7259,16 +7225,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>1</v>
@@ -7289,10 +7255,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M29" s="60" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="N29" s="65" t="s">
         <v>1</v>
@@ -7330,16 +7296,16 @@
         <v>30</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F30" s="39" t="s">
         <v>1</v>
@@ -7360,10 +7326,10 @@
         <v>1</v>
       </c>
       <c r="L30" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M30" s="60" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="N30" s="65" t="s">
         <v>1</v>
@@ -7401,16 +7367,16 @@
         <v>31</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F31" s="39" t="s">
         <v>1</v>
@@ -7431,10 +7397,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M31" s="60" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="N31" s="65" t="s">
         <v>1</v>
@@ -7472,16 +7438,16 @@
         <v>32</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F32" s="39" t="s">
         <v>1</v>
@@ -7502,10 +7468,10 @@
         <v>1</v>
       </c>
       <c r="L32" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M32" s="60" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="N32" s="65" t="s">
         <v>1</v>
@@ -7543,40 +7509,40 @@
         <v>33</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E33" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="M33" s="60" t="s">
         <v>212</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J33" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K33" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="L33" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="M33" s="60" t="s">
-        <v>238</v>
       </c>
       <c r="N33" s="65" t="s">
         <v>1</v>
@@ -7614,16 +7580,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F34" s="39" t="s">
         <v>1</v>
@@ -7644,10 +7610,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M34" s="60" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="N34" s="65" t="s">
         <v>1</v>
@@ -7685,16 +7651,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E35" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F35" s="39" t="s">
         <v>1</v>
@@ -7715,10 +7681,10 @@
         <v>1</v>
       </c>
       <c r="L35" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M35" s="60" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="N35" s="65" t="s">
         <v>1</v>
@@ -7756,16 +7722,16 @@
         <v>36</v>
       </c>
       <c r="B36" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>247</v>
-      </c>
       <c r="D36" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F36" s="39" t="s">
         <v>1</v>
@@ -7786,10 +7752,10 @@
         <v>1</v>
       </c>
       <c r="L36" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M36" s="60" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="N36" s="65" t="s">
         <v>1</v>
@@ -7827,16 +7793,16 @@
         <v>37</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>1</v>
@@ -7857,10 +7823,10 @@
         <v>1</v>
       </c>
       <c r="L37" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M37" s="60" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="N37" s="65" t="s">
         <v>1</v>
@@ -7898,16 +7864,16 @@
         <v>38</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E38" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F38" s="39" t="s">
         <v>1</v>
@@ -7928,10 +7894,10 @@
         <v>1</v>
       </c>
       <c r="L38" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M38" s="60" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="N38" s="65" t="s">
         <v>1</v>
@@ -7969,16 +7935,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>1</v>
@@ -7999,10 +7965,10 @@
         <v>1</v>
       </c>
       <c r="L39" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M39" s="60" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="N39" s="65" t="s">
         <v>1</v>
@@ -8040,40 +8006,40 @@
         <v>40</v>
       </c>
       <c r="B40" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="M40" s="60" t="s">
         <v>217</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I40" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K40" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="L40" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="M40" s="60" t="s">
-        <v>243</v>
       </c>
       <c r="N40" s="65" t="s">
         <v>1</v>
@@ -8111,16 +8077,16 @@
         <v>41</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>1</v>
@@ -8141,10 +8107,10 @@
         <v>1</v>
       </c>
       <c r="L41" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M41" s="60" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="N41" s="65" t="s">
         <v>1</v>
@@ -8182,16 +8148,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>1</v>
@@ -8212,10 +8178,10 @@
         <v>1</v>
       </c>
       <c r="L42" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M42" s="60" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="N42" s="65" t="s">
         <v>1</v>
@@ -8253,16 +8219,16 @@
         <v>43</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F43" s="39" t="s">
         <v>1</v>
@@ -8283,10 +8249,10 @@
         <v>1</v>
       </c>
       <c r="L43" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M43" s="60" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="N43" s="65" t="s">
         <v>1</v>
@@ -8324,16 +8290,16 @@
         <v>44</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F44" s="39" t="s">
         <v>1</v>
@@ -8354,10 +8320,10 @@
         <v>1</v>
       </c>
       <c r="L44" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M44" s="60" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="N44" s="65" t="s">
         <v>1</v>
@@ -8395,16 +8361,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E45" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F45" s="39" t="s">
         <v>1</v>
@@ -8425,10 +8391,10 @@
         <v>1</v>
       </c>
       <c r="L45" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M45" s="60" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="N45" s="65" t="s">
         <v>1</v>
@@ -8466,16 +8432,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E46" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F46" s="39" t="s">
         <v>1</v>
@@ -8496,10 +8462,10 @@
         <v>1</v>
       </c>
       <c r="L46" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M46" s="60" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="N46" s="65" t="s">
         <v>1</v>
@@ -8537,16 +8503,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E47" s="64" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="F47" s="39" t="s">
         <v>1</v>
@@ -8567,10 +8533,10 @@
         <v>1</v>
       </c>
       <c r="L47" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M47" s="60" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="N47" s="65" t="s">
         <v>1</v>
@@ -8608,10 +8574,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>1</v>
@@ -8638,28 +8604,28 @@
         <v>1</v>
       </c>
       <c r="L48" s="55" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="M48" s="66" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="N48" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O48" s="68" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="P48" s="67" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q48" s="66" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="R48" s="56" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="S48" s="60" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="T48" s="56" t="s">
         <v>1</v>
@@ -8679,10 +8645,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>1</v>
@@ -8709,28 +8675,28 @@
         <v>1</v>
       </c>
       <c r="L49" s="55" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="M49" s="66" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="N49" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O49" s="68" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="P49" s="67" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q49" s="60" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="R49" s="56" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="S49" s="60" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="T49" s="56" t="s">
         <v>1</v>
@@ -8750,58 +8716,58 @@
         <v>50</v>
       </c>
       <c r="B50" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="M50" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="N50" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="O50" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="P50" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q50" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="R50" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="S50" s="60" t="s">
         <v>279</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G50" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I50" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K50" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="L50" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="M50" s="66" t="s">
-        <v>302</v>
-      </c>
-      <c r="N50" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="O50" s="68" t="s">
-        <v>290</v>
-      </c>
-      <c r="P50" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q50" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="R50" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="S50" s="60" t="s">
-        <v>311</v>
       </c>
       <c r="T50" s="56" t="s">
         <v>1</v>
@@ -8821,58 +8787,58 @@
         <v>51</v>
       </c>
       <c r="B51" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="M51" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="N51" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="O51" s="68" t="s">
+        <v>259</v>
+      </c>
+      <c r="P51" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q51" s="66" t="s">
+        <v>237</v>
+      </c>
+      <c r="R51" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G51" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I51" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J51" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K51" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="L51" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="M51" s="66" t="s">
-        <v>303</v>
-      </c>
-      <c r="N51" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="O51" s="68" t="s">
-        <v>291</v>
-      </c>
-      <c r="P51" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q51" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="R51" s="56" t="s">
-        <v>312</v>
-      </c>
       <c r="S51" s="60" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="T51" s="56" t="s">
         <v>1</v>
@@ -8892,10 +8858,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>1</v>
@@ -8922,28 +8888,28 @@
         <v>1</v>
       </c>
       <c r="L52" s="55" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="M52" s="66" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="N52" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O52" s="68" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="P52" s="67" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q52" s="66" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="R52" s="56" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="S52" s="60" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="T52" s="56" t="s">
         <v>1</v>
@@ -8963,10 +8929,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="63" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>1</v>
@@ -8993,28 +8959,28 @@
         <v>1</v>
       </c>
       <c r="L53" s="55" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="M53" s="66" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="N53" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O53" s="68" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="P53" s="67" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q53" s="66" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="R53" s="56" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="S53" s="60" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="T53" s="56" t="s">
         <v>1</v>
@@ -9034,10 +9000,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>1</v>
@@ -9064,28 +9030,28 @@
         <v>1</v>
       </c>
       <c r="L54" s="55" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="M54" s="66" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="N54" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O54" s="68" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="P54" s="67" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q54" s="66" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="R54" s="56" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="S54" s="60" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="T54" s="56" t="s">
         <v>1</v>
@@ -9105,10 +9071,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="63" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>1</v>
@@ -9135,28 +9101,28 @@
         <v>1</v>
       </c>
       <c r="L55" s="55" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="M55" s="66" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="N55" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O55" s="68" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="P55" s="67" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q55" s="66" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="R55" s="56" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="S55" s="60" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="T55" s="56" t="s">
         <v>1</v>
@@ -9176,11 +9142,11 @@
         <v>56</v>
       </c>
       <c r="B56" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>313</v>
-      </c>
       <c r="D56" s="39" t="s">
         <v>1</v>
       </c>
@@ -9206,28 +9172,28 @@
         <v>1</v>
       </c>
       <c r="L56" s="55" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="M56" s="66" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="N56" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O56" s="68" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="P56" s="67" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q56" s="66" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="R56" s="56" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="S56" s="60" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="T56" s="56" t="s">
         <v>1</v>
@@ -9247,10 +9213,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>1</v>
@@ -9277,28 +9243,28 @@
         <v>1</v>
       </c>
       <c r="L57" s="55" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="M57" s="66" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="N57" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O57" s="68" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="P57" s="67" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q57" s="66" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="R57" s="56" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="S57" s="60" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="T57" s="56" t="s">
         <v>1</v>
@@ -9318,10 +9284,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>1</v>
@@ -9348,28 +9314,28 @@
         <v>1</v>
       </c>
       <c r="L58" s="55" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="M58" s="66" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="N58" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="O58" s="68" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="P58" s="67" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q58" s="66" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="R58" s="56" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="S58" s="60" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="T58" s="56" t="s">
         <v>1</v>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF3B2C2-A84A-4856-8E4B-B1344EB6455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578D795F-6366-415C-A4B5-2A3F0F9F9124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="319">
   <si>
     <t>Key</t>
   </si>
@@ -2213,6 +2213,12 @@
   </si>
   <si>
     <t>Cores do catálogo Departamento Nacional de Infraestrutura de Transportes do Brasil.</t>
+  </si>
+  <si>
+    <t>CategoriaRvt</t>
+  </si>
+  <si>
+    <t>ClasseIfc</t>
   </si>
 </sst>
 </file>
@@ -2850,7 +2856,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -3154,14 +3160,14 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.28515625" style="12"/>
+    <col min="1" max="1" width="9.69140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.69140625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="3.3046875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
@@ -3177,7 +3183,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
@@ -3185,7 +3191,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
@@ -3193,7 +3199,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -3219,7 +3225,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -3227,7 +3233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
         <v>67</v>
       </c>
@@ -3243,7 +3249,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
         <v>57</v>
       </c>
@@ -3251,7 +3257,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
         <v>58</v>
       </c>
@@ -3259,7 +3265,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>68</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>69</v>
       </c>
@@ -3275,7 +3281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>70</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>71</v>
       </c>
@@ -3291,7 +3297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>59</v>
       </c>
@@ -3299,16 +3305,16 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45816.541020486111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45922.452272106479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
         <v>73</v>
       </c>
@@ -3316,7 +3322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
         <v>74</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>75</v>
       </c>
@@ -3332,7 +3338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16" t="s">
         <v>76</v>
       </c>
@@ -3340,7 +3346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16" t="s">
         <v>77</v>
       </c>
@@ -3355,36 +3361,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" customWidth="1"/>
+    <col min="2" max="2" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.3828125" customWidth="1"/>
+    <col min="5" max="5" width="5.53515625" customWidth="1"/>
+    <col min="6" max="6" width="7.15234375" customWidth="1"/>
+    <col min="7" max="9" width="7.69140625" customWidth="1"/>
+    <col min="10" max="10" width="14.15234375" customWidth="1"/>
+    <col min="11" max="11" width="19.53515625" customWidth="1"/>
+    <col min="12" max="14" width="7.53515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="101.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="98.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="101.53515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="98.3828125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.84375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.15234375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>79</v>
       </c>
@@ -3454,8 +3460,14 @@
       <c r="W1" s="27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X1" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="29">
         <v>2</v>
       </c>
@@ -3534,8 +3546,14 @@
         <f>CONCATENATE("Key.Croma",".",A2)</f>
         <v>Key.Croma.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="29">
         <v>3</v>
       </c>
@@ -3614,8 +3632,14 @@
         <f t="shared" ref="W3:W19" si="3">CONCATENATE("Key.Croma",".",A3)</f>
         <v>Key.Croma.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="29">
         <v>4</v>
       </c>
@@ -3694,8 +3718,14 @@
         <f t="shared" si="3"/>
         <v>Key.Croma.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="29">
         <v>5</v>
       </c>
@@ -3774,8 +3804,14 @@
         <f t="shared" si="3"/>
         <v>Key.Croma.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="29">
         <v>6</v>
       </c>
@@ -3854,8 +3890,14 @@
         <f>CONCATENATE("Key.Croma",".",A6)</f>
         <v>Key.Croma.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X6" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="29">
         <v>7</v>
       </c>
@@ -3934,8 +3976,14 @@
         <f t="shared" ref="W7:W11" si="5">CONCATENATE("Key.Croma",".",A7)</f>
         <v>Key.Croma.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="29">
         <v>8</v>
       </c>
@@ -4014,8 +4062,14 @@
         <f t="shared" si="5"/>
         <v>Key.Croma.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="29">
         <v>9</v>
       </c>
@@ -4094,8 +4148,14 @@
         <f t="shared" si="5"/>
         <v>Key.Croma.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="29">
         <v>10</v>
       </c>
@@ -4174,8 +4234,14 @@
         <f t="shared" si="5"/>
         <v>Key.Croma.10</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="29">
         <v>11</v>
       </c>
@@ -4254,8 +4320,14 @@
         <f t="shared" si="5"/>
         <v>Key.Croma.11</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29">
         <v>12</v>
       </c>
@@ -4334,8 +4406,14 @@
         <f t="shared" si="3"/>
         <v>Key.Croma.12</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="29">
         <v>13</v>
       </c>
@@ -4414,8 +4492,14 @@
         <f t="shared" si="3"/>
         <v>Key.Croma.13</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="29">
         <v>14</v>
       </c>
@@ -4494,8 +4578,14 @@
         <f t="shared" si="3"/>
         <v>Key.Croma.14</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="29">
         <v>15</v>
       </c>
@@ -4574,8 +4664,14 @@
         <f t="shared" si="3"/>
         <v>Key.Croma.15</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="29">
         <v>16</v>
       </c>
@@ -4654,8 +4750,14 @@
         <f t="shared" si="3"/>
         <v>Key.Croma.16</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="29">
         <v>17</v>
       </c>
@@ -4734,8 +4836,14 @@
         <f t="shared" si="3"/>
         <v>Key.Croma.17</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="29">
         <v>18</v>
       </c>
@@ -4814,8 +4922,14 @@
         <f t="shared" si="3"/>
         <v>Key.Croma.18</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="69">
         <v>19</v>
       </c>
@@ -4893,6 +5007,12 @@
       <c r="W19" s="38" t="str">
         <f t="shared" si="3"/>
         <v>Key.Croma.19</v>
+      </c>
+      <c r="X19" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="37" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4913,15 +5033,15 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.84375" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.84375" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.15234375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>22</v>
       </c>
@@ -4986,7 +5106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48">
         <v>2</v>
       </c>
@@ -5051,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48">
         <v>3</v>
       </c>
@@ -5138,14 +5258,14 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.3046875" customWidth="1"/>
+    <col min="2" max="2" width="10.3046875" customWidth="1"/>
+    <col min="3" max="3" width="14.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="45">
         <v>1</v>
       </c>
@@ -5156,7 +5276,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -5186,34 +5306,34 @@
       <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69140625" customWidth="1"/>
+    <col min="4" max="4" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.15234375" customWidth="1"/>
+    <col min="7" max="7" width="7.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.3046875" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.3046875" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.3828125" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="85.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="85.3828125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="51" customWidth="1"/>
-    <col min="19" max="19" width="32.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.84375" style="51" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.3046875" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.3828125" style="51" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.3828125" style="51" customWidth="1"/>
+    <col min="19" max="19" width="32.53515625" style="51" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" style="51" customWidth="1"/>
     <col min="21" max="21" width="30" style="51" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.85546875" style="51" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" style="51" customWidth="1"/>
+    <col min="22" max="22" width="3.84375" style="51" customWidth="1"/>
+    <col min="23" max="23" width="7.53515625" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="62" t="s">
         <v>94</v>
       </c>
@@ -5284,7 +5404,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="40">
         <v>2</v>
       </c>
@@ -5356,7 +5476,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40">
         <v>3</v>
       </c>
@@ -5428,7 +5548,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40">
         <v>4</v>
       </c>
@@ -5500,7 +5620,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="40">
         <v>5</v>
       </c>
@@ -5572,7 +5692,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="40">
         <v>6</v>
       </c>
@@ -5644,7 +5764,7 @@
         <v>"255.0.0"</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="40">
         <v>7</v>
       </c>
@@ -5716,7 +5836,7 @@
         <v>"0.255.0"</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="40">
         <v>8</v>
       </c>
@@ -5788,7 +5908,7 @@
         <v>"0.0.255"</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="40">
         <v>9</v>
       </c>
@@ -5860,7 +5980,7 @@
         <v>"200.200.200"</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="40">
         <v>10</v>
       </c>
@@ -5932,7 +6052,7 @@
         <v>"120.120.120"</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="40">
         <v>11</v>
       </c>
@@ -6004,7 +6124,7 @@
         <v>"20.20.20"</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="40">
         <v>12</v>
       </c>
@@ -6076,7 +6196,7 @@
         <v>"150.30.10"</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="40">
         <v>13</v>
       </c>
@@ -6148,7 +6268,7 @@
         <v>"150.40.10"</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="40">
         <v>14</v>
       </c>
@@ -6220,7 +6340,7 @@
         <v>"150.50.10"</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="40">
         <v>15</v>
       </c>
@@ -6292,7 +6412,7 @@
         <v>"150.60.10"</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="40">
         <v>16</v>
       </c>
@@ -6364,7 +6484,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="40">
         <v>17</v>
       </c>
@@ -6436,7 +6556,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="40">
         <v>18</v>
       </c>
@@ -6508,7 +6628,7 @@
         <v>"0.0.100"</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="40">
         <v>19</v>
       </c>
@@ -6580,7 +6700,7 @@
         <v>"63.23.100"</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="40">
         <v>20</v>
       </c>
@@ -6652,7 +6772,7 @@
         <v>"100.0.100"</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="40">
         <v>21</v>
       </c>
@@ -6723,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="40">
         <v>22</v>
       </c>
@@ -6794,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="40">
         <v>23</v>
       </c>
@@ -6865,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="40">
         <v>24</v>
       </c>
@@ -6936,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="40">
         <v>25</v>
       </c>
@@ -7007,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="40">
         <v>26</v>
       </c>
@@ -7078,7 +7198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="40">
         <v>27</v>
       </c>
@@ -7149,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="40">
         <v>28</v>
       </c>
@@ -7220,7 +7340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="40">
         <v>29</v>
       </c>
@@ -7291,7 +7411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="40">
         <v>30</v>
       </c>
@@ -7362,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="40">
         <v>31</v>
       </c>
@@ -7433,7 +7553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="40">
         <v>32</v>
       </c>
@@ -7504,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="40">
         <v>33</v>
       </c>
@@ -7575,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="40">
         <v>34</v>
       </c>
@@ -7646,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="40">
         <v>35</v>
       </c>
@@ -7717,7 +7837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="40">
         <v>36</v>
       </c>
@@ -7788,7 +7908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="40">
         <v>37</v>
       </c>
@@ -7859,7 +7979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="40">
         <v>38</v>
       </c>
@@ -7930,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="40">
         <v>39</v>
       </c>
@@ -8001,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="40">
         <v>40</v>
       </c>
@@ -8072,7 +8192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="40">
         <v>41</v>
       </c>
@@ -8143,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="40">
         <v>42</v>
       </c>
@@ -8214,7 +8334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="40">
         <v>43</v>
       </c>
@@ -8285,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="40">
         <v>44</v>
       </c>
@@ -8356,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="40">
         <v>45</v>
       </c>
@@ -8427,7 +8547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="40">
         <v>46</v>
       </c>
@@ -8498,7 +8618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="40">
         <v>47</v>
       </c>
@@ -8569,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="40">
         <v>48</v>
       </c>
@@ -8640,7 +8760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="40">
         <v>49</v>
       </c>
@@ -8711,7 +8831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="40">
         <v>50</v>
       </c>
@@ -8782,7 +8902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="40">
         <v>51</v>
       </c>
@@ -8853,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="40">
         <v>52</v>
       </c>
@@ -8924,7 +9044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="40">
         <v>53</v>
       </c>
@@ -8995,7 +9115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="40">
         <v>54</v>
       </c>
@@ -9066,7 +9186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="40">
         <v>55</v>
       </c>
@@ -9137,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="40">
         <v>56</v>
       </c>
@@ -9208,7 +9328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="40">
         <v>57</v>
       </c>
@@ -9279,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="40">
         <v>58</v>
       </c>
@@ -9370,14 +9490,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="7.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="2.3828125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.53515625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.3828125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -9385,7 +9505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -9393,7 +9513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -9401,7 +9521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="38.6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -9409,7 +9529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -9417,7 +9537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>6</v>
       </c>
@@ -9425,7 +9545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>7</v>
       </c>
@@ -9433,7 +9553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>8</v>
       </c>
@@ -9441,7 +9561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -9449,7 +9569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -9457,7 +9577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -9465,7 +9585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -9473,7 +9593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -9481,7 +9601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>14</v>
       </c>
@@ -9489,7 +9609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>15</v>
       </c>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578D795F-6366-415C-A4B5-2A3F0F9F9124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A213526-56AE-442F-AB39-F6D16F8810A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="320">
   <si>
     <t>Key</t>
   </si>
@@ -2219,6 +2219,9 @@
   </si>
   <si>
     <t>ClasseIfc</t>
+  </si>
+  <si>
+    <t>ABNT</t>
   </si>
 </sst>
 </file>
@@ -3160,14 +3163,14 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.69140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.69140625" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.3046875" style="12"/>
+    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="3.28515625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
@@ -3191,7 +3194,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
@@ -3199,7 +3202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
@@ -3208,7 +3211,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -3241,7 +3244,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>67</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>57</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>58</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>68</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>69</v>
       </c>
@@ -3281,7 +3284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>70</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>71</v>
       </c>
@@ -3297,7 +3300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>59</v>
       </c>
@@ -3305,16 +3308,16 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45922.452272106479</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>45958.459928240743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>73</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>74</v>
       </c>
@@ -3330,7 +3333,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>75</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>76</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>77</v>
       </c>
@@ -3361,36 +3364,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:Y19"/>
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.53515625" customWidth="1"/>
-    <col min="2" max="2" width="5.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.3828125" customWidth="1"/>
-    <col min="5" max="5" width="5.53515625" customWidth="1"/>
-    <col min="6" max="6" width="7.15234375" customWidth="1"/>
-    <col min="7" max="9" width="7.69140625" customWidth="1"/>
-    <col min="10" max="10" width="14.15234375" customWidth="1"/>
-    <col min="11" max="11" width="19.53515625" customWidth="1"/>
-    <col min="12" max="14" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="101.53515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="98.3828125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.3046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.84375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="101.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="98.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.15234375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>79</v>
       </c>
@@ -3466,8 +3469,11 @@
       <c r="Y1" s="26" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z1" s="26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>2</v>
       </c>
@@ -3552,8 +3558,11 @@
       <c r="Y2" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z2" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>3</v>
       </c>
@@ -3638,8 +3647,11 @@
       <c r="Y3" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z3" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>4</v>
       </c>
@@ -3724,8 +3736,11 @@
       <c r="Y4" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z4" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>5</v>
       </c>
@@ -3810,8 +3825,11 @@
       <c r="Y5" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z5" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>6</v>
       </c>
@@ -3896,8 +3914,11 @@
       <c r="Y6" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z6" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>7</v>
       </c>
@@ -3982,8 +4003,11 @@
       <c r="Y7" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z7" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>8</v>
       </c>
@@ -4068,8 +4092,11 @@
       <c r="Y8" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z8" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>9</v>
       </c>
@@ -4154,8 +4181,11 @@
       <c r="Y9" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z9" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>10</v>
       </c>
@@ -4240,8 +4270,11 @@
       <c r="Y10" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z10" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>11</v>
       </c>
@@ -4326,8 +4359,11 @@
       <c r="Y11" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z11" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>12</v>
       </c>
@@ -4412,8 +4448,11 @@
       <c r="Y12" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z12" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>13</v>
       </c>
@@ -4498,8 +4537,11 @@
       <c r="Y13" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z13" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>14</v>
       </c>
@@ -4584,8 +4626,11 @@
       <c r="Y14" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z14" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>15</v>
       </c>
@@ -4670,8 +4715,11 @@
       <c r="Y15" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z15" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>16</v>
       </c>
@@ -4726,7 +4774,7 @@
       </c>
       <c r="Q16" s="34" t="str">
         <f t="shared" si="2"/>
-        <v>Sistema de color Munsell: Parámetro croma. Es el grado de distancia de un color al color neutro del mismo valor. Un croma bajo debilita el color. Un croma alto para colores saturados, fuertes o vivos.</v>
+        <v>Sistema de color Munsell: Parámetro Croma. Es el grado de distancia de un color al color neutro del mismo valor. Un croma bajo debilita el color. Un croma alto para colores saturados, fuertes o vivos.</v>
       </c>
       <c r="R16" s="58" t="s">
         <v>92</v>
@@ -4756,8 +4804,11 @@
       <c r="Y16" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z16" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>17</v>
       </c>
@@ -4842,8 +4893,11 @@
       <c r="Y17" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z17" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>18</v>
       </c>
@@ -4928,8 +4982,11 @@
       <c r="Y18" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Z18" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="69">
         <v>19</v>
       </c>
@@ -5012,6 +5069,9 @@
         <v>1</v>
       </c>
       <c r="Y19" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="37" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5033,15 +5093,15 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.84375" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.84375" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.15234375" style="5"/>
+    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="48" t="s">
         <v>22</v>
       </c>
@@ -5106,7 +5166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="48">
         <v>2</v>
       </c>
@@ -5171,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="48">
         <v>3</v>
       </c>
@@ -5258,14 +5318,14 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.3046875" customWidth="1"/>
-    <col min="2" max="2" width="10.3046875" customWidth="1"/>
-    <col min="3" max="3" width="14.84375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45">
         <v>1</v>
       </c>
@@ -5276,7 +5336,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -5306,34 +5366,34 @@
       <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.69140625" customWidth="1"/>
-    <col min="4" max="4" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.15234375" customWidth="1"/>
-    <col min="7" max="7" width="7.15234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.3046875" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.3828125" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.3046875" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="85.3828125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="85.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.84375" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.3046875" style="50" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.3828125" style="51" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.3828125" style="51" customWidth="1"/>
-    <col min="19" max="19" width="32.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="51" customWidth="1"/>
+    <col min="19" max="19" width="32.5703125" style="51" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" style="51" customWidth="1"/>
     <col min="21" max="21" width="30" style="51" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.84375" style="51" customWidth="1"/>
-    <col min="23" max="23" width="7.53515625" style="51" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" style="51" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>94</v>
       </c>
@@ -5404,7 +5464,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40">
         <v>2</v>
       </c>
@@ -5476,7 +5536,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40">
         <v>3</v>
       </c>
@@ -5548,7 +5608,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40">
         <v>4</v>
       </c>
@@ -5620,7 +5680,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
         <v>5</v>
       </c>
@@ -5692,7 +5752,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>6</v>
       </c>
@@ -5764,7 +5824,7 @@
         <v>"255.0.0"</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>7</v>
       </c>
@@ -5836,7 +5896,7 @@
         <v>"0.255.0"</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
         <v>8</v>
       </c>
@@ -5908,7 +5968,7 @@
         <v>"0.0.255"</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>9</v>
       </c>
@@ -5980,7 +6040,7 @@
         <v>"200.200.200"</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>10</v>
       </c>
@@ -6052,7 +6112,7 @@
         <v>"120.120.120"</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>11</v>
       </c>
@@ -6124,7 +6184,7 @@
         <v>"20.20.20"</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>12</v>
       </c>
@@ -6196,7 +6256,7 @@
         <v>"150.30.10"</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>13</v>
       </c>
@@ -6268,7 +6328,7 @@
         <v>"150.40.10"</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>14</v>
       </c>
@@ -6340,7 +6400,7 @@
         <v>"150.50.10"</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>15</v>
       </c>
@@ -6412,7 +6472,7 @@
         <v>"150.60.10"</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>16</v>
       </c>
@@ -6484,7 +6544,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>17</v>
       </c>
@@ -6556,7 +6616,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>18</v>
       </c>
@@ -6628,7 +6688,7 @@
         <v>"0.0.100"</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>19</v>
       </c>
@@ -6700,7 +6760,7 @@
         <v>"63.23.100"</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>20</v>
       </c>
@@ -6772,7 +6832,7 @@
         <v>"100.0.100"</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>21</v>
       </c>
@@ -6843,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>22</v>
       </c>
@@ -6914,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>23</v>
       </c>
@@ -6985,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>24</v>
       </c>
@@ -7056,7 +7116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>25</v>
       </c>
@@ -7127,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>26</v>
       </c>
@@ -7198,7 +7258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>27</v>
       </c>
@@ -7269,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>28</v>
       </c>
@@ -7340,7 +7400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>29</v>
       </c>
@@ -7411,7 +7471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>30</v>
       </c>
@@ -7482,7 +7542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>31</v>
       </c>
@@ -7553,7 +7613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>32</v>
       </c>
@@ -7624,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>33</v>
       </c>
@@ -7695,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>34</v>
       </c>
@@ -7766,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>35</v>
       </c>
@@ -7837,7 +7897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36</v>
       </c>
@@ -7908,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>37</v>
       </c>
@@ -7979,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>38</v>
       </c>
@@ -8050,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>39</v>
       </c>
@@ -8121,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>40</v>
       </c>
@@ -8192,7 +8252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>41</v>
       </c>
@@ -8263,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>42</v>
       </c>
@@ -8334,7 +8394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43</v>
       </c>
@@ -8405,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44</v>
       </c>
@@ -8476,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>45</v>
       </c>
@@ -8547,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>46</v>
       </c>
@@ -8618,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>47</v>
       </c>
@@ -8689,7 +8749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>48</v>
       </c>
@@ -8760,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>49</v>
       </c>
@@ -8831,7 +8891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>50</v>
       </c>
@@ -8902,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>51</v>
       </c>
@@ -8973,7 +9033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>52</v>
       </c>
@@ -9044,7 +9104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>53</v>
       </c>
@@ -9115,7 +9175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>54</v>
       </c>
@@ -9186,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>55</v>
       </c>
@@ -9257,7 +9317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>56</v>
       </c>
@@ -9328,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>57</v>
       </c>
@@ -9399,7 +9459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>58</v>
       </c>
@@ -9490,14 +9550,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="7.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.3828125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.53515625" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.3828125" style="6"/>
+    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -9505,7 +9565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -9513,7 +9573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -9521,7 +9581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -9529,7 +9589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -9537,7 +9597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>6</v>
       </c>
@@ -9545,7 +9605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>7</v>
       </c>
@@ -9553,7 +9613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>8</v>
       </c>
@@ -9561,7 +9621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -9569,7 +9629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -9577,7 +9637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -9585,7 +9645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -9593,7 +9653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -9601,7 +9661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>14</v>
       </c>
@@ -9609,7 +9669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>15</v>
       </c>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A213526-56AE-442F-AB39-F6D16F8810A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4F7B79-3651-4ADD-A504-9D7814A7E4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="321">
   <si>
     <t>Key</t>
   </si>
@@ -2222,6 +2222,9 @@
   </si>
   <si>
     <t>ABNT</t>
+  </si>
+  <si>
+    <t>000 Translate Classe 5</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2391,8 +2394,15 @@
       <name val="Arial Nova Cond Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Nova Cond Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2519,6 +2529,12 @@
         <bgColor rgb="FFD9F2D0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -2584,7 +2600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2798,11 +2814,25 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2838,6 +2868,14 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3163,14 +3201,14 @@
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.28515625" style="12"/>
+    <col min="1" max="1" width="9.69140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.69140625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="3.3046875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
@@ -3178,7 +3216,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
@@ -3186,7 +3224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
@@ -3194,7 +3232,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
@@ -3202,7 +3240,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
@@ -3211,7 +3249,7 @@
         <v>BIMProp</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -3220,7 +3258,7 @@
         <v>BIMData</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -3228,7 +3266,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -3236,7 +3274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>65</v>
       </c>
@@ -3244,7 +3282,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
         <v>67</v>
       </c>
@@ -3252,7 +3290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
         <v>57</v>
       </c>
@@ -3260,7 +3298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
         <v>58</v>
       </c>
@@ -3268,7 +3306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>68</v>
       </c>
@@ -3276,7 +3314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>69</v>
       </c>
@@ -3284,7 +3322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>70</v>
       </c>
@@ -3292,7 +3330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>71</v>
       </c>
@@ -3300,7 +3338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>59</v>
       </c>
@@ -3308,16 +3346,16 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45958.459928240743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45989.668359374999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
         <v>73</v>
       </c>
@@ -3325,7 +3363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
         <v>74</v>
       </c>
@@ -3333,7 +3371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>75</v>
       </c>
@@ -3341,7 +3379,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16" t="s">
         <v>76</v>
       </c>
@@ -3349,7 +3387,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16" t="s">
         <v>77</v>
       </c>
@@ -3364,36 +3402,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" customWidth="1"/>
+    <col min="2" max="2" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.3828125" customWidth="1"/>
+    <col min="5" max="5" width="5.53515625" customWidth="1"/>
+    <col min="6" max="6" width="7.15234375" customWidth="1"/>
+    <col min="7" max="9" width="7.69140625" customWidth="1"/>
+    <col min="10" max="10" width="14.15234375" customWidth="1"/>
+    <col min="11" max="11" width="19.53515625" customWidth="1"/>
+    <col min="12" max="14" width="7.53515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="101.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="98.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="101.53515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="98.3828125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.84375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.15234375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="79.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>79</v>
       </c>
@@ -3472,8 +3511,11 @@
       <c r="Z1" s="26" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="73" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="29">
         <v>2</v>
       </c>
@@ -3561,8 +3603,12 @@
       <c r="Z2" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA2" s="74" t="str">
+        <f>_xlfn.TRANSLATE(P2,"pt","en")</f>
+        <v>Amount of cyan color that can vary between 0 and 255.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="29">
         <v>3</v>
       </c>
@@ -3650,8 +3696,12 @@
       <c r="Z3" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA3" s="74" t="str">
+        <f t="shared" ref="AA3:AA19" si="4">_xlfn.TRANSLATE(P3,"pt","en")</f>
+        <v>Amount of magenta color that can vary between 0 and 255.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="29">
         <v>4</v>
       </c>
@@ -3739,8 +3789,12 @@
       <c r="Z4" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Amount of yellow color between which can vary from 0 to 255.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="29">
         <v>5</v>
       </c>
@@ -3775,7 +3829,7 @@
         <v>296</v>
       </c>
       <c r="L5" s="34" t="str">
-        <f t="shared" ref="L5:L19" si="4">_xlfn.CONCAT(C5)</f>
+        <f t="shared" ref="L5:L19" si="5">_xlfn.CONCAT(C5)</f>
         <v>Cromático</v>
       </c>
       <c r="M5" s="34" t="str">
@@ -3828,8 +3882,12 @@
       <c r="Z5" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA5" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Amount of black color between which can vary from 0 to 255.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="29">
         <v>6</v>
       </c>
@@ -3917,8 +3975,12 @@
       <c r="Z6" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA6" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Amount of red color that can vary between 0 and 255.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="29">
         <v>7</v>
       </c>
@@ -3994,7 +4056,7 @@
         <v>93</v>
       </c>
       <c r="W7" s="38" t="str">
-        <f t="shared" ref="W7:W11" si="5">CONCATENATE("Key.Croma",".",A7)</f>
+        <f t="shared" ref="W7:W11" si="6">CONCATENATE("Key.Croma",".",A7)</f>
         <v>Key.Croma.7</v>
       </c>
       <c r="X7" s="37" t="s">
@@ -4006,8 +4068,12 @@
       <c r="Z7" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Amount of green color between that can vary from 0 to 255.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="29">
         <v>8</v>
       </c>
@@ -4083,7 +4149,7 @@
         <v>93</v>
       </c>
       <c r="W8" s="38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Key.Croma.8</v>
       </c>
       <c r="X8" s="37" t="s">
@@ -4095,8 +4161,12 @@
       <c r="Z8" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Amount of blue color between that can vary from 0 to 255.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="29">
         <v>9</v>
       </c>
@@ -4131,7 +4201,7 @@
         <v>300</v>
       </c>
       <c r="L9" s="34" t="str">
-        <f t="shared" ref="L9:L11" si="6">_xlfn.CONCAT(C9)</f>
+        <f t="shared" ref="L9:L11" si="7">_xlfn.CONCAT(C9)</f>
         <v>Cromático</v>
       </c>
       <c r="M9" s="34" t="str">
@@ -4172,7 +4242,7 @@
         <v>93</v>
       </c>
       <c r="W9" s="38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Key.Croma.9</v>
       </c>
       <c r="X9" s="37" t="s">
@@ -4184,8 +4254,12 @@
       <c r="Z9" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA9" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Amount of transparency that can vary between 0 and 255.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="29">
         <v>10</v>
       </c>
@@ -4220,7 +4294,7 @@
         <v>289</v>
       </c>
       <c r="L10" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Cromático</v>
       </c>
       <c r="M10" s="22" t="str">
@@ -4261,7 +4335,7 @@
         <v>93</v>
       </c>
       <c r="W10" s="38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Key.Croma.10</v>
       </c>
       <c r="X10" s="37" t="s">
@@ -4273,8 +4347,12 @@
       <c r="Z10" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA10" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Digital color composed of CMY channels.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="29">
         <v>11</v>
       </c>
@@ -4309,7 +4387,7 @@
         <v>290</v>
       </c>
       <c r="L11" s="22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Cromático</v>
       </c>
       <c r="M11" s="22" t="str">
@@ -4350,7 +4428,7 @@
         <v>93</v>
       </c>
       <c r="W11" s="38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Key.Croma.11</v>
       </c>
       <c r="X11" s="37" t="s">
@@ -4362,8 +4440,12 @@
       <c r="Z11" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA11" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Digital color composed of CMYB channels.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29">
         <v>12</v>
       </c>
@@ -4398,7 +4480,7 @@
         <v>291</v>
       </c>
       <c r="L12" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Cromático</v>
       </c>
       <c r="M12" s="22" t="str">
@@ -4451,8 +4533,12 @@
       <c r="Z12" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA12" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Digital color composed of RGB channels.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="29">
         <v>13</v>
       </c>
@@ -4487,7 +4573,7 @@
         <v>292</v>
       </c>
       <c r="L13" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Cromático</v>
       </c>
       <c r="M13" s="22" t="str">
@@ -4540,8 +4626,12 @@
       <c r="Z13" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA13" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Digital color composed of RGBA channels. Channel A defines transparency.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="29">
         <v>14</v>
       </c>
@@ -4576,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Cromático</v>
       </c>
       <c r="M14" s="22" t="str">
@@ -4629,8 +4719,12 @@
       <c r="Z14" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA14" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Munsell Color System: Hue Parameter.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="29">
         <v>15</v>
       </c>
@@ -4665,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Cromático</v>
       </c>
       <c r="M15" s="22" t="str">
@@ -4718,8 +4812,12 @@
       <c r="Z15" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA15" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Munsell color system: Luminosity parameter.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="29">
         <v>16</v>
       </c>
@@ -4754,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Cromático</v>
       </c>
       <c r="M16" s="22" t="str">
@@ -4807,8 +4905,12 @@
       <c r="Z16" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA16" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Munsell Color System: Croma Parameter. It is the degree of distance of a color from the neutral color of the same value. A low chroma weakens the color. A high chroma for saturated, strong, or vivid color.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="29">
         <v>17</v>
       </c>
@@ -4843,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Cromático</v>
       </c>
       <c r="M17" s="22" t="str">
@@ -4896,8 +4998,12 @@
       <c r="Z17" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA17" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Munsell system-specific color.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="29">
         <v>18</v>
       </c>
@@ -4932,19 +5038,19 @@
         <v>1</v>
       </c>
       <c r="L18" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Cromático</v>
       </c>
       <c r="M18" s="22" t="str">
-        <f t="shared" ref="M18:O19" si="7">_xlfn.CONCAT("", D18)</f>
+        <f t="shared" ref="M18:O19" si="8">_xlfn.CONCAT("", D18)</f>
         <v>Catálogo</v>
       </c>
       <c r="N18" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Pantone</v>
       </c>
       <c r="O18" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Cor.Pantone </v>
       </c>
       <c r="P18" s="22" t="s">
@@ -4958,15 +5064,15 @@
         <v>92</v>
       </c>
       <c r="S18" s="36" t="str">
-        <f t="shared" ref="S18:U19" si="8">SUBSTITUTE(C18, "_", " ")</f>
+        <f t="shared" ref="S18:U19" si="9">SUBSTITUTE(C18, "_", " ")</f>
         <v>Cromático</v>
       </c>
       <c r="T18" s="36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Catálogo</v>
       </c>
       <c r="U18" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Pantone</v>
       </c>
       <c r="V18" s="37" t="s">
@@ -4985,8 +5091,12 @@
       <c r="Z18" s="37" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA18" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Specific color from the Pantone catalog.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="69">
         <v>19</v>
       </c>
@@ -5021,19 +5131,19 @@
         <v>1</v>
       </c>
       <c r="L19" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Cromático</v>
       </c>
       <c r="M19" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Catálogo</v>
       </c>
       <c r="N19" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>DNIT</v>
       </c>
       <c r="O19" s="22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Cor.Dnit </v>
       </c>
       <c r="P19" s="22" t="s">
@@ -5047,15 +5157,15 @@
         <v>92</v>
       </c>
       <c r="S19" s="36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Cromático</v>
       </c>
       <c r="T19" s="36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Catálogo</v>
       </c>
       <c r="U19" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>DNIT</v>
       </c>
       <c r="V19" s="37" t="s">
@@ -5074,12 +5184,27 @@
       <c r="Z19" s="37" t="s">
         <v>1</v>
       </c>
+      <c r="AA19" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>Colors from the catalog of the National Department of Transport Infrastructure of Brazil.</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F19">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="A1:Z19">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1:AA19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5093,15 +5218,15 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="2.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.84375" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.84375" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.15234375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>22</v>
       </c>
@@ -5166,7 +5291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48">
         <v>2</v>
       </c>
@@ -5231,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48">
         <v>3</v>
       </c>
@@ -5299,7 +5424,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5318,14 +5443,14 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.3046875" customWidth="1"/>
+    <col min="2" max="2" width="10.3046875" customWidth="1"/>
+    <col min="3" max="3" width="14.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="45">
         <v>1</v>
       </c>
@@ -5336,7 +5461,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -5349,7 +5474,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5366,34 +5491,34 @@
       <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69140625" customWidth="1"/>
+    <col min="4" max="4" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.15234375" customWidth="1"/>
+    <col min="7" max="7" width="7.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.3046875" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.3046875" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.3828125" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="85.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="85.3828125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.28515625" style="50" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="51" customWidth="1"/>
-    <col min="19" max="19" width="32.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.84375" style="51" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.3046875" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.3828125" style="51" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.3828125" style="51" customWidth="1"/>
+    <col min="19" max="19" width="32.53515625" style="51" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" style="51" customWidth="1"/>
     <col min="21" max="21" width="30" style="51" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.85546875" style="51" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" style="51" customWidth="1"/>
+    <col min="22" max="22" width="3.84375" style="51" customWidth="1"/>
+    <col min="23" max="23" width="7.53515625" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="62" t="s">
         <v>94</v>
       </c>
@@ -5464,7 +5589,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="40">
         <v>2</v>
       </c>
@@ -5536,7 +5661,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40">
         <v>3</v>
       </c>
@@ -5608,7 +5733,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40">
         <v>4</v>
       </c>
@@ -5680,7 +5805,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="40">
         <v>5</v>
       </c>
@@ -5752,7 +5877,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="40">
         <v>6</v>
       </c>
@@ -5824,7 +5949,7 @@
         <v>"255.0.0"</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="40">
         <v>7</v>
       </c>
@@ -5896,7 +6021,7 @@
         <v>"0.255.0"</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="40">
         <v>8</v>
       </c>
@@ -5968,7 +6093,7 @@
         <v>"0.0.255"</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="40">
         <v>9</v>
       </c>
@@ -6040,7 +6165,7 @@
         <v>"200.200.200"</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="40">
         <v>10</v>
       </c>
@@ -6112,7 +6237,7 @@
         <v>"120.120.120"</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="40">
         <v>11</v>
       </c>
@@ -6184,7 +6309,7 @@
         <v>"20.20.20"</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="40">
         <v>12</v>
       </c>
@@ -6256,7 +6381,7 @@
         <v>"150.30.10"</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="40">
         <v>13</v>
       </c>
@@ -6328,7 +6453,7 @@
         <v>"150.40.10"</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="40">
         <v>14</v>
       </c>
@@ -6400,7 +6525,7 @@
         <v>"150.50.10"</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="40">
         <v>15</v>
       </c>
@@ -6472,7 +6597,7 @@
         <v>"150.60.10"</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="40">
         <v>16</v>
       </c>
@@ -6544,7 +6669,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="40">
         <v>17</v>
       </c>
@@ -6616,7 +6741,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="40">
         <v>18</v>
       </c>
@@ -6688,7 +6813,7 @@
         <v>"0.0.100"</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="40">
         <v>19</v>
       </c>
@@ -6760,7 +6885,7 @@
         <v>"63.23.100"</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="40">
         <v>20</v>
       </c>
@@ -6832,7 +6957,7 @@
         <v>"100.0.100"</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="40">
         <v>21</v>
       </c>
@@ -6903,7 +7028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="40">
         <v>22</v>
       </c>
@@ -6974,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="40">
         <v>23</v>
       </c>
@@ -7045,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="40">
         <v>24</v>
       </c>
@@ -7116,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="40">
         <v>25</v>
       </c>
@@ -7187,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="40">
         <v>26</v>
       </c>
@@ -7258,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="40">
         <v>27</v>
       </c>
@@ -7329,7 +7454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="40">
         <v>28</v>
       </c>
@@ -7400,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="40">
         <v>29</v>
       </c>
@@ -7471,7 +7596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="40">
         <v>30</v>
       </c>
@@ -7542,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="40">
         <v>31</v>
       </c>
@@ -7613,7 +7738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="40">
         <v>32</v>
       </c>
@@ -7684,7 +7809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="40">
         <v>33</v>
       </c>
@@ -7755,7 +7880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="40">
         <v>34</v>
       </c>
@@ -7826,7 +7951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="40">
         <v>35</v>
       </c>
@@ -7897,7 +8022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="40">
         <v>36</v>
       </c>
@@ -7968,7 +8093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="40">
         <v>37</v>
       </c>
@@ -8039,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="40">
         <v>38</v>
       </c>
@@ -8110,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="40">
         <v>39</v>
       </c>
@@ -8181,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="40">
         <v>40</v>
       </c>
@@ -8252,7 +8377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="40">
         <v>41</v>
       </c>
@@ -8323,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="40">
         <v>42</v>
       </c>
@@ -8394,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="40">
         <v>43</v>
       </c>
@@ -8465,7 +8590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="40">
         <v>44</v>
       </c>
@@ -8536,7 +8661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="40">
         <v>45</v>
       </c>
@@ -8607,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="40">
         <v>46</v>
       </c>
@@ -8678,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="40">
         <v>47</v>
       </c>
@@ -8749,7 +8874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="40">
         <v>48</v>
       </c>
@@ -8820,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="40">
         <v>49</v>
       </c>
@@ -8891,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="40">
         <v>50</v>
       </c>
@@ -8962,7 +9087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="40">
         <v>51</v>
       </c>
@@ -9033,7 +9158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="40">
         <v>52</v>
       </c>
@@ -9104,7 +9229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="40">
         <v>53</v>
       </c>
@@ -9175,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="40">
         <v>54</v>
       </c>
@@ -9246,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="40">
         <v>55</v>
       </c>
@@ -9317,7 +9442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="40">
         <v>56</v>
       </c>
@@ -9388,7 +9513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="40">
         <v>57</v>
       </c>
@@ -9459,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="40">
         <v>58</v>
       </c>
@@ -9536,7 +9661,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B20">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -9550,14 +9675,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="7.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="2.3828125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.53515625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.3828125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -9565,7 +9690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -9573,7 +9698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -9581,7 +9706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="38.6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -9589,7 +9714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -9597,7 +9722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>6</v>
       </c>
@@ -9605,7 +9730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>7</v>
       </c>
@@ -9613,7 +9738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>8</v>
       </c>
@@ -9621,7 +9746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -9629,7 +9754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -9637,7 +9762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -9645,7 +9770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -9653,7 +9778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -9661,7 +9786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>14</v>
       </c>
@@ -9669,7 +9794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>15</v>
       </c>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4F7B79-3651-4ADD-A504-9D7814A7E4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4FD35A-0A28-4FF9-BCD5-7E2B8B0CC17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="322">
   <si>
     <t>Key</t>
   </si>
@@ -1448,9 +1448,6 @@
     <t>https://github.com/JLMenegotto/RepoOnto#</t>
   </si>
   <si>
-    <t>José Luis Menegotto</t>
-  </si>
-  <si>
     <t>Organização</t>
   </si>
   <si>
@@ -2225,6 +2222,12 @@
   </si>
   <si>
     <t>000 Translate Classe 5</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Prof. José Luis Menegotto - DEG/POLI/UFRJ</t>
   </si>
 </sst>
 </file>
@@ -2827,14 +2830,6 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2857,6 +2852,14 @@
         <i/>
         <strike val="0"/>
         <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -3193,12 +3196,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3221,7 +3224,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3229,7 +3232,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3266,25 +3269,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>64</v>
+      <c r="B8" s="16" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>38</v>
@@ -3308,7 +3311,7 @@
     </row>
     <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>38</v>
@@ -3316,7 +3319,7 @@
     </row>
     <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>38</v>
@@ -3324,7 +3327,7 @@
     </row>
     <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>38</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>38</v>
@@ -3343,21 +3346,21 @@
         <v>59</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45989.668359374999</v>
+        <v>45992.393176504629</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>38</v>
@@ -3365,7 +3368,7 @@
     </row>
     <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>38</v>
@@ -3373,7 +3376,7 @@
     </row>
     <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>38</v>
@@ -3381,18 +3384,27 @@
     </row>
     <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" s="18" t="str">
+        <f>_xlfn.TRANSLATE(B22,"pt","en")</f>
+        <v>Formalize concepts of chromatic elements</v>
       </c>
     </row>
   </sheetData>
@@ -3404,7 +3416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="S1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1:AA2"/>
     </sheetView>
   </sheetViews>
@@ -3434,22 +3446,22 @@
   <sheetData>
     <row r="1" spans="1:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>87</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>39</v>
@@ -3479,40 +3491,40 @@
         <v>44</v>
       </c>
       <c r="P1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="S1" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="U1" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="26" t="s">
         <v>80</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>81</v>
       </c>
       <c r="W1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="X1" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y1" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AA1" s="73" t="s">
         <v>319</v>
-      </c>
-      <c r="AA1" s="73" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -3520,19 +3532,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>120</v>
-      </c>
       <c r="E2" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>1</v>
@@ -3547,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L2" s="34" t="str">
         <f>_xlfn.CONCAT(C2)</f>
@@ -3566,14 +3578,14 @@
         <v>Cyan</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q2" s="34" t="str">
         <f>_xlfn.TRANSLATE(P2,"pt","es")</f>
         <v>Cantidad de color cian que puede variar entre 0 y 255.</v>
       </c>
       <c r="R2" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S2" s="36" t="str">
         <f t="shared" ref="S2:U17" si="1">SUBSTITUTE(C2, "_", " ")</f>
@@ -3588,7 +3600,7 @@
         <v>Canal</v>
       </c>
       <c r="V2" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W2" s="38" t="str">
         <f>CONCATENATE("Key.Croma",".",A2)</f>
@@ -3613,19 +3625,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>120</v>
-      </c>
       <c r="E3" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>1</v>
@@ -3640,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L3" s="34" t="str">
         <f>_xlfn.CONCAT(C3)</f>
@@ -3659,14 +3671,14 @@
         <v>Magenta</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q3" s="34" t="str">
         <f t="shared" ref="Q3:Q19" si="2">_xlfn.TRANSLATE(P3,"pt","es")</f>
         <v>Cantidad de color magenta que puede variar entre 0 y 255.</v>
       </c>
       <c r="R3" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S3" s="36" t="str">
         <f t="shared" si="1"/>
@@ -3681,7 +3693,7 @@
         <v>Canal</v>
       </c>
       <c r="V3" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W3" s="38" t="str">
         <f t="shared" ref="W3:W19" si="3">CONCATENATE("Key.Croma",".",A3)</f>
@@ -3706,19 +3718,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>120</v>
-      </c>
       <c r="E4" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>1</v>
@@ -3733,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L4" s="34" t="str">
         <f>_xlfn.CONCAT(C4)</f>
@@ -3752,14 +3764,14 @@
         <v>Yellow</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="34" t="str">
         <f t="shared" si="2"/>
         <v>La cantidad de color amarillo entre los cuales puede variar de 0 a 255.</v>
       </c>
       <c r="R4" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S4" s="36" t="str">
         <f t="shared" si="1"/>
@@ -3774,7 +3786,7 @@
         <v>Canal</v>
       </c>
       <c r="V4" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W4" s="38" t="str">
         <f t="shared" si="3"/>
@@ -3799,19 +3811,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>120</v>
-      </c>
       <c r="E5" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>1</v>
@@ -3826,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L5" s="34" t="str">
         <f t="shared" ref="L5:L19" si="5">_xlfn.CONCAT(C5)</f>
@@ -3845,14 +3857,14 @@
         <v>Black</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="34" t="str">
         <f t="shared" si="2"/>
         <v>La cantidad de color negro entre los cuales puede variar de 0 a 255.</v>
       </c>
       <c r="R5" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S5" s="36" t="str">
         <f t="shared" si="1"/>
@@ -3867,7 +3879,7 @@
         <v>Canal</v>
       </c>
       <c r="V5" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W5" s="38" t="str">
         <f t="shared" si="3"/>
@@ -3892,20 +3904,20 @@
         <v>6</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>97</v>
-      </c>
       <c r="G6" s="33" t="s">
         <v>1</v>
       </c>
@@ -3919,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L6" s="34" t="str">
         <f>_xlfn.CONCAT(C6)</f>
@@ -3938,14 +3950,14 @@
         <v>Red</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q6" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Cantidad de color rojo que puede variar entre 0 y 255.</v>
       </c>
       <c r="R6" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S6" s="36" t="str">
         <f t="shared" si="1"/>
@@ -3960,7 +3972,7 @@
         <v>Canal</v>
       </c>
       <c r="V6" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W6" s="38" t="str">
         <f>CONCATENATE("Key.Croma",".",A6)</f>
@@ -3985,19 +3997,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>120</v>
-      </c>
       <c r="E7" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>1</v>
@@ -4012,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L7" s="34" t="str">
         <f>_xlfn.CONCAT(C7)</f>
@@ -4031,14 +4043,14 @@
         <v>Green</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="34" t="str">
         <f t="shared" si="2"/>
         <v>La cantidad de color verde entre eso puede variar de 0 a 255.</v>
       </c>
       <c r="R7" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S7" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4053,7 +4065,7 @@
         <v>Canal</v>
       </c>
       <c r="V7" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W7" s="38" t="str">
         <f t="shared" ref="W7:W11" si="6">CONCATENATE("Key.Croma",".",A7)</f>
@@ -4078,19 +4090,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>120</v>
-      </c>
       <c r="E8" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>1</v>
@@ -4105,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L8" s="34" t="str">
         <f>_xlfn.CONCAT(C8)</f>
@@ -4124,14 +4136,14 @@
         <v>Blue</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="34" t="str">
         <f t="shared" si="2"/>
         <v>La cantidad de color azul entre eso puede variar de 0 a 255.</v>
       </c>
       <c r="R8" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S8" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4146,7 +4158,7 @@
         <v>Canal</v>
       </c>
       <c r="V8" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W8" s="38" t="str">
         <f t="shared" si="6"/>
@@ -4171,19 +4183,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>120</v>
-      </c>
       <c r="E9" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>1</v>
@@ -4198,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="53" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L9" s="34" t="str">
         <f t="shared" ref="L9:L11" si="7">_xlfn.CONCAT(C9)</f>
@@ -4217,14 +4229,14 @@
         <v>Alfa</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q9" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Cantidad de transparencia que puede variar entre 0 y 255.</v>
       </c>
       <c r="R9" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S9" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4239,7 +4251,7 @@
         <v>Canal</v>
       </c>
       <c r="V9" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W9" s="38" t="str">
         <f t="shared" si="6"/>
@@ -4264,19 +4276,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>120</v>
-      </c>
       <c r="E10" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>1</v>
@@ -4288,10 +4300,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L10" s="22" t="str">
         <f t="shared" si="7"/>
@@ -4310,14 +4322,14 @@
         <v>CMY</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Color digital compuesto por canales CMY.</v>
       </c>
       <c r="R10" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4332,7 +4344,7 @@
         <v>Cor.Digital</v>
       </c>
       <c r="V10" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W10" s="38" t="str">
         <f t="shared" si="6"/>
@@ -4357,19 +4369,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>120</v>
-      </c>
       <c r="E11" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>1</v>
@@ -4381,10 +4393,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L11" s="22" t="str">
         <f t="shared" si="7"/>
@@ -4403,14 +4415,14 @@
         <v>CMYB</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Color digital compuesto por canales CMYB.</v>
       </c>
       <c r="R11" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4425,7 +4437,7 @@
         <v>Cor.Digital</v>
       </c>
       <c r="V11" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W11" s="38" t="str">
         <f t="shared" si="6"/>
@@ -4450,19 +4462,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>120</v>
-      </c>
       <c r="E12" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>1</v>
@@ -4474,10 +4486,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L12" s="22" t="str">
         <f t="shared" si="5"/>
@@ -4496,14 +4508,14 @@
         <v>RGB</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q12" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Color digital compuesto por canales RGB.</v>
       </c>
       <c r="R12" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S12" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4518,7 +4530,7 @@
         <v>Cor.Digital</v>
       </c>
       <c r="V12" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W12" s="38" t="str">
         <f t="shared" si="3"/>
@@ -4543,19 +4555,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>120</v>
-      </c>
       <c r="E13" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>1</v>
@@ -4567,10 +4579,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L13" s="22" t="str">
         <f t="shared" si="5"/>
@@ -4589,14 +4601,14 @@
         <v>RGBA</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Color digital compuesto por canales RGBA. El canal A define la transparencia.</v>
       </c>
       <c r="R13" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S13" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4611,7 +4623,7 @@
         <v>Cor.Digital</v>
       </c>
       <c r="V13" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W13" s="38" t="str">
         <f t="shared" si="3"/>
@@ -4636,19 +4648,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="52" t="s">
-        <v>120</v>
-      </c>
       <c r="E14" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
@@ -4682,14 +4694,14 @@
         <v>Hue</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Sistema de color Munsell: Parámetro de tono.</v>
       </c>
       <c r="R14" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4704,7 +4716,7 @@
         <v>Munsell</v>
       </c>
       <c r="V14" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W14" s="38" t="str">
         <f t="shared" si="3"/>
@@ -4729,19 +4741,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>120</v>
-      </c>
       <c r="E15" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>1</v>
@@ -4775,14 +4787,14 @@
         <v>Luminosidade</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q15" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Sistema de color Munsell: Parámetro de luminosidad.</v>
       </c>
       <c r="R15" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S15" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4797,7 +4809,7 @@
         <v>Munsell</v>
       </c>
       <c r="V15" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W15" s="38" t="str">
         <f t="shared" si="3"/>
@@ -4822,19 +4834,19 @@
         <v>16</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="52" t="s">
-        <v>120</v>
-      </c>
       <c r="E16" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G16" s="54" t="s">
         <v>1</v>
@@ -4868,14 +4880,14 @@
         <v>Croma</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Sistema de color Munsell: Parámetro Croma. Es el grado de distancia de un color al color neutro del mismo valor. Un croma bajo debilita el color. Un croma alto para colores saturados, fuertes o vivos.</v>
       </c>
       <c r="R16" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S16" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4890,7 +4902,7 @@
         <v>Munsell</v>
       </c>
       <c r="V16" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W16" s="38" t="str">
         <f t="shared" si="3"/>
@@ -4915,19 +4927,19 @@
         <v>17</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="52" t="s">
-        <v>120</v>
-      </c>
       <c r="E17" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>1</v>
@@ -4961,14 +4973,14 @@
         <v>Cor.Munsell</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Color específico del sistema Munsell.</v>
       </c>
       <c r="R17" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4983,7 +4995,7 @@
         <v>Munsell</v>
       </c>
       <c r="V17" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W17" s="38" t="str">
         <f t="shared" si="3"/>
@@ -5008,19 +5020,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>126</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>127</v>
       </c>
       <c r="G18" s="54" t="s">
         <v>1</v>
@@ -5054,14 +5066,14 @@
         <v xml:space="preserve">Cor.Pantone </v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Color específico del catálogo Pantone.</v>
       </c>
       <c r="R18" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S18" s="36" t="str">
         <f t="shared" ref="S18:U19" si="9">SUBSTITUTE(C18, "_", " ")</f>
@@ -5076,7 +5088,7 @@
         <v>Pantone</v>
       </c>
       <c r="V18" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W18" s="38" t="str">
         <f t="shared" si="3"/>
@@ -5101,19 +5113,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>129</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>1</v>
@@ -5147,14 +5159,14 @@
         <v xml:space="preserve">Cor.Dnit </v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Colores del catálogo del Departamento Nacional de Infraestructura de Transporte de Brasil.</v>
       </c>
       <c r="R19" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S19" s="36" t="str">
         <f t="shared" si="9"/>
@@ -5169,7 +5181,7 @@
         <v>DNIT</v>
       </c>
       <c r="V19" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W19" s="38" t="str">
         <f t="shared" si="3"/>
@@ -5199,7 +5211,7 @@
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5424,7 +5436,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5455,10 +5467,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>106</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5474,7 +5486,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5520,7 +5532,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>49</v>
@@ -5532,61 +5544,61 @@
         <v>48</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>48</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H1" s="70" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J1" s="70" t="s">
         <v>48</v>
       </c>
       <c r="K1" s="70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L1" s="41" t="s">
         <v>48</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N1" s="44" t="s">
         <v>48</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P1" s="44" t="s">
         <v>48</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R1" s="41" t="s">
         <v>48</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T1" s="41" t="s">
         <v>48</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V1" s="41" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5594,10 +5606,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>1</v>
@@ -5630,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O2" s="60">
         <v>255</v>
@@ -5666,10 +5678,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>1</v>
@@ -5702,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O3" s="60">
         <v>255</v>
@@ -5738,10 +5750,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>1</v>
@@ -5774,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O4" s="60">
         <v>255</v>
@@ -5810,10 +5822,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>1</v>
@@ -5846,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O5" s="60">
         <v>255</v>
@@ -5882,10 +5894,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>1</v>
@@ -5912,25 +5924,25 @@
         <v>1</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M6" s="60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O6" s="60">
         <v>255</v>
       </c>
       <c r="P6" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q6" s="60">
         <v>0</v>
       </c>
       <c r="R6" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S6" s="60">
         <v>0</v>
@@ -5942,7 +5954,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W6" s="60" t="str">
         <f t="shared" si="0"/>
@@ -5954,10 +5966,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>1</v>
@@ -5984,25 +5996,25 @@
         <v>1</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M7" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N7" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O7" s="60">
         <v>0</v>
       </c>
       <c r="P7" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="60">
         <v>255</v>
       </c>
       <c r="R7" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S7" s="60">
         <v>0</v>
@@ -6014,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W7" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6026,10 +6038,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>1</v>
@@ -6056,25 +6068,25 @@
         <v>1</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M8" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N8" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O8" s="60">
         <v>0</v>
       </c>
       <c r="P8" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="60">
         <v>0</v>
       </c>
       <c r="R8" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S8" s="60">
         <v>255</v>
@@ -6086,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W8" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6098,10 +6110,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>1</v>
@@ -6128,25 +6140,25 @@
         <v>1</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M9" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N9" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O9" s="60">
         <v>200</v>
       </c>
       <c r="P9" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="60">
         <v>200</v>
       </c>
       <c r="R9" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S9" s="60">
         <v>200</v>
@@ -6158,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W9" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6170,10 +6182,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>1</v>
@@ -6200,25 +6212,25 @@
         <v>1</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M10" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N10" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O10" s="60">
         <v>120</v>
       </c>
       <c r="P10" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="60">
         <v>120</v>
       </c>
       <c r="R10" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S10" s="60">
         <v>120</v>
@@ -6230,7 +6242,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W10" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6242,10 +6254,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>1</v>
@@ -6272,25 +6284,25 @@
         <v>1</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M11" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N11" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O11" s="60">
         <v>20</v>
       </c>
       <c r="P11" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="60">
         <v>20</v>
       </c>
       <c r="R11" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S11" s="60">
         <v>20</v>
@@ -6302,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W11" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6314,10 +6326,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>1</v>
@@ -6344,25 +6356,25 @@
         <v>1</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M12" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N12" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O12" s="60">
         <v>150</v>
       </c>
       <c r="P12" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q12" s="60">
         <v>30</v>
       </c>
       <c r="R12" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S12" s="60">
         <v>10</v>
@@ -6374,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W12" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6386,10 +6398,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>1</v>
@@ -6416,25 +6428,25 @@
         <v>1</v>
       </c>
       <c r="L13" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M13" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N13" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O13" s="60">
         <v>150</v>
       </c>
       <c r="P13" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="60">
         <v>40</v>
       </c>
       <c r="R13" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S13" s="60">
         <v>10</v>
@@ -6446,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W13" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6458,10 +6470,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>1</v>
@@ -6488,25 +6500,25 @@
         <v>1</v>
       </c>
       <c r="L14" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M14" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N14" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O14" s="60">
         <v>150</v>
       </c>
       <c r="P14" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="60">
         <v>50</v>
       </c>
       <c r="R14" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S14" s="60">
         <v>10</v>
@@ -6518,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="V14" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W14" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6530,10 +6542,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>1</v>
@@ -6560,25 +6572,25 @@
         <v>1</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M15" s="60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N15" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O15" s="60">
         <v>150</v>
       </c>
       <c r="P15" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="60">
         <v>60</v>
       </c>
       <c r="R15" s="55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S15" s="60">
         <v>10</v>
@@ -6590,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W15" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6602,10 +6614,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>1</v>
@@ -6632,34 +6644,34 @@
         <v>1</v>
       </c>
       <c r="L16" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="N16" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="P16" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q16" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="R16" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="S16" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="M16" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="N16" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="O16" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="P16" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q16" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="R16" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="S16" s="60" t="s">
-        <v>156</v>
-      </c>
       <c r="T16" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U16" s="60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V16" s="55" t="s">
         <v>1</v>
@@ -6674,10 +6686,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>1</v>
@@ -6704,34 +6716,34 @@
         <v>1</v>
       </c>
       <c r="L17" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M17" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N17" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O17" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="P17" s="55" t="s">
+      <c r="R17" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="Q17" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="R17" s="55" t="s">
-        <v>155</v>
-      </c>
       <c r="S17" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="T17" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="T17" s="55" t="s">
+      <c r="U17" s="60" t="s">
         <v>165</v>
-      </c>
-      <c r="U17" s="60" t="s">
-        <v>166</v>
       </c>
       <c r="V17" s="55" t="s">
         <v>1</v>
@@ -6746,55 +6758,55 @@
         <v>18</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E18" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="N18" s="56" t="s">
         <v>146</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="M18" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="N18" s="56" t="s">
-        <v>147</v>
       </c>
       <c r="O18" s="60">
         <v>0</v>
       </c>
       <c r="P18" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q18" s="60">
         <v>0</v>
       </c>
       <c r="R18" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S18" s="60">
         <v>100</v>
@@ -6806,7 +6818,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W18" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6818,55 +6830,55 @@
         <v>19</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="N19" s="56" t="s">
         <v>146</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="M19" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="N19" s="56" t="s">
-        <v>147</v>
       </c>
       <c r="O19" s="60">
         <v>63</v>
       </c>
       <c r="P19" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="60">
         <v>23</v>
       </c>
       <c r="R19" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S19" s="60">
         <v>100</v>
@@ -6878,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W19" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6890,55 +6902,55 @@
         <v>20</v>
       </c>
       <c r="B20" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="61" t="s">
+      <c r="G20" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="N20" s="56" t="s">
         <v>146</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="M20" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="N20" s="56" t="s">
-        <v>147</v>
       </c>
       <c r="O20" s="60">
         <v>100</v>
       </c>
       <c r="P20" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="60">
         <v>0</v>
       </c>
       <c r="R20" s="55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S20" s="60">
         <v>100</v>
@@ -6950,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="V20" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W20" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6962,40 +6974,40 @@
         <v>21</v>
       </c>
       <c r="B21" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="M21" s="60" t="s">
         <v>186</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="M21" s="60" t="s">
-        <v>187</v>
       </c>
       <c r="N21" s="65" t="s">
         <v>1</v>
@@ -7033,16 +7045,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" s="39" t="s">
         <v>1</v>
@@ -7063,10 +7075,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M22" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N22" s="65" t="s">
         <v>1</v>
@@ -7104,16 +7116,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>1</v>
@@ -7134,10 +7146,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M23" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N23" s="65" t="s">
         <v>1</v>
@@ -7175,16 +7187,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F24" s="39" t="s">
         <v>1</v>
@@ -7205,10 +7217,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M24" s="60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N24" s="65" t="s">
         <v>1</v>
@@ -7246,16 +7258,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25" s="39" t="s">
         <v>1</v>
@@ -7276,10 +7288,10 @@
         <v>1</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M25" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N25" s="65" t="s">
         <v>1</v>
@@ -7317,16 +7329,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26" s="39" t="s">
         <v>1</v>
@@ -7347,10 +7359,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M26" s="60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N26" s="65" t="s">
         <v>1</v>
@@ -7388,16 +7400,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="39" t="s">
         <v>1</v>
@@ -7418,10 +7430,10 @@
         <v>1</v>
       </c>
       <c r="L27" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M27" s="60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N27" s="65" t="s">
         <v>1</v>
@@ -7459,16 +7471,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F28" s="39" t="s">
         <v>1</v>
@@ -7489,10 +7501,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M28" s="60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N28" s="65" t="s">
         <v>1</v>
@@ -7530,16 +7542,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>1</v>
@@ -7560,10 +7572,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M29" s="60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N29" s="65" t="s">
         <v>1</v>
@@ -7601,16 +7613,16 @@
         <v>30</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F30" s="39" t="s">
         <v>1</v>
@@ -7631,10 +7643,10 @@
         <v>1</v>
       </c>
       <c r="L30" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M30" s="60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N30" s="65" t="s">
         <v>1</v>
@@ -7672,17 +7684,17 @@
         <v>31</v>
       </c>
       <c r="B31" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="64" t="s">
-        <v>186</v>
-      </c>
       <c r="F31" s="39" t="s">
         <v>1</v>
       </c>
@@ -7702,10 +7714,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M31" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N31" s="65" t="s">
         <v>1</v>
@@ -7743,16 +7755,16 @@
         <v>32</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F32" s="39" t="s">
         <v>1</v>
@@ -7773,10 +7785,10 @@
         <v>1</v>
       </c>
       <c r="L32" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M32" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N32" s="65" t="s">
         <v>1</v>
@@ -7814,16 +7826,16 @@
         <v>33</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33" s="39" t="s">
         <v>1</v>
@@ -7844,10 +7856,10 @@
         <v>1</v>
       </c>
       <c r="L33" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M33" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N33" s="65" t="s">
         <v>1</v>
@@ -7885,16 +7897,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F34" s="39" t="s">
         <v>1</v>
@@ -7915,10 +7927,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M34" s="60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N34" s="65" t="s">
         <v>1</v>
@@ -7956,16 +7968,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E35" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F35" s="39" t="s">
         <v>1</v>
@@ -7986,10 +7998,10 @@
         <v>1</v>
       </c>
       <c r="L35" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M35" s="60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N35" s="65" t="s">
         <v>1</v>
@@ -8027,16 +8039,16 @@
         <v>36</v>
       </c>
       <c r="B36" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F36" s="39" t="s">
         <v>1</v>
@@ -8057,10 +8069,10 @@
         <v>1</v>
       </c>
       <c r="L36" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M36" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N36" s="65" t="s">
         <v>1</v>
@@ -8098,16 +8110,16 @@
         <v>37</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>1</v>
@@ -8128,10 +8140,10 @@
         <v>1</v>
       </c>
       <c r="L37" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M37" s="60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N37" s="65" t="s">
         <v>1</v>
@@ -8169,16 +8181,16 @@
         <v>38</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E38" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F38" s="39" t="s">
         <v>1</v>
@@ -8199,10 +8211,10 @@
         <v>1</v>
       </c>
       <c r="L38" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M38" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N38" s="65" t="s">
         <v>1</v>
@@ -8240,16 +8252,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>1</v>
@@ -8270,10 +8282,10 @@
         <v>1</v>
       </c>
       <c r="L39" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M39" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N39" s="65" t="s">
         <v>1</v>
@@ -8311,16 +8323,16 @@
         <v>40</v>
       </c>
       <c r="B40" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F40" s="39" t="s">
         <v>1</v>
@@ -8341,10 +8353,10 @@
         <v>1</v>
       </c>
       <c r="L40" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M40" s="60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N40" s="65" t="s">
         <v>1</v>
@@ -8382,16 +8394,16 @@
         <v>41</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>1</v>
@@ -8412,10 +8424,10 @@
         <v>1</v>
       </c>
       <c r="L41" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M41" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N41" s="65" t="s">
         <v>1</v>
@@ -8453,16 +8465,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>1</v>
@@ -8483,10 +8495,10 @@
         <v>1</v>
       </c>
       <c r="L42" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M42" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N42" s="65" t="s">
         <v>1</v>
@@ -8524,16 +8536,16 @@
         <v>43</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F43" s="39" t="s">
         <v>1</v>
@@ -8554,10 +8566,10 @@
         <v>1</v>
       </c>
       <c r="L43" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M43" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N43" s="65" t="s">
         <v>1</v>
@@ -8595,16 +8607,16 @@
         <v>44</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F44" s="39" t="s">
         <v>1</v>
@@ -8625,10 +8637,10 @@
         <v>1</v>
       </c>
       <c r="L44" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M44" s="60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N44" s="65" t="s">
         <v>1</v>
@@ -8666,16 +8678,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E45" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F45" s="39" t="s">
         <v>1</v>
@@ -8696,10 +8708,10 @@
         <v>1</v>
       </c>
       <c r="L45" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M45" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N45" s="65" t="s">
         <v>1</v>
@@ -8737,16 +8749,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E46" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F46" s="39" t="s">
         <v>1</v>
@@ -8767,10 +8779,10 @@
         <v>1</v>
       </c>
       <c r="L46" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M46" s="60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N46" s="65" t="s">
         <v>1</v>
@@ -8808,16 +8820,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F47" s="39" t="s">
         <v>1</v>
@@ -8838,10 +8850,10 @@
         <v>1</v>
       </c>
       <c r="L47" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M47" s="60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N47" s="65" t="s">
         <v>1</v>
@@ -8879,10 +8891,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>1</v>
@@ -8909,28 +8921,28 @@
         <v>1</v>
       </c>
       <c r="L48" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="M48" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="M48" s="66" t="s">
-        <v>268</v>
-      </c>
       <c r="N48" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O48" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P48" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q48" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="Q48" s="66" t="s">
-        <v>234</v>
-      </c>
       <c r="R48" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S48" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T48" s="56" t="s">
         <v>1</v>
@@ -8950,10 +8962,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>1</v>
@@ -8980,28 +8992,28 @@
         <v>1</v>
       </c>
       <c r="L49" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M49" s="66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N49" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P49" s="67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q49" s="60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R49" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S49" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T49" s="56" t="s">
         <v>1</v>
@@ -9021,10 +9033,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>1</v>
@@ -9051,28 +9063,28 @@
         <v>1</v>
       </c>
       <c r="L50" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M50" s="66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N50" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P50" s="67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q50" s="66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R50" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S50" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T50" s="56" t="s">
         <v>1</v>
@@ -9092,10 +9104,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>1</v>
@@ -9122,28 +9134,28 @@
         <v>1</v>
       </c>
       <c r="L51" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M51" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N51" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P51" s="67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q51" s="66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R51" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S51" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T51" s="56" t="s">
         <v>1</v>
@@ -9163,10 +9175,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>1</v>
@@ -9193,28 +9205,28 @@
         <v>1</v>
       </c>
       <c r="L52" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M52" s="66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N52" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P52" s="67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q52" s="66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R52" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S52" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T52" s="56" t="s">
         <v>1</v>
@@ -9234,10 +9246,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>1</v>
@@ -9264,28 +9276,28 @@
         <v>1</v>
       </c>
       <c r="L53" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M53" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N53" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" s="68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P53" s="67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q53" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R53" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S53" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T53" s="56" t="s">
         <v>1</v>
@@ -9305,10 +9317,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>1</v>
@@ -9335,28 +9347,28 @@
         <v>1</v>
       </c>
       <c r="L54" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M54" s="66" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N54" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O54" s="68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P54" s="67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q54" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R54" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S54" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T54" s="56" t="s">
         <v>1</v>
@@ -9376,10 +9388,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>1</v>
@@ -9406,28 +9418,28 @@
         <v>1</v>
       </c>
       <c r="L55" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M55" s="66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N55" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O55" s="68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P55" s="67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q55" s="66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R55" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S55" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T55" s="56" t="s">
         <v>1</v>
@@ -9447,10 +9459,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>1</v>
@@ -9477,28 +9489,28 @@
         <v>1</v>
       </c>
       <c r="L56" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M56" s="66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N56" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O56" s="68" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P56" s="67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q56" s="66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R56" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S56" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T56" s="56" t="s">
         <v>1</v>
@@ -9518,10 +9530,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>1</v>
@@ -9548,28 +9560,28 @@
         <v>1</v>
       </c>
       <c r="L57" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M57" s="66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N57" s="55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O57" s="68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P57" s="67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q57" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R57" s="56" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S57" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T57" s="56" t="s">
         <v>1</v>
@@ -9589,10 +9601,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>1</v>
@@ -9619,28 +9631,28 @@
         <v>1</v>
       </c>
       <c r="L58" s="55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M58" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="N58" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="O58" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="P58" s="67" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q58" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="R58" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="S58" s="60" t="s">
         <v>278</v>
-      </c>
-      <c r="N58" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="O58" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="P58" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q58" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="R58" s="56" t="s">
-        <v>280</v>
-      </c>
-      <c r="S58" s="60" t="s">
-        <v>279</v>
       </c>
       <c r="T58" s="56" t="s">
         <v>1</v>
@@ -9661,7 +9673,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B20">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4FD35A-0A28-4FF9-BCD5-7E2B8B0CC17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB7623A-64C4-4FE2-B5E3-157DA2FE291F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="326">
   <si>
     <t>Key</t>
   </si>
@@ -2228,6 +2228,18 @@
   </si>
   <si>
     <t>Prof. José Luis Menegotto - DEG/POLI/UFRJ</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>"pt"</t>
+  </si>
+  <si>
+    <t>"es"</t>
+  </si>
+  <si>
+    <t>"en"</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2401,6 +2413,12 @@
       <b/>
       <sz val="5"/>
       <color rgb="FF000000"/>
+      <name val="Arial Nova Cond Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial Nova Cond Light"/>
       <family val="2"/>
     </font>
@@ -2603,7 +2621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2822,6 +2840,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3196,54 +3220,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.69140625" style="12" customWidth="1"/>
     <col min="2" max="2" width="51.69140625" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="3.3046875" style="12"/>
+    <col min="3" max="3" width="3.4609375" style="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.3046875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="62" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
@@ -3251,8 +3288,11 @@
         <f>_xlfn.CONCAT(B4,"Prop")</f>
         <v>BIMProp</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -3260,151 +3300,208 @@
         <f>_xlfn.CONCAT(B4,"Data")</f>
         <v>BIMData</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45992.393176504629</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>45992.540922453707</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="75" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16" t="s">
         <v>320</v>
       </c>
       <c r="B24" s="18" t="str">
         <f>_xlfn.TRANSLATE(B22,"pt","en")</f>
         <v>Formalize concepts of chromatic elements</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB7623A-64C4-4FE2-B5E3-157DA2FE291F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBB75FB-3068-4521-9FF2-E1B2E1713C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -2233,13 +2233,13 @@
     <t>Idioma</t>
   </si>
   <si>
-    <t>"pt"</t>
-  </si>
-  <si>
-    <t>"es"</t>
-  </si>
-  <si>
-    <t>"en"</t>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
 </sst>
 </file>
@@ -3223,9 +3223,9 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45992.540922453707</v>
+        <v>45992.730667708332</v>
       </c>
       <c r="C18" s="75" t="s">
         <v>323</v>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBB75FB-3068-4521-9FF2-E1B2E1713C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD3D77F-9D64-4847-8030-3DADE4D9C083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="331">
   <si>
     <t>Key</t>
   </si>
@@ -1472,9 +1472,6 @@
     <t>DataHora</t>
   </si>
   <si>
-    <t>Advertência1</t>
-  </si>
-  <si>
     <t>Prédio</t>
   </si>
   <si>
@@ -1780,12 +1777,6 @@
     <t>Munsell</t>
   </si>
   <si>
-    <t>"Cor Pantone"</t>
-  </si>
-  <si>
-    <t>"Cor CMY"</t>
-  </si>
-  <si>
     <t>"Cor RGB"</t>
   </si>
   <si>
@@ -2113,9 +2104,6 @@
     <t>Cor específica do catálogo Pantone.</t>
   </si>
   <si>
-    <t>"O DNIT utiliza as cores de um catálogo Pantone"</t>
-  </si>
-  <si>
     <t xml:space="preserve">é.cmyb some Cor.Digital </t>
   </si>
   <si>
@@ -2240,6 +2228,33 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>Aviso</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>Advertência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traduções ao espanhol e ao inglês incorporadas - As traduções devem ser constantemente revisadas </t>
+  </si>
+  <si>
+    <t>"Canal Vermelho ( R )"</t>
+  </si>
+  <si>
+    <t>"Canal Verde ( G )"</t>
+  </si>
+  <si>
+    <t>"Canal Azul ( B )"</t>
+  </si>
+  <si>
+    <t>"Canal de transparência Alfa"</t>
+  </si>
+  <si>
+    <t>"Cor Pantone utilizado no DNIT"</t>
   </si>
 </sst>
 </file>
@@ -2621,7 +2636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2847,11 +2862,50 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3220,12 +3274,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612B613C-8B96-43A0-BB50-A45AC26373E3}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C18" sqref="C18"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3236,7 +3290,7 @@
     <col min="4" max="16384" width="3.3046875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
@@ -3244,32 +3298,32 @@
         <v>50</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
@@ -3277,10 +3331,10 @@
         <v>62</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
@@ -3289,10 +3343,10 @@
         <v>BIMProp</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -3301,10 +3355,10 @@
         <v>BIMData</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -3312,21 +3366,21 @@
         <v>63</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
         <v>64</v>
       </c>
@@ -3334,10 +3388,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
         <v>66</v>
       </c>
@@ -3345,10 +3399,10 @@
         <v>38</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
         <v>57</v>
       </c>
@@ -3356,10 +3410,10 @@
         <v>38</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
         <v>58</v>
       </c>
@@ -3367,10 +3421,10 @@
         <v>38</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
         <v>67</v>
       </c>
@@ -3378,10 +3432,10 @@
         <v>38</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>68</v>
       </c>
@@ -3389,10 +3443,10 @@
         <v>38</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14" t="s">
         <v>69</v>
       </c>
@@ -3400,10 +3454,10 @@
         <v>38</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14" t="s">
         <v>70</v>
       </c>
@@ -3411,97 +3465,121 @@
         <v>38</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45992.730667708332</v>
+        <v>45998.577557870369</v>
       </c>
       <c r="C18" s="75" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="50" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="50" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B20" s="77" t="str">
+        <f>_xlfn.TRANSLATE(B19,"pt","es")</f>
+        <v>Traducciones integradas al español e inglés - Las traducciones deben revisarse constantemente</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="50" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="16" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="14" t="s">
+      <c r="B21" s="77" t="str">
+        <f>_xlfn.TRANSLATE(B19,"pt","en")</f>
+        <v>Built-in Spanish and English Translations - Translations must be constantly reviewed</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="14" t="s">
+      <c r="C22" s="75" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="14" t="s">
+      <c r="C23" s="75" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="16" t="s">
+      <c r="B24" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B25" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="16" t="s">
+      <c r="C25" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="B24" s="18" t="str">
-        <f>_xlfn.TRANSLATE(B22,"pt","en")</f>
+    </row>
+    <row r="26" spans="1:3" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" s="18" t="str">
+        <f>_xlfn.TRANSLATE(B24,"pt","en")</f>
         <v>Formalize concepts of chromatic elements</v>
       </c>
-      <c r="C24" s="75" t="s">
-        <v>325</v>
+      <c r="C26" s="75" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3543,22 +3621,22 @@
   <sheetData>
     <row r="1" spans="1:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>39</v>
@@ -3588,40 +3666,40 @@
         <v>44</v>
       </c>
       <c r="P1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="S1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="U1" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="26" t="s">
         <v>79</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="V1" s="26" t="s">
-        <v>80</v>
       </c>
       <c r="W1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="X1" s="26" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Y1" s="26" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Z1" s="26" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AA1" s="73" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
@@ -3629,19 +3707,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>119</v>
-      </c>
       <c r="E2" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>1</v>
@@ -3656,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="53" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L2" s="34" t="str">
         <f>_xlfn.CONCAT(C2)</f>
@@ -3675,14 +3753,14 @@
         <v>Cyan</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q2" s="34" t="str">
         <f>_xlfn.TRANSLATE(P2,"pt","es")</f>
         <v>Cantidad de color cian que puede variar entre 0 y 255.</v>
       </c>
       <c r="R2" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="36" t="str">
         <f t="shared" ref="S2:U17" si="1">SUBSTITUTE(C2, "_", " ")</f>
@@ -3697,7 +3775,7 @@
         <v>Canal</v>
       </c>
       <c r="V2" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W2" s="38" t="str">
         <f>CONCATENATE("Key.Croma",".",A2)</f>
@@ -3722,19 +3800,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>119</v>
-      </c>
       <c r="E3" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>1</v>
@@ -3749,7 +3827,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L3" s="34" t="str">
         <f>_xlfn.CONCAT(C3)</f>
@@ -3768,14 +3846,14 @@
         <v>Magenta</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q3" s="34" t="str">
         <f t="shared" ref="Q3:Q19" si="2">_xlfn.TRANSLATE(P3,"pt","es")</f>
         <v>Cantidad de color magenta que puede variar entre 0 y 255.</v>
       </c>
       <c r="R3" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S3" s="36" t="str">
         <f t="shared" si="1"/>
@@ -3790,7 +3868,7 @@
         <v>Canal</v>
       </c>
       <c r="V3" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W3" s="38" t="str">
         <f t="shared" ref="W3:W19" si="3">CONCATENATE("Key.Croma",".",A3)</f>
@@ -3815,19 +3893,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>119</v>
-      </c>
       <c r="E4" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>1</v>
@@ -3842,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="53" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L4" s="34" t="str">
         <f>_xlfn.CONCAT(C4)</f>
@@ -3861,14 +3939,14 @@
         <v>Yellow</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="34" t="str">
         <f t="shared" si="2"/>
         <v>La cantidad de color amarillo entre los cuales puede variar de 0 a 255.</v>
       </c>
       <c r="R4" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S4" s="36" t="str">
         <f t="shared" si="1"/>
@@ -3883,7 +3961,7 @@
         <v>Canal</v>
       </c>
       <c r="V4" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W4" s="38" t="str">
         <f t="shared" si="3"/>
@@ -3908,19 +3986,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>119</v>
-      </c>
       <c r="E5" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>1</v>
@@ -3935,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="53" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L5" s="34" t="str">
         <f t="shared" ref="L5:L19" si="5">_xlfn.CONCAT(C5)</f>
@@ -3954,14 +4032,14 @@
         <v>Black</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="34" t="str">
         <f t="shared" si="2"/>
         <v>La cantidad de color negro entre los cuales puede variar de 0 a 255.</v>
       </c>
       <c r="R5" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S5" s="36" t="str">
         <f t="shared" si="1"/>
@@ -3976,7 +4054,7 @@
         <v>Canal</v>
       </c>
       <c r="V5" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W5" s="38" t="str">
         <f t="shared" si="3"/>
@@ -4001,20 +4079,20 @@
         <v>6</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>96</v>
-      </c>
       <c r="G6" s="33" t="s">
         <v>1</v>
       </c>
@@ -4028,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L6" s="34" t="str">
         <f>_xlfn.CONCAT(C6)</f>
@@ -4047,14 +4125,14 @@
         <v>Red</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q6" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Cantidad de color rojo que puede variar entre 0 y 255.</v>
       </c>
       <c r="R6" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S6" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4069,7 +4147,7 @@
         <v>Canal</v>
       </c>
       <c r="V6" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W6" s="38" t="str">
         <f>CONCATENATE("Key.Croma",".",A6)</f>
@@ -4094,19 +4172,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>119</v>
-      </c>
       <c r="E7" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>1</v>
@@ -4121,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L7" s="34" t="str">
         <f>_xlfn.CONCAT(C7)</f>
@@ -4140,14 +4218,14 @@
         <v>Green</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="34" t="str">
         <f t="shared" si="2"/>
         <v>La cantidad de color verde entre eso puede variar de 0 a 255.</v>
       </c>
       <c r="R7" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S7" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4162,7 +4240,7 @@
         <v>Canal</v>
       </c>
       <c r="V7" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W7" s="38" t="str">
         <f t="shared" ref="W7:W11" si="6">CONCATENATE("Key.Croma",".",A7)</f>
@@ -4187,19 +4265,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>119</v>
-      </c>
       <c r="E8" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>1</v>
@@ -4214,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="53" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L8" s="34" t="str">
         <f>_xlfn.CONCAT(C8)</f>
@@ -4233,14 +4311,14 @@
         <v>Blue</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="34" t="str">
         <f t="shared" si="2"/>
         <v>La cantidad de color azul entre eso puede variar de 0 a 255.</v>
       </c>
       <c r="R8" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S8" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4255,7 +4333,7 @@
         <v>Canal</v>
       </c>
       <c r="V8" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W8" s="38" t="str">
         <f t="shared" si="6"/>
@@ -4280,19 +4358,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>119</v>
-      </c>
       <c r="E9" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>1</v>
@@ -4307,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="53" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L9" s="34" t="str">
         <f t="shared" ref="L9:L11" si="7">_xlfn.CONCAT(C9)</f>
@@ -4326,14 +4404,14 @@
         <v>Alfa</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q9" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Cantidad de transparencia que puede variar entre 0 y 255.</v>
       </c>
       <c r="R9" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S9" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4348,7 +4426,7 @@
         <v>Canal</v>
       </c>
       <c r="V9" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W9" s="38" t="str">
         <f t="shared" si="6"/>
@@ -4373,19 +4451,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>119</v>
-      </c>
       <c r="E10" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>1</v>
@@ -4397,10 +4475,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L10" s="22" t="str">
         <f t="shared" si="7"/>
@@ -4419,14 +4497,14 @@
         <v>CMY</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Color digital compuesto por canales CMY.</v>
       </c>
       <c r="R10" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S10" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4441,7 +4519,7 @@
         <v>Cor.Digital</v>
       </c>
       <c r="V10" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="38" t="str">
         <f t="shared" si="6"/>
@@ -4466,19 +4544,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>119</v>
-      </c>
       <c r="E11" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>1</v>
@@ -4490,10 +4568,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="54" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L11" s="22" t="str">
         <f t="shared" si="7"/>
@@ -4512,14 +4590,14 @@
         <v>CMYB</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q11" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Color digital compuesto por canales CMYB.</v>
       </c>
       <c r="R11" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S11" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4534,7 +4612,7 @@
         <v>Cor.Digital</v>
       </c>
       <c r="V11" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="38" t="str">
         <f t="shared" si="6"/>
@@ -4559,19 +4637,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>119</v>
-      </c>
       <c r="E12" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>1</v>
@@ -4583,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="K12" s="33" t="s">
         <v>286</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>290</v>
       </c>
       <c r="L12" s="22" t="str">
         <f t="shared" si="5"/>
@@ -4605,14 +4683,14 @@
         <v>RGB</v>
       </c>
       <c r="P12" s="22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q12" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Color digital compuesto por canales RGB.</v>
       </c>
       <c r="R12" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S12" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4627,7 +4705,7 @@
         <v>Cor.Digital</v>
       </c>
       <c r="V12" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W12" s="38" t="str">
         <f t="shared" si="3"/>
@@ -4652,19 +4730,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>119</v>
-      </c>
       <c r="E13" s="52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>1</v>
@@ -4676,10 +4754,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="54" t="s">
         <v>287</v>
-      </c>
-      <c r="K13" s="54" t="s">
-        <v>291</v>
       </c>
       <c r="L13" s="22" t="str">
         <f t="shared" si="5"/>
@@ -4698,14 +4776,14 @@
         <v>RGBA</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Color digital compuesto por canales RGBA. El canal A define la transparencia.</v>
       </c>
       <c r="R13" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S13" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4720,7 +4798,7 @@
         <v>Cor.Digital</v>
       </c>
       <c r="V13" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W13" s="38" t="str">
         <f t="shared" si="3"/>
@@ -4745,19 +4823,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="52" t="s">
-        <v>119</v>
-      </c>
       <c r="E14" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>1</v>
@@ -4791,14 +4869,14 @@
         <v>Hue</v>
       </c>
       <c r="P14" s="22" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Sistema de color Munsell: Parámetro de tono.</v>
       </c>
       <c r="R14" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S14" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4813,7 +4891,7 @@
         <v>Munsell</v>
       </c>
       <c r="V14" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="38" t="str">
         <f t="shared" si="3"/>
@@ -4838,19 +4916,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>119</v>
-      </c>
       <c r="E15" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>1</v>
@@ -4884,14 +4962,14 @@
         <v>Luminosidade</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q15" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Sistema de color Munsell: Parámetro de luminosidad.</v>
       </c>
       <c r="R15" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S15" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4906,7 +4984,7 @@
         <v>Munsell</v>
       </c>
       <c r="V15" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W15" s="38" t="str">
         <f t="shared" si="3"/>
@@ -4931,19 +5009,19 @@
         <v>16</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="52" t="s">
-        <v>119</v>
-      </c>
       <c r="E16" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G16" s="54" t="s">
         <v>1</v>
@@ -4977,14 +5055,14 @@
         <v>Croma</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Sistema de color Munsell: Parámetro Croma. Es el grado de distancia de un color al color neutro del mismo valor. Un croma bajo debilita el color. Un croma alto para colores saturados, fuertes o vivos.</v>
       </c>
       <c r="R16" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S16" s="36" t="str">
         <f t="shared" si="1"/>
@@ -4999,7 +5077,7 @@
         <v>Munsell</v>
       </c>
       <c r="V16" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W16" s="38" t="str">
         <f t="shared" si="3"/>
@@ -5024,19 +5102,19 @@
         <v>17</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="52" t="s">
-        <v>119</v>
-      </c>
       <c r="E17" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>1</v>
@@ -5070,14 +5148,14 @@
         <v>Cor.Munsell</v>
       </c>
       <c r="P17" s="22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Color específico del sistema Munsell.</v>
       </c>
       <c r="R17" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S17" s="36" t="str">
         <f t="shared" si="1"/>
@@ -5092,7 +5170,7 @@
         <v>Munsell</v>
       </c>
       <c r="V17" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="38" t="str">
         <f t="shared" si="3"/>
@@ -5117,19 +5195,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>126</v>
       </c>
       <c r="G18" s="54" t="s">
         <v>1</v>
@@ -5163,14 +5241,14 @@
         <v xml:space="preserve">Cor.Pantone </v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Color específico del catálogo Pantone.</v>
       </c>
       <c r="R18" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S18" s="36" t="str">
         <f t="shared" ref="S18:U19" si="9">SUBSTITUTE(C18, "_", " ")</f>
@@ -5185,7 +5263,7 @@
         <v>Pantone</v>
       </c>
       <c r="V18" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W18" s="38" t="str">
         <f t="shared" si="3"/>
@@ -5210,19 +5288,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>127</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>128</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>1</v>
@@ -5256,14 +5334,14 @@
         <v xml:space="preserve">Cor.Dnit </v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Colores del catálogo del Departamento Nacional de Infraestructura de Transporte de Brasil.</v>
       </c>
       <c r="R19" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S19" s="36" t="str">
         <f t="shared" si="9"/>
@@ -5278,7 +5356,7 @@
         <v>DNIT</v>
       </c>
       <c r="V19" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W19" s="38" t="str">
         <f t="shared" si="3"/>
@@ -5300,15 +5378,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Z19">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA19">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5533,7 +5611,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5564,10 +5642,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>105</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5583,7 +5661,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5595,9 +5673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF52033-0BF0-4BCC-B911-A6BC1CA10036}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD58"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5608,28 +5686,28 @@
     <col min="4" max="4" width="9.15234375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.3046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.15234375" customWidth="1"/>
-    <col min="7" max="7" width="7.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.3046875" style="59" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.3828125" style="59" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.3046875" style="59" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.3828125" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="85.3828125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.15234375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.84375" style="51" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.07421875" style="51" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.3046875" style="50" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.3828125" style="51" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.4609375" style="51" customWidth="1"/>
     <col min="18" max="18" width="4.3828125" style="51" customWidth="1"/>
-    <col min="19" max="19" width="32.53515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.15234375" style="51" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" style="51" customWidth="1"/>
-    <col min="21" max="21" width="30" style="51" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.3046875" style="51" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.84375" style="51" customWidth="1"/>
     <col min="23" max="23" width="7.53515625" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>49</v>
@@ -5641,61 +5719,61 @@
         <v>48</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>48</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" s="70" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J1" s="70" t="s">
         <v>48</v>
       </c>
       <c r="K1" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L1" s="41" t="s">
         <v>48</v>
       </c>
       <c r="M1" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N1" s="44" t="s">
         <v>48</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P1" s="44" t="s">
         <v>48</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R1" s="41" t="s">
         <v>48</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T1" s="41" t="s">
         <v>48</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V1" s="41" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5703,10 +5781,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>1</v>
@@ -5732,14 +5810,14 @@
       <c r="K2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="56" t="s">
-        <v>1</v>
+      <c r="L2" s="55" t="s">
+        <v>153</v>
       </c>
       <c r="M2" s="60" t="s">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="N2" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O2" s="60">
         <v>255</v>
@@ -5775,10 +5853,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>1</v>
@@ -5804,14 +5882,14 @@
       <c r="K3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="56" t="s">
-        <v>1</v>
+      <c r="L3" s="55" t="s">
+        <v>153</v>
       </c>
       <c r="M3" s="60" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="N3" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O3" s="60">
         <v>255</v>
@@ -5847,10 +5925,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>1</v>
@@ -5876,14 +5954,14 @@
       <c r="K4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="56" t="s">
-        <v>1</v>
+      <c r="L4" s="55" t="s">
+        <v>153</v>
       </c>
       <c r="M4" s="60" t="s">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="N4" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O4" s="60">
         <v>255</v>
@@ -5919,10 +5997,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>1</v>
@@ -5948,14 +6026,14 @@
       <c r="K5" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="56" t="s">
-        <v>1</v>
+      <c r="L5" s="55" t="s">
+        <v>153</v>
       </c>
       <c r="M5" s="60" t="s">
-        <v>1</v>
+        <v>329</v>
       </c>
       <c r="N5" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O5" s="60">
         <v>255</v>
@@ -5991,10 +6069,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>1</v>
@@ -6021,25 +6099,25 @@
         <v>1</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M6" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O6" s="60">
         <v>255</v>
       </c>
       <c r="P6" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="60">
         <v>0</v>
       </c>
       <c r="R6" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S6" s="60">
         <v>0</v>
@@ -6051,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W6" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6063,10 +6141,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>1</v>
@@ -6093,25 +6171,25 @@
         <v>1</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M7" s="60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N7" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O7" s="60">
         <v>0</v>
       </c>
       <c r="P7" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="60">
         <v>255</v>
       </c>
       <c r="R7" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S7" s="60">
         <v>0</v>
@@ -6123,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W7" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6135,10 +6213,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>1</v>
@@ -6165,25 +6243,25 @@
         <v>1</v>
       </c>
       <c r="L8" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M8" s="60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N8" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O8" s="60">
         <v>0</v>
       </c>
       <c r="P8" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="60">
         <v>0</v>
       </c>
       <c r="R8" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S8" s="60">
         <v>255</v>
@@ -6195,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W8" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6207,10 +6285,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>1</v>
@@ -6237,25 +6315,25 @@
         <v>1</v>
       </c>
       <c r="L9" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M9" s="60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N9" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O9" s="60">
         <v>200</v>
       </c>
       <c r="P9" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q9" s="60">
         <v>200</v>
       </c>
       <c r="R9" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S9" s="60">
         <v>200</v>
@@ -6267,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W9" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6279,10 +6357,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>1</v>
@@ -6309,25 +6387,25 @@
         <v>1</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M10" s="60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N10" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O10" s="60">
         <v>120</v>
       </c>
       <c r="P10" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="60">
         <v>120</v>
       </c>
       <c r="R10" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S10" s="60">
         <v>120</v>
@@ -6339,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W10" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6351,10 +6429,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>1</v>
@@ -6381,25 +6459,25 @@
         <v>1</v>
       </c>
       <c r="L11" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M11" s="60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N11" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O11" s="60">
         <v>20</v>
       </c>
       <c r="P11" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="60">
         <v>20</v>
       </c>
       <c r="R11" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S11" s="60">
         <v>20</v>
@@ -6411,7 +6489,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W11" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6423,10 +6501,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>1</v>
@@ -6453,25 +6531,25 @@
         <v>1</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M12" s="60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N12" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O12" s="60">
         <v>150</v>
       </c>
       <c r="P12" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q12" s="60">
         <v>30</v>
       </c>
       <c r="R12" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S12" s="60">
         <v>10</v>
@@ -6483,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W12" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6495,10 +6573,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>1</v>
@@ -6525,25 +6603,25 @@
         <v>1</v>
       </c>
       <c r="L13" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M13" s="60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N13" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O13" s="60">
         <v>150</v>
       </c>
       <c r="P13" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="60">
         <v>40</v>
       </c>
       <c r="R13" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S13" s="60">
         <v>10</v>
@@ -6555,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="V13" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W13" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6567,10 +6645,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>1</v>
@@ -6597,25 +6675,25 @@
         <v>1</v>
       </c>
       <c r="L14" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M14" s="60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N14" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O14" s="60">
         <v>150</v>
       </c>
       <c r="P14" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="60">
         <v>50</v>
       </c>
       <c r="R14" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S14" s="60">
         <v>10</v>
@@ -6627,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="V14" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W14" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6639,10 +6717,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>1</v>
@@ -6669,25 +6747,25 @@
         <v>1</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M15" s="60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N15" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O15" s="60">
         <v>150</v>
       </c>
       <c r="P15" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q15" s="60">
         <v>60</v>
       </c>
       <c r="R15" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S15" s="60">
         <v>10</v>
@@ -6699,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="V15" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W15" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6711,10 +6789,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>1</v>
@@ -6741,34 +6819,34 @@
         <v>1</v>
       </c>
       <c r="L16" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="60" t="s">
-        <v>172</v>
-      </c>
       <c r="N16" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="O16" s="60" t="s">
+      <c r="P16" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q16" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="P16" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q16" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="R16" s="55" t="s">
-        <v>154</v>
+      <c r="R16" s="56" t="s">
+        <v>1</v>
       </c>
       <c r="S16" s="60" t="s">
-        <v>155</v>
+        <v>1</v>
       </c>
       <c r="T16" s="55" t="s">
-        <v>154</v>
+        <v>1</v>
       </c>
       <c r="U16" s="60" t="s">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="V16" s="55" t="s">
         <v>1</v>
@@ -6783,10 +6861,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>1</v>
@@ -6813,34 +6891,34 @@
         <v>1</v>
       </c>
       <c r="L17" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M17" s="60" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="N17" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O17" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q17" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="P17" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q17" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="R17" s="55" t="s">
-        <v>154</v>
+      <c r="R17" s="56" t="s">
+        <v>1</v>
       </c>
       <c r="S17" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="T17" s="55" t="s">
+      <c r="U17" s="60" t="s">
         <v>164</v>
-      </c>
-      <c r="U17" s="60" t="s">
-        <v>165</v>
       </c>
       <c r="V17" s="55" t="s">
         <v>1</v>
@@ -6855,55 +6933,55 @@
         <v>18</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="N18" s="56" t="s">
         <v>145</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="M18" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="N18" s="56" t="s">
-        <v>146</v>
       </c>
       <c r="O18" s="60">
         <v>0</v>
       </c>
       <c r="P18" s="56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q18" s="60">
         <v>0</v>
       </c>
       <c r="R18" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S18" s="60">
         <v>100</v>
@@ -6915,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W18" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6927,55 +7005,55 @@
         <v>19</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="N19" s="56" t="s">
         <v>145</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="M19" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="N19" s="56" t="s">
-        <v>146</v>
       </c>
       <c r="O19" s="60">
         <v>63</v>
       </c>
       <c r="P19" s="56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="60">
         <v>23</v>
       </c>
       <c r="R19" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S19" s="60">
         <v>100</v>
@@ -6987,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="V19" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W19" s="60" t="str">
         <f t="shared" si="0"/>
@@ -6999,55 +7077,55 @@
         <v>20</v>
       </c>
       <c r="B20" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="61" t="s">
+      <c r="G20" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="M20" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="N20" s="56" t="s">
         <v>145</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="L20" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="M20" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="N20" s="56" t="s">
-        <v>146</v>
       </c>
       <c r="O20" s="60">
         <v>100</v>
       </c>
       <c r="P20" s="56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="60">
         <v>0</v>
       </c>
       <c r="R20" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S20" s="60">
         <v>100</v>
@@ -7059,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="V20" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W20" s="60" t="str">
         <f t="shared" si="0"/>
@@ -7071,10 +7149,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>1</v>
@@ -7101,10 +7179,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M21" s="60" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N21" s="65" t="s">
         <v>1</v>
@@ -7142,16 +7220,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F22" s="39" t="s">
         <v>1</v>
@@ -7172,10 +7250,10 @@
         <v>1</v>
       </c>
       <c r="L22" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M22" s="60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N22" s="65" t="s">
         <v>1</v>
@@ -7213,16 +7291,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>1</v>
@@ -7243,10 +7321,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M23" s="60" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N23" s="65" t="s">
         <v>1</v>
@@ -7284,16 +7362,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F24" s="39" t="s">
         <v>1</v>
@@ -7314,10 +7392,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M24" s="60" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N24" s="65" t="s">
         <v>1</v>
@@ -7355,16 +7433,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F25" s="39" t="s">
         <v>1</v>
@@ -7385,10 +7463,10 @@
         <v>1</v>
       </c>
       <c r="L25" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M25" s="60" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N25" s="65" t="s">
         <v>1</v>
@@ -7426,16 +7504,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F26" s="39" t="s">
         <v>1</v>
@@ -7456,10 +7534,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M26" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N26" s="65" t="s">
         <v>1</v>
@@ -7497,16 +7575,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F27" s="39" t="s">
         <v>1</v>
@@ -7527,10 +7605,10 @@
         <v>1</v>
       </c>
       <c r="L27" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M27" s="60" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N27" s="65" t="s">
         <v>1</v>
@@ -7568,16 +7646,16 @@
         <v>28</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F28" s="39" t="s">
         <v>1</v>
@@ -7598,10 +7676,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M28" s="60" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N28" s="65" t="s">
         <v>1</v>
@@ -7639,17 +7717,17 @@
         <v>29</v>
       </c>
       <c r="B29" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>185</v>
-      </c>
       <c r="F29" s="39" t="s">
         <v>1</v>
       </c>
@@ -7669,10 +7747,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M29" s="60" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N29" s="65" t="s">
         <v>1</v>
@@ -7710,16 +7788,16 @@
         <v>30</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F30" s="39" t="s">
         <v>1</v>
@@ -7740,10 +7818,10 @@
         <v>1</v>
       </c>
       <c r="L30" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M30" s="60" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N30" s="65" t="s">
         <v>1</v>
@@ -7781,16 +7859,16 @@
         <v>31</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F31" s="39" t="s">
         <v>1</v>
@@ -7811,10 +7889,10 @@
         <v>1</v>
       </c>
       <c r="L31" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M31" s="60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N31" s="65" t="s">
         <v>1</v>
@@ -7852,16 +7930,16 @@
         <v>32</v>
       </c>
       <c r="B32" s="63" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F32" s="39" t="s">
         <v>1</v>
@@ -7882,10 +7960,10 @@
         <v>1</v>
       </c>
       <c r="L32" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M32" s="60" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N32" s="65" t="s">
         <v>1</v>
@@ -7923,16 +8001,16 @@
         <v>33</v>
       </c>
       <c r="B33" s="63" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F33" s="39" t="s">
         <v>1</v>
@@ -7953,10 +8031,10 @@
         <v>1</v>
       </c>
       <c r="L33" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M33" s="60" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N33" s="65" t="s">
         <v>1</v>
@@ -7994,16 +8072,16 @@
         <v>34</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F34" s="39" t="s">
         <v>1</v>
@@ -8024,10 +8102,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M34" s="60" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N34" s="65" t="s">
         <v>1</v>
@@ -8065,16 +8143,16 @@
         <v>35</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E35" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F35" s="39" t="s">
         <v>1</v>
@@ -8095,10 +8173,10 @@
         <v>1</v>
       </c>
       <c r="L35" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M35" s="60" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N35" s="65" t="s">
         <v>1</v>
@@ -8136,16 +8214,16 @@
         <v>36</v>
       </c>
       <c r="B36" s="63" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F36" s="39" t="s">
         <v>1</v>
@@ -8166,10 +8244,10 @@
         <v>1</v>
       </c>
       <c r="L36" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M36" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N36" s="65" t="s">
         <v>1</v>
@@ -8207,16 +8285,16 @@
         <v>37</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>1</v>
@@ -8237,10 +8315,10 @@
         <v>1</v>
       </c>
       <c r="L37" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M37" s="60" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N37" s="65" t="s">
         <v>1</v>
@@ -8278,16 +8356,16 @@
         <v>38</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F38" s="39" t="s">
         <v>1</v>
@@ -8308,10 +8386,10 @@
         <v>1</v>
       </c>
       <c r="L38" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M38" s="60" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N38" s="65" t="s">
         <v>1</v>
@@ -8349,16 +8427,16 @@
         <v>39</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>1</v>
@@ -8379,10 +8457,10 @@
         <v>1</v>
       </c>
       <c r="L39" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M39" s="60" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N39" s="65" t="s">
         <v>1</v>
@@ -8420,16 +8498,16 @@
         <v>40</v>
       </c>
       <c r="B40" s="63" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E40" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F40" s="39" t="s">
         <v>1</v>
@@ -8450,10 +8528,10 @@
         <v>1</v>
       </c>
       <c r="L40" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M40" s="60" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N40" s="65" t="s">
         <v>1</v>
@@ -8491,16 +8569,16 @@
         <v>41</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>1</v>
@@ -8521,10 +8599,10 @@
         <v>1</v>
       </c>
       <c r="L41" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M41" s="60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N41" s="65" t="s">
         <v>1</v>
@@ -8562,16 +8640,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>1</v>
@@ -8592,10 +8670,10 @@
         <v>1</v>
       </c>
       <c r="L42" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M42" s="60" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N42" s="65" t="s">
         <v>1</v>
@@ -8633,16 +8711,16 @@
         <v>43</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E43" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F43" s="39" t="s">
         <v>1</v>
@@ -8663,10 +8741,10 @@
         <v>1</v>
       </c>
       <c r="L43" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M43" s="60" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N43" s="65" t="s">
         <v>1</v>
@@ -8704,16 +8782,16 @@
         <v>44</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F44" s="39" t="s">
         <v>1</v>
@@ -8734,10 +8812,10 @@
         <v>1</v>
       </c>
       <c r="L44" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M44" s="60" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N44" s="65" t="s">
         <v>1</v>
@@ -8775,16 +8853,16 @@
         <v>45</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E45" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F45" s="39" t="s">
         <v>1</v>
@@ -8805,10 +8883,10 @@
         <v>1</v>
       </c>
       <c r="L45" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M45" s="60" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N45" s="65" t="s">
         <v>1</v>
@@ -8846,16 +8924,16 @@
         <v>46</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E46" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F46" s="39" t="s">
         <v>1</v>
@@ -8876,10 +8954,10 @@
         <v>1</v>
       </c>
       <c r="L46" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M46" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N46" s="65" t="s">
         <v>1</v>
@@ -8917,16 +8995,16 @@
         <v>47</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E47" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F47" s="39" t="s">
         <v>1</v>
@@ -8947,10 +9025,10 @@
         <v>1</v>
       </c>
       <c r="L47" s="55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M47" s="60" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N47" s="65" t="s">
         <v>1</v>
@@ -8988,10 +9066,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>1</v>
@@ -9018,34 +9096,34 @@
         <v>1</v>
       </c>
       <c r="L48" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="M48" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="N48" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="O48" s="68" t="s">
-        <v>255</v>
-      </c>
-      <c r="P48" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q48" s="66" t="s">
-        <v>233</v>
+        <v>153</v>
+      </c>
+      <c r="M48" s="68" t="s">
+        <v>252</v>
+      </c>
+      <c r="N48" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="O48" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="P48" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="60" t="s">
+        <v>1</v>
       </c>
       <c r="R48" s="56" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S48" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="T48" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U48" s="60" t="s">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="T48" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="U48" s="66" t="s">
+        <v>264</v>
       </c>
       <c r="V48" s="56" t="s">
         <v>1</v>
@@ -9059,10 +9137,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>1</v>
@@ -9089,34 +9167,34 @@
         <v>1</v>
       </c>
       <c r="L49" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="M49" s="66" t="s">
-        <v>268</v>
-      </c>
-      <c r="N49" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="O49" s="68" t="s">
-        <v>256</v>
-      </c>
-      <c r="P49" s="67" t="s">
-        <v>232</v>
+        <v>153</v>
+      </c>
+      <c r="M49" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="N49" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="O49" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="P49" s="56" t="s">
+        <v>1</v>
       </c>
       <c r="Q49" s="60" t="s">
-        <v>237</v>
+        <v>1</v>
       </c>
       <c r="R49" s="56" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S49" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="T49" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U49" s="60" t="s">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="T49" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="U49" s="66" t="s">
+        <v>265</v>
       </c>
       <c r="V49" s="56" t="s">
         <v>1</v>
@@ -9130,10 +9208,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>1</v>
@@ -9160,34 +9238,34 @@
         <v>1</v>
       </c>
       <c r="L50" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="M50" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="N50" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="O50" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="P50" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R50" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="S50" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="T50" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="U50" s="66" t="s">
         <v>266</v>
-      </c>
-      <c r="M50" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="N50" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="O50" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="P50" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q50" s="66" t="s">
-        <v>239</v>
-      </c>
-      <c r="R50" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="S50" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="T50" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U50" s="60" t="s">
-        <v>1</v>
       </c>
       <c r="V50" s="56" t="s">
         <v>1</v>
@@ -9201,10 +9279,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>1</v>
@@ -9231,34 +9309,34 @@
         <v>1</v>
       </c>
       <c r="L51" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="M51" s="66" t="s">
-        <v>270</v>
-      </c>
-      <c r="N51" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="O51" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="P51" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q51" s="66" t="s">
-        <v>236</v>
+        <v>153</v>
+      </c>
+      <c r="M51" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="N51" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="O51" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="P51" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="60" t="s">
+        <v>1</v>
       </c>
       <c r="R51" s="56" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S51" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="T51" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U51" s="60" t="s">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="T51" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="U51" s="66" t="s">
+        <v>267</v>
       </c>
       <c r="V51" s="56" t="s">
         <v>1</v>
@@ -9272,10 +9350,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>1</v>
@@ -9302,34 +9380,34 @@
         <v>1</v>
       </c>
       <c r="L52" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="M52" s="66" t="s">
-        <v>271</v>
-      </c>
-      <c r="N52" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="O52" s="68" t="s">
-        <v>259</v>
-      </c>
-      <c r="P52" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q52" s="66" t="s">
-        <v>238</v>
+        <v>153</v>
+      </c>
+      <c r="M52" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="N52" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="O52" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="P52" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="60" t="s">
+        <v>1</v>
       </c>
       <c r="R52" s="56" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S52" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="T52" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U52" s="60" t="s">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="T52" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="U52" s="66" t="s">
+        <v>268</v>
       </c>
       <c r="V52" s="56" t="s">
         <v>1</v>
@@ -9343,10 +9421,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="63" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>1</v>
@@ -9373,34 +9451,34 @@
         <v>1</v>
       </c>
       <c r="L53" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="M53" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="N53" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="O53" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="P53" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="M53" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="N53" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="O53" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="Q53" s="66" t="s">
-        <v>235</v>
+      <c r="P53" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="60" t="s">
+        <v>1</v>
       </c>
       <c r="R53" s="56" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S53" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="T53" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U53" s="60" t="s">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="T53" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="U53" s="66" t="s">
+        <v>269</v>
       </c>
       <c r="V53" s="56" t="s">
         <v>1</v>
@@ -9414,10 +9492,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="63" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>1</v>
@@ -9444,34 +9522,34 @@
         <v>1</v>
       </c>
       <c r="L54" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="M54" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="N54" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="O54" s="68" t="s">
-        <v>261</v>
-      </c>
-      <c r="P54" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q54" s="66" t="s">
-        <v>240</v>
+        <v>153</v>
+      </c>
+      <c r="M54" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="N54" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="O54" s="66" t="s">
+        <v>237</v>
+      </c>
+      <c r="P54" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="60" t="s">
+        <v>1</v>
       </c>
       <c r="R54" s="56" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S54" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="T54" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U54" s="60" t="s">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="T54" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="U54" s="66" t="s">
+        <v>270</v>
       </c>
       <c r="V54" s="56" t="s">
         <v>1</v>
@@ -9485,10 +9563,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="63" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>1</v>
@@ -9515,34 +9593,34 @@
         <v>1</v>
       </c>
       <c r="L55" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="M55" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="N55" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="O55" s="68" t="s">
-        <v>262</v>
-      </c>
-      <c r="P55" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q55" s="66" t="s">
-        <v>234</v>
+        <v>153</v>
+      </c>
+      <c r="M55" s="68" t="s">
+        <v>259</v>
+      </c>
+      <c r="N55" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="O55" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="P55" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="60" t="s">
+        <v>1</v>
       </c>
       <c r="R55" s="56" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S55" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="T55" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U55" s="60" t="s">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="T55" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="U55" s="66" t="s">
+        <v>271</v>
       </c>
       <c r="V55" s="56" t="s">
         <v>1</v>
@@ -9556,10 +9634,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="63" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>1</v>
@@ -9586,34 +9664,34 @@
         <v>1</v>
       </c>
       <c r="L56" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="M56" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="M56" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="N56" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="O56" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="P56" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R56" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="S56" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="N56" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="O56" s="68" t="s">
+      <c r="T56" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="P56" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q56" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="R56" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="S56" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="T56" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U56" s="60" t="s">
-        <v>1</v>
+      <c r="U56" s="66" t="s">
+        <v>272</v>
       </c>
       <c r="V56" s="56" t="s">
         <v>1</v>
@@ -9627,10 +9705,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="63" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>1</v>
@@ -9657,34 +9735,34 @@
         <v>1</v>
       </c>
       <c r="L57" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="M57" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="M57" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="N57" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="O57" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="P57" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="R57" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="N57" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="O57" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="P57" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q57" s="66" t="s">
-        <v>241</v>
-      </c>
-      <c r="R57" s="56" t="s">
-        <v>279</v>
-      </c>
       <c r="S57" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="T57" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U57" s="60" t="s">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="T57" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="U57" s="66" t="s">
+        <v>273</v>
       </c>
       <c r="V57" s="56" t="s">
         <v>1</v>
@@ -9698,10 +9776,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="63" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>1</v>
@@ -9728,34 +9806,34 @@
         <v>1</v>
       </c>
       <c r="L58" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="M58" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="N58" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="O58" s="68" t="s">
-        <v>265</v>
-      </c>
-      <c r="P58" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q58" s="66" t="s">
-        <v>242</v>
+        <v>153</v>
+      </c>
+      <c r="M58" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="N58" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="O58" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="P58" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="60" t="s">
+        <v>1</v>
       </c>
       <c r="R58" s="56" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S58" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="T58" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="U58" s="60" t="s">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="T58" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="U58" s="66" t="s">
+        <v>274</v>
       </c>
       <c r="V58" s="56" t="s">
         <v>1</v>
@@ -9769,8 +9847,13 @@
     <sortCondition ref="C1:C2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B20">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/CROM/Ontologia_CROMA.xlsx
+++ b/Versão5/CROM/Ontologia_CROMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\CROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD3D77F-9D64-4847-8030-3DADE4D9C083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35185A5-E894-424B-9D3E-721DC2400CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="26" r:id="rId1"/>
@@ -2869,15 +2869,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2895,26 +2887,6 @@
         <strike val="0"/>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3282,15 +3254,15 @@
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.3046875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.69140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="51.69140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="3.4609375" style="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.3046875" style="12"/>
+    <col min="1" max="1" width="9.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.28515625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
@@ -3301,7 +3273,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
@@ -3312,7 +3284,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
@@ -3323,7 +3295,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>52</v>
       </c>
@@ -3334,7 +3306,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
@@ -3346,7 +3318,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -3358,7 +3330,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -3369,7 +3341,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>56</v>
       </c>
@@ -3380,7 +3352,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>64</v>
       </c>
@@ -3391,7 +3363,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>66</v>
       </c>
@@ -3402,7 +3374,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>57</v>
       </c>
@@ -3413,7 +3385,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>58</v>
       </c>
@@ -3424,7 +3396,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>67</v>
       </c>
@@ -3435,7 +3407,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>68</v>
       </c>
@@ -3446,7 +3418,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>69</v>
       </c>
@@ -3457,7 +3429,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>70</v>
       </c>
@@ -3468,7 +3440,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>59</v>
       </c>
@@ -3479,19 +3451,19 @@
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="17">
         <f ca="1">NOW()</f>
-        <v>45998.577557870369</v>
+        <v>46063.659413425929</v>
       </c>
       <c r="C18" s="75" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="50" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" s="50" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>324</v>
       </c>
@@ -3502,7 +3474,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="50" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" s="50" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>322</v>
       </c>
@@ -3514,7 +3486,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="50" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" s="50" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>323</v>
       </c>
@@ -3526,7 +3498,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>72</v>
       </c>
@@ -3537,7 +3509,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>73</v>
       </c>
@@ -3548,7 +3520,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>74</v>
       </c>
@@ -3559,7 +3531,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>75</v>
       </c>
@@ -3570,7 +3542,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:3" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>316</v>
       </c>
@@ -3591,35 +3563,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1:AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.53515625" customWidth="1"/>
-    <col min="2" max="2" width="5.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.3828125" customWidth="1"/>
-    <col min="5" max="5" width="5.53515625" customWidth="1"/>
-    <col min="6" max="6" width="7.15234375" customWidth="1"/>
-    <col min="7" max="9" width="7.69140625" customWidth="1"/>
-    <col min="10" max="10" width="14.15234375" customWidth="1"/>
-    <col min="11" max="11" width="19.53515625" customWidth="1"/>
-    <col min="12" max="14" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="101.53515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="98.3828125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.3046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.84375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="101.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="98.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.15234375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.84375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="79.3828125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="79.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>77</v>
       </c>
@@ -3702,7 +3674,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>2</v>
       </c>
@@ -3795,7 +3767,7 @@
         <v>Amount of cyan color that can vary between 0 and 255.</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>3</v>
       </c>
@@ -3888,7 +3860,7 @@
         <v>Amount of magenta color that can vary between 0 and 255.</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>4</v>
       </c>
@@ -3981,7 +3953,7 @@
         <v>Amount of yellow color between which can vary from 0 to 255.</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>5</v>
       </c>
@@ -4074,7 +4046,7 @@
         <v>Amount of black color between which can vary from 0 to 255.</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>6</v>
       </c>
@@ -4167,7 +4139,7 @@
         <v>Amount of red color that can vary between 0 and 255.</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>7</v>
       </c>
@@ -4260,7 +4232,7 @@
         <v>Amount of green color between that can vary from 0 to 255.</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>8</v>
       </c>
@@ -4353,7 +4325,7 @@
         <v>Amount of blue color between that can vary from 0 to 255.</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>9</v>
       </c>
@@ -4446,7 +4418,7 @@
         <v>Amount of transparency that can vary between 0 and 255.</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>10</v>
       </c>
@@ -4539,7 +4511,7 @@
         <v>Digital color composed of CMY channels.</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>11</v>
       </c>
@@ -4632,7 +4604,7 @@
         <v>Digital color composed of CMYB channels.</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>12</v>
       </c>
@@ -4725,7 +4697,7 @@
         <v>Digital color composed of RGB channels.</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>13</v>
       </c>
@@ -4818,7 +4790,7 @@
         <v>Digital color composed of RGBA channels. Channel A defines transparency.</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>14</v>
       </c>
@@ -4911,7 +4883,7 @@
         <v>Munsell Color System: Hue Parameter.</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>15</v>
       </c>
@@ -5004,7 +4976,7 @@
         <v>Munsell color system: Luminosity parameter.</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>16</v>
       </c>
@@ -5097,7 +5069,7 @@
         <v>Munsell Color System: Croma Parameter. It is the degree of distance of a color from the neutral color of the same value. A low chroma weakens the color. A high chroma for saturated, strong, or vivid color.</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>17</v>
       </c>
@@ -5190,7 +5162,7 @@
         <v>Munsell system-specific color.</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>18</v>
       </c>
@@ -5283,7 +5255,7 @@
         <v>Specific color from the Pantone catalog.</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="6.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="69">
         <v>19</v>
       </c>
@@ -5378,15 +5350,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Z19">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AA19">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5405,15 +5377,15 @@
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="5.84375" style="2" customWidth="1"/>
-    <col min="11" max="21" width="5.84375" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.15234375" style="5"/>
+    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.85546875" style="2" customWidth="1"/>
+    <col min="11" max="21" width="5.85546875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="11.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="48" t="s">
         <v>22</v>
       </c>
@@ -5478,7 +5450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="48">
         <v>2</v>
       </c>
@@ -5543,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="48">
         <v>3</v>
       </c>
@@ -5611,7 +5583,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5630,14 +5602,14 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.3046875" customWidth="1"/>
-    <col min="2" max="2" width="10.3046875" customWidth="1"/>
-    <col min="3" max="3" width="14.84375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45">
         <v>1</v>
       </c>
@@ -5648,7 +5620,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>2</v>
       </c>
@@ -5661,7 +5633,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5675,37 +5647,37 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A58"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.69140625" customWidth="1"/>
-    <col min="4" max="4" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.15234375" customWidth="1"/>
-    <col min="7" max="7" width="4.921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.3046875" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.3828125" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.3046875" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.3828125" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" style="59" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.15234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.07421875" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.3046875" style="50" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.4609375" style="51" customWidth="1"/>
-    <col min="18" max="18" width="4.3828125" style="51" customWidth="1"/>
-    <col min="19" max="19" width="5.15234375" style="51" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="51" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="51" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" style="51" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" style="51" customWidth="1"/>
-    <col min="21" max="21" width="66.3046875" style="51" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.84375" style="51" customWidth="1"/>
-    <col min="23" max="23" width="7.53515625" style="51" customWidth="1"/>
+    <col min="21" max="21" width="66.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" style="51" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>92</v>
       </c>
@@ -5776,7 +5748,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40">
         <v>2</v>
       </c>
@@ -5848,7 +5820,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40">
         <v>3</v>
       </c>
@@ -5920,7 +5892,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40">
         <v>4</v>
       </c>
@@ -5992,7 +5964,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
         <v>5</v>
       </c>
@@ -6064,7 +6036,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>6</v>
       </c>
@@ -6136,7 +6108,7 @@
         <v>"255.0.0"</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>7</v>
       </c>
@@ -6208,7 +6180,7 @@
         <v>"0.255.0"</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
         <v>8</v>
       </c>
@@ -6280,7 +6252,7 @@
         <v>"0.0.255"</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>9</v>
       </c>
@@ -6352,7 +6324,7 @@
         <v>"200.200.200"</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>10</v>
       </c>
@@ -6424,7 +6396,7 @@
         <v>"120.120.120"</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>11</v>
       </c>
@@ -6496,7 +6468,7 @@
         <v>"20.20.20"</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>12</v>
       </c>
@@ -6568,7 +6540,7 @@
         <v>"150.30.10"</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>13</v>
       </c>
@@ -6640,7 +6612,7 @@
         <v>"150.40.10"</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>14</v>
       </c>
@@ -6712,7 +6684,7 @@
         <v>"150.50.10"</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>15</v>
       </c>
@@ -6784,7 +6756,7 @@
         <v>"150.60.10"</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>16</v>
       </c>
@@ -6856,7 +6828,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>17</v>
       </c>
@@ -6928,7 +6900,7 @@
         <v>null</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" s="50" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>18</v>
       </c>
@@ -7000,7 +6972,7 @@
         <v>"0.0.100"</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>19</v>
       </c>
@@ -7072,7 +7044,7 @@
         <v>"63.23.100"</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>20</v>
       </c>
@@ -7144,7 +7116,7 @@
         <v>"100.0.100"</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>21</v>
       </c>
@@ -7215,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>22</v>
       </c>
@@ -7286,7 +7258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>23</v>
       </c>
@@ -7357,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>24</v>
       </c>
@@ -7428,7 +7400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>25</v>
       </c>
@@ -7499,7 +7471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>26</v>
       </c>
@@ -7570,7 +7542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>27</v>
       </c>
@@ -7641,7 +7613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>28</v>
       </c>
@@ -7712,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>29</v>
       </c>
@@ -7783,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>30</v>
       </c>
@@ -7854,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>31</v>
       </c>
@@ -7925,7 +7897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>32</v>
       </c>
@@ -7996,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>33</v>
       </c>
@@ -8067,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>34</v>
       </c>
@@ -8138,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>35</v>
       </c>
@@ -8209,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36</v>
       </c>
@@ -8280,7 +8252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>37</v>
       </c>
@@ -8351,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>38</v>
       </c>
@@ -8422,7 +8394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>39</v>
       </c>
@@ -8493,7 +8465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>40</v>
       </c>
@@ -8564,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>41</v>
       </c>
@@ -8635,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>42</v>
       </c>
@@ -8706,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43</v>
       </c>
@@ -8777,7 +8749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44</v>
       </c>
@@ -8848,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>45</v>
       </c>
@@ -8919,7 +8891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>46</v>
       </c>
@@ -8990,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>47</v>
       </c>
@@ -9061,7 +9033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>48</v>
       </c>
@@ -9132,7 +9104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>49</v>
       </c>
@@ -9203,7 +9175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>50</v>
       </c>
@@ -9274,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>51</v>
       </c>
@@ -9345,7 +9317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>52</v>
       </c>
@@ -9416,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>53</v>
       </c>
@@ -9487,7 +9459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>54</v>
       </c>
@@ -9558,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>55</v>
       </c>
@@ -9629,7 +9601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>56</v>
       </c>
@@ -9700,7 +9672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>57</v>
       </c>
@@ -9771,7 +9743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>58</v>
       </c>
@@ -9848,12 +9820,12 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -9867,14 +9839,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="7.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.3828125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.53515625" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="11.3828125" style="6"/>
+    <col min="1" max="1" width="2.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8">
         <v>1</v>
       </c>
@@ -9882,7 +9854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>2</v>
       </c>
@@ -9890,7 +9862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30.9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -9898,7 +9870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="41.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -9906,7 +9878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -9914,7 +9886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>6</v>
       </c>
@@ -9922,7 +9894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>7</v>
       </c>
@@ -9930,7 +9902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>8</v>
       </c>
@@ -9938,7 +9910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -9946,7 +9918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -9954,7 +9926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -9962,7 +9934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -9970,7 +9942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -9978,7 +9950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>14</v>
       </c>
@@ -9986,7 +9958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>15</v>
       </c>
